--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OJA010\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6116D-A15E-4D44-B199-4D81494DE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DF90E6-503C-4FC4-B1D5-23EDBC1BFE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="episodes" sheetId="1" r:id="rId1"/>
@@ -1495,14 +1495,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1841,16 +1839,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.75" customWidth="1"/>
-    <col min="2" max="2" width="64.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="79.75" customWidth="1"/>
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="50.875" customWidth="1"/>
     <col min="7" max="7" width="21.25" customWidth="1"/>
@@ -1863,14 +1861,12 @@
       <c r="A1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="5"/>
       <c r="F1" s="2" t="s">
         <v>464</v>
       </c>
@@ -1891,19 +1887,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" t="str">
         <f>_xlfn.CONCAT(A2,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/11845039-tsunami-s-op-mars.mp3</v>
       </c>
-      <c r="C2" s="7" t="str">
+      <c r="C2" s="5" t="str">
         <f>HYPERLINK(B2,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" t="str">
         <f>_xlfn.CONCAT(B2,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/11845039-tsunami-s-op-mars.mp3?download=true</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="5" t="str">
         <f>HYPERLINK(D2,"Klik")</f>
         <v>Klik</v>
       </c>
@@ -1927,19 +1923,19 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT(A3,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/11873567-de-z-parameter.mp3</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" si="1">HYPERLINK(B3,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="2">_xlfn.CONCAT(B3,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/11873567-de-z-parameter.mp3?download=true</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E66" si="3">HYPERLINK(D3,"Klik")</f>
         <v>Klik</v>
       </c>
@@ -1963,19 +1959,19 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/11907471-de-laatste-vraag.mp3</v>
       </c>
-      <c r="C4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D4" s="6" t="str">
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/11907471-de-laatste-vraag.mp3?download=true</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -1999,19 +1995,19 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/11929887-koffie.mp3</v>
       </c>
-      <c r="C5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D5" s="6" t="str">
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/11929887-koffie.mp3?download=true</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2035,19 +2031,19 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/11971043-het-centrum-van-onze-melkweg.mp3</v>
       </c>
-      <c r="C6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D6" s="6" t="str">
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/11971043-het-centrum-van-onze-melkweg.mp3?download=true</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2071,19 +2067,19 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12018672-de-dark-doodad-nevel.mp3</v>
       </c>
-      <c r="C7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D7" s="6" t="str">
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12018672-de-dark-doodad-nevel.mp3?download=true</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2107,19 +2103,19 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12065265-het-raadsel-van-het-peekaboo-sterrenstelsel.mp3</v>
       </c>
-      <c r="C8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D8" s="6" t="str">
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12065265-het-raadsel-van-het-peekaboo-sterrenstelsel.mp3?download=true</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2143,19 +2139,19 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12111366-kunstmatige-zwaartekracht.mp3</v>
       </c>
-      <c r="C9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D9" s="6" t="str">
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12111366-kunstmatige-zwaartekracht.mp3?download=true</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2179,19 +2175,19 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12154650-stof.mp3</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D10" s="6" t="str">
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12154650-stof.mp3?download=true</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2215,19 +2211,19 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12205179-exoplaneten-en-de-jwst.mp3</v>
       </c>
-      <c r="C11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D11" s="6" t="str">
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12205179-exoplaneten-en-de-jwst.mp3?download=true</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2251,19 +2247,19 @@
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12248886-moonlight.mp3</v>
       </c>
-      <c r="C12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D12" s="6" t="str">
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12248886-moonlight.mp3?download=true</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2287,19 +2283,19 @@
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12298379-grote-vragen-een-interview-met-amito-haarhuis.mp3</v>
       </c>
-      <c r="C13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D13" s="6" t="str">
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12298379-grote-vragen-een-interview-met-amito-haarhuis.mp3?download=true</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2323,19 +2319,19 @@
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12348099-de-el-ali-meteoriet.mp3</v>
       </c>
-      <c r="C14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D14" s="6" t="str">
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12348099-de-el-ali-meteoriet.mp3?download=true</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2359,19 +2355,19 @@
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12392457-ai-en-chat-gpt-in-de-sterrenkunde.mp3</v>
       </c>
-      <c r="C15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D15" s="6" t="str">
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12392457-ai-en-chat-gpt-in-de-sterrenkunde.mp3?download=true</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2395,19 +2391,19 @@
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12440956-tidal-disruption-events.mp3</v>
       </c>
-      <c r="C16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D16" s="6" t="str">
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12440956-tidal-disruption-events.mp3?download=true</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2431,19 +2427,19 @@
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12489600-een-meditatie-rond-een-witte-dwergster.mp3</v>
       </c>
-      <c r="C17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D17" s="6" t="str">
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12489600-een-meditatie-rond-een-witte-dwergster.mp3?download=true</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2467,19 +2463,19 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12533245-water.mp3</v>
       </c>
-      <c r="C18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D18" s="6" t="str">
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12533245-water.mp3?download=true</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2503,19 +2499,19 @@
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12570834-uracil.mp3</v>
       </c>
-      <c r="C19" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D19" s="6" t="str">
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12570834-uracil.mp3?download=true</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2539,19 +2535,19 @@
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12630631-een-streep-in-het-heelal.mp3</v>
       </c>
-      <c r="C20" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D20" s="6" t="str">
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D20" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12630631-een-streep-in-het-heelal.mp3?download=true</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2575,19 +2571,19 @@
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12677047-eddington-s-limiet.mp3</v>
       </c>
-      <c r="C21" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D21" s="6" t="str">
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12677047-eddington-s-limiet.mp3?download=true</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2611,19 +2607,19 @@
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12726410-de-zoektocht-naar-donkere-energie.mp3</v>
       </c>
-      <c r="C22" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D22" s="6" t="str">
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D22" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12726410-de-zoektocht-naar-donkere-energie.mp3?download=true</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2647,19 +2643,19 @@
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12771066-einstein-ringen-en-donkere-materie.mp3</v>
       </c>
-      <c r="C23" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D23" s="6" t="str">
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D23" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12771066-einstein-ringen-en-donkere-materie.mp3?download=true</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2683,19 +2679,19 @@
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12814479-lusee-en-radio-astronomie-vanaf-de-achterzijde-van-de-maan.mp3</v>
       </c>
-      <c r="C24" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D24" s="6" t="str">
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12814479-lusee-en-radio-astronomie-vanaf-de-achterzijde-van-de-maan.mp3?download=true</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2719,19 +2715,19 @@
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12850039-eels-en-enceladus.mp3</v>
       </c>
-      <c r="C25" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D25" s="6" t="str">
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12850039-eels-en-enceladus.mp3?download=true</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2755,19 +2751,19 @@
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12898839-infrasone-verschijnselen-in-de-stratosfeer.mp3</v>
       </c>
-      <c r="C26" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D26" s="6" t="str">
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12898839-infrasone-verschijnselen-in-de-stratosfeer.mp3?download=true</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2791,19 +2787,19 @@
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12948347-bewustzijn.mp3</v>
       </c>
-      <c r="C27" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D27" s="6" t="str">
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D27" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12948347-bewustzijn.mp3?download=true</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2827,19 +2823,19 @@
       <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="6" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/12990488-filamenten-in-het-centrum-van-onze-melkweg.mp3</v>
       </c>
-      <c r="C28" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D28" s="6" t="str">
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D28" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/12990488-filamenten-in-het-centrum-van-onze-melkweg.mp3?download=true</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2863,19 +2859,19 @@
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13033409-teveel-te-vroeg.mp3</v>
       </c>
-      <c r="C29" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D29" s="6" t="str">
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D29" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13033409-teveel-te-vroeg.mp3?download=true</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2899,19 +2895,19 @@
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13076453-witte-dwergsterren-die-door-onze-melkweg-sjezen.mp3</v>
       </c>
-      <c r="C30" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D30" s="6" t="str">
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D30" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13076453-witte-dwergsterren-die-door-onze-melkweg-sjezen.mp3?download=true</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2935,19 +2931,19 @@
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13123205-echo-echo-echo.mp3</v>
       </c>
-      <c r="C31" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D31" s="6" t="str">
+      <c r="C31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D31" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13123205-echo-echo-echo.mp3?download=true</v>
       </c>
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -2971,19 +2967,19 @@
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13161869-boltzmann-brains-en-last-thursdayism.mp3</v>
       </c>
-      <c r="C32" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D32" s="6" t="str">
+      <c r="C32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D32" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13161869-boltzmann-brains-en-last-thursdayism.mp3?download=true</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3007,19 +3003,19 @@
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13205557-starlink-satellieten-die-radio-astronomie-verpesten.mp3</v>
       </c>
-      <c r="C33" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D33" s="6" t="str">
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D33" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13205557-starlink-satellieten-die-radio-astronomie-verpesten.mp3?download=true</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3043,19 +3039,19 @@
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3</v>
       </c>
-      <c r="C34" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D34" s="6" t="str">
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D34" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3?download=true</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3079,19 +3075,19 @@
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3</v>
       </c>
-      <c r="C35" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D35" s="6" t="str">
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D35" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3?download=true</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3115,19 +3111,19 @@
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3</v>
       </c>
-      <c r="C36" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D36" s="6" t="str">
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D36" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3?download=true</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3151,19 +3147,19 @@
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3</v>
       </c>
-      <c r="C37" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D37" s="6" t="str">
+      <c r="C37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D37" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3?download=true</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3187,19 +3183,19 @@
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3</v>
       </c>
-      <c r="C38" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D38" s="6" t="str">
+      <c r="C38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D38" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3?download=true</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3223,19 +3219,19 @@
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3</v>
       </c>
-      <c r="C39" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D39" s="6" t="str">
+      <c r="C39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D39" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3?download=true</v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3259,19 +3255,19 @@
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3</v>
       </c>
-      <c r="C40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D40" s="6" t="str">
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D40" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3?download=true</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3295,19 +3291,19 @@
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3</v>
       </c>
-      <c r="C41" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D41" s="6" t="str">
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D41" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3?download=true</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3331,19 +3327,19 @@
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3</v>
       </c>
-      <c r="C42" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D42" s="6" t="str">
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3?download=true</v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3367,19 +3363,19 @@
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3</v>
       </c>
-      <c r="C43" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D43" s="6" t="str">
+      <c r="C43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D43" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3?download=true</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3403,19 +3399,19 @@
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3</v>
       </c>
-      <c r="C44" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D44" s="6" t="str">
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D44" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3?download=true</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3439,19 +3435,19 @@
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3</v>
       </c>
-      <c r="C45" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D45" s="6" t="str">
+      <c r="C45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D45" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3?download=true</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3475,19 +3471,19 @@
       <c r="A46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3</v>
       </c>
-      <c r="C46" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D46" s="6" t="str">
+      <c r="C46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D46" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3?download=true</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3511,19 +3507,19 @@
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3</v>
       </c>
-      <c r="C47" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D47" s="6" t="str">
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D47" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3?download=true</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3547,19 +3543,19 @@
       <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="6" t="str">
+      <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3</v>
       </c>
-      <c r="C48" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D48" s="6" t="str">
+      <c r="C48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3?download=true</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3583,19 +3579,19 @@
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3</v>
       </c>
-      <c r="C49" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D49" s="6" t="str">
+      <c r="C49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3?download=true</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3619,19 +3615,19 @@
       <c r="A50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="6" t="str">
+      <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3</v>
       </c>
-      <c r="C50" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D50" s="6" t="str">
+      <c r="C50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D50" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3?download=true</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3655,19 +3651,19 @@
       <c r="A51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3</v>
       </c>
-      <c r="C51" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D51" s="6" t="str">
+      <c r="C51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D51" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3?download=true</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3691,19 +3687,19 @@
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3</v>
       </c>
-      <c r="C52" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D52" s="6" t="str">
+      <c r="C52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D52" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3?download=true</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3727,19 +3723,19 @@
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="6" t="str">
+      <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3</v>
       </c>
-      <c r="C53" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D53" s="6" t="str">
+      <c r="C53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D53" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3?download=true</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3763,19 +3759,19 @@
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="6" t="str">
+      <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3</v>
       </c>
-      <c r="C54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D54" s="6" t="str">
+      <c r="C54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3?download=true</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3799,19 +3795,19 @@
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="6" t="str">
+      <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3</v>
       </c>
-      <c r="C55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D55" s="6" t="str">
+      <c r="C55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D55" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3?download=true</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3835,19 +3831,19 @@
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="6" t="str">
+      <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3</v>
       </c>
-      <c r="C56" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D56" s="6" t="str">
+      <c r="C56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D56" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3?download=true</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3871,19 +3867,19 @@
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="6" t="str">
+      <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3</v>
       </c>
-      <c r="C57" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D57" s="6" t="str">
+      <c r="C57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D57" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3?download=true</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3907,19 +3903,19 @@
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="6" t="str">
+      <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3</v>
       </c>
-      <c r="C58" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D58" s="6" t="str">
+      <c r="C58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D58" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3?download=true</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3943,19 +3939,19 @@
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="6" t="str">
+      <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3</v>
       </c>
-      <c r="C59" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D59" s="6" t="str">
+      <c r="C59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D59" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3?download=true</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -3979,19 +3975,19 @@
       <c r="A60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="6" t="str">
+      <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3</v>
       </c>
-      <c r="C60" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D60" s="6" t="str">
+      <c r="C60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D60" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3?download=true</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4015,19 +4011,19 @@
       <c r="A61" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="6" t="str">
+      <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3</v>
       </c>
-      <c r="C61" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D61" s="6" t="str">
+      <c r="C61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D61" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3?download=true</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4051,19 +4047,19 @@
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="6" t="str">
+      <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3</v>
       </c>
-      <c r="C62" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D62" s="6" t="str">
+      <c r="C62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D62" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3?download=true</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4087,19 +4083,19 @@
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="6" t="str">
+      <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3</v>
       </c>
-      <c r="C63" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D63" s="6" t="str">
+      <c r="C63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D63" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3?download=true</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4123,19 +4119,19 @@
       <c r="A64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="6" t="str">
+      <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3</v>
       </c>
-      <c r="C64" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D64" s="6" t="str">
+      <c r="C64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D64" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3?download=true</v>
       </c>
-      <c r="E64" s="7" t="str">
+      <c r="E64" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4159,19 +4155,19 @@
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="6" t="str">
+      <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3</v>
       </c>
-      <c r="C65" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D65" s="6" t="str">
+      <c r="C65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D65" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3?download=true</v>
       </c>
-      <c r="E65" s="7" t="str">
+      <c r="E65" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4195,19 +4191,19 @@
       <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="6" t="str">
+      <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3</v>
       </c>
-      <c r="C66" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Klik</v>
-      </c>
-      <c r="D66" s="6" t="str">
+      <c r="C66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Klik</v>
+      </c>
+      <c r="D66" t="str">
         <f t="shared" si="2"/>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3?download=true</v>
       </c>
-      <c r="E66" s="7" t="str">
+      <c r="E66" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Klik</v>
       </c>
@@ -4231,19 +4227,19 @@
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" t="str">
         <f t="shared" ref="B67:B93" si="4">_xlfn.CONCAT(A67,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3</v>
       </c>
-      <c r="C67" s="7" t="str">
+      <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C93" si="5">HYPERLINK(B67,"Klik")</f>
         <v>Klik</v>
       </c>
-      <c r="D67" s="6" t="str">
+      <c r="D67" t="str">
         <f t="shared" ref="D67:D93" si="6">_xlfn.CONCAT(B67,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3?download=true</v>
       </c>
-      <c r="E67" s="7" t="str">
+      <c r="E67" s="5" t="str">
         <f t="shared" ref="E67:E93" si="7">HYPERLINK(D67,"Klik")</f>
         <v>Klik</v>
       </c>
@@ -4267,19 +4263,19 @@
       <c r="A68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3</v>
       </c>
-      <c r="C68" s="7" t="str">
+      <c r="C68" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D68" s="6" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3?download=true</v>
       </c>
-      <c r="E68" s="7" t="str">
+      <c r="E68" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4303,19 +4299,19 @@
       <c r="A69" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3</v>
       </c>
-      <c r="C69" s="7" t="str">
+      <c r="C69" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D69" s="6" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3?download=true</v>
       </c>
-      <c r="E69" s="7" t="str">
+      <c r="E69" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4339,19 +4335,19 @@
       <c r="A70" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3</v>
       </c>
-      <c r="C70" s="7" t="str">
+      <c r="C70" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D70" s="6" t="str">
+      <c r="D70" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3?download=true</v>
       </c>
-      <c r="E70" s="7" t="str">
+      <c r="E70" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4375,19 +4371,19 @@
       <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3</v>
       </c>
-      <c r="C71" s="7" t="str">
+      <c r="C71" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D71" s="6" t="str">
+      <c r="D71" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3?download=true</v>
       </c>
-      <c r="E71" s="7" t="str">
+      <c r="E71" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4411,19 +4407,19 @@
       <c r="A72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3</v>
       </c>
-      <c r="C72" s="7" t="str">
+      <c r="C72" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D72" s="6" t="str">
+      <c r="D72" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3?download=true</v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E72" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4447,19 +4443,19 @@
       <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="6" t="str">
+      <c r="B73" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3</v>
       </c>
-      <c r="C73" s="7" t="str">
+      <c r="C73" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D73" s="6" t="str">
+      <c r="D73" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3?download=true</v>
       </c>
-      <c r="E73" s="7" t="str">
+      <c r="E73" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4483,19 +4479,19 @@
       <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="6" t="str">
+      <c r="B74" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3</v>
       </c>
-      <c r="C74" s="7" t="str">
+      <c r="C74" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D74" s="6" t="str">
+      <c r="D74" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3?download=true</v>
       </c>
-      <c r="E74" s="7" t="str">
+      <c r="E74" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4519,19 +4515,19 @@
       <c r="A75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="6" t="str">
+      <c r="B75" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3</v>
       </c>
-      <c r="C75" s="7" t="str">
+      <c r="C75" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D75" s="6" t="str">
+      <c r="D75" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3?download=true</v>
       </c>
-      <c r="E75" s="7" t="str">
+      <c r="E75" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4555,19 +4551,19 @@
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3</v>
       </c>
-      <c r="C76" s="7" t="str">
+      <c r="C76" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D76" s="6" t="str">
+      <c r="D76" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3?download=true</v>
       </c>
-      <c r="E76" s="7" t="str">
+      <c r="E76" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4591,19 +4587,19 @@
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3</v>
       </c>
-      <c r="C77" s="7" t="str">
+      <c r="C77" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D77" s="6" t="str">
+      <c r="D77" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3?download=true</v>
       </c>
-      <c r="E77" s="7" t="str">
+      <c r="E77" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4627,19 +4623,19 @@
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="6" t="str">
+      <c r="B78" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3</v>
       </c>
-      <c r="C78" s="7" t="str">
+      <c r="C78" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D78" s="6" t="str">
+      <c r="D78" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3?download=true</v>
       </c>
-      <c r="E78" s="7" t="str">
+      <c r="E78" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4663,19 +4659,19 @@
       <c r="A79" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="6" t="str">
+      <c r="B79" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3</v>
       </c>
-      <c r="C79" s="7" t="str">
+      <c r="C79" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D79" s="6" t="str">
+      <c r="D79" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3?download=true</v>
       </c>
-      <c r="E79" s="7" t="str">
+      <c r="E79" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4699,19 +4695,19 @@
       <c r="A80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="6" t="str">
+      <c r="B80" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3</v>
       </c>
-      <c r="C80" s="7" t="str">
+      <c r="C80" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D80" s="6" t="str">
+      <c r="D80" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3?download=true</v>
       </c>
-      <c r="E80" s="7" t="str">
+      <c r="E80" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4735,19 +4731,19 @@
       <c r="A81" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="6" t="str">
+      <c r="B81" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3</v>
       </c>
-      <c r="C81" s="7" t="str">
+      <c r="C81" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D81" s="6" t="str">
+      <c r="D81" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3?download=true</v>
       </c>
-      <c r="E81" s="7" t="str">
+      <c r="E81" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4771,19 +4767,19 @@
       <c r="A82" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="6" t="str">
+      <c r="B82" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3</v>
       </c>
-      <c r="C82" s="7" t="str">
+      <c r="C82" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D82" s="6" t="str">
+      <c r="D82" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3?download=true</v>
       </c>
-      <c r="E82" s="7" t="str">
+      <c r="E82" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4807,19 +4803,19 @@
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="6" t="str">
+      <c r="B83" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3</v>
       </c>
-      <c r="C83" s="7" t="str">
+      <c r="C83" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D83" s="6" t="str">
+      <c r="D83" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3?download=true</v>
       </c>
-      <c r="E83" s="7" t="str">
+      <c r="E83" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4843,19 +4839,19 @@
       <c r="A84" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="6" t="str">
+      <c r="B84" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3</v>
       </c>
-      <c r="C84" s="7" t="str">
+      <c r="C84" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D84" s="6" t="str">
+      <c r="D84" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3?download=true</v>
       </c>
-      <c r="E84" s="7" t="str">
+      <c r="E84" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4879,19 +4875,19 @@
       <c r="A85" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="6" t="str">
+      <c r="B85" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3</v>
       </c>
-      <c r="C85" s="7" t="str">
+      <c r="C85" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D85" s="6" t="str">
+      <c r="D85" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3?download=true</v>
       </c>
-      <c r="E85" s="7" t="str">
+      <c r="E85" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4915,19 +4911,19 @@
       <c r="A86" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="6" t="str">
+      <c r="B86" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3</v>
       </c>
-      <c r="C86" s="7" t="str">
+      <c r="C86" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D86" s="6" t="str">
+      <c r="D86" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3?download=true</v>
       </c>
-      <c r="E86" s="7" t="str">
+      <c r="E86" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4951,19 +4947,19 @@
       <c r="A87" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="6" t="str">
+      <c r="B87" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3</v>
       </c>
-      <c r="C87" s="7" t="str">
+      <c r="C87" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D87" s="6" t="str">
+      <c r="D87" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3?download=true</v>
       </c>
-      <c r="E87" s="7" t="str">
+      <c r="E87" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -4987,19 +4983,19 @@
       <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="6" t="str">
+      <c r="B88" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3</v>
       </c>
-      <c r="C88" s="7" t="str">
+      <c r="C88" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D88" s="6" t="str">
+      <c r="D88" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3?download=true</v>
       </c>
-      <c r="E88" s="7" t="str">
+      <c r="E88" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -5023,19 +5019,19 @@
       <c r="A89" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="6" t="str">
+      <c r="B89" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3</v>
       </c>
-      <c r="C89" s="7" t="str">
+      <c r="C89" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D89" s="6" t="str">
+      <c r="D89" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3?download=true</v>
       </c>
-      <c r="E89" s="7" t="str">
+      <c r="E89" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -5059,19 +5055,19 @@
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="6" t="str">
+      <c r="B90" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3</v>
       </c>
-      <c r="C90" s="7" t="str">
+      <c r="C90" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D90" s="6" t="str">
+      <c r="D90" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3?download=true</v>
       </c>
-      <c r="E90" s="7" t="str">
+      <c r="E90" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -5095,19 +5091,19 @@
       <c r="A91" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="6" t="str">
+      <c r="B91" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3</v>
       </c>
-      <c r="C91" s="7" t="str">
+      <c r="C91" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D91" s="6" t="str">
+      <c r="D91" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3?download=true</v>
       </c>
-      <c r="E91" s="7" t="str">
+      <c r="E91" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -5131,19 +5127,19 @@
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="6" t="str">
+      <c r="B92" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3</v>
       </c>
-      <c r="C92" s="7" t="str">
+      <c r="C92" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D92" s="6" t="str">
+      <c r="D92" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3?download=true</v>
       </c>
-      <c r="E92" s="7" t="str">
+      <c r="E92" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
@@ -5167,19 +5163,19 @@
       <c r="A93" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="6" t="str">
+      <c r="B93" t="str">
         <f t="shared" si="4"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3</v>
       </c>
-      <c r="C93" s="7" t="str">
+      <c r="C93" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Klik</v>
       </c>
-      <c r="D93" s="6" t="str">
+      <c r="D93" t="str">
         <f t="shared" si="6"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3?download=true</v>
       </c>
-      <c r="E93" s="7" t="str">
+      <c r="E93" s="5" t="str">
         <f t="shared" si="7"/>
         <v>Klik</v>
       </c>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041F9C6-2404-4427-93AB-0755C11C8424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDC6D21-AD56-4987-92CD-A48314FA7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F8E66-5C07-400F-882E-DD64CC21716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44DEF5D-B962-49DF-B8E7-27563D9C190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="989">
   <si>
     <t>episode</t>
   </si>
@@ -3194,7 +3194,280 @@
     <t>WikiCommonsFileTilte</t>
   </si>
   <si>
-    <t>File:Tsunami's op Mars - Zimmerman en Space - S01E01-11845039.ogg</t>
+    <t>File:Tsunami's_op_Mars_-_Zimmerman_en_Space_-_S01E01_-_2022-12-09_-_11845039.ogg</t>
+  </si>
+  <si>
+    <t>File:De_Z_parameter_-_Zimmerman_en_Space_-_S01E02_-_2022-12-14_-_11873567.ogg</t>
+  </si>
+  <si>
+    <t>File:De_laatste_vraag_-_Zimmerman_en_Space_-_S01E03_-_2022-12-20_-_11907471.ogg</t>
+  </si>
+  <si>
+    <t>File:Koffie_-_Zimmerman_en_Space_-_S01E04_-_2022-12-27_-_11929887.ogg</t>
+  </si>
+  <si>
+    <t>File:Het_centrum_van_onze_Melkweg_-_Zimmerman_en_Space_-_S01E05_-_2023-01-03_-_11971043.ogg</t>
+  </si>
+  <si>
+    <t>File:De_Dark_Doodad_nevel_-_Zimmerman_en_Space_-_S01E06_-_2023-01-10_-_12018672.ogg</t>
+  </si>
+  <si>
+    <t>File:Het_raadsel_van_het_Peekaboo_sterrenstelsel_-_Zimmerman_en_Space_-_S01E07_-_2023-01-18_-_12065265.ogg</t>
+  </si>
+  <si>
+    <t>File:Kunstmatige_zwaartekracht_-_Zimmerman_en_Space_-_S01E08_-_2023-01-24_-_12111366.ogg</t>
+  </si>
+  <si>
+    <t>File:Stof_-_Zimmerman_en_Space_-_S01E09_-_2023-01-31_-_12154650.ogg</t>
+  </si>
+  <si>
+    <t>File:Exoplaneten_en_de_JWST_-_Zimmerman_en_Space_-_S01E10_-_2023-02-07_-_12205179.ogg</t>
+  </si>
+  <si>
+    <t>File:Moonlight_-_Zimmerman_en_Space_-_S01E11_-_2023-02-14_-_12248886.ogg</t>
+  </si>
+  <si>
+    <t>File:Grote_vragen_-_een_interview_met_Amito_Haarhuis_-_Zimmerman_en_Space_-_S01E12_-_2023-02-22_-_12298379.ogg</t>
+  </si>
+  <si>
+    <t>File:De_El_Ali_meteoriet_-_Zimmerman_en_Space_-_S01E13_-_2023-02-28_-_12348099.ogg</t>
+  </si>
+  <si>
+    <t>File:AI_en_Chat_GPT_in_de_sterrenkunde_-_Zimmerman_en_Space_-_S01E14_-_2023-03-07_-_12392457.ogg</t>
+  </si>
+  <si>
+    <t>File:Tidal_Disruption_Events_-_Zimmerman_en_Space_-_S01E15_-_2023-03-14_-_12440956.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_meditatie_rond_een_witte_dwergster_-_Zimmerman_en_Space_-_S01E16_-_2023-03-21_-_12489600.ogg</t>
+  </si>
+  <si>
+    <t>File:Water_-_Zimmerman_en_Space_-_S01E17_-_2023-03-28_-_12533245.ogg</t>
+  </si>
+  <si>
+    <t>File:Uracil_-_Zimmerman_en_Space_-_S01E18_-_2023-04-04_-_12570834.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_streep_in_het_heelal_-_Zimmerman_en_Space_-_S01E19_-_2023-04-11_-_12630631.ogg</t>
+  </si>
+  <si>
+    <t>File:Eddington's_limiet_-_Zimmerman_en_Space_-_S01E20_-_2023-04-18_-_12677047.ogg</t>
+  </si>
+  <si>
+    <t>File:De_zoektocht_naar_donkere_energie_-_Zimmerman_en_Space_-_S01E21_-_2023-04-26_-_12726410.ogg</t>
+  </si>
+  <si>
+    <t>File:Einstein_ringen_en_donkere_materie_-_Zimmerman_en_Space_-_S01E22_-_2023-05-02_-_12771066.ogg</t>
+  </si>
+  <si>
+    <t>File:LuSEE_en_radio_astronomie_vanaf_de_achterzijde_van_de_maan_-_Zimmerman_en_Space_-_S01E23_-_2023-05-09_-_12814479.ogg</t>
+  </si>
+  <si>
+    <t>File:EELS_en_Enceladus_-_Zimmerman_en_Space_-_S01E24_-_2023-05-15_-_12850039.ogg</t>
+  </si>
+  <si>
+    <t>File:Infrasone_verschijnselen_in_de_stratosfeer_-_Zimmerman_en_Space_-_S01E25_-_2023-05-23_-_12898839.ogg</t>
+  </si>
+  <si>
+    <t>File:Bewustzijn_-_Zimmerman_en_Space_-_S01E26_-_2023-05-30_-_12948347.ogg</t>
+  </si>
+  <si>
+    <t>File:Filamenten_in_het_centrum_van_onze_melkweg_-_Zimmerman_en_Space_-_S01E27_-_2023-06-06_-_12990488.ogg</t>
+  </si>
+  <si>
+    <t>File:Teveel_te_vroeg_-_Zimmerman_en_Space_-_S01E28_-_2023-06-13_-_13033409.ogg</t>
+  </si>
+  <si>
+    <t>File:Witte_dwergsterren_die_door_onze_melkweg_sjezen_-_Zimmerman_en_Space_-_S01E29_-_2023-06-20_-_13076453.ogg</t>
+  </si>
+  <si>
+    <t>File:Echo_echo_echo_-_Zimmerman_en_Space_-_S01E30_-_2023-06-28_-_13123205.ogg</t>
+  </si>
+  <si>
+    <t>File:Boltzmann_brains_en_Last_Thursdayism_-_Zimmerman_en_Space_-_S01E31_-_2023-07-05_-_13161869.ogg</t>
+  </si>
+  <si>
+    <t>File:Starlink_satellieten_die_radio-astronomie_verpesten_-_Zimmerman_en_Space_-_S01E32_-_2023-07-12_-_13205557.ogg</t>
+  </si>
+  <si>
+    <t>File:Donkere_sterren_-_Zimmerman_en_Space_-_S01E33_-_2023-07-18_-_13246928.ogg</t>
+  </si>
+  <si>
+    <t>File:Geen_donkere_materie?_-_Zimmerman_en_Space_-_S01E34_-_2023-07-25_-_13286228.ogg</t>
+  </si>
+  <si>
+    <t>File:In_gesprek_met_André_Kuipers,_Marjolijn_van_Heemstra_en_Lemke_Kraan_-_Zimmerman_en_Space_-_S01E35_-_2023-08-01_-_13332067.ogg</t>
+  </si>
+  <si>
+    <t>File:De_donkere_sector_-_Zimmerman_en_Space_-_S01E36_-_2023-08-08_-_13371426.ogg</t>
+  </si>
+  <si>
+    <t>File:De_kortere_Mars-dag_-_Zimmerman_en_Space_-_S01E37_-_2023-08-16_-_13413025.ogg</t>
+  </si>
+  <si>
+    <t>File:Daniel_Apai_en_de_fresnel-lens_-_Zimmerman_en_Space_-_S01E38_-_2023-08-22_-_13453052.ogg</t>
+  </si>
+  <si>
+    <t>File:Donkere_vlekken_-_Zimmerman_en_Space_-_S01E39_-_2023-08-29_-_13490782.ogg</t>
+  </si>
+  <si>
+    <t>File:Pulsars_snurken_niet_-_Zimmerman_en_Space_-_S01E40_-_2023-09-05_-_13532045.ogg</t>
+  </si>
+  <si>
+    <t>File:Mercurius'_raadsels_-_Zimmerman_en_Space_-_S01E41_-_2023-09-11_-_13572418.ogg</t>
+  </si>
+  <si>
+    <t>File:Buitenaards_leven_op_K2-18b_?_-_Zimmerman_en_Space_-_S01E42_-_2023-09-19_-_13618776.ogg</t>
+  </si>
+  <si>
+    <t>File:Verwondering_en_de_Trifid_nevel_-_Zimmerman_en_Space_-_S01E43_-_2023-09-26_-_13662807.ogg</t>
+  </si>
+  <si>
+    <t>File:Alex_Scholten_en_de_meteoriet_van_Diepenveen_-_Zimmerman_en_Space_-_S01E44_-_2023-10-03_-_13705806.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_nauwkeurig_afgeregeld_heelal_-_Zimmerman_en_Space_-_S01E45_-_2023-10-10_-_13749465.ogg</t>
+  </si>
+  <si>
+    <t>File:Buitenaardse_ruimteschepen_op_de_foto?_-_Zimmerman_en_Space_-_S01E46_-_2023-10-17_-_13796988.ogg</t>
+  </si>
+  <si>
+    <t>File:Alweer_Fast_Radio_Bursts_-_Zimmerman_en_Space_-_S01E47_-_2023-10-24_-_13839425.ogg</t>
+  </si>
+  <si>
+    <t>File:Fotosynthese_en_de_zoektocht_naar_buitenaards_leven_-_Zimmerman_en_Space_-_S01E48_-_2023-10-31_-_13880930.ogg</t>
+  </si>
+  <si>
+    <t>File:Witte_gaten_en_negatieve_massa_-_Zimmerman_en_Space_-_S01E49_-_2023-11-06_-_13913914.ogg</t>
+  </si>
+  <si>
+    <t>File:Tijd_kristallen_-_Zimmerman_en_Space_-_S01E50_-_2023-11-13_-_13960359.ogg</t>
+  </si>
+  <si>
+    <t>File:De_duivel_komeet_komt_naar_de_aarde_-_Zimmerman_en_Space_-_S01E51_-_2023-11-21_-_14010139.ogg</t>
+  </si>
+  <si>
+    <t>File:Diepe_inelastische_verstrooiing_-_Zimmerman_en_Space_-_S01E52_-_2023-11-29_-_14052348.ogg</t>
+  </si>
+  <si>
+    <t>File:Overal_velden_-_Zimmerman_en_Space_-_S01E53_-_2023-12-05_-_14094661.ogg</t>
+  </si>
+  <si>
+    <t>File:Koolmonoxide_in_The_Brick_-_Zimmerman_en_Space_-_S01E54_-_2023-12-12_-_14133465.ogg</t>
+  </si>
+  <si>
+    <t>File:Intra_Cluster_Licht_-_Zimmerman_en_Space_-_S01E55_-_2023-12-20_-_14176787.ogg</t>
+  </si>
+  <si>
+    <t>File:Tabby's_ster..._een_kerst_update_-_Zimmerman_en_Space_-_S01E56_-_2023-12-24_-_14197563.ogg</t>
+  </si>
+  <si>
+    <t>File:Kattenfilmpjes_en_lasers_-_Zimmerman_en_Space_-_S01E57_-_2024-01-01_-_14231208.ogg</t>
+  </si>
+  <si>
+    <t>File:EC_002_-_een_vreemde_meteoriet_-_Zimmerman_en_Space_-_S01E58_-_2024-01-09_-_14281426.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_sterrenstelsel_zonder_sterren_-_Zimmerman_en_Space_-_S01E59_-_2024-01-15_-_14311218.ogg</t>
+  </si>
+  <si>
+    <t>File:Project_COSMIC_-_Zimmerman_en_Space_-_S01E60_-_2024-01-23_-_14364552.ogg</t>
+  </si>
+  <si>
+    <t>File:Project_LISA_-_Zimmerman_en_Space_-_S01E61_-_2024-01-30_-_14405344.ogg</t>
+  </si>
+  <si>
+    <t>File:Maanbevingen_-_Zimmerman_en_Space_-_S01E62_-_2024-02-06_-_14453081.ogg</t>
+  </si>
+  <si>
+    <t>File:Ruimtevaart_economie_-_Zimmerman_en_Space_-_S01E63_-_2024-02-13_-_14496419.ogg</t>
+  </si>
+  <si>
+    <t>File:Het_vroege_heelal,_een_minder_geschikte_tijd_om_naar_podcasts_te_luisteren_-_Zimmerman_en_Space_-_S01E64_-_2024-02-20_-_14538270.ogg</t>
+  </si>
+  <si>
+    <t>File:Varda's_W1_ruimtevaartuig_-_Zimmerman_en_Space_-_S01E65_-_2024-02-27_-_14584962.ogg</t>
+  </si>
+  <si>
+    <t>File:U_bevindt_zich_hier_-_Zimmerman_en_Space_-_S01E66_-_2024-03-05_-_14631099.ogg</t>
+  </si>
+  <si>
+    <t>File:Fotografie_buiten_de_aarde_-_Zimmerman_en_Space_-_S01E67_-_2024-03-11_-_14672122.ogg</t>
+  </si>
+  <si>
+    <t>File:Astrofotografie_-_een_interview_met_Arenda_Schuurman_-_Zimmerman_en_Space_-_S01E68_-_2024-03-17_-_14706516.ogg</t>
+  </si>
+  <si>
+    <t>File:Okay,_geen_pulsar,_maar_wat_dan_wel?_-_Zimmerman_en_Space_-_S01E69_-_2024-03-24_-_14756666.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_nieuwe_ster_aan_onze_hemel_-_Zimmerman_en_Space_-_S01E70_-_2024-03-31_-_14801125.ogg</t>
+  </si>
+  <si>
+    <t>File:Het_Thorne-Żytkow_object_en_hoe_zwaar_een_ster_eigenlijk_kan_worden_-_Zimmerman_en_Space_-_S01E71_-_2024-04-08_-_14847646.ogg</t>
+  </si>
+  <si>
+    <t>File:We_leven_in_een_magnetische_tunnel_-_Zimmerman_en_Space_-_S01E72_-_2024-04-16_-_14898036.ogg</t>
+  </si>
+  <si>
+    <t>File:Tijd_voor_wat_geluidsfragmenten_-_Zimmerman_en_Space_-_S01E73_-_2024-04-23_-_14943702.ogg</t>
+  </si>
+  <si>
+    <t>File:Europa_Clipper_en_Voyager_1_(of_andersom)_-_Zimmerman_en_Space_-_S01E74_-_2024-04-28_-_14968945.ogg</t>
+  </si>
+  <si>
+    <t>File:Kortstondige_maan_fenomenen_-_Zimmerman_en_Space_-_S01E75_-_2024-05-05_-_15013251.ogg</t>
+  </si>
+  <si>
+    <t>File:Secundaire_eclips,_secundaire_atmosfeer_-_Zimmerman_en_Space_-_S01E76_-_2024-05-12_-_15054031.ogg</t>
+  </si>
+  <si>
+    <t>File:TOI-1452b,_een_geleide_meditatie_met_Mirthe_en_Hens_-_Zimmerman_en_Space_-_S01E77_-_2024-05-18_-_15091584.ogg</t>
+  </si>
+  <si>
+    <t>File:Amalthea_-_Zimmerman_en_Space_-_S01E78_-_2024-05-27_-_15141653.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_pleidooi_voor_de_verrekijker_-_Zimmerman_en_Space_-_S01E79_-_2024-06-03_-_15182541.ogg</t>
+  </si>
+  <si>
+    <t>File:Europa_Clipper_deel_2_-_Zimmerman_en_Space_-_S01E80_-_2024-06-11_-_15232936.ogg</t>
+  </si>
+  <si>
+    <t>File:Dyson_spheres_-_Zimmerman_en_Space_-_S01E81_-_2024-06-17_-_15262778.ogg</t>
+  </si>
+  <si>
+    <t>File:Een_dubbelster_in_WL20_-_Zimmerman_en_Space_-_S01E82_-_2024-06-24_-_15304478.ogg</t>
+  </si>
+  <si>
+    <t>File:Metrologie_-_Zimmerman_en_Space_-_S01E83_-_2024-07-01_-_15340768.ogg</t>
+  </si>
+  <si>
+    <t>File:Enge_stenen_die_langs_de_aarde_vliegen_-_Zimmerman_en_Space_-_S01E84_-_2024-07-07_-_15374225.ogg</t>
+  </si>
+  <si>
+    <t>File:De_mysterieuze_luchtschepen_van_1896_-_1897_-_Zimmerman_en_Space_-_S01E85_-_2024-07-14_-_15400221.ogg</t>
+  </si>
+  <si>
+    <t>File:Buitenaards_broeikasgas_-_Zimmerman_en_Space_-_S01E86_-_2024-07-21_-_15400251.ogg</t>
+  </si>
+  <si>
+    <t>File:Dr._Heloise_Stevance_-_Zimmerman_en_Space_-_S01E87_-_2024-07-28_-_15400269.ogg</t>
+  </si>
+  <si>
+    <t>File:Extra_manen_en_exomanen_-_Zimmerman_en_Space_-_S01E88_-_2024-08-04_-_15510621.ogg</t>
+  </si>
+  <si>
+    <t>File:Maar_is_het_buitenaards_leven?_-_Zimmerman_en_Space_-_S01E89_-_2024-08-12_-_15568492.ogg</t>
+  </si>
+  <si>
+    <t>File:Het_verstrijken_van_de_tijd_kort_na_de_oerknal_-_Zimmerman_en_Space_-_S01E90_-_2024-08-19_-_15604646.ogg</t>
+  </si>
+  <si>
+    <t>File:De_foton-sfeer_rond_een_zwart_gat_-_Zimmerman_en_Space_-_S01E91_-_2024-08-26_-_15645704.ogg</t>
+  </si>
+  <si>
+    <t>File:Vooruit,_een_hele_aflevering_over_de_Lagrange_punten_-_Zimmerman_en_Space_-_S01E92_-_2024-09-02_-_15681378.ogg</t>
   </si>
 </sst>
 </file>
@@ -3232,7 +3505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3242,12 +3515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3280,7 +3547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3308,12 +3575,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3652,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -3676,7 +3937,7 @@
     <col min="17" max="17" width="12.375" style="3" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="59" style="11" customWidth="1"/>
+    <col min="20" max="20" width="90.25" style="3" customWidth="1"/>
     <col min="21" max="23" width="51" style="5" customWidth="1"/>
     <col min="24" max="24" width="40.5" style="5" customWidth="1"/>
     <col min="25" max="25" width="28" style="5" customWidth="1"/>
@@ -3733,7 +3994,7 @@
       <c r="S1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>896</v>
       </c>
       <c r="U1" s="9" t="s">
@@ -3816,7 +4077,7 @@
       <c r="S2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="3" t="s">
         <v>897</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -3899,6 +4160,9 @@
       <c r="S3" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="T3" s="3" t="s">
+        <v>898</v>
+      </c>
       <c r="U3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3979,6 +4243,9 @@
       <c r="S4" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="T4" s="3" t="s">
+        <v>899</v>
+      </c>
       <c r="U4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4059,6 +4326,9 @@
       <c r="S5" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="T5" s="3" t="s">
+        <v>900</v>
+      </c>
       <c r="U5" s="4" t="s">
         <v>11</v>
       </c>
@@ -4139,6 +4409,9 @@
       <c r="S6" s="1" t="s">
         <v>457</v>
       </c>
+      <c r="T6" s="3" t="s">
+        <v>901</v>
+      </c>
       <c r="U6" s="4" t="s">
         <v>14</v>
       </c>
@@ -4219,6 +4492,9 @@
       <c r="S7" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="T7" s="3" t="s">
+        <v>902</v>
+      </c>
       <c r="U7" s="4" t="s">
         <v>17</v>
       </c>
@@ -4299,6 +4575,9 @@
       <c r="S8" s="1" t="s">
         <v>459</v>
       </c>
+      <c r="T8" s="3" t="s">
+        <v>903</v>
+      </c>
       <c r="U8" s="4" t="s">
         <v>20</v>
       </c>
@@ -4379,6 +4658,9 @@
       <c r="S9" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="T9" s="3" t="s">
+        <v>904</v>
+      </c>
       <c r="U9" s="4" t="s">
         <v>23</v>
       </c>
@@ -4459,6 +4741,9 @@
       <c r="S10" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="T10" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="U10" s="4" t="s">
         <v>26</v>
       </c>
@@ -4539,6 +4824,9 @@
       <c r="S11" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="T11" s="3" t="s">
+        <v>906</v>
+      </c>
       <c r="U11" s="4" t="s">
         <v>29</v>
       </c>
@@ -4619,6 +4907,9 @@
       <c r="S12" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="T12" s="3" t="s">
+        <v>907</v>
+      </c>
       <c r="U12" s="4" t="s">
         <v>32</v>
       </c>
@@ -4699,6 +4990,9 @@
       <c r="S13" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="T13" s="3" t="s">
+        <v>908</v>
+      </c>
       <c r="U13" s="4" t="s">
         <v>35</v>
       </c>
@@ -4779,6 +5073,9 @@
       <c r="S14" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="T14" s="3" t="s">
+        <v>909</v>
+      </c>
       <c r="U14" s="4" t="s">
         <v>38</v>
       </c>
@@ -4859,6 +5156,9 @@
       <c r="S15" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="T15" s="3" t="s">
+        <v>910</v>
+      </c>
       <c r="U15" s="4" t="s">
         <v>41</v>
       </c>
@@ -4939,6 +5239,9 @@
       <c r="S16" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="T16" s="3" t="s">
+        <v>911</v>
+      </c>
       <c r="U16" s="4" t="s">
         <v>44</v>
       </c>
@@ -5019,6 +5322,9 @@
       <c r="S17" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="T17" s="3" t="s">
+        <v>912</v>
+      </c>
       <c r="U17" s="4" t="s">
         <v>47</v>
       </c>
@@ -5099,6 +5405,9 @@
       <c r="S18" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="T18" s="3" t="s">
+        <v>913</v>
+      </c>
       <c r="U18" s="4" t="s">
         <v>50</v>
       </c>
@@ -5179,6 +5488,9 @@
       <c r="S19" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="T19" s="3" t="s">
+        <v>914</v>
+      </c>
       <c r="U19" s="4" t="s">
         <v>53</v>
       </c>
@@ -5259,6 +5571,9 @@
       <c r="S20" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="T20" s="3" t="s">
+        <v>915</v>
+      </c>
       <c r="U20" s="4" t="s">
         <v>56</v>
       </c>
@@ -5339,6 +5654,9 @@
       <c r="S21" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="T21" s="3" t="s">
+        <v>916</v>
+      </c>
       <c r="U21" s="4" t="s">
         <v>59</v>
       </c>
@@ -5419,6 +5737,9 @@
       <c r="S22" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="T22" s="3" t="s">
+        <v>917</v>
+      </c>
       <c r="U22" s="4" t="s">
         <v>62</v>
       </c>
@@ -5499,6 +5820,9 @@
       <c r="S23" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="T23" s="3" t="s">
+        <v>918</v>
+      </c>
       <c r="U23" s="4" t="s">
         <v>65</v>
       </c>
@@ -5579,6 +5903,9 @@
       <c r="S24" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="T24" s="3" t="s">
+        <v>919</v>
+      </c>
       <c r="U24" s="4" t="s">
         <v>68</v>
       </c>
@@ -5659,6 +5986,9 @@
       <c r="S25" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="T25" s="3" t="s">
+        <v>920</v>
+      </c>
       <c r="U25" s="4" t="s">
         <v>71</v>
       </c>
@@ -5739,6 +6069,9 @@
       <c r="S26" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="T26" s="3" t="s">
+        <v>921</v>
+      </c>
       <c r="U26" s="4" t="s">
         <v>74</v>
       </c>
@@ -5819,6 +6152,9 @@
       <c r="S27" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="T27" s="3" t="s">
+        <v>922</v>
+      </c>
       <c r="U27" s="4" t="s">
         <v>77</v>
       </c>
@@ -5899,6 +6235,9 @@
       <c r="S28" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="T28" s="3" t="s">
+        <v>923</v>
+      </c>
       <c r="U28" s="4" t="s">
         <v>80</v>
       </c>
@@ -5979,6 +6318,9 @@
       <c r="S29" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="T29" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="U29" s="4" t="s">
         <v>83</v>
       </c>
@@ -6059,6 +6401,9 @@
       <c r="S30" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="T30" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="U30" s="4" t="s">
         <v>86</v>
       </c>
@@ -6139,6 +6484,9 @@
       <c r="S31" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="T31" s="3" t="s">
+        <v>926</v>
+      </c>
       <c r="U31" s="4" t="s">
         <v>89</v>
       </c>
@@ -6219,6 +6567,9 @@
       <c r="S32" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="T32" s="3" t="s">
+        <v>927</v>
+      </c>
       <c r="U32" s="4" t="s">
         <v>92</v>
       </c>
@@ -6299,6 +6650,9 @@
       <c r="S33" s="1" t="s">
         <v>295</v>
       </c>
+      <c r="T33" s="3" t="s">
+        <v>928</v>
+      </c>
       <c r="U33" s="4" t="s">
         <v>95</v>
       </c>
@@ -6379,6 +6733,9 @@
       <c r="S34" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="T34" s="3" t="s">
+        <v>929</v>
+      </c>
       <c r="U34" s="4" t="s">
         <v>98</v>
       </c>
@@ -6459,6 +6816,9 @@
       <c r="S35" s="1" t="s">
         <v>297</v>
       </c>
+      <c r="T35" s="3" t="s">
+        <v>930</v>
+      </c>
       <c r="U35" s="4" t="s">
         <v>101</v>
       </c>
@@ -6539,6 +6899,9 @@
       <c r="S36" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="T36" s="3" t="s">
+        <v>931</v>
+      </c>
       <c r="U36" s="4" t="s">
         <v>104</v>
       </c>
@@ -6619,6 +6982,9 @@
       <c r="S37" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="T37" s="3" t="s">
+        <v>932</v>
+      </c>
       <c r="U37" s="4" t="s">
         <v>107</v>
       </c>
@@ -6699,6 +7065,9 @@
       <c r="S38" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="T38" s="3" t="s">
+        <v>933</v>
+      </c>
       <c r="U38" s="4" t="s">
         <v>110</v>
       </c>
@@ -6779,6 +7148,9 @@
       <c r="S39" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="T39" s="3" t="s">
+        <v>934</v>
+      </c>
       <c r="U39" s="4" t="s">
         <v>113</v>
       </c>
@@ -6859,6 +7231,9 @@
       <c r="S40" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="T40" s="3" t="s">
+        <v>935</v>
+      </c>
       <c r="U40" s="4" t="s">
         <v>116</v>
       </c>
@@ -6939,6 +7314,9 @@
       <c r="S41" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="T41" s="3" t="s">
+        <v>936</v>
+      </c>
       <c r="U41" s="4" t="s">
         <v>119</v>
       </c>
@@ -7019,6 +7397,9 @@
       <c r="S42" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="T42" s="3" t="s">
+        <v>937</v>
+      </c>
       <c r="U42" s="4" t="s">
         <v>122</v>
       </c>
@@ -7099,6 +7480,9 @@
       <c r="S43" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="T43" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="U43" s="4" t="s">
         <v>125</v>
       </c>
@@ -7179,6 +7563,9 @@
       <c r="S44" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="T44" s="3" t="s">
+        <v>939</v>
+      </c>
       <c r="U44" s="4" t="s">
         <v>128</v>
       </c>
@@ -7259,6 +7646,9 @@
       <c r="S45" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="T45" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="U45" s="4" t="s">
         <v>131</v>
       </c>
@@ -7339,6 +7729,9 @@
       <c r="S46" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="T46" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="U46" s="4" t="s">
         <v>134</v>
       </c>
@@ -7419,6 +7812,9 @@
       <c r="S47" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="T47" s="3" t="s">
+        <v>942</v>
+      </c>
       <c r="U47" s="4" t="s">
         <v>664</v>
       </c>
@@ -7499,6 +7895,9 @@
       <c r="S48" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="T48" s="3" t="s">
+        <v>943</v>
+      </c>
       <c r="U48" s="4" t="s">
         <v>139</v>
       </c>
@@ -7579,6 +7978,9 @@
       <c r="S49" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="T49" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="U49" s="4" t="s">
         <v>142</v>
       </c>
@@ -7659,6 +8061,9 @@
       <c r="S50" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="T50" s="3" t="s">
+        <v>945</v>
+      </c>
       <c r="U50" s="4" t="s">
         <v>145</v>
       </c>
@@ -7739,6 +8144,9 @@
       <c r="S51" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="T51" s="3" t="s">
+        <v>946</v>
+      </c>
       <c r="U51" s="4" t="s">
         <v>662</v>
       </c>
@@ -7819,6 +8227,9 @@
       <c r="S52" s="1" t="s">
         <v>314</v>
       </c>
+      <c r="T52" s="3" t="s">
+        <v>947</v>
+      </c>
       <c r="U52" s="4" t="s">
         <v>150</v>
       </c>
@@ -7899,6 +8310,9 @@
       <c r="S53" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="T53" s="3" t="s">
+        <v>948</v>
+      </c>
       <c r="U53" s="4" t="s">
         <v>153</v>
       </c>
@@ -7979,6 +8393,9 @@
       <c r="S54" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="T54" s="3" t="s">
+        <v>949</v>
+      </c>
       <c r="U54" s="4" t="s">
         <v>156</v>
       </c>
@@ -8059,6 +8476,9 @@
       <c r="S55" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="T55" s="3" t="s">
+        <v>950</v>
+      </c>
       <c r="U55" s="4" t="s">
         <v>159</v>
       </c>
@@ -8139,6 +8559,9 @@
       <c r="S56" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="T56" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="U56" s="4" t="s">
         <v>162</v>
       </c>
@@ -8219,6 +8642,9 @@
       <c r="S57" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="T57" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="U57" s="4" t="s">
         <v>165</v>
       </c>
@@ -8299,6 +8725,9 @@
       <c r="S58" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="T58" s="3" t="s">
+        <v>953</v>
+      </c>
       <c r="U58" s="4" t="s">
         <v>168</v>
       </c>
@@ -8379,6 +8808,9 @@
       <c r="S59" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="T59" s="3" t="s">
+        <v>954</v>
+      </c>
       <c r="U59" s="4" t="s">
         <v>171</v>
       </c>
@@ -8459,6 +8891,9 @@
       <c r="S60" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="T60" s="3" t="s">
+        <v>955</v>
+      </c>
       <c r="U60" s="4" t="s">
         <v>174</v>
       </c>
@@ -8539,6 +8974,9 @@
       <c r="S61" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="T61" s="3" t="s">
+        <v>956</v>
+      </c>
       <c r="U61" s="4" t="s">
         <v>177</v>
       </c>
@@ -8619,6 +9057,9 @@
       <c r="S62" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="T62" s="3" t="s">
+        <v>957</v>
+      </c>
       <c r="U62" s="4" t="s">
         <v>660</v>
       </c>
@@ -8699,6 +9140,9 @@
       <c r="S63" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="T63" s="3" t="s">
+        <v>958</v>
+      </c>
       <c r="U63" s="4" t="s">
         <v>182</v>
       </c>
@@ -8779,6 +9223,9 @@
       <c r="S64" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="T64" s="3" t="s">
+        <v>959</v>
+      </c>
       <c r="U64" s="4" t="s">
         <v>185</v>
       </c>
@@ -8859,6 +9306,9 @@
       <c r="S65" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="T65" s="3" t="s">
+        <v>960</v>
+      </c>
       <c r="U65" s="4" t="s">
         <v>188</v>
       </c>
@@ -8883,7 +9333,7 @@
         <v>190</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" ref="C66:C97" si="12">HYPERLINK(B66,"Klik")</f>
+        <f t="shared" ref="C66:C93" si="12">HYPERLINK(B66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D66" s="3" t="str">
@@ -8891,7 +9341,7 @@
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E97" si="14">HYPERLINK(D66,"Klik")</f>
+        <f t="shared" ref="E66:E93" si="14">HYPERLINK(D66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F66" s="3" t="str">
@@ -8899,7 +9349,7 @@
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3?download=true</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" ref="G66:G97" si="16">HYPERLINK(F66,"Klik")</f>
+        <f t="shared" ref="G66:G93" si="16">HYPERLINK(F66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -8938,6 +9388,9 @@
       </c>
       <c r="S66" s="1" t="s">
         <v>328</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>961</v>
       </c>
       <c r="U66" s="4" t="s">
         <v>191</v>
@@ -9019,6 +9472,9 @@
       <c r="S67" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="T67" s="3" t="s">
+        <v>962</v>
+      </c>
       <c r="U67" s="4" t="s">
         <v>194</v>
       </c>
@@ -9093,6 +9549,9 @@
       <c r="S68" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="T68" s="3" t="s">
+        <v>963</v>
+      </c>
       <c r="U68" s="4" t="s">
         <v>197</v>
       </c>
@@ -9173,6 +9632,9 @@
       <c r="S69" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="T69" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="U69" s="4" t="s">
         <v>200</v>
       </c>
@@ -9253,6 +9715,9 @@
       <c r="S70" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="T70" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="U70" s="4" t="s">
         <v>203</v>
       </c>
@@ -9333,6 +9798,9 @@
       <c r="S71" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="T71" s="3" t="s">
+        <v>966</v>
+      </c>
       <c r="U71" s="4" t="s">
         <v>206</v>
       </c>
@@ -9413,6 +9881,9 @@
       <c r="S72" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="T72" s="3" t="s">
+        <v>967</v>
+      </c>
       <c r="U72" s="4" t="s">
         <v>209</v>
       </c>
@@ -9493,6 +9964,9 @@
       <c r="S73" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="T73" s="3" t="s">
+        <v>968</v>
+      </c>
       <c r="U73" s="4" t="s">
         <v>212</v>
       </c>
@@ -9573,6 +10047,9 @@
       <c r="S74" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="T74" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="U74" s="4" t="s">
         <v>215</v>
       </c>
@@ -9653,6 +10130,9 @@
       <c r="S75" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="T75" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="U75" s="4" t="s">
         <v>218</v>
       </c>
@@ -9733,6 +10213,9 @@
       <c r="S76" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="T76" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="U76" s="4" t="s">
         <v>221</v>
       </c>
@@ -9813,6 +10296,9 @@
       <c r="S77" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="T77" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="U77" s="4" t="s">
         <v>224</v>
       </c>
@@ -9893,6 +10379,9 @@
       <c r="S78" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="T78" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="U78" s="4" t="s">
         <v>227</v>
       </c>
@@ -9973,6 +10462,9 @@
       <c r="S79" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="T79" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="U79" s="4" t="s">
         <v>230</v>
       </c>
@@ -10053,6 +10545,9 @@
       <c r="S80" s="1" t="s">
         <v>342</v>
       </c>
+      <c r="T80" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="U80" s="4" t="s">
         <v>233</v>
       </c>
@@ -10133,6 +10628,9 @@
       <c r="S81" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="T81" s="3" t="s">
+        <v>976</v>
+      </c>
       <c r="U81" s="4" t="s">
         <v>236</v>
       </c>
@@ -10213,6 +10711,9 @@
       <c r="S82" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="T82" s="3" t="s">
+        <v>977</v>
+      </c>
       <c r="U82" s="4" t="s">
         <v>239</v>
       </c>
@@ -10293,6 +10794,9 @@
       <c r="S83" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="T83" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="U83" s="4" t="s">
         <v>242</v>
       </c>
@@ -10373,6 +10877,9 @@
       <c r="S84" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="T84" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="U84" s="4" t="s">
         <v>245</v>
       </c>
@@ -10453,6 +10960,9 @@
       <c r="S85" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="T85" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="U85" s="4" t="s">
         <v>248</v>
       </c>
@@ -10533,6 +11043,9 @@
       <c r="S86" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="T86" s="3" t="s">
+        <v>981</v>
+      </c>
       <c r="U86" s="4" t="s">
         <v>251</v>
       </c>
@@ -10613,6 +11126,9 @@
       <c r="S87" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="T87" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="U87" s="4" t="s">
         <v>254</v>
       </c>
@@ -10693,6 +11209,9 @@
       <c r="S88" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="T88" s="3" t="s">
+        <v>983</v>
+      </c>
       <c r="U88" s="4" t="s">
         <v>257</v>
       </c>
@@ -10773,6 +11292,9 @@
       <c r="S89" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="T89" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="U89" s="4" t="s">
         <v>260</v>
       </c>
@@ -10853,6 +11375,9 @@
       <c r="S90" s="1" t="s">
         <v>352</v>
       </c>
+      <c r="T90" s="3" t="s">
+        <v>985</v>
+      </c>
       <c r="U90" s="4" t="s">
         <v>659</v>
       </c>
@@ -10933,6 +11458,9 @@
       <c r="S91" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="T91" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="U91" s="4" t="s">
         <v>265</v>
       </c>
@@ -11013,6 +11541,9 @@
       <c r="S92" s="1" t="s">
         <v>354</v>
       </c>
+      <c r="T92" s="3" t="s">
+        <v>987</v>
+      </c>
       <c r="U92" s="4" t="s">
         <v>268</v>
       </c>
@@ -11092,6 +11623,9 @@
       </c>
       <c r="S93" s="1" t="s">
         <v>355</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>988</v>
       </c>
       <c r="U93" s="4" t="s">
         <v>271</v>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0124F-9720-4B43-ADE8-EBBE0BF343D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E386A-4C35-468A-96C9-687E108D03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1184">
   <si>
     <t>episode</t>
   </si>
@@ -5897,16 +5897,10 @@
     <t>shownotesblock-linksWikitext</t>
   </si>
   <si>
-    <t>WMC_SC_CaptionNL</t>
-  </si>
-  <si>
-    <t>WMC_SC_CaptionEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsunami's op Mars - Zimmerman en Space - Season 01, Episode 01 - December 09, 2022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsunami's op Mars - Zimmerman en Space - Seizoen 01, Aflevering 01 - 9 december 2022 </t>
+    <t>WMC_SDC_CaptionNL</t>
+  </si>
+  <si>
+    <t>WMC_SDC_CaptionEN</t>
   </si>
 </sst>
 </file>
@@ -6355,8 +6349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6386,8 +6380,9 @@
     <col min="27" max="27" width="28" style="5" customWidth="1"/>
     <col min="28" max="28" width="20.125" style="5" customWidth="1"/>
     <col min="29" max="29" width="16.75" style="5" customWidth="1"/>
-    <col min="30" max="30" width="49.25" style="3" customWidth="1"/>
-    <col min="31" max="133" width="28" style="3" customWidth="1"/>
+    <col min="30" max="30" width="117.375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="76.25" style="3" customWidth="1"/>
+    <col min="32" max="133" width="28" style="3" customWidth="1"/>
     <col min="134" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -6471,10 +6466,10 @@
         <v>1089</v>
       </c>
       <c r="AD1" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>1182</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6485,23 +6480,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>HYPERLINK(B2,"Klik")</f>
+        <f t="shared" ref="C2:C33" si="0">HYPERLINK(B2,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>_xlfn.CONCAT(B2,".mp3")</f>
+        <f t="shared" ref="D2:D33" si="1">_xlfn.CONCAT(B2,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/11845039-tsunami-s-op-mars.mp3</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>HYPERLINK(D2,"Klik")</f>
+        <f t="shared" ref="E2:E33" si="2">HYPERLINK(D2,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>_xlfn.CONCAT(D2,"?download=true")</f>
+        <f t="shared" ref="F2:F33" si="3">_xlfn.CONCAT(D2,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/11845039-tsunami-s-op-mars.mp3?download=true</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>HYPERLINK(F2,"Klik")</f>
+        <f t="shared" ref="G2:G33" si="4">HYPERLINK(F2,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -6535,7 +6530,7 @@
         <v>356</v>
       </c>
       <c r="R2" s="3" t="str">
-        <f>_xlfn.CONCAT(O2,"-",L2,"-",J2)</f>
+        <f t="shared" ref="R2:R33" si="5">_xlfn.CONCAT(O2,"-",L2,"-",J2)</f>
         <v>2022-12-09</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -6609,11 +6604,13 @@
       <c r="AC2" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>1184</v>
+      <c r="AD2" s="3" t="str">
+        <f>_xlfn.CONCAT($H2," - Zimmerman en Space - Season ",$S2,", Episode ",$T2," - ",Q2)</f>
+        <v>Tsunami's op Mars - Zimmerman en Space - Season 01, Episode 01 - December 09, 2022</v>
+      </c>
+      <c r="AE2" s="3" t="str">
+        <f>_xlfn.CONCAT($H2," - Zimmerman en Space - Seizoen ",$S2,", Aflevering ",$T2," - ",P2)</f>
+        <v>Tsunami's op Mars - Zimmerman en Space - Seizoen 01, Aflevering 01 - 9 december 2022</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,23 +6621,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>HYPERLINK(B3,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>_xlfn.CONCAT(B3,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/11873567-de-z-parameter.mp3</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>HYPERLINK(D3,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>_xlfn.CONCAT(D3,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/11873567-de-z-parameter.mp3?download=true</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>HYPERLINK(F3,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -6674,7 +6671,7 @@
         <v>357</v>
       </c>
       <c r="R3" s="3" t="str">
-        <f>_xlfn.CONCAT(O3,"-",L3,"-",J3)</f>
+        <f t="shared" si="5"/>
         <v>2022-12-14</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -6705,7 +6702,7 @@
         <v>754</v>
       </c>
       <c r="AB3" s="5" t="str">
-        <f t="shared" ref="AB3:AB66" si="0">"
+        <f t="shared" ref="AB3:AB66" si="6">"
 =={{int:filedesc}}==
 {{Information
 |description={{nl|1= " &amp; H3 &amp;  " - ''Zimmerman en Space'' - Seizoen " &amp; S3 &amp; ", Aflevering " &amp; T3 &amp; " - " &amp; P3 &amp; "
@@ -6760,6 +6757,14 @@
       <c r="AC3" s="5" t="s">
         <v>1090</v>
       </c>
+      <c r="AD3" s="3" t="str">
+        <f t="shared" ref="AD3:AD66" si="7">_xlfn.CONCAT(H3," - Zimmerman en Space - Season ",S3,", Episode ",T3," - ",Q3)</f>
+        <v>De Z parameter - Zimmerman en Space - Season 01, Episode 02 - December 14, 2022</v>
+      </c>
+      <c r="AE3" s="3" t="str">
+        <f t="shared" ref="AE3:AE66" si="8">_xlfn.CONCAT($H3," - Zimmerman en Space - Seizoen ",$S3,", Aflevering ",$T3," - ",P3)</f>
+        <v>De Z parameter - Zimmerman en Space - Seizoen 01, Aflevering 02 - 14 december 2022</v>
+      </c>
     </row>
     <row r="4" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -6769,23 +6774,23 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>HYPERLINK(B4,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>_xlfn.CONCAT(B4,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/11907471-de-laatste-vraag.mp3</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>HYPERLINK(D4,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>_xlfn.CONCAT(D4,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/11907471-de-laatste-vraag.mp3?download=true</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>HYPERLINK(F4,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6819,7 +6824,7 @@
         <v>358</v>
       </c>
       <c r="R4" s="3" t="str">
-        <f>_xlfn.CONCAT(O4,"-",L4,"-",J4)</f>
+        <f t="shared" si="5"/>
         <v>2022-12-20</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -6850,7 +6855,7 @@
         <v>755</v>
       </c>
       <c r="AB4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -6873,6 +6878,14 @@
       <c r="AC4" s="5" t="s">
         <v>1091</v>
       </c>
+      <c r="AD4" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De laatste vraag - Zimmerman en Space - Season 01, Episode 03 - December 20, 2022</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De laatste vraag - Zimmerman en Space - Seizoen 01, Aflevering 03 - 20 december 2022</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -6882,23 +6895,23 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>HYPERLINK(B5,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>_xlfn.CONCAT(B5,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/11929887-koffie.mp3</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>HYPERLINK(D5,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>_xlfn.CONCAT(D5,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/11929887-koffie.mp3?download=true</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>HYPERLINK(F5,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -6932,7 +6945,7 @@
         <v>359</v>
       </c>
       <c r="R5" s="3" t="str">
-        <f>_xlfn.CONCAT(O5,"-",L5,"-",J5)</f>
+        <f t="shared" si="5"/>
         <v>2022-12-27</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -6963,7 +6976,7 @@
         <v>668</v>
       </c>
       <c r="AB5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -6985,6 +6998,14 @@
       <c r="AC5" s="5" t="s">
         <v>1092</v>
       </c>
+      <c r="AD5" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Koffie - Zimmerman en Space - Season 01, Episode 04 - December 27, 2022</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Koffie - Zimmerman en Space - Seizoen 01, Aflevering 04 - 27 december 2022</v>
+      </c>
     </row>
     <row r="6" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6994,23 +7015,23 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>HYPERLINK(B6,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>_xlfn.CONCAT(B6,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/11971043-het-centrum-van-onze-melkweg.mp3</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>HYPERLINK(D6,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>_xlfn.CONCAT(D6,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/11971043-het-centrum-van-onze-melkweg.mp3?download=true</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>HYPERLINK(F6,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -7044,7 +7065,7 @@
         <v>360</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f>_xlfn.CONCAT(O6,"-",L6,"-",J6)</f>
+        <f t="shared" si="5"/>
         <v>2023-01-03</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -7075,7 +7096,7 @@
         <v>669</v>
       </c>
       <c r="AB6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7101,6 +7122,14 @@
       <c r="AC6" s="5" t="s">
         <v>1093</v>
       </c>
+      <c r="AD6" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Het centrum van onze Melkweg - Zimmerman en Space - Season 01, Episode 05 - January 03, 2023</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Het centrum van onze Melkweg - Zimmerman en Space - Seizoen 01, Aflevering 05 - 3 januari 2023</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7110,23 +7139,23 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>HYPERLINK(B7,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>_xlfn.CONCAT(B7,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12018672-de-dark-doodad-nevel.mp3</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>HYPERLINK(D7,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>_xlfn.CONCAT(D7,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12018672-de-dark-doodad-nevel.mp3?download=true</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>HYPERLINK(F7,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -7160,7 +7189,7 @@
         <v>361</v>
       </c>
       <c r="R7" s="3" t="str">
-        <f>_xlfn.CONCAT(O7,"-",L7,"-",J7)</f>
+        <f t="shared" si="5"/>
         <v>2023-01-10</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -7191,7 +7220,7 @@
         <v>670</v>
       </c>
       <c r="AB7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7216,6 +7245,14 @@
       <c r="AC7" s="5" t="s">
         <v>1094</v>
       </c>
+      <c r="AD7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De Dark Doodad nevel - Zimmerman en Space - Season 01, Episode 06 - January 10, 2023</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De Dark Doodad nevel - Zimmerman en Space - Seizoen 01, Aflevering 06 - 10 januari 2023</v>
+      </c>
     </row>
     <row r="8" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7225,23 +7262,23 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>HYPERLINK(B8,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>_xlfn.CONCAT(B8,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12065265-het-raadsel-van-het-peekaboo-sterrenstelsel.mp3</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f>HYPERLINK(D8,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>_xlfn.CONCAT(D8,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12065265-het-raadsel-van-het-peekaboo-sterrenstelsel.mp3?download=true</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>HYPERLINK(F8,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -7275,7 +7312,7 @@
         <v>362</v>
       </c>
       <c r="R8" s="3" t="str">
-        <f>_xlfn.CONCAT(O8,"-",L8,"-",J8)</f>
+        <f t="shared" si="5"/>
         <v>2023-01-18</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -7306,7 +7343,7 @@
         <v>672</v>
       </c>
       <c r="AB8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7330,6 +7367,14 @@
       <c r="AC8" s="5" t="s">
         <v>1095</v>
       </c>
+      <c r="AD8" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Het raadsel van het Peekaboo sterrenstelsel - Zimmerman en Space - Season 01, Episode 07 - January 18, 2023</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Het raadsel van het Peekaboo sterrenstelsel - Zimmerman en Space - Seizoen 01, Aflevering 07 - 18 januari 2023</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7339,23 +7384,23 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>HYPERLINK(B9,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>_xlfn.CONCAT(B9,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12111366-kunstmatige-zwaartekracht.mp3</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>HYPERLINK(D9,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>_xlfn.CONCAT(D9,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12111366-kunstmatige-zwaartekracht.mp3?download=true</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>HYPERLINK(F9,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -7389,7 +7434,7 @@
         <v>363</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f>_xlfn.CONCAT(O9,"-",L9,"-",J9)</f>
+        <f t="shared" si="5"/>
         <v>2023-01-24</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -7420,7 +7465,7 @@
         <v>673</v>
       </c>
       <c r="AB9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7447,6 +7492,14 @@
       <c r="AC9" s="5" t="s">
         <v>1096</v>
       </c>
+      <c r="AD9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Kunstmatige zwaartekracht - Zimmerman en Space - Season 01, Episode 08 - January 24, 2023</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Kunstmatige zwaartekracht - Zimmerman en Space - Seizoen 01, Aflevering 08 - 24 januari 2023</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7456,23 +7509,23 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>HYPERLINK(B10,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>_xlfn.CONCAT(B10,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12154650-stof.mp3</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>HYPERLINK(D10,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>_xlfn.CONCAT(D10,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12154650-stof.mp3?download=true</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>HYPERLINK(F10,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -7506,7 +7559,7 @@
         <v>364</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f>_xlfn.CONCAT(O10,"-",L10,"-",J10)</f>
+        <f t="shared" si="5"/>
         <v>2023-01-31</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -7537,7 +7590,7 @@
         <v>674</v>
       </c>
       <c r="AB10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7564,6 +7617,14 @@
       <c r="AC10" s="5" t="s">
         <v>1097</v>
       </c>
+      <c r="AD10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Stof - Zimmerman en Space - Season 01, Episode 09 - January 31, 2023</v>
+      </c>
+      <c r="AE10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Stof - Zimmerman en Space - Seizoen 01, Aflevering 09 - 31 januari 2023</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7573,23 +7634,23 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>HYPERLINK(B11,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>_xlfn.CONCAT(B11,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12205179-exoplaneten-en-de-jwst.mp3</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f>HYPERLINK(D11,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>_xlfn.CONCAT(D11,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12205179-exoplaneten-en-de-jwst.mp3?download=true</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>HYPERLINK(F11,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -7623,7 +7684,7 @@
         <v>365</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f>_xlfn.CONCAT(O11,"-",L11,"-",J11)</f>
+        <f t="shared" si="5"/>
         <v>2023-02-07</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -7654,7 +7715,7 @@
         <v>675</v>
       </c>
       <c r="AB11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7681,6 +7742,14 @@
       <c r="AC11" s="5" t="s">
         <v>1098</v>
       </c>
+      <c r="AD11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Exoplaneten en de JWST - Zimmerman en Space - Season 01, Episode 10 - February 07, 2023</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Exoplaneten en de JWST - Zimmerman en Space - Seizoen 01, Aflevering 10 - 7 februari 2023</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7690,23 +7759,23 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>HYPERLINK(B12,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>_xlfn.CONCAT(B12,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12248886-moonlight.mp3</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>HYPERLINK(D12,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>_xlfn.CONCAT(D12,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12248886-moonlight.mp3?download=true</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>HYPERLINK(F12,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -7740,7 +7809,7 @@
         <v>366</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f>_xlfn.CONCAT(O12,"-",L12,"-",J12)</f>
+        <f t="shared" si="5"/>
         <v>2023-02-14</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -7771,7 +7840,7 @@
         <v>676</v>
       </c>
       <c r="AB12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7798,6 +7867,14 @@
       <c r="AC12" s="5" t="s">
         <v>1099</v>
       </c>
+      <c r="AD12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Moonlight - Zimmerman en Space - Season 01, Episode 11 - February 14, 2023</v>
+      </c>
+      <c r="AE12" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Moonlight - Zimmerman en Space - Seizoen 01, Aflevering 11 - 14 februari 2023</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7807,23 +7884,23 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>HYPERLINK(B13,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>_xlfn.CONCAT(B13,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12298379-grote-vragen-een-interview-met-amito-haarhuis.mp3</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f>HYPERLINK(D13,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>_xlfn.CONCAT(D13,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12298379-grote-vragen-een-interview-met-amito-haarhuis.mp3?download=true</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>HYPERLINK(F13,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -7857,7 +7934,7 @@
         <v>367</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f>_xlfn.CONCAT(O13,"-",L13,"-",J13)</f>
+        <f t="shared" si="5"/>
         <v>2023-02-22</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -7888,7 +7965,7 @@
         <v>667</v>
       </c>
       <c r="AB13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7909,6 +7986,14 @@
       <c r="AC13" s="5" t="s">
         <v>1100</v>
       </c>
+      <c r="AD13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Grote vragen - een interview met Amito Haarhuis - Zimmerman en Space - Season 01, Episode 12 - February 22, 2023</v>
+      </c>
+      <c r="AE13" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Grote vragen - een interview met Amito Haarhuis - Zimmerman en Space - Seizoen 01, Aflevering 12 - 22 februari 2023</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7918,23 +8003,23 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>HYPERLINK(B14,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>_xlfn.CONCAT(B14,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12348099-de-el-ali-meteoriet.mp3</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>HYPERLINK(D14,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>_xlfn.CONCAT(D14,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12348099-de-el-ali-meteoriet.mp3?download=true</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>HYPERLINK(F14,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -7968,7 +8053,7 @@
         <v>368</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f>_xlfn.CONCAT(O14,"-",L14,"-",J14)</f>
+        <f t="shared" si="5"/>
         <v>2023-02-28</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -7999,7 +8084,7 @@
         <v>677</v>
       </c>
       <c r="AB14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8023,6 +8108,14 @@
       <c r="AC14" s="5" t="s">
         <v>1101</v>
       </c>
+      <c r="AD14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De El Ali meteoriet - Zimmerman en Space - Season 01, Episode 13 - February 28, 2023</v>
+      </c>
+      <c r="AE14" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De El Ali meteoriet - Zimmerman en Space - Seizoen 01, Aflevering 13 - 28 februari 2023</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -8032,23 +8125,23 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>HYPERLINK(B15,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>_xlfn.CONCAT(B15,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12392457-ai-en-chat-gpt-in-de-sterrenkunde.mp3</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>HYPERLINK(D15,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>_xlfn.CONCAT(D15,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12392457-ai-en-chat-gpt-in-de-sterrenkunde.mp3?download=true</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>HYPERLINK(F15,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -8082,7 +8175,7 @@
         <v>369</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f>_xlfn.CONCAT(O15,"-",L15,"-",J15)</f>
+        <f t="shared" si="5"/>
         <v>2023-03-07</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -8113,7 +8206,7 @@
         <v>678</v>
       </c>
       <c r="AB15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8137,6 +8230,14 @@
       <c r="AC15" s="5" t="s">
         <v>1102</v>
       </c>
+      <c r="AD15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>AI en Chat GPT in de sterrenkunde - Zimmerman en Space - Season 01, Episode 14 - March 07, 2023</v>
+      </c>
+      <c r="AE15" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>AI en Chat GPT in de sterrenkunde - Zimmerman en Space - Seizoen 01, Aflevering 14 - 7 maart 2023</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -8146,23 +8247,23 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>HYPERLINK(B16,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>_xlfn.CONCAT(B16,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12440956-tidal-disruption-events.mp3</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>HYPERLINK(D16,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>_xlfn.CONCAT(D16,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12440956-tidal-disruption-events.mp3?download=true</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>HYPERLINK(F16,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -8196,7 +8297,7 @@
         <v>370</v>
       </c>
       <c r="R16" s="3" t="str">
-        <f>_xlfn.CONCAT(O16,"-",L16,"-",J16)</f>
+        <f t="shared" si="5"/>
         <v>2023-03-14</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -8227,7 +8328,7 @@
         <v>679</v>
       </c>
       <c r="AB16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8250,8 +8351,16 @@
       <c r="AC16" s="5" t="s">
         <v>1103</v>
       </c>
+      <c r="AD16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Tidal Disruption Events - Zimmerman en Space - Season 01, Episode 15 - March 14, 2023</v>
+      </c>
+      <c r="AE16" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Tidal Disruption Events - Zimmerman en Space - Seizoen 01, Aflevering 15 - 14 maart 2023</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12489600</v>
       </c>
@@ -8259,23 +8368,23 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>HYPERLINK(B17,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>_xlfn.CONCAT(B17,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12489600-een-meditatie-rond-een-witte-dwergster.mp3</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f>HYPERLINK(D17,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>_xlfn.CONCAT(D17,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12489600-een-meditatie-rond-een-witte-dwergster.mp3?download=true</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>HYPERLINK(F17,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -8309,7 +8418,7 @@
         <v>371</v>
       </c>
       <c r="R17" s="3" t="str">
-        <f>_xlfn.CONCAT(O17,"-",L17,"-",J17)</f>
+        <f t="shared" si="5"/>
         <v>2023-03-21</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -8340,7 +8449,7 @@
         <v>680</v>
       </c>
       <c r="AB17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8363,8 +8472,16 @@
       <c r="AC17" s="5" t="s">
         <v>1104</v>
       </c>
+      <c r="AD17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Een meditatie rond een witte dwergster - Zimmerman en Space - Season 01, Episode 16 - March 21, 2023</v>
+      </c>
+      <c r="AE17" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Een meditatie rond een witte dwergster - Zimmerman en Space - Seizoen 01, Aflevering 16 - 21 maart 2023</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12533245</v>
       </c>
@@ -8372,23 +8489,23 @@
         <v>49</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>HYPERLINK(B18,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>_xlfn.CONCAT(B18,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12533245-water.mp3</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f>HYPERLINK(D18,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>_xlfn.CONCAT(D18,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12533245-water.mp3?download=true</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>HYPERLINK(F18,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -8422,7 +8539,7 @@
         <v>372</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f>_xlfn.CONCAT(O18,"-",L18,"-",J18)</f>
+        <f t="shared" si="5"/>
         <v>2023-03-28</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -8453,7 +8570,7 @@
         <v>681</v>
       </c>
       <c r="AB18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8478,8 +8595,16 @@
       <c r="AC18" s="5" t="s">
         <v>1105</v>
       </c>
+      <c r="AD18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Water - Zimmerman en Space - Season 01, Episode 17 - March 28, 2023</v>
+      </c>
+      <c r="AE18" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Water - Zimmerman en Space - Seizoen 01, Aflevering 17 - 28 maart 2023</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12570834</v>
       </c>
@@ -8487,23 +8612,23 @@
         <v>52</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>HYPERLINK(B19,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>_xlfn.CONCAT(B19,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12570834-uracil.mp3</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>HYPERLINK(D19,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>_xlfn.CONCAT(D19,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12570834-uracil.mp3?download=true</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>HYPERLINK(F19,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -8537,7 +8662,7 @@
         <v>373</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f>_xlfn.CONCAT(O19,"-",L19,"-",J19)</f>
+        <f t="shared" si="5"/>
         <v>2023-04-04</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -8568,7 +8693,7 @@
         <v>682</v>
       </c>
       <c r="AB19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8591,8 +8716,16 @@
       <c r="AC19" s="5" t="s">
         <v>1106</v>
       </c>
+      <c r="AD19" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Uracil - Zimmerman en Space - Season 01, Episode 18 - April 04, 2023</v>
+      </c>
+      <c r="AE19" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Uracil - Zimmerman en Space - Seizoen 01, Aflevering 18 - 4 april 2023</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12630631</v>
       </c>
@@ -8600,23 +8733,23 @@
         <v>55</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>HYPERLINK(B20,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>_xlfn.CONCAT(B20,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12630631-een-streep-in-het-heelal.mp3</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>HYPERLINK(D20,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>_xlfn.CONCAT(D20,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12630631-een-streep-in-het-heelal.mp3?download=true</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>HYPERLINK(F20,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -8650,7 +8783,7 @@
         <v>374</v>
       </c>
       <c r="R20" s="3" t="str">
-        <f>_xlfn.CONCAT(O20,"-",L20,"-",J20)</f>
+        <f t="shared" si="5"/>
         <v>2023-04-11</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -8681,7 +8814,7 @@
         <v>683</v>
       </c>
       <c r="AB20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8707,8 +8840,16 @@
       <c r="AC20" s="5" t="s">
         <v>1107</v>
       </c>
+      <c r="AD20" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Een streep in het heelal - Zimmerman en Space - Season 01, Episode 19 - April 11, 2023</v>
+      </c>
+      <c r="AE20" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Een streep in het heelal - Zimmerman en Space - Seizoen 01, Aflevering 19 - 11 april 2023</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12677047</v>
       </c>
@@ -8716,23 +8857,23 @@
         <v>58</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>HYPERLINK(B21,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>_xlfn.CONCAT(B21,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12677047-eddington-s-limiet.mp3</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>HYPERLINK(D21,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>_xlfn.CONCAT(D21,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12677047-eddington-s-limiet.mp3?download=true</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>HYPERLINK(F21,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -8766,7 +8907,7 @@
         <v>375</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f>_xlfn.CONCAT(O21,"-",L21,"-",J21)</f>
+        <f t="shared" si="5"/>
         <v>2023-04-18</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -8797,7 +8938,7 @@
         <v>684</v>
       </c>
       <c r="AB21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8822,8 +8963,16 @@
       <c r="AC21" s="5" t="s">
         <v>1108</v>
       </c>
+      <c r="AD21" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Eddington's limiet - Zimmerman en Space - Season 01, Episode 20 - April 18, 2023</v>
+      </c>
+      <c r="AE21" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Eddington's limiet - Zimmerman en Space - Seizoen 01, Aflevering 20 - 18 april 2023</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>12726410</v>
       </c>
@@ -8831,23 +8980,23 @@
         <v>61</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>HYPERLINK(B22,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>_xlfn.CONCAT(B22,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12726410-de-zoektocht-naar-donkere-energie.mp3</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>HYPERLINK(D22,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>_xlfn.CONCAT(D22,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12726410-de-zoektocht-naar-donkere-energie.mp3?download=true</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>HYPERLINK(F22,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -8881,7 +9030,7 @@
         <v>376</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f>_xlfn.CONCAT(O22,"-",L22,"-",J22)</f>
+        <f t="shared" si="5"/>
         <v>2023-04-26</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -8912,7 +9061,7 @@
         <v>685</v>
       </c>
       <c r="AB22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8936,8 +9085,16 @@
       <c r="AC22" s="5" t="s">
         <v>1109</v>
       </c>
+      <c r="AD22" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De zoektocht naar donkere energie - Zimmerman en Space - Season 01, Episode 21 - April 26, 2023</v>
+      </c>
+      <c r="AE22" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De zoektocht naar donkere energie - Zimmerman en Space - Seizoen 01, Aflevering 21 - 26 april 2023</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12771066</v>
       </c>
@@ -8945,23 +9102,23 @@
         <v>64</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>HYPERLINK(B23,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>_xlfn.CONCAT(B23,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12771066-einstein-ringen-en-donkere-materie.mp3</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>HYPERLINK(D23,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>_xlfn.CONCAT(D23,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12771066-einstein-ringen-en-donkere-materie.mp3?download=true</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>HYPERLINK(F23,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -8995,7 +9152,7 @@
         <v>377</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f>_xlfn.CONCAT(O23,"-",L23,"-",J23)</f>
+        <f t="shared" si="5"/>
         <v>2023-05-02</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -9026,7 +9183,7 @@
         <v>665</v>
       </c>
       <c r="AB23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9047,8 +9204,16 @@
       <c r="AC23" s="5" t="s">
         <v>1110</v>
       </c>
+      <c r="AD23" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Einstein ringen en donkere materie - Zimmerman en Space - Season 01, Episode 22 - May 02, 2023</v>
+      </c>
+      <c r="AE23" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Einstein ringen en donkere materie - Zimmerman en Space - Seizoen 01, Aflevering 22 - 2 mei 2023</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12814479</v>
       </c>
@@ -9056,23 +9221,23 @@
         <v>67</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>HYPERLINK(B24,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>_xlfn.CONCAT(B24,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12814479-lusee-en-radio-astronomie-vanaf-de-achterzijde-van-de-maan.mp3</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>HYPERLINK(D24,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>_xlfn.CONCAT(D24,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12814479-lusee-en-radio-astronomie-vanaf-de-achterzijde-van-de-maan.mp3?download=true</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>HYPERLINK(F24,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -9106,7 +9271,7 @@
         <v>378</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f>_xlfn.CONCAT(O24,"-",L24,"-",J24)</f>
+        <f t="shared" si="5"/>
         <v>2023-05-09</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -9137,7 +9302,7 @@
         <v>686</v>
       </c>
       <c r="AB24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9161,8 +9326,16 @@
       <c r="AC24" s="5" t="s">
         <v>1111</v>
       </c>
+      <c r="AD24" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>LuSEE en radio astronomie vanaf de achterzijde van de maan - Zimmerman en Space - Season 01, Episode 23 - May 09, 2023</v>
+      </c>
+      <c r="AE24" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>LuSEE en radio astronomie vanaf de achterzijde van de maan - Zimmerman en Space - Seizoen 01, Aflevering 23 - 9 mei 2023</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12850039</v>
       </c>
@@ -9170,23 +9343,23 @@
         <v>70</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>HYPERLINK(B25,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>_xlfn.CONCAT(B25,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12850039-eels-en-enceladus.mp3</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f>HYPERLINK(D25,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>_xlfn.CONCAT(D25,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12850039-eels-en-enceladus.mp3?download=true</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>HYPERLINK(F25,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -9220,7 +9393,7 @@
         <v>379</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f>_xlfn.CONCAT(O25,"-",L25,"-",J25)</f>
+        <f t="shared" si="5"/>
         <v>2023-05-15</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -9251,7 +9424,7 @@
         <v>687</v>
       </c>
       <c r="AB25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9276,8 +9449,16 @@
       <c r="AC25" s="5" t="s">
         <v>1112</v>
       </c>
+      <c r="AD25" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>EELS en Enceladus - Zimmerman en Space - Season 01, Episode 24 - May 15, 2023</v>
+      </c>
+      <c r="AE25" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>EELS en Enceladus - Zimmerman en Space - Seizoen 01, Aflevering 24 - 15 mei 2023</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>12898839</v>
       </c>
@@ -9285,23 +9466,23 @@
         <v>73</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>HYPERLINK(B26,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>_xlfn.CONCAT(B26,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12898839-infrasone-verschijnselen-in-de-stratosfeer.mp3</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>HYPERLINK(D26,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>_xlfn.CONCAT(D26,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12898839-infrasone-verschijnselen-in-de-stratosfeer.mp3?download=true</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>HYPERLINK(F26,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -9335,7 +9516,7 @@
         <v>380</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f>_xlfn.CONCAT(O26,"-",L26,"-",J26)</f>
+        <f t="shared" si="5"/>
         <v>2023-05-23</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -9366,7 +9547,7 @@
         <v>688</v>
       </c>
       <c r="AB26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9394,8 +9575,16 @@
       <c r="AC26" s="5" t="s">
         <v>1113</v>
       </c>
+      <c r="AD26" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Infrasone verschijnselen in de stratosfeer - Zimmerman en Space - Season 01, Episode 25 - May 23, 2023</v>
+      </c>
+      <c r="AE26" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Infrasone verschijnselen in de stratosfeer - Zimmerman en Space - Seizoen 01, Aflevering 25 - 23 mei 2023</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>12948347</v>
       </c>
@@ -9403,23 +9592,23 @@
         <v>76</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>HYPERLINK(B27,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>_xlfn.CONCAT(B27,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12948347-bewustzijn.mp3</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>HYPERLINK(D27,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>_xlfn.CONCAT(D27,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12948347-bewustzijn.mp3?download=true</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>HYPERLINK(F27,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -9453,7 +9642,7 @@
         <v>381</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f>_xlfn.CONCAT(O27,"-",L27,"-",J27)</f>
+        <f t="shared" si="5"/>
         <v>2023-05-30</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -9484,7 +9673,7 @@
         <v>689</v>
       </c>
       <c r="AB27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9506,8 +9695,16 @@
       <c r="AC27" s="5" t="s">
         <v>1114</v>
       </c>
+      <c r="AD27" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Bewustzijn - Zimmerman en Space - Season 01, Episode 26 - May 30, 2023</v>
+      </c>
+      <c r="AE27" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Bewustzijn - Zimmerman en Space - Seizoen 01, Aflevering 26 - 30 mei 2023</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12990488</v>
       </c>
@@ -9515,23 +9712,23 @@
         <v>79</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>HYPERLINK(B28,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>_xlfn.CONCAT(B28,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/12990488-filamenten-in-het-centrum-van-onze-melkweg.mp3</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f>HYPERLINK(D28,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>_xlfn.CONCAT(D28,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/12990488-filamenten-in-het-centrum-van-onze-melkweg.mp3?download=true</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>HYPERLINK(F28,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -9565,7 +9762,7 @@
         <v>382</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f>_xlfn.CONCAT(O28,"-",L28,"-",J28)</f>
+        <f t="shared" si="5"/>
         <v>2023-06-06</v>
       </c>
       <c r="S28" s="1" t="s">
@@ -9596,7 +9793,7 @@
         <v>690</v>
       </c>
       <c r="AB28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9623,8 +9820,16 @@
       <c r="AC28" s="5" t="s">
         <v>1115</v>
       </c>
+      <c r="AD28" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Filamenten in het centrum van onze melkweg - Zimmerman en Space - Season 01, Episode 27 - June 06, 2023</v>
+      </c>
+      <c r="AE28" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Filamenten in het centrum van onze melkweg - Zimmerman en Space - Seizoen 01, Aflevering 27 - 6 juni 2023</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13033409</v>
       </c>
@@ -9632,23 +9837,23 @@
         <v>82</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>HYPERLINK(B29,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>_xlfn.CONCAT(B29,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/13033409-teveel-te-vroeg.mp3</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>HYPERLINK(D29,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>_xlfn.CONCAT(D29,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/13033409-teveel-te-vroeg.mp3?download=true</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>HYPERLINK(F29,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -9682,7 +9887,7 @@
         <v>383</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f>_xlfn.CONCAT(O29,"-",L29,"-",J29)</f>
+        <f t="shared" si="5"/>
         <v>2023-06-13</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -9713,7 +9918,7 @@
         <v>691</v>
       </c>
       <c r="AB29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9740,8 +9945,16 @@
       <c r="AC29" s="5" t="s">
         <v>1116</v>
       </c>
+      <c r="AD29" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Teveel te vroeg - Zimmerman en Space - Season 01, Episode 28 - June 13, 2023</v>
+      </c>
+      <c r="AE29" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Teveel te vroeg - Zimmerman en Space - Seizoen 01, Aflevering 28 - 13 juni 2023</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>13076453</v>
       </c>
@@ -9749,23 +9962,23 @@
         <v>85</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>HYPERLINK(B30,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>_xlfn.CONCAT(B30,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/13076453-witte-dwergsterren-die-door-onze-melkweg-sjezen.mp3</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f>HYPERLINK(D30,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>_xlfn.CONCAT(D30,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/13076453-witte-dwergsterren-die-door-onze-melkweg-sjezen.mp3?download=true</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>HYPERLINK(F30,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -9799,7 +10012,7 @@
         <v>384</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f>_xlfn.CONCAT(O30,"-",L30,"-",J30)</f>
+        <f t="shared" si="5"/>
         <v>2023-06-20</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -9830,7 +10043,7 @@
         <v>692</v>
       </c>
       <c r="AB30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9854,8 +10067,16 @@
       <c r="AC30" s="5" t="s">
         <v>1117</v>
       </c>
+      <c r="AD30" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Witte dwergsterren die door onze melkweg sjezen - Zimmerman en Space - Season 01, Episode 29 - June 20, 2023</v>
+      </c>
+      <c r="AE30" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Witte dwergsterren die door onze melkweg sjezen - Zimmerman en Space - Seizoen 01, Aflevering 29 - 20 juni 2023</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>13123205</v>
       </c>
@@ -9863,23 +10084,23 @@
         <v>88</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>HYPERLINK(B31,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>_xlfn.CONCAT(B31,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/13123205-echo-echo-echo.mp3</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>HYPERLINK(D31,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>_xlfn.CONCAT(D31,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/13123205-echo-echo-echo.mp3?download=true</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>HYPERLINK(F31,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -9913,7 +10134,7 @@
         <v>385</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f>_xlfn.CONCAT(O31,"-",L31,"-",J31)</f>
+        <f t="shared" si="5"/>
         <v>2023-06-28</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -9944,7 +10165,7 @@
         <v>693</v>
       </c>
       <c r="AB31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9967,8 +10188,16 @@
       <c r="AC31" s="5" t="s">
         <v>1118</v>
       </c>
+      <c r="AD31" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Echo echo echo - Zimmerman en Space - Season 01, Episode 30 - June 28, 2023</v>
+      </c>
+      <c r="AE31" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Echo echo echo - Zimmerman en Space - Seizoen 01, Aflevering 30 - 28 juni 2023</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>13161869</v>
       </c>
@@ -9976,23 +10205,23 @@
         <v>91</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>HYPERLINK(B32,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>_xlfn.CONCAT(B32,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/13161869-boltzmann-brains-en-last-thursdayism.mp3</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f>HYPERLINK(D32,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>_xlfn.CONCAT(D32,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/13161869-boltzmann-brains-en-last-thursdayism.mp3?download=true</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>HYPERLINK(F32,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -10026,7 +10255,7 @@
         <v>386</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f>_xlfn.CONCAT(O32,"-",L32,"-",J32)</f>
+        <f t="shared" si="5"/>
         <v>2023-07-05</v>
       </c>
       <c r="S32" s="1" t="s">
@@ -10057,7 +10286,7 @@
         <v>694</v>
       </c>
       <c r="AB32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10085,8 +10314,16 @@
       <c r="AC32" s="5" t="s">
         <v>1119</v>
       </c>
+      <c r="AD32" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Boltzmann brains en Last Thursdayism - Zimmerman en Space - Season 01, Episode 31 - July 05, 2023</v>
+      </c>
+      <c r="AE32" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Boltzmann brains en Last Thursdayism - Zimmerman en Space - Seizoen 01, Aflevering 31 - 5 juli 2023</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>13205557</v>
       </c>
@@ -10094,23 +10331,23 @@
         <v>94</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>HYPERLINK(B33,"Klik")</f>
+        <f t="shared" si="0"/>
         <v>Klik</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>_xlfn.CONCAT(B33,".mp3")</f>
+        <f t="shared" si="1"/>
         <v>https://www.buzzsprout.com/2096278/13205557-starlink-satellieten-die-radio-astronomie-verpesten.mp3</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f>HYPERLINK(D33,"Klik")</f>
+        <f t="shared" si="2"/>
         <v>Klik</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f>_xlfn.CONCAT(D33,"?download=true")</f>
+        <f t="shared" si="3"/>
         <v>https://www.buzzsprout.com/2096278/13205557-starlink-satellieten-die-radio-astronomie-verpesten.mp3?download=true</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>HYPERLINK(F33,"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -10144,7 +10381,7 @@
         <v>387</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f>_xlfn.CONCAT(O33,"-",L33,"-",J33)</f>
+        <f t="shared" si="5"/>
         <v>2023-07-12</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -10175,7 +10412,7 @@
         <v>695</v>
       </c>
       <c r="AB33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10203,8 +10440,16 @@
       <c r="AC33" s="5" t="s">
         <v>1120</v>
       </c>
+      <c r="AD33" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Starlink satellieten die radio-astronomie verpesten - Zimmerman en Space - Season 01, Episode 32 - July 12, 2023</v>
+      </c>
+      <c r="AE33" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Starlink satellieten die radio-astronomie verpesten - Zimmerman en Space - Seizoen 01, Aflevering 32 - 12 juli 2023</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>13246928</v>
       </c>
@@ -10212,23 +10457,23 @@
         <v>97</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>HYPERLINK(B34,"Klik")</f>
+        <f t="shared" ref="C34:C65" si="9">HYPERLINK(B34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>_xlfn.CONCAT(B34,".mp3")</f>
+        <f t="shared" ref="D34:D65" si="10">_xlfn.CONCAT(B34,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f>HYPERLINK(D34,"Klik")</f>
+        <f t="shared" ref="E34:E65" si="11">HYPERLINK(D34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>_xlfn.CONCAT(D34,"?download=true")</f>
+        <f t="shared" ref="F34:F65" si="12">_xlfn.CONCAT(D34,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3?download=true</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>HYPERLINK(F34,"Klik")</f>
+        <f t="shared" ref="G34:G65" si="13">HYPERLINK(F34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -10262,7 +10507,7 @@
         <v>388</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f>_xlfn.CONCAT(O34,"-",L34,"-",J34)</f>
+        <f t="shared" ref="R34:R65" si="14">_xlfn.CONCAT(O34,"-",L34,"-",J34)</f>
         <v>2023-07-18</v>
       </c>
       <c r="S34" s="1" t="s">
@@ -10293,7 +10538,7 @@
         <v>696</v>
       </c>
       <c r="AB34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10317,8 +10562,16 @@
       <c r="AC34" s="5" t="s">
         <v>1121</v>
       </c>
+      <c r="AD34" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Donkere sterren - Zimmerman en Space - Season 01, Episode 33 - July 18, 2023</v>
+      </c>
+      <c r="AE34" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Donkere sterren - Zimmerman en Space - Seizoen 01, Aflevering 33 - 18 juli 2023</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13286228</v>
       </c>
@@ -10326,23 +10579,23 @@
         <v>100</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>HYPERLINK(B35,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>_xlfn.CONCAT(B35,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f>HYPERLINK(D35,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>_xlfn.CONCAT(D35,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3?download=true</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>HYPERLINK(F35,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -10376,7 +10629,7 @@
         <v>389</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f>_xlfn.CONCAT(O35,"-",L35,"-",J35)</f>
+        <f t="shared" si="14"/>
         <v>2023-07-25</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -10407,7 +10660,7 @@
         <v>697</v>
       </c>
       <c r="AB35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10431,8 +10684,16 @@
       <c r="AC35" s="5" t="s">
         <v>1122</v>
       </c>
+      <c r="AD35" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Geen donkere materie? - Zimmerman en Space - Season 01, Episode 34 - July 25, 2023</v>
+      </c>
+      <c r="AE35" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Geen donkere materie? - Zimmerman en Space - Seizoen 01, Aflevering 34 - 25 juli 2023</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>13332067</v>
       </c>
@@ -10440,23 +10701,23 @@
         <v>103</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>HYPERLINK(B36,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>_xlfn.CONCAT(B36,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f>HYPERLINK(D36,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>_xlfn.CONCAT(D36,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3?download=true</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>HYPERLINK(F36,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -10490,7 +10751,7 @@
         <v>390</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f>_xlfn.CONCAT(O36,"-",L36,"-",J36)</f>
+        <f t="shared" si="14"/>
         <v>2023-08-01</v>
       </c>
       <c r="S36" s="1" t="s">
@@ -10521,7 +10782,7 @@
         <v>698</v>
       </c>
       <c r="AB36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10547,8 +10808,16 @@
       <c r="AC36" s="5" t="s">
         <v>1123</v>
       </c>
+      <c r="AD36" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan - Zimmerman en Space - Season 01, Episode 35 - August 01, 2023</v>
+      </c>
+      <c r="AE36" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan - Zimmerman en Space - Seizoen 01, Aflevering 35 - 1 augustus 2023</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>13371426</v>
       </c>
@@ -10556,23 +10825,23 @@
         <v>106</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>HYPERLINK(B37,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>_xlfn.CONCAT(B37,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>HYPERLINK(D37,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f>_xlfn.CONCAT(D37,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3?download=true</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>HYPERLINK(F37,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -10606,7 +10875,7 @@
         <v>391</v>
       </c>
       <c r="R37" s="3" t="str">
-        <f>_xlfn.CONCAT(O37,"-",L37,"-",J37)</f>
+        <f t="shared" si="14"/>
         <v>2023-08-08</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -10637,7 +10906,7 @@
         <v>699</v>
       </c>
       <c r="AB37" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10661,8 +10930,16 @@
       <c r="AC37" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="AD37" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De donkere sector - Zimmerman en Space - Season 01, Episode 36 - August 08, 2023</v>
+      </c>
+      <c r="AE37" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De donkere sector - Zimmerman en Space - Seizoen 01, Aflevering 36 - 8 augustus 2023</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>13413025</v>
       </c>
@@ -10670,23 +10947,23 @@
         <v>109</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>HYPERLINK(B38,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>_xlfn.CONCAT(B38,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>HYPERLINK(D38,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f>_xlfn.CONCAT(D38,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3?download=true</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>HYPERLINK(F38,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -10720,7 +10997,7 @@
         <v>392</v>
       </c>
       <c r="R38" s="3" t="str">
-        <f>_xlfn.CONCAT(O38,"-",L38,"-",J38)</f>
+        <f t="shared" si="14"/>
         <v>2023-08-16</v>
       </c>
       <c r="S38" s="1" t="s">
@@ -10751,7 +11028,7 @@
         <v>700</v>
       </c>
       <c r="AB38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10775,8 +11052,16 @@
       <c r="AC38" s="5" t="s">
         <v>1125</v>
       </c>
+      <c r="AD38" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De kortere Mars-dag - Zimmerman en Space - Season 01, Episode 37 - August 16, 2023</v>
+      </c>
+      <c r="AE38" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De kortere Mars-dag - Zimmerman en Space - Seizoen 01, Aflevering 37 - 16 augustus 2023</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13453052</v>
       </c>
@@ -10784,23 +11069,23 @@
         <v>112</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>HYPERLINK(B39,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>_xlfn.CONCAT(B39,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f>HYPERLINK(D39,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f>_xlfn.CONCAT(D39,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3?download=true</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>HYPERLINK(F39,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -10834,7 +11119,7 @@
         <v>393</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f>_xlfn.CONCAT(O39,"-",L39,"-",J39)</f>
+        <f t="shared" si="14"/>
         <v>2023-08-22</v>
       </c>
       <c r="S39" s="1" t="s">
@@ -10865,7 +11150,7 @@
         <v>701</v>
       </c>
       <c r="AB39" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10891,8 +11176,16 @@
       <c r="AC39" s="5" t="s">
         <v>1126</v>
       </c>
+      <c r="AD39" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Daniel Apai en de fresnel-lens - Zimmerman en Space - Season 01, Episode 38 - August 22, 2023</v>
+      </c>
+      <c r="AE39" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Daniel Apai en de fresnel-lens - Zimmerman en Space - Seizoen 01, Aflevering 38 - 22 augustus 2023</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>13490782</v>
       </c>
@@ -10900,23 +11193,23 @@
         <v>115</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>HYPERLINK(B40,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>_xlfn.CONCAT(B40,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f>HYPERLINK(D40,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f>_xlfn.CONCAT(D40,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3?download=true</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>HYPERLINK(F40,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -10950,7 +11243,7 @@
         <v>394</v>
       </c>
       <c r="R40" s="3" t="str">
-        <f>_xlfn.CONCAT(O40,"-",L40,"-",J40)</f>
+        <f t="shared" si="14"/>
         <v>2023-08-29</v>
       </c>
       <c r="S40" s="1" t="s">
@@ -10981,7 +11274,7 @@
         <v>702</v>
       </c>
       <c r="AB40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11004,8 +11297,16 @@
       <c r="AC40" s="5" t="s">
         <v>1127</v>
       </c>
+      <c r="AD40" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Donkere vlekken - Zimmerman en Space - Season 01, Episode 39 - August 29, 2023</v>
+      </c>
+      <c r="AE40" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Donkere vlekken - Zimmerman en Space - Seizoen 01, Aflevering 39 - 29 augustus 2023</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13532045</v>
       </c>
@@ -11013,23 +11314,23 @@
         <v>118</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>HYPERLINK(B41,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>_xlfn.CONCAT(B41,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f>HYPERLINK(D41,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f>_xlfn.CONCAT(D41,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3?download=true</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>HYPERLINK(F41,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -11063,7 +11364,7 @@
         <v>395</v>
       </c>
       <c r="R41" s="3" t="str">
-        <f>_xlfn.CONCAT(O41,"-",L41,"-",J41)</f>
+        <f t="shared" si="14"/>
         <v>2023-09-05</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -11094,7 +11395,7 @@
         <v>703</v>
       </c>
       <c r="AB41" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11120,8 +11421,16 @@
       <c r="AC41" s="5" t="s">
         <v>1128</v>
       </c>
+      <c r="AD41" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Pulsars snurken niet - Zimmerman en Space - Season 01, Episode 40 - September 05, 2023</v>
+      </c>
+      <c r="AE41" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Pulsars snurken niet - Zimmerman en Space - Seizoen 01, Aflevering 40 - 5 september 2023</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>13572418</v>
       </c>
@@ -11129,23 +11438,23 @@
         <v>121</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>HYPERLINK(B42,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>_xlfn.CONCAT(B42,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f>HYPERLINK(D42,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f>_xlfn.CONCAT(D42,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3?download=true</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f>HYPERLINK(F42,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -11179,7 +11488,7 @@
         <v>396</v>
       </c>
       <c r="R42" s="3" t="str">
-        <f>_xlfn.CONCAT(O42,"-",L42,"-",J42)</f>
+        <f t="shared" si="14"/>
         <v>2023-09-11</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -11210,7 +11519,7 @@
         <v>704</v>
       </c>
       <c r="AB42" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11233,8 +11542,16 @@
       <c r="AC42" s="5" t="s">
         <v>1129</v>
       </c>
+      <c r="AD42" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Mercurius' raadsels - Zimmerman en Space - Season 01, Episode 41 - September 11, 2023</v>
+      </c>
+      <c r="AE42" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Mercurius' raadsels - Zimmerman en Space - Seizoen 01, Aflevering 41 - 11 september 2023</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>13618776</v>
       </c>
@@ -11242,23 +11559,23 @@
         <v>124</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>HYPERLINK(B43,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>_xlfn.CONCAT(B43,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f>HYPERLINK(D43,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f>_xlfn.CONCAT(D43,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3?download=true</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>HYPERLINK(F43,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -11292,7 +11609,7 @@
         <v>397</v>
       </c>
       <c r="R43" s="3" t="str">
-        <f>_xlfn.CONCAT(O43,"-",L43,"-",J43)</f>
+        <f t="shared" si="14"/>
         <v>2023-09-19</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -11323,7 +11640,7 @@
         <v>705</v>
       </c>
       <c r="AB43" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11351,8 +11668,16 @@
       <c r="AC43" s="5" t="s">
         <v>1130</v>
       </c>
+      <c r="AD43" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Buitenaards leven op K2-18b ? - Zimmerman en Space - Season 01, Episode 42 - September 19, 2023</v>
+      </c>
+      <c r="AE43" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Buitenaards leven op K2-18b ? - Zimmerman en Space - Seizoen 01, Aflevering 42 - 19 september 2023</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13662807</v>
       </c>
@@ -11360,23 +11685,23 @@
         <v>127</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>HYPERLINK(B44,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>_xlfn.CONCAT(B44,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f>HYPERLINK(D44,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f>_xlfn.CONCAT(D44,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3?download=true</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>HYPERLINK(F44,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -11410,7 +11735,7 @@
         <v>398</v>
       </c>
       <c r="R44" s="3" t="str">
-        <f>_xlfn.CONCAT(O44,"-",L44,"-",J44)</f>
+        <f t="shared" si="14"/>
         <v>2023-09-26</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -11441,7 +11766,7 @@
         <v>706</v>
       </c>
       <c r="AB44" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11464,8 +11789,16 @@
       <c r="AC44" s="5" t="s">
         <v>1131</v>
       </c>
+      <c r="AD44" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Verwondering en de Trifid nevel - Zimmerman en Space - Season 01, Episode 43 - September 26, 2023</v>
+      </c>
+      <c r="AE44" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Verwondering en de Trifid nevel - Zimmerman en Space - Seizoen 01, Aflevering 43 - 26 september 2023</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13705806</v>
       </c>
@@ -11473,23 +11806,23 @@
         <v>130</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>HYPERLINK(B45,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>_xlfn.CONCAT(B45,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f>HYPERLINK(D45,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f>_xlfn.CONCAT(D45,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3?download=true</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>HYPERLINK(F45,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -11523,7 +11856,7 @@
         <v>399</v>
       </c>
       <c r="R45" s="3" t="str">
-        <f>_xlfn.CONCAT(O45,"-",L45,"-",J45)</f>
+        <f t="shared" si="14"/>
         <v>2023-10-03</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -11554,7 +11887,7 @@
         <v>707</v>
       </c>
       <c r="AB45" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11579,8 +11912,16 @@
       <c r="AC45" s="5" t="s">
         <v>1132</v>
       </c>
+      <c r="AD45" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Alex Scholten en de meteoriet van Diepenveen - Zimmerman en Space - Season 01, Episode 44 - October 03, 2023</v>
+      </c>
+      <c r="AE45" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Alex Scholten en de meteoriet van Diepenveen - Zimmerman en Space - Seizoen 01, Aflevering 44 - 3 oktober 2023</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13749465</v>
       </c>
@@ -11588,23 +11929,23 @@
         <v>133</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>HYPERLINK(B46,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>_xlfn.CONCAT(B46,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>HYPERLINK(D46,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f>_xlfn.CONCAT(D46,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3?download=true</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>HYPERLINK(F46,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -11638,7 +11979,7 @@
         <v>400</v>
       </c>
       <c r="R46" s="3" t="str">
-        <f>_xlfn.CONCAT(O46,"-",L46,"-",J46)</f>
+        <f t="shared" si="14"/>
         <v>2023-10-10</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -11669,7 +12010,7 @@
         <v>708</v>
       </c>
       <c r="AB46" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11695,8 +12036,16 @@
       <c r="AC46" s="5" t="s">
         <v>1133</v>
       </c>
+      <c r="AD46" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Een nauwkeurig afgeregeld heelal - Zimmerman en Space - Season 01, Episode 45 - October 10, 2023</v>
+      </c>
+      <c r="AE46" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Een nauwkeurig afgeregeld heelal - Zimmerman en Space - Seizoen 01, Aflevering 45 - 10 oktober 2023</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>13796988</v>
       </c>
@@ -11704,23 +12053,23 @@
         <v>136</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>HYPERLINK(B47,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>_xlfn.CONCAT(B47,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f>HYPERLINK(D47,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f>_xlfn.CONCAT(D47,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3?download=true</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>HYPERLINK(F47,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -11754,7 +12103,7 @@
         <v>401</v>
       </c>
       <c r="R47" s="3" t="str">
-        <f>_xlfn.CONCAT(O47,"-",L47,"-",J47)</f>
+        <f t="shared" si="14"/>
         <v>2023-10-17</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -11785,7 +12134,7 @@
         <v>709</v>
       </c>
       <c r="AB47" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11812,8 +12161,16 @@
       <c r="AC47" s="5" t="s">
         <v>1134</v>
       </c>
+      <c r="AD47" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Buitenaardse ruimteschepen op de foto? - Zimmerman en Space - Season 01, Episode 46 - October 17, 2023</v>
+      </c>
+      <c r="AE47" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Buitenaardse ruimteschepen op de foto? - Zimmerman en Space - Seizoen 01, Aflevering 46 - 17 oktober 2023</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>13839425</v>
       </c>
@@ -11821,23 +12178,23 @@
         <v>138</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>HYPERLINK(B48,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>_xlfn.CONCAT(B48,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f>HYPERLINK(D48,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f>_xlfn.CONCAT(D48,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3?download=true</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>HYPERLINK(F48,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -11871,7 +12228,7 @@
         <v>402</v>
       </c>
       <c r="R48" s="3" t="str">
-        <f>_xlfn.CONCAT(O48,"-",L48,"-",J48)</f>
+        <f t="shared" si="14"/>
         <v>2023-10-24</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -11902,7 +12259,7 @@
         <v>710</v>
       </c>
       <c r="AB48" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11928,8 +12285,16 @@
       <c r="AC48" s="5" t="s">
         <v>1135</v>
       </c>
+      <c r="AD48" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Alweer Fast Radio Bursts - Zimmerman en Space - Season 01, Episode 47 - October 24, 2023</v>
+      </c>
+      <c r="AE48" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Alweer Fast Radio Bursts - Zimmerman en Space - Seizoen 01, Aflevering 47 - 24 oktober 2023</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13880930</v>
       </c>
@@ -11937,23 +12302,23 @@
         <v>141</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>HYPERLINK(B49,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>_xlfn.CONCAT(B49,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f>HYPERLINK(D49,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f>_xlfn.CONCAT(D49,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3?download=true</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>HYPERLINK(F49,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -11987,7 +12352,7 @@
         <v>403</v>
       </c>
       <c r="R49" s="3" t="str">
-        <f>_xlfn.CONCAT(O49,"-",L49,"-",J49)</f>
+        <f t="shared" si="14"/>
         <v>2023-10-31</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -12018,7 +12383,7 @@
         <v>711</v>
       </c>
       <c r="AB49" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12040,8 +12405,16 @@
       <c r="AC49" s="5" t="s">
         <v>1136</v>
       </c>
+      <c r="AD49" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Fotosynthese en de zoektocht naar buitenaards leven - Zimmerman en Space - Season 01, Episode 48 - October 31, 2023</v>
+      </c>
+      <c r="AE49" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Fotosynthese en de zoektocht naar buitenaards leven - Zimmerman en Space - Seizoen 01, Aflevering 48 - 31 oktober 2023</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>13913914</v>
       </c>
@@ -12049,23 +12422,23 @@
         <v>144</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>HYPERLINK(B50,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>_xlfn.CONCAT(B50,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>HYPERLINK(D50,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f>_xlfn.CONCAT(D50,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3?download=true</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>HYPERLINK(F50,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12099,7 +12472,7 @@
         <v>404</v>
       </c>
       <c r="R50" s="3" t="str">
-        <f>_xlfn.CONCAT(O50,"-",L50,"-",J50)</f>
+        <f t="shared" si="14"/>
         <v>2023-11-06</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -12130,7 +12503,7 @@
         <v>712</v>
       </c>
       <c r="AB50" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12153,8 +12526,16 @@
       <c r="AC50" s="5" t="s">
         <v>1137</v>
       </c>
+      <c r="AD50" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Witte gaten en negatieve massa - Zimmerman en Space - Season 01, Episode 49 - November 06, 2023</v>
+      </c>
+      <c r="AE50" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Witte gaten en negatieve massa - Zimmerman en Space - Seizoen 01, Aflevering 49 - 6 november 2023</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>13960359</v>
       </c>
@@ -12162,23 +12543,23 @@
         <v>147</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>HYPERLINK(B51,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>_xlfn.CONCAT(B51,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f>HYPERLINK(D51,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f>_xlfn.CONCAT(D51,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3?download=true</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>HYPERLINK(F51,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -12212,7 +12593,7 @@
         <v>405</v>
       </c>
       <c r="R51" s="3" t="str">
-        <f>_xlfn.CONCAT(O51,"-",L51,"-",J51)</f>
+        <f t="shared" si="14"/>
         <v>2023-11-13</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -12243,7 +12624,7 @@
         <v>713</v>
       </c>
       <c r="AB51" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12277,8 +12658,16 @@
       <c r="AC51" s="5" t="s">
         <v>1138</v>
       </c>
+      <c r="AD51" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Tijd kristallen - Zimmerman en Space - Season 01, Episode 50 - November 13, 2023</v>
+      </c>
+      <c r="AE51" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Tijd kristallen - Zimmerman en Space - Seizoen 01, Aflevering 50 - 13 november 2023</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>14010139</v>
       </c>
@@ -12286,23 +12675,23 @@
         <v>149</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>HYPERLINK(B52,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>_xlfn.CONCAT(B52,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f>HYPERLINK(D52,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f>_xlfn.CONCAT(D52,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3?download=true</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>HYPERLINK(F52,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -12336,7 +12725,7 @@
         <v>406</v>
       </c>
       <c r="R52" s="3" t="str">
-        <f>_xlfn.CONCAT(O52,"-",L52,"-",J52)</f>
+        <f t="shared" si="14"/>
         <v>2023-11-21</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -12367,7 +12756,7 @@
         <v>714</v>
       </c>
       <c r="AB52" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12395,8 +12784,16 @@
       <c r="AC52" s="5" t="s">
         <v>1139</v>
       </c>
+      <c r="AD52" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>De duivel komeet komt naar de aarde - Zimmerman en Space - Season 01, Episode 51 - November 21, 2023</v>
+      </c>
+      <c r="AE52" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>De duivel komeet komt naar de aarde - Zimmerman en Space - Seizoen 01, Aflevering 51 - 21 november 2023</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>14052348</v>
       </c>
@@ -12404,23 +12801,23 @@
         <v>152</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>HYPERLINK(B53,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>_xlfn.CONCAT(B53,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f>HYPERLINK(D53,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f>_xlfn.CONCAT(D53,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3?download=true</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>HYPERLINK(F53,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -12454,7 +12851,7 @@
         <v>407</v>
       </c>
       <c r="R53" s="3" t="str">
-        <f>_xlfn.CONCAT(O53,"-",L53,"-",J53)</f>
+        <f t="shared" si="14"/>
         <v>2023-11-29</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -12485,7 +12882,7 @@
         <v>715</v>
       </c>
       <c r="AB53" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12509,8 +12906,16 @@
       <c r="AC53" s="5" t="s">
         <v>1140</v>
       </c>
+      <c r="AD53" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Diepe inelastische verstrooiing - Zimmerman en Space - Season 01, Episode 52 - November 29, 2023</v>
+      </c>
+      <c r="AE53" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Diepe inelastische verstrooiing - Zimmerman en Space - Seizoen 01, Aflevering 52 - 29 november 2023</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>14094661</v>
       </c>
@@ -12518,23 +12923,23 @@
         <v>155</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>HYPERLINK(B54,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>_xlfn.CONCAT(B54,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f>HYPERLINK(D54,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f>_xlfn.CONCAT(D54,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3?download=true</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f>HYPERLINK(F54,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -12568,7 +12973,7 @@
         <v>408</v>
       </c>
       <c r="R54" s="3" t="str">
-        <f>_xlfn.CONCAT(O54,"-",L54,"-",J54)</f>
+        <f t="shared" si="14"/>
         <v>2023-12-05</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -12599,7 +13004,7 @@
         <v>716</v>
       </c>
       <c r="AB54" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12625,8 +13030,16 @@
       <c r="AC54" s="5" t="s">
         <v>1141</v>
       </c>
+      <c r="AD54" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Overal velden - Zimmerman en Space - Season 01, Episode 53 - December 05, 2023</v>
+      </c>
+      <c r="AE54" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Overal velden - Zimmerman en Space - Seizoen 01, Aflevering 53 - 5 december 2023</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>14133465</v>
       </c>
@@ -12634,23 +13047,23 @@
         <v>158</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>HYPERLINK(B55,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>_xlfn.CONCAT(B55,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f>HYPERLINK(D55,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f>_xlfn.CONCAT(D55,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3?download=true</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>HYPERLINK(F55,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -12684,7 +13097,7 @@
         <v>409</v>
       </c>
       <c r="R55" s="3" t="str">
-        <f>_xlfn.CONCAT(O55,"-",L55,"-",J55)</f>
+        <f t="shared" si="14"/>
         <v>2023-12-12</v>
       </c>
       <c r="S55" s="1" t="s">
@@ -12715,7 +13128,7 @@
         <v>717</v>
       </c>
       <c r="AB55" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12740,8 +13153,16 @@
       <c r="AC55" s="5" t="s">
         <v>1142</v>
       </c>
+      <c r="AD55" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Koolmonoxide in The Brick - Zimmerman en Space - Season 01, Episode 54 - December 12, 2023</v>
+      </c>
+      <c r="AE55" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Koolmonoxide in The Brick - Zimmerman en Space - Seizoen 01, Aflevering 54 - 12 december 2023</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>14176787</v>
       </c>
@@ -12749,23 +13170,23 @@
         <v>161</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>HYPERLINK(B56,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>_xlfn.CONCAT(B56,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f>HYPERLINK(D56,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f>_xlfn.CONCAT(D56,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3?download=true</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>HYPERLINK(F56,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -12799,7 +13220,7 @@
         <v>410</v>
       </c>
       <c r="R56" s="3" t="str">
-        <f>_xlfn.CONCAT(O56,"-",L56,"-",J56)</f>
+        <f t="shared" si="14"/>
         <v>2023-12-20</v>
       </c>
       <c r="S56" s="1" t="s">
@@ -12830,7 +13251,7 @@
         <v>718</v>
       </c>
       <c r="AB56" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12856,8 +13277,16 @@
       <c r="AC56" s="5" t="s">
         <v>1143</v>
       </c>
+      <c r="AD56" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Intra Cluster Licht - Zimmerman en Space - Season 01, Episode 55 - December 20, 2023</v>
+      </c>
+      <c r="AE56" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Intra Cluster Licht - Zimmerman en Space - Seizoen 01, Aflevering 55 - 20 december 2023</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>14197563</v>
       </c>
@@ -12865,23 +13294,23 @@
         <v>164</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>HYPERLINK(B57,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>_xlfn.CONCAT(B57,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f>HYPERLINK(D57,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f>_xlfn.CONCAT(D57,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3?download=true</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>HYPERLINK(F57,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -12915,7 +13344,7 @@
         <v>411</v>
       </c>
       <c r="R57" s="3" t="str">
-        <f>_xlfn.CONCAT(O57,"-",L57,"-",J57)</f>
+        <f t="shared" si="14"/>
         <v>2023-12-24</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -12946,7 +13375,7 @@
         <v>719</v>
       </c>
       <c r="AB57" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12973,8 +13402,16 @@
       <c r="AC57" s="5" t="s">
         <v>1144</v>
       </c>
+      <c r="AD57" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Tabby's ster... een kerst update - Zimmerman en Space - Season 01, Episode 56 - December 24, 2023</v>
+      </c>
+      <c r="AE57" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Tabby's ster... een kerst update - Zimmerman en Space - Seizoen 01, Aflevering 56 - 24 december 2023</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>14231208</v>
       </c>
@@ -12982,23 +13419,23 @@
         <v>167</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>HYPERLINK(B58,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>_xlfn.CONCAT(B58,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f>HYPERLINK(D58,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f>_xlfn.CONCAT(D58,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3?download=true</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>HYPERLINK(F58,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -13032,7 +13469,7 @@
         <v>412</v>
       </c>
       <c r="R58" s="3" t="str">
-        <f>_xlfn.CONCAT(O58,"-",L58,"-",J58)</f>
+        <f t="shared" si="14"/>
         <v>2024-01-01</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -13063,7 +13500,7 @@
         <v>720</v>
       </c>
       <c r="AB58" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13092,8 +13529,16 @@
       <c r="AC58" s="5" t="s">
         <v>1145</v>
       </c>
+      <c r="AD58" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Kattenfilmpjes en lasers - Zimmerman en Space - Season 01, Episode 57 - January 01, 2024</v>
+      </c>
+      <c r="AE58" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Kattenfilmpjes en lasers - Zimmerman en Space - Seizoen 01, Aflevering 57 - 1 januari 2024</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>14281426</v>
       </c>
@@ -13101,23 +13546,23 @@
         <v>170</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>HYPERLINK(B59,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>_xlfn.CONCAT(B59,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>HYPERLINK(D59,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f>_xlfn.CONCAT(D59,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3?download=true</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>HYPERLINK(F59,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -13151,7 +13596,7 @@
         <v>413</v>
       </c>
       <c r="R59" s="3" t="str">
-        <f>_xlfn.CONCAT(O59,"-",L59,"-",J59)</f>
+        <f t="shared" si="14"/>
         <v>2024-01-09</v>
       </c>
       <c r="S59" s="1" t="s">
@@ -13182,7 +13627,7 @@
         <v>721</v>
       </c>
       <c r="AB59" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13210,8 +13655,16 @@
       <c r="AC59" s="5" t="s">
         <v>1146</v>
       </c>
+      <c r="AD59" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>EC 002 - een vreemde meteoriet - Zimmerman en Space - Season 01, Episode 58 - January 09, 2024</v>
+      </c>
+      <c r="AE59" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>EC 002 - een vreemde meteoriet - Zimmerman en Space - Seizoen 01, Aflevering 58 - 9 januari 2024</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>14311218</v>
       </c>
@@ -13219,23 +13672,23 @@
         <v>173</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>HYPERLINK(B60,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>_xlfn.CONCAT(B60,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f>HYPERLINK(D60,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f>_xlfn.CONCAT(D60,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3?download=true</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>HYPERLINK(F60,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -13269,7 +13722,7 @@
         <v>414</v>
       </c>
       <c r="R60" s="3" t="str">
-        <f>_xlfn.CONCAT(O60,"-",L60,"-",J60)</f>
+        <f t="shared" si="14"/>
         <v>2024-01-15</v>
       </c>
       <c r="S60" s="1" t="s">
@@ -13300,7 +13753,7 @@
         <v>722</v>
       </c>
       <c r="AB60" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13324,8 +13777,16 @@
       <c r="AC60" s="5" t="s">
         <v>1147</v>
       </c>
+      <c r="AD60" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Een sterrenstelsel zonder sterren - Zimmerman en Space - Season 01, Episode 59 - January 15, 2024</v>
+      </c>
+      <c r="AE60" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Een sterrenstelsel zonder sterren - Zimmerman en Space - Seizoen 01, Aflevering 59 - 15 januari 2024</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>14364552</v>
       </c>
@@ -13333,23 +13794,23 @@
         <v>176</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>HYPERLINK(B61,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>_xlfn.CONCAT(B61,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f>HYPERLINK(D61,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f>_xlfn.CONCAT(D61,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3?download=true</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>HYPERLINK(F61,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -13383,7 +13844,7 @@
         <v>415</v>
       </c>
       <c r="R61" s="3" t="str">
-        <f>_xlfn.CONCAT(O61,"-",L61,"-",J61)</f>
+        <f t="shared" si="14"/>
         <v>2024-01-23</v>
       </c>
       <c r="S61" s="1" t="s">
@@ -13414,7 +13875,7 @@
         <v>723</v>
       </c>
       <c r="AB61" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13438,8 +13899,16 @@
       <c r="AC61" s="5" t="s">
         <v>1148</v>
       </c>
+      <c r="AD61" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Project COSMIC - Zimmerman en Space - Season 01, Episode 60 - January 23, 2024</v>
+      </c>
+      <c r="AE61" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Project COSMIC - Zimmerman en Space - Seizoen 01, Aflevering 60 - 23 januari 2024</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14405344</v>
       </c>
@@ -13447,23 +13916,23 @@
         <v>179</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>HYPERLINK(B62,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>_xlfn.CONCAT(B62,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f>HYPERLINK(D62,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f>_xlfn.CONCAT(D62,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3?download=true</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>HYPERLINK(F62,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -13497,7 +13966,7 @@
         <v>416</v>
       </c>
       <c r="R62" s="3" t="str">
-        <f>_xlfn.CONCAT(O62,"-",L62,"-",J62)</f>
+        <f t="shared" si="14"/>
         <v>2024-01-30</v>
       </c>
       <c r="S62" s="1" t="s">
@@ -13528,7 +13997,7 @@
         <v>724</v>
       </c>
       <c r="AB62" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13552,8 +14021,16 @@
       <c r="AC62" s="5" t="s">
         <v>1149</v>
       </c>
+      <c r="AD62" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Project LISA - Zimmerman en Space - Season 01, Episode 61 - January 30, 2024</v>
+      </c>
+      <c r="AE62" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Project LISA - Zimmerman en Space - Seizoen 01, Aflevering 61 - 30 januari 2024</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>14453081</v>
       </c>
@@ -13561,23 +14038,23 @@
         <v>181</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>HYPERLINK(B63,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>_xlfn.CONCAT(B63,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f>HYPERLINK(D63,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f>_xlfn.CONCAT(D63,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3?download=true</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>HYPERLINK(F63,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -13611,7 +14088,7 @@
         <v>417</v>
       </c>
       <c r="R63" s="3" t="str">
-        <f>_xlfn.CONCAT(O63,"-",L63,"-",J63)</f>
+        <f t="shared" si="14"/>
         <v>2024-02-06</v>
       </c>
       <c r="S63" s="1" t="s">
@@ -13642,7 +14119,7 @@
         <v>725</v>
       </c>
       <c r="AB63" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13675,8 +14152,16 @@
       <c r="AC63" s="5" t="s">
         <v>1150</v>
       </c>
+      <c r="AD63" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Maanbevingen - Zimmerman en Space - Season 01, Episode 62 - February 06, 2024</v>
+      </c>
+      <c r="AE63" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Maanbevingen - Zimmerman en Space - Seizoen 01, Aflevering 62 - 6 februari 2024</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>14496419</v>
       </c>
@@ -13684,23 +14169,23 @@
         <v>184</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>HYPERLINK(B64,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>_xlfn.CONCAT(B64,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f>HYPERLINK(D64,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f>_xlfn.CONCAT(D64,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3?download=true</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>HYPERLINK(F64,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -13734,7 +14219,7 @@
         <v>418</v>
       </c>
       <c r="R64" s="3" t="str">
-        <f>_xlfn.CONCAT(O64,"-",L64,"-",J64)</f>
+        <f t="shared" si="14"/>
         <v>2024-02-13</v>
       </c>
       <c r="S64" s="1" t="s">
@@ -13765,7 +14250,7 @@
         <v>726</v>
       </c>
       <c r="AB64" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13793,8 +14278,16 @@
       <c r="AC64" s="5" t="s">
         <v>1151</v>
       </c>
+      <c r="AD64" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Ruimtevaart economie - Zimmerman en Space - Season 01, Episode 63 - February 13, 2024</v>
+      </c>
+      <c r="AE64" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Ruimtevaart economie - Zimmerman en Space - Seizoen 01, Aflevering 63 - 13 februari 2024</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>14538270</v>
       </c>
@@ -13802,23 +14295,23 @@
         <v>187</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>HYPERLINK(B65,"Klik")</f>
+        <f t="shared" si="9"/>
         <v>Klik</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>_xlfn.CONCAT(B65,".mp3")</f>
+        <f t="shared" si="10"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f>HYPERLINK(D65,"Klik")</f>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f>_xlfn.CONCAT(D65,"?download=true")</f>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3?download=true</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>HYPERLINK(F65,"Klik")</f>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -13852,7 +14345,7 @@
         <v>419</v>
       </c>
       <c r="R65" s="3" t="str">
-        <f>_xlfn.CONCAT(O65,"-",L65,"-",J65)</f>
+        <f t="shared" si="14"/>
         <v>2024-02-20</v>
       </c>
       <c r="S65" s="1" t="s">
@@ -13883,7 +14376,7 @@
         <v>727</v>
       </c>
       <c r="AB65" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13912,8 +14405,16 @@
       <c r="AC65" s="5" t="s">
         <v>1152</v>
       </c>
+      <c r="AD65" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren - Zimmerman en Space - Season 01, Episode 64 - February 20, 2024</v>
+      </c>
+      <c r="AE65" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren - Zimmerman en Space - Seizoen 01, Aflevering 64 - 20 februari 2024</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>14584962</v>
       </c>
@@ -13921,23 +14422,23 @@
         <v>190</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>HYPERLINK(B66,"Klik")</f>
+        <f t="shared" ref="C66:C97" si="15">HYPERLINK(B66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>_xlfn.CONCAT(B66,".mp3")</f>
+        <f t="shared" ref="D66:D93" si="16">_xlfn.CONCAT(B66,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f>HYPERLINK(D66,"Klik")</f>
+        <f t="shared" ref="E66:E97" si="17">HYPERLINK(D66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f>_xlfn.CONCAT(D66,"?download=true")</f>
+        <f t="shared" ref="F66:F93" si="18">_xlfn.CONCAT(D66,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3?download=true</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>HYPERLINK(F66,"Klik")</f>
+        <f t="shared" ref="G66:G97" si="19">HYPERLINK(F66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -13971,7 +14472,7 @@
         <v>420</v>
       </c>
       <c r="R66" s="3" t="str">
-        <f>_xlfn.CONCAT(O66,"-",L66,"-",J66)</f>
+        <f t="shared" ref="R66:R93" si="20">_xlfn.CONCAT(O66,"-",L66,"-",J66)</f>
         <v>2024-02-27</v>
       </c>
       <c r="S66" s="1" t="s">
@@ -14002,7 +14503,7 @@
         <v>728</v>
       </c>
       <c r="AB66" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14028,8 +14529,16 @@
       <c r="AC66" s="5" t="s">
         <v>1153</v>
       </c>
+      <c r="AD66" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>Varda's W1 ruimtevaartuig - Zimmerman en Space - Season 01, Episode 65 - February 27, 2024</v>
+      </c>
+      <c r="AE66" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Varda's W1 ruimtevaartuig - Zimmerman en Space - Seizoen 01, Aflevering 65 - 27 februari 2024</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>14631099</v>
       </c>
@@ -14037,23 +14546,23 @@
         <v>193</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>HYPERLINK(B67,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f>_xlfn.CONCAT(B67,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f>HYPERLINK(D67,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f>_xlfn.CONCAT(D67,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3?download=true</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>HYPERLINK(F67,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -14087,7 +14596,7 @@
         <v>421</v>
       </c>
       <c r="R67" s="3" t="str">
-        <f>_xlfn.CONCAT(O67,"-",L67,"-",J67)</f>
+        <f t="shared" si="20"/>
         <v>2024-03-05</v>
       </c>
       <c r="S67" s="1" t="s">
@@ -14112,7 +14621,7 @@
         <v>588</v>
       </c>
       <c r="AB67" s="5" t="str">
-        <f t="shared" ref="AB67:AB93" si="1">"
+        <f t="shared" ref="AB67:AB93" si="21">"
 =={{int:filedesc}}==
 {{Information
 |description={{nl|1= " &amp; H67 &amp;  " - ''Zimmerman en Space'' - Seizoen " &amp; S67 &amp; ", Aflevering " &amp; T67 &amp; " - " &amp; P67 &amp; "
@@ -14151,8 +14660,16 @@
       <c r="AC67" s="5" t="s">
         <v>1154</v>
       </c>
+      <c r="AD67" s="3" t="str">
+        <f t="shared" ref="AD67:AD93" si="22">_xlfn.CONCAT(H67," - Zimmerman en Space - Season ",S67,", Episode ",T67," - ",Q67)</f>
+        <v>U bevindt zich hier - Zimmerman en Space - Season 01, Episode 66 - March 05, 2024</v>
+      </c>
+      <c r="AE67" s="3" t="str">
+        <f t="shared" ref="AE67:AE93" si="23">_xlfn.CONCAT($H67," - Zimmerman en Space - Seizoen ",$S67,", Aflevering ",$T67," - ",P67)</f>
+        <v>U bevindt zich hier - Zimmerman en Space - Seizoen 01, Aflevering 66 - 5 maart 2024</v>
+      </c>
     </row>
-    <row r="68" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>14672122</v>
       </c>
@@ -14160,23 +14677,23 @@
         <v>196</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>HYPERLINK(B68,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>_xlfn.CONCAT(B68,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f>HYPERLINK(D68,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f>_xlfn.CONCAT(D68,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3?download=true</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>HYPERLINK(F68,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -14210,7 +14727,7 @@
         <v>422</v>
       </c>
       <c r="R68" s="3" t="str">
-        <f>_xlfn.CONCAT(O68,"-",L68,"-",J68)</f>
+        <f t="shared" si="20"/>
         <v>2024-03-11</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -14241,7 +14758,7 @@
         <v>729</v>
       </c>
       <c r="AB68" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14271,8 +14788,16 @@
       <c r="AC68" s="5" t="s">
         <v>1155</v>
       </c>
+      <c r="AD68" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Fotografie buiten de aarde - Zimmerman en Space - Season 01, Episode 67 - March 11, 2024</v>
+      </c>
+      <c r="AE68" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Fotografie buiten de aarde - Zimmerman en Space - Seizoen 01, Aflevering 67 - 11 maart 2024</v>
+      </c>
     </row>
-    <row r="69" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>14706516</v>
       </c>
@@ -14280,23 +14805,23 @@
         <v>199</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>HYPERLINK(B69,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>_xlfn.CONCAT(B69,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f>HYPERLINK(D69,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f>_xlfn.CONCAT(D69,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3?download=true</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>HYPERLINK(F69,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -14330,7 +14855,7 @@
         <v>423</v>
       </c>
       <c r="R69" s="3" t="str">
-        <f>_xlfn.CONCAT(O69,"-",L69,"-",J69)</f>
+        <f t="shared" si="20"/>
         <v>2024-03-17</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -14361,7 +14886,7 @@
         <v>730</v>
       </c>
       <c r="AB69" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14391,8 +14916,16 @@
       <c r="AC69" s="5" t="s">
         <v>1156</v>
       </c>
+      <c r="AD69" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Astrofotografie - een interview met Arenda Schuurman - Zimmerman en Space - Season 01, Episode 68 - March 17, 2024</v>
+      </c>
+      <c r="AE69" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Astrofotografie - een interview met Arenda Schuurman - Zimmerman en Space - Seizoen 01, Aflevering 68 - 17 maart 2024</v>
+      </c>
     </row>
-    <row r="70" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>14756666</v>
       </c>
@@ -14400,23 +14933,23 @@
         <v>202</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>HYPERLINK(B70,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>_xlfn.CONCAT(B70,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f>HYPERLINK(D70,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f>_xlfn.CONCAT(D70,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3?download=true</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>HYPERLINK(F70,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -14450,7 +14983,7 @@
         <v>424</v>
       </c>
       <c r="R70" s="3" t="str">
-        <f>_xlfn.CONCAT(O70,"-",L70,"-",J70)</f>
+        <f t="shared" si="20"/>
         <v>2024-03-24</v>
       </c>
       <c r="S70" s="1" t="s">
@@ -14481,7 +15014,7 @@
         <v>731</v>
       </c>
       <c r="AB70" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14506,8 +15039,16 @@
       <c r="AC70" s="5" t="s">
         <v>1157</v>
       </c>
+      <c r="AD70" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Okay, geen pulsar, maar wat dan wel? - Zimmerman en Space - Season 01, Episode 69 - March 24, 2024</v>
+      </c>
+      <c r="AE70" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Okay, geen pulsar, maar wat dan wel? - Zimmerman en Space - Seizoen 01, Aflevering 69 - 24 maart 2024</v>
+      </c>
     </row>
-    <row r="71" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>14801125</v>
       </c>
@@ -14515,23 +15056,23 @@
         <v>205</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>HYPERLINK(B71,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>_xlfn.CONCAT(B71,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f>HYPERLINK(D71,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f>_xlfn.CONCAT(D71,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3?download=true</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>HYPERLINK(F71,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -14565,7 +15106,7 @@
         <v>425</v>
       </c>
       <c r="R71" s="3" t="str">
-        <f>_xlfn.CONCAT(O71,"-",L71,"-",J71)</f>
+        <f t="shared" si="20"/>
         <v>2024-03-31</v>
       </c>
       <c r="S71" s="1" t="s">
@@ -14596,7 +15137,7 @@
         <v>732</v>
       </c>
       <c r="AB71" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14624,8 +15165,16 @@
       <c r="AC71" s="5" t="s">
         <v>1158</v>
       </c>
+      <c r="AD71" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Een nieuwe ster aan onze hemel - Zimmerman en Space - Season 01, Episode 70 - March 31, 2024</v>
+      </c>
+      <c r="AE71" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Een nieuwe ster aan onze hemel - Zimmerman en Space - Seizoen 01, Aflevering 70 - 31 maart 2024</v>
+      </c>
     </row>
-    <row r="72" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>14847646</v>
       </c>
@@ -14633,23 +15182,23 @@
         <v>208</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>HYPERLINK(B72,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>_xlfn.CONCAT(B72,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f>HYPERLINK(D72,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f>_xlfn.CONCAT(D72,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3?download=true</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>HYPERLINK(F72,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -14683,7 +15232,7 @@
         <v>426</v>
       </c>
       <c r="R72" s="3" t="str">
-        <f>_xlfn.CONCAT(O72,"-",L72,"-",J72)</f>
+        <f t="shared" si="20"/>
         <v>2024-04-08</v>
       </c>
       <c r="S72" s="1" t="s">
@@ -14714,7 +15263,7 @@
         <v>733</v>
       </c>
       <c r="AB72" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14743,8 +15292,16 @@
       <c r="AC72" s="5" t="s">
         <v>1159</v>
       </c>
+      <c r="AD72" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Het Thorne-Żytkow object en hoe zwaar een ster eigenlijk kan worden - Zimmerman en Space - Season 01, Episode 71 - April 08, 2024</v>
+      </c>
+      <c r="AE72" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Het Thorne-Żytkow object en hoe zwaar een ster eigenlijk kan worden - Zimmerman en Space - Seizoen 01, Aflevering 71 - 8 april 2024</v>
+      </c>
     </row>
-    <row r="73" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>14898036</v>
       </c>
@@ -14752,23 +15309,23 @@
         <v>211</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>HYPERLINK(B73,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>_xlfn.CONCAT(B73,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f>HYPERLINK(D73,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f>_xlfn.CONCAT(D73,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3?download=true</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>HYPERLINK(F73,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -14802,7 +15359,7 @@
         <v>427</v>
       </c>
       <c r="R73" s="3" t="str">
-        <f>_xlfn.CONCAT(O73,"-",L73,"-",J73)</f>
+        <f t="shared" si="20"/>
         <v>2024-04-16</v>
       </c>
       <c r="S73" s="1" t="s">
@@ -14833,7 +15390,7 @@
         <v>734</v>
       </c>
       <c r="AB73" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14859,8 +15416,16 @@
       <c r="AC73" s="5" t="s">
         <v>1160</v>
       </c>
+      <c r="AD73" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>We leven in een magnetische tunnel - Zimmerman en Space - Season 01, Episode 72 - April 16, 2024</v>
+      </c>
+      <c r="AE73" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>We leven in een magnetische tunnel - Zimmerman en Space - Seizoen 01, Aflevering 72 - 16 april 2024</v>
+      </c>
     </row>
-    <row r="74" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>14943702</v>
       </c>
@@ -14868,23 +15433,23 @@
         <v>214</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>HYPERLINK(B74,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>_xlfn.CONCAT(B74,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>HYPERLINK(D74,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f>_xlfn.CONCAT(D74,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3?download=true</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>HYPERLINK(F74,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -14918,7 +15483,7 @@
         <v>428</v>
       </c>
       <c r="R74" s="3" t="str">
-        <f>_xlfn.CONCAT(O74,"-",L74,"-",J74)</f>
+        <f t="shared" si="20"/>
         <v>2024-04-23</v>
       </c>
       <c r="S74" s="1" t="s">
@@ -14949,7 +15514,7 @@
         <v>735</v>
       </c>
       <c r="AB74" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14977,8 +15542,16 @@
       <c r="AC74" s="5" t="s">
         <v>1161</v>
       </c>
+      <c r="AD74" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Tijd voor wat geluidsfragmenten - Zimmerman en Space - Season 01, Episode 73 - April 23, 2024</v>
+      </c>
+      <c r="AE74" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Tijd voor wat geluidsfragmenten - Zimmerman en Space - Seizoen 01, Aflevering 73 - 23 april 2024</v>
+      </c>
     </row>
-    <row r="75" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>14968945</v>
       </c>
@@ -14986,23 +15559,23 @@
         <v>217</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>HYPERLINK(B75,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>_xlfn.CONCAT(B75,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f>HYPERLINK(D75,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f>_xlfn.CONCAT(D75,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3?download=true</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>HYPERLINK(F75,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -15036,7 +15609,7 @@
         <v>429</v>
       </c>
       <c r="R75" s="3" t="str">
-        <f>_xlfn.CONCAT(O75,"-",L75,"-",J75)</f>
+        <f t="shared" si="20"/>
         <v>2024-04-28</v>
       </c>
       <c r="S75" s="1" t="s">
@@ -15067,7 +15640,7 @@
         <v>736</v>
       </c>
       <c r="AB75" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15098,8 +15671,16 @@
       <c r="AC75" s="5" t="s">
         <v>1162</v>
       </c>
+      <c r="AD75" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Europa Clipper en Voyager 1 (of andersom) - Zimmerman en Space - Season 01, Episode 74 - April 28, 2024</v>
+      </c>
+      <c r="AE75" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Europa Clipper en Voyager 1 (of andersom) - Zimmerman en Space - Seizoen 01, Aflevering 74 - 28 april 2024</v>
+      </c>
     </row>
-    <row r="76" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>15013251</v>
       </c>
@@ -15107,23 +15688,23 @@
         <v>220</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>HYPERLINK(B76,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>_xlfn.CONCAT(B76,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f>HYPERLINK(D76,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f>_xlfn.CONCAT(D76,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3?download=true</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>HYPERLINK(F76,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -15157,7 +15738,7 @@
         <v>430</v>
       </c>
       <c r="R76" s="3" t="str">
-        <f>_xlfn.CONCAT(O76,"-",L76,"-",J76)</f>
+        <f t="shared" si="20"/>
         <v>2024-05-05</v>
       </c>
       <c r="S76" s="1" t="s">
@@ -15188,7 +15769,7 @@
         <v>737</v>
       </c>
       <c r="AB76" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15224,8 +15805,16 @@
       <c r="AC76" s="5" t="s">
         <v>1163</v>
       </c>
+      <c r="AD76" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Kortstondige maan fenomenen - Zimmerman en Space - Season 01, Episode 75 - May 05, 2024</v>
+      </c>
+      <c r="AE76" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Kortstondige maan fenomenen - Zimmerman en Space - Seizoen 01, Aflevering 75 - 5 mei 2024</v>
+      </c>
     </row>
-    <row r="77" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>15054031</v>
       </c>
@@ -15233,23 +15822,23 @@
         <v>223</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>HYPERLINK(B77,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>_xlfn.CONCAT(B77,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f>HYPERLINK(D77,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f>_xlfn.CONCAT(D77,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3?download=true</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>HYPERLINK(F77,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -15283,7 +15872,7 @@
         <v>431</v>
       </c>
       <c r="R77" s="3" t="str">
-        <f>_xlfn.CONCAT(O77,"-",L77,"-",J77)</f>
+        <f t="shared" si="20"/>
         <v>2024-05-12</v>
       </c>
       <c r="S77" s="1" t="s">
@@ -15314,7 +15903,7 @@
         <v>738</v>
       </c>
       <c r="AB77" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15339,8 +15928,16 @@
       <c r="AC77" s="5" t="s">
         <v>1164</v>
       </c>
+      <c r="AD77" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Secundaire eclips, secundaire atmosfeer - Zimmerman en Space - Season 01, Episode 76 - May 12, 2024</v>
+      </c>
+      <c r="AE77" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Secundaire eclips, secundaire atmosfeer - Zimmerman en Space - Seizoen 01, Aflevering 76 - 12 mei 2024</v>
+      </c>
     </row>
-    <row r="78" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>15091584</v>
       </c>
@@ -15348,23 +15945,23 @@
         <v>226</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>HYPERLINK(B78,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>_xlfn.CONCAT(B78,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f>HYPERLINK(D78,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f>_xlfn.CONCAT(D78,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3?download=true</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>HYPERLINK(F78,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -15398,7 +15995,7 @@
         <v>432</v>
       </c>
       <c r="R78" s="3" t="str">
-        <f>_xlfn.CONCAT(O78,"-",L78,"-",J78)</f>
+        <f t="shared" si="20"/>
         <v>2024-05-18</v>
       </c>
       <c r="S78" s="1" t="s">
@@ -15429,7 +16026,7 @@
         <v>666</v>
       </c>
       <c r="AB78" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15450,8 +16047,16 @@
       <c r="AC78" s="5" t="s">
         <v>1165</v>
       </c>
+      <c r="AD78" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>TOI-1452b, een geleide meditatie met Mirthe en Hens - Zimmerman en Space - Season 01, Episode 77 - May 18, 2024</v>
+      </c>
+      <c r="AE78" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>TOI-1452b, een geleide meditatie met Mirthe en Hens - Zimmerman en Space - Seizoen 01, Aflevering 77 - 18 mei 2024</v>
+      </c>
     </row>
-    <row r="79" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>15141653</v>
       </c>
@@ -15459,23 +16064,23 @@
         <v>229</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>HYPERLINK(B79,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>_xlfn.CONCAT(B79,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f>HYPERLINK(D79,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f>_xlfn.CONCAT(D79,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3?download=true</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>HYPERLINK(F79,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -15509,7 +16114,7 @@
         <v>433</v>
       </c>
       <c r="R79" s="3" t="str">
-        <f>_xlfn.CONCAT(O79,"-",L79,"-",J79)</f>
+        <f t="shared" si="20"/>
         <v>2024-05-27</v>
       </c>
       <c r="S79" s="1" t="s">
@@ -15540,7 +16145,7 @@
         <v>739</v>
       </c>
       <c r="AB79" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15566,8 +16171,16 @@
       <c r="AC79" s="5" t="s">
         <v>1166</v>
       </c>
+      <c r="AD79" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Amalthea - Zimmerman en Space - Season 01, Episode 78 - May 27, 2024</v>
+      </c>
+      <c r="AE79" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Amalthea - Zimmerman en Space - Seizoen 01, Aflevering 78 - 27 mei 2024</v>
+      </c>
     </row>
-    <row r="80" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15182541</v>
       </c>
@@ -15575,23 +16188,23 @@
         <v>232</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>HYPERLINK(B80,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>_xlfn.CONCAT(B80,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f>HYPERLINK(D80,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f>_xlfn.CONCAT(D80,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3?download=true</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>HYPERLINK(F80,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -15625,7 +16238,7 @@
         <v>434</v>
       </c>
       <c r="R80" s="3" t="str">
-        <f>_xlfn.CONCAT(O80,"-",L80,"-",J80)</f>
+        <f t="shared" si="20"/>
         <v>2024-06-03</v>
       </c>
       <c r="S80" s="1" t="s">
@@ -15656,7 +16269,7 @@
         <v>740</v>
       </c>
       <c r="AB80" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15686,8 +16299,16 @@
       <c r="AC80" s="5" t="s">
         <v>1167</v>
       </c>
+      <c r="AD80" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Een pleidooi voor de verrekijker - Zimmerman en Space - Season 01, Episode 79 - June 03, 2024</v>
+      </c>
+      <c r="AE80" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Een pleidooi voor de verrekijker - Zimmerman en Space - Seizoen 01, Aflevering 79 - 3 juni 2024</v>
+      </c>
     </row>
-    <row r="81" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>15232936</v>
       </c>
@@ -15695,23 +16316,23 @@
         <v>235</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>HYPERLINK(B81,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>_xlfn.CONCAT(B81,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f>HYPERLINK(D81,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f>_xlfn.CONCAT(D81,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3?download=true</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>HYPERLINK(F81,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -15745,7 +16366,7 @@
         <v>435</v>
       </c>
       <c r="R81" s="3" t="str">
-        <f>_xlfn.CONCAT(O81,"-",L81,"-",J81)</f>
+        <f t="shared" si="20"/>
         <v>2024-06-11</v>
       </c>
       <c r="S81" s="1" t="s">
@@ -15776,7 +16397,7 @@
         <v>741</v>
       </c>
       <c r="AB81" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15805,8 +16426,16 @@
       <c r="AC81" s="5" t="s">
         <v>1168</v>
       </c>
+      <c r="AD81" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Europa Clipper deel 2 - Zimmerman en Space - Season 01, Episode 80 - June 11, 2024</v>
+      </c>
+      <c r="AE81" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Europa Clipper deel 2 - Zimmerman en Space - Seizoen 01, Aflevering 80 - 11 juni 2024</v>
+      </c>
     </row>
-    <row r="82" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>15262778</v>
       </c>
@@ -15814,23 +16443,23 @@
         <v>238</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>HYPERLINK(B82,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>_xlfn.CONCAT(B82,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f>HYPERLINK(D82,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F82" s="3" t="str">
-        <f>_xlfn.CONCAT(D82,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3?download=true</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>HYPERLINK(F82,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -15864,7 +16493,7 @@
         <v>436</v>
       </c>
       <c r="R82" s="3" t="str">
-        <f>_xlfn.CONCAT(O82,"-",L82,"-",J82)</f>
+        <f t="shared" si="20"/>
         <v>2024-06-17</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -15895,7 +16524,7 @@
         <v>742</v>
       </c>
       <c r="AB82" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15925,8 +16554,16 @@
       <c r="AC82" s="5" t="s">
         <v>1169</v>
       </c>
+      <c r="AD82" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Dyson spheres - Zimmerman en Space - Season 01, Episode 81 - June 17, 2024</v>
+      </c>
+      <c r="AE82" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Dyson spheres - Zimmerman en Space - Seizoen 01, Aflevering 81 - 17 juni 2024</v>
+      </c>
     </row>
-    <row r="83" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>15304478</v>
       </c>
@@ -15934,23 +16571,23 @@
         <v>241</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>HYPERLINK(B83,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>_xlfn.CONCAT(B83,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f>HYPERLINK(D83,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f>_xlfn.CONCAT(D83,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3?download=true</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>HYPERLINK(F83,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -15984,7 +16621,7 @@
         <v>437</v>
       </c>
       <c r="R83" s="3" t="str">
-        <f>_xlfn.CONCAT(O83,"-",L83,"-",J83)</f>
+        <f t="shared" si="20"/>
         <v>2024-06-24</v>
       </c>
       <c r="S83" s="1" t="s">
@@ -16015,7 +16652,7 @@
         <v>743</v>
       </c>
       <c r="AB83" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16038,8 +16675,16 @@
       <c r="AC83" s="5" t="s">
         <v>1170</v>
       </c>
+      <c r="AD83" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Een dubbelster in WL20 - Zimmerman en Space - Season 01, Episode 82 - June 24, 2024</v>
+      </c>
+      <c r="AE83" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Een dubbelster in WL20 - Zimmerman en Space - Seizoen 01, Aflevering 82 - 24 juni 2024</v>
+      </c>
     </row>
-    <row r="84" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>15340768</v>
       </c>
@@ -16047,23 +16692,23 @@
         <v>244</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>HYPERLINK(B84,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>_xlfn.CONCAT(B84,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f>HYPERLINK(D84,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f>_xlfn.CONCAT(D84,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3?download=true</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>HYPERLINK(F84,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -16097,7 +16742,7 @@
         <v>438</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f>_xlfn.CONCAT(O84,"-",L84,"-",J84)</f>
+        <f t="shared" si="20"/>
         <v>2024-07-01</v>
       </c>
       <c r="S84" s="1" t="s">
@@ -16128,7 +16773,7 @@
         <v>744</v>
       </c>
       <c r="AB84" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16152,8 +16797,16 @@
       <c r="AC84" s="5" t="s">
         <v>1171</v>
       </c>
+      <c r="AD84" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Metrologie - Zimmerman en Space - Season 01, Episode 83 - July 01, 2024</v>
+      </c>
+      <c r="AE84" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Metrologie - Zimmerman en Space - Seizoen 01, Aflevering 83 - 1 juli 2024</v>
+      </c>
     </row>
-    <row r="85" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>15374225</v>
       </c>
@@ -16161,23 +16814,23 @@
         <v>247</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>HYPERLINK(B85,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>_xlfn.CONCAT(B85,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f>HYPERLINK(D85,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f>_xlfn.CONCAT(D85,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3?download=true</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>HYPERLINK(F85,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -16211,7 +16864,7 @@
         <v>439</v>
       </c>
       <c r="R85" s="3" t="str">
-        <f>_xlfn.CONCAT(O85,"-",L85,"-",J85)</f>
+        <f t="shared" si="20"/>
         <v>2024-07-07</v>
       </c>
       <c r="S85" s="1" t="s">
@@ -16242,7 +16895,7 @@
         <v>745</v>
       </c>
       <c r="AB85" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16271,8 +16924,16 @@
       <c r="AC85" s="5" t="s">
         <v>1172</v>
       </c>
+      <c r="AD85" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Enge stenen die langs de aarde vliegen - Zimmerman en Space - Season 01, Episode 84 - July 07, 2024</v>
+      </c>
+      <c r="AE85" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Enge stenen die langs de aarde vliegen - Zimmerman en Space - Seizoen 01, Aflevering 84 - 7 juli 2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15400221</v>
       </c>
@@ -16280,23 +16941,23 @@
         <v>250</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>HYPERLINK(B86,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>_xlfn.CONCAT(B86,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f>HYPERLINK(D86,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F86" s="3" t="str">
-        <f>_xlfn.CONCAT(D86,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3?download=true</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>HYPERLINK(F86,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -16330,7 +16991,7 @@
         <v>440</v>
       </c>
       <c r="R86" s="3" t="str">
-        <f>_xlfn.CONCAT(O86,"-",L86,"-",J86)</f>
+        <f t="shared" si="20"/>
         <v>2024-07-14</v>
       </c>
       <c r="S86" s="1" t="s">
@@ -16361,7 +17022,7 @@
         <v>746</v>
       </c>
       <c r="AB86" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16388,8 +17049,16 @@
       <c r="AC86" s="5" t="s">
         <v>1173</v>
       </c>
+      <c r="AD86" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>De mysterieuze luchtschepen van 1896 - 1897 - Zimmerman en Space - Season 01, Episode 85 - July 14, 2024</v>
+      </c>
+      <c r="AE86" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>De mysterieuze luchtschepen van 1896 - 1897 - Zimmerman en Space - Seizoen 01, Aflevering 85 - 14 juli 2024</v>
+      </c>
     </row>
-    <row r="87" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>15400251</v>
       </c>
@@ -16397,23 +17066,23 @@
         <v>253</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>HYPERLINK(B87,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>_xlfn.CONCAT(B87,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f>HYPERLINK(D87,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F87" s="3" t="str">
-        <f>_xlfn.CONCAT(D87,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3?download=true</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>HYPERLINK(F87,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -16447,7 +17116,7 @@
         <v>441</v>
       </c>
       <c r="R87" s="3" t="str">
-        <f>_xlfn.CONCAT(O87,"-",L87,"-",J87)</f>
+        <f t="shared" si="20"/>
         <v>2024-07-21</v>
       </c>
       <c r="S87" s="1" t="s">
@@ -16478,7 +17147,7 @@
         <v>747</v>
       </c>
       <c r="AB87" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16502,8 +17171,16 @@
       <c r="AC87" s="5" t="s">
         <v>1174</v>
       </c>
+      <c r="AD87" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Buitenaards broeikasgas - Zimmerman en Space - Season 01, Episode 86 - July 21, 2024</v>
+      </c>
+      <c r="AE87" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Buitenaards broeikasgas - Zimmerman en Space - Seizoen 01, Aflevering 86 - 21 juli 2024</v>
+      </c>
     </row>
-    <row r="88" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>15400269</v>
       </c>
@@ -16511,23 +17188,23 @@
         <v>256</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>HYPERLINK(B88,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>_xlfn.CONCAT(B88,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f>HYPERLINK(D88,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F88" s="3" t="str">
-        <f>_xlfn.CONCAT(D88,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3?download=true</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>HYPERLINK(F88,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -16561,7 +17238,7 @@
         <v>442</v>
       </c>
       <c r="R88" s="3" t="str">
-        <f>_xlfn.CONCAT(O88,"-",L88,"-",J88)</f>
+        <f t="shared" si="20"/>
         <v>2024-07-28</v>
       </c>
       <c r="S88" s="1" t="s">
@@ -16592,7 +17269,7 @@
         <v>748</v>
       </c>
       <c r="AB88" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16621,8 +17298,16 @@
       <c r="AC88" s="5" t="s">
         <v>1175</v>
       </c>
+      <c r="AD88" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Dr. Heloise Stevance - Zimmerman en Space - Season 01, Episode 87 - July 28, 2024</v>
+      </c>
+      <c r="AE88" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Dr. Heloise Stevance - Zimmerman en Space - Seizoen 01, Aflevering 87 - 28 juli 2024</v>
+      </c>
     </row>
-    <row r="89" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>15510621</v>
       </c>
@@ -16630,23 +17315,23 @@
         <v>259</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>HYPERLINK(B89,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>_xlfn.CONCAT(B89,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f>HYPERLINK(D89,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F89" s="3" t="str">
-        <f>_xlfn.CONCAT(D89,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3?download=true</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>HYPERLINK(F89,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -16680,7 +17365,7 @@
         <v>443</v>
       </c>
       <c r="R89" s="3" t="str">
-        <f>_xlfn.CONCAT(O89,"-",L89,"-",J89)</f>
+        <f t="shared" si="20"/>
         <v>2024-08-04</v>
       </c>
       <c r="S89" s="1" t="s">
@@ -16711,7 +17396,7 @@
         <v>749</v>
       </c>
       <c r="AB89" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16739,8 +17424,16 @@
       <c r="AC89" s="5" t="s">
         <v>1176</v>
       </c>
+      <c r="AD89" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Extra manen en exomanen - Zimmerman en Space - Season 01, Episode 88 - August 04, 2024</v>
+      </c>
+      <c r="AE89" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Extra manen en exomanen - Zimmerman en Space - Seizoen 01, Aflevering 88 - 4 augustus 2024</v>
+      </c>
     </row>
-    <row r="90" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>15568492</v>
       </c>
@@ -16748,23 +17441,23 @@
         <v>262</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>HYPERLINK(B90,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>_xlfn.CONCAT(B90,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f>HYPERLINK(D90,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F90" s="3" t="str">
-        <f>_xlfn.CONCAT(D90,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3?download=true</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>HYPERLINK(F90,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -16798,7 +17491,7 @@
         <v>444</v>
       </c>
       <c r="R90" s="3" t="str">
-        <f>_xlfn.CONCAT(O90,"-",L90,"-",J90)</f>
+        <f t="shared" si="20"/>
         <v>2024-08-12</v>
       </c>
       <c r="S90" s="1" t="s">
@@ -16829,7 +17522,7 @@
         <v>750</v>
       </c>
       <c r="AB90" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16853,8 +17546,16 @@
       <c r="AC90" s="5" t="s">
         <v>1177</v>
       </c>
+      <c r="AD90" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Maar is het buitenaards leven? - Zimmerman en Space - Season 01, Episode 89 - August 12, 2024</v>
+      </c>
+      <c r="AE90" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Maar is het buitenaards leven? - Zimmerman en Space - Seizoen 01, Aflevering 89 - 12 augustus 2024</v>
+      </c>
     </row>
-    <row r="91" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>15604646</v>
       </c>
@@ -16862,23 +17563,23 @@
         <v>264</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>HYPERLINK(B91,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>_xlfn.CONCAT(B91,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f>HYPERLINK(D91,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f>_xlfn.CONCAT(D91,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3?download=true</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>HYPERLINK(F91,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -16912,7 +17613,7 @@
         <v>445</v>
       </c>
       <c r="R91" s="3" t="str">
-        <f>_xlfn.CONCAT(O91,"-",L91,"-",J91)</f>
+        <f t="shared" si="20"/>
         <v>2024-08-19</v>
       </c>
       <c r="S91" s="1" t="s">
@@ -16943,7 +17644,7 @@
         <v>751</v>
       </c>
       <c r="AB91" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16970,8 +17671,16 @@
       <c r="AC91" s="5" t="s">
         <v>1178</v>
       </c>
+      <c r="AD91" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Het verstrijken van de tijd kort na de oerknal - Zimmerman en Space - Season 01, Episode 90 - August 19, 2024</v>
+      </c>
+      <c r="AE91" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Het verstrijken van de tijd kort na de oerknal - Zimmerman en Space - Seizoen 01, Aflevering 90 - 19 augustus 2024</v>
+      </c>
     </row>
-    <row r="92" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>15645704</v>
       </c>
@@ -16979,23 +17688,23 @@
         <v>267</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>HYPERLINK(B92,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>_xlfn.CONCAT(B92,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f>HYPERLINK(D92,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F92" s="3" t="str">
-        <f>_xlfn.CONCAT(D92,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3?download=true</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>HYPERLINK(F92,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -17029,7 +17738,7 @@
         <v>446</v>
       </c>
       <c r="R92" s="3" t="str">
-        <f>_xlfn.CONCAT(O92,"-",L92,"-",J92)</f>
+        <f t="shared" si="20"/>
         <v>2024-08-26</v>
       </c>
       <c r="S92" s="1" t="s">
@@ -17060,7 +17769,7 @@
         <v>752</v>
       </c>
       <c r="AB92" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17092,8 +17801,16 @@
       <c r="AC92" s="5" t="s">
         <v>1179</v>
       </c>
+      <c r="AD92" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>De foton-sfeer rond een zwart gat - Zimmerman en Space - Season 01, Episode 91 - August 26, 2024</v>
+      </c>
+      <c r="AE92" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>De foton-sfeer rond een zwart gat - Zimmerman en Space - Seizoen 01, Aflevering 91 - 26 augustus 2024</v>
+      </c>
     </row>
-    <row r="93" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>15681378</v>
       </c>
@@ -17101,23 +17818,23 @@
         <v>270</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>HYPERLINK(B93,"Klik")</f>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>_xlfn.CONCAT(B93,".mp3")</f>
+        <f t="shared" si="16"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f>HYPERLINK(D93,"Klik")</f>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="F93" s="3" t="str">
-        <f>_xlfn.CONCAT(D93,"?download=true")</f>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3?download=true</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>HYPERLINK(F93,"Klik")</f>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -17151,7 +17868,7 @@
         <v>447</v>
       </c>
       <c r="R93" s="3" t="str">
-        <f>_xlfn.CONCAT(O93,"-",L93,"-",J93)</f>
+        <f t="shared" si="20"/>
         <v>2024-09-02</v>
       </c>
       <c r="S93" s="1" t="s">
@@ -17182,7 +17899,7 @@
         <v>753</v>
       </c>
       <c r="AB93" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17209,6 +17926,14 @@
       </c>
       <c r="AC93" s="5" t="s">
         <v>1180</v>
+      </c>
+      <c r="AD93" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>Vooruit, een hele aflevering over de Lagrange punten - Zimmerman en Space - Season 01, Episode 92 - September 02, 2024</v>
+      </c>
+      <c r="AE93" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>Vooruit, een hele aflevering over de Lagrange punten - Zimmerman en Space - Seizoen 01, Aflevering 92 - 2 september 2024</v>
       </c>
     </row>
   </sheetData>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E386A-4C35-468A-96C9-687E108D03E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91151C42-1FD6-4AC6-817B-30672F516B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1185">
   <si>
     <t>episode</t>
   </si>
@@ -3636,9 +3636,6 @@
   </si>
   <si>
     <t>Het_raadsel_van_het_Peekaboo_sterrenstelsel_-_Zimmerman_en_Space_-_S01E07_-_2023-01-18_-_12065265.oga</t>
-  </si>
-  <si>
-    <t>Het_Thorne-Żytkow_object_en_hoe_zwaar_een_ster_eigenlijk_kan_worden_-_Zimmerman_en_Space_-_S01E71_2024-04-08_14847646.oga</t>
   </si>
   <si>
     <t>Het_verstrijken_van_de_tijd_kort_na_de_oerknal_-_Zimmerman_en_Space_-_S01E90_-_2024-08-19_-_15604646.oga</t>
@@ -5901,6 +5898,12 @@
   </si>
   <si>
     <t>WMC_SDC_CaptionEN</t>
+  </si>
+  <si>
+    <t>WikiCommonsOgaLocalFilePath</t>
+  </si>
+  <si>
+    <t>Het_Thorne-Zytkow_object_en_hoe_zwaar_een_ster_eigenlijk_kan_worden_-_Zimmerman_en_Space_-_S01E71_-_2024-04-08_-_14847646.oga</t>
   </si>
 </sst>
 </file>
@@ -5980,7 +5983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6011,6 +6014,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6347,10 +6353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE93"/>
+  <dimension ref="A1:AG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6375,18 +6381,20 @@
     <col min="20" max="20" width="9.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="64.875" style="1" customWidth="1"/>
     <col min="22" max="22" width="90.25" style="3" customWidth="1"/>
-    <col min="23" max="25" width="51" style="5" customWidth="1"/>
-    <col min="26" max="26" width="40.5" style="5" customWidth="1"/>
-    <col min="27" max="27" width="28" style="5" customWidth="1"/>
-    <col min="28" max="28" width="20.125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="16.75" style="5" customWidth="1"/>
-    <col min="30" max="30" width="117.375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="76.25" style="3" customWidth="1"/>
-    <col min="32" max="133" width="28" style="3" customWidth="1"/>
-    <col min="134" max="16384" width="9" style="3"/>
+    <col min="23" max="23" width="32.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="6.625" style="3" customWidth="1"/>
+    <col min="25" max="27" width="51" style="5" customWidth="1"/>
+    <col min="28" max="28" width="40.5" style="5" customWidth="1"/>
+    <col min="29" max="29" width="28" style="5" customWidth="1"/>
+    <col min="30" max="30" width="20.125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="16.75" style="5" customWidth="1"/>
+    <col min="32" max="32" width="117.375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="76.25" style="3" customWidth="1"/>
+    <col min="34" max="135" width="28" style="3" customWidth="1"/>
+    <col min="136" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>893</v>
       </c>
@@ -6444,35 +6452,38 @@
       <c r="V1" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>1181</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>1182</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11845039</v>
       </c>
@@ -6543,33 +6554,41 @@
         <v>895</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="W2" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="W2" s="3" t="str">
+        <f>_xlfn.CONCAT("D:\Zimmerman-en-Space-podcast\oga-files\",V2)</f>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Tsunami's_op_Mars_-_Zimmerman_en_Space_-_S01E01_-_2022-12-09_-_11845039.oga</v>
+      </c>
+      <c r="X2" s="11" t="str">
+        <f>HYPERLINK(W2,"Klik")</f>
+        <v>Klik</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="AB2" s="5" t="str">
+      <c r="AD2" s="5" t="str">
         <f>"
 =={{int:filedesc}}==
 {{Information
 |description={{nl|1= " &amp; H2 &amp;  " - ''Zimmerman en Space'' - Seizoen " &amp; S2 &amp; ", Aflevering " &amp; T2 &amp; " - " &amp; P2 &amp; "
 ;Shownotes
 " &amp;
-Y2 &amp; " 
+AA2 &amp; " 
 " &amp;
-AA2
+AC2
 &amp; "}}
 |date = " &amp; R2 &amp; "
 |source = "&amp; B2 &amp; "
@@ -6601,19 +6620,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AD2" s="3" t="str">
+      <c r="AE2" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AF2" s="3" t="str">
         <f>_xlfn.CONCAT($H2," - Zimmerman en Space - Season ",$S2,", Episode ",$T2," - ",Q2)</f>
         <v>Tsunami's op Mars - Zimmerman en Space - Season 01, Episode 01 - December 09, 2022</v>
       </c>
-      <c r="AE2" s="3" t="str">
+      <c r="AG2" s="3" t="str">
         <f>_xlfn.CONCAT($H2," - Zimmerman en Space - Seizoen ",$S2,", Aflevering ",$T2," - ",P2)</f>
         <v>Tsunami's op Mars - Zimmerman en Space - Seizoen 01, Aflevering 01 - 9 december 2022</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11873567</v>
       </c>
@@ -6686,31 +6705,39 @@
       <c r="V3" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="str">
+        <f t="shared" ref="W3:W66" si="6">_xlfn.CONCAT("D:\Zimmerman-en-Space-podcast\oga-files\",V3)</f>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_Z_parameter_-_Zimmerman_en_Space_-_S01E02_-_2022-12-14_-_11873567.oga</v>
+      </c>
+      <c r="X3" s="11" t="str">
+        <f t="shared" ref="X3:X66" si="7">HYPERLINK(W3,"Klik")</f>
+        <v>Klik</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="AB3" s="5" t="str">
-        <f t="shared" ref="AB3:AB66" si="6">"
+      <c r="AD3" s="5" t="str">
+        <f t="shared" ref="AD3:AD66" si="8">"
 =={{int:filedesc}}==
 {{Information
 |description={{nl|1= " &amp; H3 &amp;  " - ''Zimmerman en Space'' - Seizoen " &amp; S3 &amp; ", Aflevering " &amp; T3 &amp; " - " &amp; P3 &amp; "
 ;Shownotes
 " &amp;
-Y3 &amp; " 
+AA3 &amp; " 
 " &amp;
-AA3
+AC3
 &amp; "}}
 |date = " &amp; R3 &amp; "
 |source = "&amp; B3 &amp; "
@@ -6754,19 +6781,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AD3" s="3" t="str">
-        <f t="shared" ref="AD3:AD66" si="7">_xlfn.CONCAT(H3," - Zimmerman en Space - Season ",S3,", Episode ",T3," - ",Q3)</f>
+      <c r="AE3" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AF3" s="3" t="str">
+        <f t="shared" ref="AF3:AF66" si="9">_xlfn.CONCAT(H3," - Zimmerman en Space - Season ",S3,", Episode ",T3," - ",Q3)</f>
         <v>De Z parameter - Zimmerman en Space - Season 01, Episode 02 - December 14, 2022</v>
       </c>
-      <c r="AE3" s="3" t="str">
-        <f t="shared" ref="AE3:AE66" si="8">_xlfn.CONCAT($H3," - Zimmerman en Space - Seizoen ",$S3,", Aflevering ",$T3," - ",P3)</f>
+      <c r="AG3" s="3" t="str">
+        <f t="shared" ref="AG3:AG66" si="10">_xlfn.CONCAT($H3," - Zimmerman en Space - Seizoen ",$S3,", Aflevering ",$T3," - ",P3)</f>
         <v>De Z parameter - Zimmerman en Space - Seizoen 01, Aflevering 02 - 14 december 2022</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11907471</v>
       </c>
@@ -6839,23 +6866,31 @@
       <c r="V4" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_laatste_vraag_-_Zimmerman_en_Space_-_S01E03_-_2022-12-20_-_11907471.oga</v>
+      </c>
+      <c r="X4" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="AB4" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD4" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -6875,19 +6910,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AD4" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE4" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De laatste vraag - Zimmerman en Space - Season 01, Episode 03 - December 20, 2022</v>
       </c>
-      <c r="AE4" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG4" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De laatste vraag - Zimmerman en Space - Seizoen 01, Aflevering 03 - 20 december 2022</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11929887</v>
       </c>
@@ -6958,25 +6993,33 @@
         <v>898</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W5" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Koffie_-_Zimmerman_en_Space_-_S01E04_-_2022-12-27_-_11929887.oga</v>
+      </c>
+      <c r="X5" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="AB5" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD5" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -6995,19 +7038,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AD5" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE5" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Koffie - Zimmerman en Space - Season 01, Episode 04 - December 27, 2022</v>
       </c>
-      <c r="AE5" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG5" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Koffie - Zimmerman en Space - Seizoen 01, Aflevering 04 - 27 december 2022</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11971043</v>
       </c>
@@ -7080,23 +7123,31 @@
       <c r="V6" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Het_centrum_van_onze_Melkweg_-_Zimmerman_en_Space_-_S01E05_-_2023-01-03_-_11971043.oga</v>
+      </c>
+      <c r="X6" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="AB6" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AC6" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="AB6" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD6" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7119,19 +7170,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AD6" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE6" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Het centrum van onze Melkweg - Zimmerman en Space - Season 01, Episode 05 - January 03, 2023</v>
       </c>
-      <c r="AE6" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG6" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Het centrum van onze Melkweg - Zimmerman en Space - Seizoen 01, Aflevering 05 - 3 januari 2023</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12018672</v>
       </c>
@@ -7204,23 +7255,31 @@
       <c r="V7" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_Dark_Doodad_nevel_-_Zimmerman_en_Space_-_S01E06_-_2023-01-10_-_12018672.oga</v>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="AB7" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD7" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7242,19 +7301,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AD7" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE7" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AF7" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De Dark Doodad nevel - Zimmerman en Space - Season 01, Episode 06 - January 10, 2023</v>
       </c>
-      <c r="AE7" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG7" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De Dark Doodad nevel - Zimmerman en Space - Seizoen 01, Aflevering 06 - 10 januari 2023</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12065265</v>
       </c>
@@ -7327,23 +7386,31 @@
       <c r="V8" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Het_raadsel_van_het_Peekaboo_sterrenstelsel_-_Zimmerman_en_Space_-_S01E07_-_2023-01-18_-_12065265.oga</v>
+      </c>
+      <c r="X8" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="AB8" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD8" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7364,19 +7431,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AD8" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE8" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Het raadsel van het Peekaboo sterrenstelsel - Zimmerman en Space - Season 01, Episode 07 - January 18, 2023</v>
       </c>
-      <c r="AE8" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG8" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Het raadsel van het Peekaboo sterrenstelsel - Zimmerman en Space - Seizoen 01, Aflevering 07 - 18 januari 2023</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>12111366</v>
       </c>
@@ -7447,25 +7514,33 @@
         <v>902</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="W9" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Kunstmatige_zwaartekracht_-_Zimmerman_en_Space_-_S01E08_-_2023-01-24_-_12111366.oga</v>
+      </c>
+      <c r="X9" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AB9" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="AA9" s="5" t="s">
+      <c r="AC9" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="AB9" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD9" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7489,19 +7564,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AD9" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE9" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Kunstmatige zwaartekracht - Zimmerman en Space - Season 01, Episode 08 - January 24, 2023</v>
       </c>
-      <c r="AE9" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG9" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Kunstmatige zwaartekracht - Zimmerman en Space - Seizoen 01, Aflevering 08 - 24 januari 2023</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12154650</v>
       </c>
@@ -7572,25 +7647,33 @@
         <v>903</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="W10" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Stof_-_Zimmerman_en_Space_-_S01E09_-_2023-01-31_-_12154650.oga</v>
+      </c>
+      <c r="X10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AC10" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="AB10" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD10" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7614,19 +7697,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AD10" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE10" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AF10" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Stof - Zimmerman en Space - Season 01, Episode 09 - January 31, 2023</v>
       </c>
-      <c r="AE10" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG10" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Stof - Zimmerman en Space - Seizoen 01, Aflevering 09 - 31 januari 2023</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12205179</v>
       </c>
@@ -7699,23 +7782,31 @@
       <c r="V11" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Exoplaneten_en_de_JWST_-_Zimmerman_en_Space_-_S01E10_-_2023-02-07_-_12205179.oga</v>
+      </c>
+      <c r="X11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AB11" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AC11" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="AB11" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD11" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7739,19 +7830,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC11" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AD11" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE11" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Exoplaneten en de JWST - Zimmerman en Space - Season 01, Episode 10 - February 07, 2023</v>
       </c>
-      <c r="AE11" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG11" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Exoplaneten en de JWST - Zimmerman en Space - Seizoen 01, Aflevering 10 - 7 februari 2023</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12248886</v>
       </c>
@@ -7822,25 +7913,33 @@
         <v>905</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="W12" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Moonlight_-_Zimmerman_en_Space_-_S01E11_-_2023-02-14_-_12248886.oga</v>
+      </c>
+      <c r="X12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="AB12" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD12" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7864,19 +7963,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC12" s="5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AD12" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE12" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AF12" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Moonlight - Zimmerman en Space - Season 01, Episode 11 - February 14, 2023</v>
       </c>
-      <c r="AE12" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG12" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Moonlight - Zimmerman en Space - Seizoen 01, Aflevering 11 - 14 februari 2023</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12298379</v>
       </c>
@@ -7949,23 +8048,31 @@
       <c r="V13" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Grote_vragen_-_een_interview_met_Amito_Haarhuis_-_Zimmerman_en_Space_-_S01E12_-_2023-02-22_-_12298379.oga</v>
+      </c>
+      <c r="X13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AB13" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AC13" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AB13" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD13" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -7983,19 +8090,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AD13" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE13" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AF13" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Grote vragen - een interview met Amito Haarhuis - Zimmerman en Space - Season 01, Episode 12 - February 22, 2023</v>
       </c>
-      <c r="AE13" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG13" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Grote vragen - een interview met Amito Haarhuis - Zimmerman en Space - Seizoen 01, Aflevering 12 - 22 februari 2023</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12348099</v>
       </c>
@@ -8068,23 +8175,31 @@
       <c r="V14" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_El_Ali_meteoriet_-_Zimmerman_en_Space_-_S01E13_-_2023-02-28_-_12348099.oga</v>
+      </c>
+      <c r="X14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Z14" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AB14" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AC14" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="AB14" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD14" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8105,19 +8220,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC14" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AD14" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE14" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AF14" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De El Ali meteoriet - Zimmerman en Space - Season 01, Episode 13 - February 28, 2023</v>
       </c>
-      <c r="AE14" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG14" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De El Ali meteoriet - Zimmerman en Space - Seizoen 01, Aflevering 13 - 28 februari 2023</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12392457</v>
       </c>
@@ -8190,23 +8305,31 @@
       <c r="V15" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\AI_en_Chat_GPT_in_de_sterrenkunde_-_Zimmerman_en_Space_-_S01E14_-_2023-03-07_-_12392457.oga</v>
+      </c>
+      <c r="X15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="AB15" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AC15" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="AB15" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD15" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8227,19 +8350,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AD15" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE15" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AF15" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>AI en Chat GPT in de sterrenkunde - Zimmerman en Space - Season 01, Episode 14 - March 07, 2023</v>
       </c>
-      <c r="AE15" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG15" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>AI en Chat GPT in de sterrenkunde - Zimmerman en Space - Seizoen 01, Aflevering 14 - 7 maart 2023</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12440956</v>
       </c>
@@ -8310,25 +8433,33 @@
         <v>909</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="W16" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Tidal_Disruption_Events_-_Zimmerman_en_Space_-_S01E15_-_2023-03-14_-_12440956.oga</v>
+      </c>
+      <c r="X16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="AB16" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="AA16" s="5" t="s">
+      <c r="AC16" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="AB16" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD16" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8348,19 +8479,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC16" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AD16" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE16" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AF16" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Tidal Disruption Events - Zimmerman en Space - Season 01, Episode 15 - March 14, 2023</v>
       </c>
-      <c r="AE16" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG16" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Tidal Disruption Events - Zimmerman en Space - Seizoen 01, Aflevering 15 - 14 maart 2023</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12489600</v>
       </c>
@@ -8433,23 +8564,31 @@
       <c r="V17" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_meditatie_rond_een_witte_dwergster_-_Zimmerman_en_Space_-_S01E16_-_2023-03-21_-_12489600.oga</v>
+      </c>
+      <c r="X17" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Z17" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AC17" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="AB17" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD17" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8469,19 +8608,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC17" s="5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AD17" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE17" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AF17" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Een meditatie rond een witte dwergster - Zimmerman en Space - Season 01, Episode 16 - March 21, 2023</v>
       </c>
-      <c r="AE17" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG17" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Een meditatie rond een witte dwergster - Zimmerman en Space - Seizoen 01, Aflevering 16 - 21 maart 2023</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12533245</v>
       </c>
@@ -8552,25 +8691,33 @@
         <v>911</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="W18" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Water_-_Zimmerman_en_Space_-_S01E17_-_2023-03-28_-_12533245.oga</v>
+      </c>
+      <c r="X18" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Z18" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="AA18" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="AB18" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AC18" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="AB18" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD18" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8592,19 +8739,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC18" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AD18" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE18" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AF18" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Water - Zimmerman en Space - Season 01, Episode 17 - March 28, 2023</v>
       </c>
-      <c r="AE18" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG18" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Water - Zimmerman en Space - Seizoen 01, Aflevering 17 - 28 maart 2023</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12570834</v>
       </c>
@@ -8675,25 +8822,33 @@
         <v>912</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="W19" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Uracil_-_Zimmerman_en_Space_-_S01E18_-_2023-04-04_-_12570834.oga</v>
+      </c>
+      <c r="X19" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="AA19" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="AB19" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD19" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8713,19 +8868,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC19" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AD19" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE19" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AF19" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Uracil - Zimmerman en Space - Season 01, Episode 18 - April 04, 2023</v>
       </c>
-      <c r="AE19" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG19" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Uracil - Zimmerman en Space - Seizoen 01, Aflevering 18 - 4 april 2023</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12630631</v>
       </c>
@@ -8798,23 +8953,31 @@
       <c r="V20" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_streep_in_het_heelal_-_Zimmerman_en_Space_-_S01E19_-_2023-04-11_-_12630631.oga</v>
+      </c>
+      <c r="X20" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Z20" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="AA20" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="AB20" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AC20" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="AB20" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD20" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8837,19 +9000,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AD20" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE20" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AF20" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Een streep in het heelal - Zimmerman en Space - Season 01, Episode 19 - April 11, 2023</v>
       </c>
-      <c r="AE20" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG20" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Een streep in het heelal - Zimmerman en Space - Seizoen 01, Aflevering 19 - 11 april 2023</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12677047</v>
       </c>
@@ -8922,23 +9085,31 @@
       <c r="V21" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Eddington's_limiet_-_Zimmerman_en_Space_-_S01E20_-_2023-04-18_-_12677047.oga</v>
+      </c>
+      <c r="X21" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="AA21" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AB21" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AC21" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="AB21" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD21" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -8960,19 +9131,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AD21" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE21" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AF21" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Eddington's limiet - Zimmerman en Space - Season 01, Episode 20 - April 18, 2023</v>
       </c>
-      <c r="AE21" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG21" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Eddington's limiet - Zimmerman en Space - Seizoen 01, Aflevering 20 - 18 april 2023</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>12726410</v>
       </c>
@@ -9045,23 +9216,31 @@
       <c r="V22" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="W22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_zoektocht_naar_donkere_energie_-_Zimmerman_en_Space_-_S01E21_-_2023-04-26_-_12726410.oga</v>
+      </c>
+      <c r="X22" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Z22" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="AA22" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="AB22" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AC22" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="AB22" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD22" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9082,19 +9261,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC22" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AD22" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE22" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AF22" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De zoektocht naar donkere energie - Zimmerman en Space - Season 01, Episode 21 - April 26, 2023</v>
       </c>
-      <c r="AE22" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG22" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De zoektocht naar donkere energie - Zimmerman en Space - Seizoen 01, Aflevering 21 - 26 april 2023</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12771066</v>
       </c>
@@ -9167,23 +9346,31 @@
       <c r="V23" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Einstein_ringen_en_donkere_materie_-_Zimmerman_en_Space_-_S01E22_-_2023-05-02_-_12771066.oga</v>
+      </c>
+      <c r="X23" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="AB23" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="AA23" s="5" t="s">
+      <c r="AC23" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="AB23" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD23" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9201,19 +9388,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AD23" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE23" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AF23" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Einstein ringen en donkere materie - Zimmerman en Space - Season 01, Episode 22 - May 02, 2023</v>
       </c>
-      <c r="AE23" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG23" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Einstein ringen en donkere materie - Zimmerman en Space - Seizoen 01, Aflevering 22 - 2 mei 2023</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>12814479</v>
       </c>
@@ -9284,25 +9471,33 @@
         <v>917</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="W24" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\LuSEE_en_radio_astronomie_vanaf_de_achterzijde_van_de_maan_-_Zimmerman_en_Space_-_S01E23_-_2023-05-09_-_12814479.oga</v>
+      </c>
+      <c r="X24" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="AA24" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="AB24" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="AC24" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="AB24" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD24" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9323,19 +9518,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AD24" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE24" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AF24" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>LuSEE en radio astronomie vanaf de achterzijde van de maan - Zimmerman en Space - Season 01, Episode 23 - May 09, 2023</v>
       </c>
-      <c r="AE24" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG24" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>LuSEE en radio astronomie vanaf de achterzijde van de maan - Zimmerman en Space - Seizoen 01, Aflevering 23 - 9 mei 2023</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>12850039</v>
       </c>
@@ -9408,23 +9603,31 @@
       <c r="V25" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\EELS_en_Enceladus_-_Zimmerman_en_Space_-_S01E24_-_2023-05-15_-_12850039.oga</v>
+      </c>
+      <c r="X25" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Z25" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="AA25" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="AB25" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="AA25" s="5" t="s">
+      <c r="AC25" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="AB25" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD25" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9446,19 +9649,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC25" s="5" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AD25" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE25" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AF25" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>EELS en Enceladus - Zimmerman en Space - Season 01, Episode 24 - May 15, 2023</v>
       </c>
-      <c r="AE25" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG25" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>EELS en Enceladus - Zimmerman en Space - Seizoen 01, Aflevering 24 - 15 mei 2023</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>12898839</v>
       </c>
@@ -9529,25 +9732,33 @@
         <v>919</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="W26" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="W26" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Infrasone_verschijnselen_in_de_stratosfeer_-_Zimmerman_en_Space_-_S01E25_-_2023-05-23_-_12898839.oga</v>
+      </c>
+      <c r="X26" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="AA26" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="AB26" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="AA26" s="5" t="s">
+      <c r="AC26" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="AB26" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD26" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9572,19 +9783,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC26" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AD26" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE26" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AF26" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Infrasone verschijnselen in de stratosfeer - Zimmerman en Space - Season 01, Episode 25 - May 23, 2023</v>
       </c>
-      <c r="AE26" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG26" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Infrasone verschijnselen in de stratosfeer - Zimmerman en Space - Seizoen 01, Aflevering 25 - 23 mei 2023</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>12948347</v>
       </c>
@@ -9657,23 +9868,31 @@
       <c r="V27" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="W27" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Bewustzijn_-_Zimmerman_en_Space_-_S01E26_-_2023-05-30_-_12948347.oga</v>
+      </c>
+      <c r="X27" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="AA27" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="AB27" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AA27" s="5" t="s">
+      <c r="AC27" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="AB27" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD27" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9692,19 +9911,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC27" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AD27" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE27" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AF27" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Bewustzijn - Zimmerman en Space - Season 01, Episode 26 - May 30, 2023</v>
       </c>
-      <c r="AE27" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG27" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Bewustzijn - Zimmerman en Space - Seizoen 01, Aflevering 26 - 30 mei 2023</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12990488</v>
       </c>
@@ -9777,23 +9996,31 @@
       <c r="V28" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="W28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Filamenten_in_het_centrum_van_onze_melkweg_-_Zimmerman_en_Space_-_S01E27_-_2023-06-06_-_12990488.oga</v>
+      </c>
+      <c r="X28" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Z28" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="AA28" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="AB28" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="AC28" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="AB28" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD28" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9817,19 +10044,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC28" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AD28" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE28" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AF28" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Filamenten in het centrum van onze melkweg - Zimmerman en Space - Season 01, Episode 27 - June 06, 2023</v>
       </c>
-      <c r="AE28" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG28" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Filamenten in het centrum van onze melkweg - Zimmerman en Space - Seizoen 01, Aflevering 27 - 6 juni 2023</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>13033409</v>
       </c>
@@ -9900,25 +10127,33 @@
         <v>922</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="W29" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W29" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Teveel_te_vroeg_-_Zimmerman_en_Space_-_S01E28_-_2023-06-13_-_13033409.oga</v>
+      </c>
+      <c r="X29" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="AA29" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="Z29" s="5" t="s">
+      <c r="AB29" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="AA29" s="5" t="s">
+      <c r="AC29" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="AB29" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD29" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -9942,19 +10177,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC29" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AD29" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE29" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AF29" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Teveel te vroeg - Zimmerman en Space - Season 01, Episode 28 - June 13, 2023</v>
       </c>
-      <c r="AE29" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG29" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Teveel te vroeg - Zimmerman en Space - Seizoen 01, Aflevering 28 - 13 juni 2023</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>13076453</v>
       </c>
@@ -10025,25 +10260,33 @@
         <v>923</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="W30" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Witte_dwergsterren_die_door_onze_melkweg_sjezen_-_Zimmerman_en_Space_-_S01E29_-_2023-06-20_-_13076453.oga</v>
+      </c>
+      <c r="X30" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Z30" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="AA30" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="AB30" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="AA30" s="5" t="s">
+      <c r="AC30" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AB30" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD30" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10064,19 +10307,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC30" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AD30" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE30" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AF30" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Witte dwergsterren die door onze melkweg sjezen - Zimmerman en Space - Season 01, Episode 29 - June 20, 2023</v>
       </c>
-      <c r="AE30" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG30" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Witte dwergsterren die door onze melkweg sjezen - Zimmerman en Space - Seizoen 01, Aflevering 29 - 20 juni 2023</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>13123205</v>
       </c>
@@ -10149,23 +10392,31 @@
       <c r="V31" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="W31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Echo_echo_echo_-_Zimmerman_en_Space_-_S01E30_-_2023-06-28_-_13123205.oga</v>
+      </c>
+      <c r="X31" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Z31" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="Z31" s="5" t="s">
+      <c r="AB31" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="AA31" s="5" t="s">
+      <c r="AC31" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AB31" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD31" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10185,19 +10436,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC31" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AD31" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE31" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AF31" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Echo echo echo - Zimmerman en Space - Season 01, Episode 30 - June 28, 2023</v>
       </c>
-      <c r="AE31" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG31" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Echo echo echo - Zimmerman en Space - Seizoen 01, Aflevering 30 - 28 juni 2023</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>13161869</v>
       </c>
@@ -10270,23 +10521,31 @@
       <c r="V32" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="W32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Boltzmann_brains_en_Last_Thursdayism_-_Zimmerman_en_Space_-_S01E31_-_2023-07-05_-_13161869.oga</v>
+      </c>
+      <c r="X32" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Z32" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="AB32" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="AC32" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AB32" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD32" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10311,19 +10570,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC32" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AD32" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE32" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AF32" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Boltzmann brains en Last Thursdayism - Zimmerman en Space - Season 01, Episode 31 - July 05, 2023</v>
       </c>
-      <c r="AE32" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG32" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Boltzmann brains en Last Thursdayism - Zimmerman en Space - Seizoen 01, Aflevering 31 - 5 juli 2023</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>13205557</v>
       </c>
@@ -10394,25 +10653,33 @@
         <v>926</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="W33" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Starlink_satellieten_die_radio-astronomie_verpesten_-_Zimmerman_en_Space_-_S01E32_-_2023-07-12_-_13205557.oga</v>
+      </c>
+      <c r="X33" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Z33" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="Y33" s="4" t="s">
+      <c r="AA33" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="AB33" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="AA33" s="5" t="s">
+      <c r="AC33" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="AB33" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD33" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10437,19 +10704,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC33" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AD33" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE33" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AF33" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Starlink satellieten die radio-astronomie verpesten - Zimmerman en Space - Season 01, Episode 32 - July 12, 2023</v>
       </c>
-      <c r="AE33" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG33" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Starlink satellieten die radio-astronomie verpesten - Zimmerman en Space - Seizoen 01, Aflevering 32 - 12 juli 2023</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>13246928</v>
       </c>
@@ -10457,23 +10724,23 @@
         <v>97</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" ref="C34:C65" si="9">HYPERLINK(B34,"Klik")</f>
+        <f t="shared" ref="C34:C65" si="11">HYPERLINK(B34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:D65" si="10">_xlfn.CONCAT(B34,".mp3")</f>
+        <f t="shared" ref="D34:D65" si="12">_xlfn.CONCAT(B34,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" ref="E34:E65" si="11">HYPERLINK(D34,"Klik")</f>
+        <f t="shared" ref="E34:E65" si="13">HYPERLINK(D34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" ref="F34:F65" si="12">_xlfn.CONCAT(D34,"?download=true")</f>
+        <f t="shared" ref="F34:F65" si="14">_xlfn.CONCAT(D34,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/13246928-donkere-sterren.mp3?download=true</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" ref="G34:G65" si="13">HYPERLINK(F34,"Klik")</f>
+        <f t="shared" ref="G34:G65" si="15">HYPERLINK(F34,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -10507,7 +10774,7 @@
         <v>388</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f t="shared" ref="R34:R65" si="14">_xlfn.CONCAT(O34,"-",L34,"-",J34)</f>
+        <f t="shared" ref="R34:R65" si="16">_xlfn.CONCAT(O34,"-",L34,"-",J34)</f>
         <v>2023-07-18</v>
       </c>
       <c r="S34" s="1" t="s">
@@ -10522,23 +10789,31 @@
       <c r="V34" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="W34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Donkere_sterren_-_Zimmerman_en_Space_-_S01E33_-_2023-07-18_-_13246928.oga</v>
+      </c>
+      <c r="X34" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Z34" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="AA34" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="AB34" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="AA34" s="5" t="s">
+      <c r="AC34" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="AB34" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD34" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10559,19 +10834,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC34" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AD34" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE34" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AF34" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Donkere sterren - Zimmerman en Space - Season 01, Episode 33 - July 18, 2023</v>
       </c>
-      <c r="AE34" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG34" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Donkere sterren - Zimmerman en Space - Seizoen 01, Aflevering 33 - 18 juli 2023</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13286228</v>
       </c>
@@ -10579,23 +10854,23 @@
         <v>100</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13286228-geen-donkere-materie.mp3?download=true</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -10629,7 +10904,7 @@
         <v>389</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-07-25</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -10644,23 +10919,31 @@
       <c r="V35" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="W35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Geen_donkere_materie_-_Zimmerman_en_Space_-_S01E34_-_2023-07-25_-_13286228.oga</v>
+      </c>
+      <c r="X35" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Z35" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="AA35" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="AB35" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="AA35" s="5" t="s">
+      <c r="AC35" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="AB35" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD35" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10681,19 +10964,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC35" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AD35" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE35" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AF35" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Geen donkere materie? - Zimmerman en Space - Season 01, Episode 34 - July 25, 2023</v>
       </c>
-      <c r="AE35" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG35" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Geen donkere materie? - Zimmerman en Space - Seizoen 01, Aflevering 34 - 25 juli 2023</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>13332067</v>
       </c>
@@ -10701,23 +10984,23 @@
         <v>103</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13332067-in-gesprek-met-andre-kuipers-marjolijn-van-heemstra-en-lemke-kraan.mp3?download=true</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -10751,7 +11034,7 @@
         <v>390</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-08-01</v>
       </c>
       <c r="S36" s="1" t="s">
@@ -10764,25 +11047,33 @@
         <v>929</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="W36" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="W36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\In_gesprek_met_André_Kuipers,_Marjolijn_van_Heemstra_en_Lemke_Kraan_-_Zimmerman_en_Space_-_S01E35_-_2023-08-01_-_13332067.oga</v>
+      </c>
+      <c r="X36" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Z36" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="Y36" s="4" t="s">
+      <c r="AA36" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="AB36" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AC36" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AB36" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD36" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10805,19 +11096,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AD36" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE36" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AF36" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan - Zimmerman en Space - Season 01, Episode 35 - August 01, 2023</v>
       </c>
-      <c r="AE36" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG36" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan - Zimmerman en Space - Seizoen 01, Aflevering 35 - 1 augustus 2023</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>13371426</v>
       </c>
@@ -10825,23 +11116,23 @@
         <v>106</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13371426-de-donkere-sector.mp3?download=true</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -10875,7 +11166,7 @@
         <v>391</v>
       </c>
       <c r="R37" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-08-08</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -10890,23 +11181,31 @@
       <c r="V37" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="W37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_donkere_sector_-_Zimmerman_en_Space_-_S01E36_-_2023-08-08_-_13371426.oga</v>
+      </c>
+      <c r="X37" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Z37" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="AA37" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="AB37" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="AA37" s="5" t="s">
+      <c r="AC37" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="AB37" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD37" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -10927,19 +11226,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC37" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AD37" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE37" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AF37" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De donkere sector - Zimmerman en Space - Season 01, Episode 36 - August 08, 2023</v>
       </c>
-      <c r="AE37" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG37" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De donkere sector - Zimmerman en Space - Seizoen 01, Aflevering 36 - 8 augustus 2023</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>13413025</v>
       </c>
@@ -10947,23 +11246,23 @@
         <v>109</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13413025-de-kortere-mars-dag.mp3?download=true</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -10997,7 +11296,7 @@
         <v>392</v>
       </c>
       <c r="R38" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-08-16</v>
       </c>
       <c r="S38" s="1" t="s">
@@ -11012,23 +11311,31 @@
       <c r="V38" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="W38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_kortere_Mars-dag_-_Zimmerman_en_Space_-_S01E37_-_2023-08-16_-_13413025.oga</v>
+      </c>
+      <c r="X38" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Z38" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="Y38" s="4" t="s">
+      <c r="AA38" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="AB38" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="AA38" s="5" t="s">
+      <c r="AC38" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="AB38" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD38" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11049,19 +11356,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC38" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AD38" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE38" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AF38" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De kortere Mars-dag - Zimmerman en Space - Season 01, Episode 37 - August 16, 2023</v>
       </c>
-      <c r="AE38" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG38" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De kortere Mars-dag - Zimmerman en Space - Seizoen 01, Aflevering 37 - 16 augustus 2023</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13453052</v>
       </c>
@@ -11069,23 +11376,23 @@
         <v>112</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13453052-daniel-apai-en-de-fresnel-lens.mp3?download=true</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -11119,7 +11426,7 @@
         <v>393</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-08-22</v>
       </c>
       <c r="S39" s="1" t="s">
@@ -11134,23 +11441,31 @@
       <c r="V39" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="W39" s="4" t="s">
+      <c r="W39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Daniel_Apai_en_de_fresnel-lens_-_Zimmerman_en_Space_-_S01E38_-_2023-08-22_-_13453052.oga</v>
+      </c>
+      <c r="X39" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y39" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Z39" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="AA39" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="AB39" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="AC39" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="AB39" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD39" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11173,19 +11488,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC39" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AD39" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE39" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AF39" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Daniel Apai en de fresnel-lens - Zimmerman en Space - Season 01, Episode 38 - August 22, 2023</v>
       </c>
-      <c r="AE39" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG39" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Daniel Apai en de fresnel-lens - Zimmerman en Space - Seizoen 01, Aflevering 38 - 22 augustus 2023</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>13490782</v>
       </c>
@@ -11193,23 +11508,23 @@
         <v>115</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13490782-donkere-vlekken.mp3?download=true</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -11243,7 +11558,7 @@
         <v>394</v>
       </c>
       <c r="R40" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-08-29</v>
       </c>
       <c r="S40" s="1" t="s">
@@ -11258,23 +11573,31 @@
       <c r="V40" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="W40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Donkere_vlekken_-_Zimmerman_en_Space_-_S01E39_-_2023-08-29_-_13490782.oga</v>
+      </c>
+      <c r="X40" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y40" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Z40" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="AA40" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="AB40" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="AA40" s="5" t="s">
+      <c r="AC40" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="AB40" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD40" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11294,19 +11617,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC40" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AD40" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE40" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AF40" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Donkere vlekken - Zimmerman en Space - Season 01, Episode 39 - August 29, 2023</v>
       </c>
-      <c r="AE40" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG40" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Donkere vlekken - Zimmerman en Space - Seizoen 01, Aflevering 39 - 29 augustus 2023</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>13532045</v>
       </c>
@@ -11314,23 +11637,23 @@
         <v>118</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13532045-pulsars-snurken-niet.mp3?download=true</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H41" s="1" t="s">
@@ -11364,7 +11687,7 @@
         <v>395</v>
       </c>
       <c r="R41" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-09-05</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -11377,25 +11700,33 @@
         <v>934</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="W41" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="W41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Pulsars_snurken_niet_-_Zimmerman_en_Space_-_S01E40_-_2023-09-05_-_13532045.oga</v>
+      </c>
+      <c r="X41" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="Z41" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="Y41" s="4" t="s">
+      <c r="AA41" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="Z41" s="5" t="s">
+      <c r="AB41" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="AA41" s="5" t="s">
+      <c r="AC41" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="AB41" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD41" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11418,19 +11749,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC41" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD41" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE41" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AF41" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Pulsars snurken niet - Zimmerman en Space - Season 01, Episode 40 - September 05, 2023</v>
       </c>
-      <c r="AE41" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG41" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Pulsars snurken niet - Zimmerman en Space - Seizoen 01, Aflevering 40 - 5 september 2023</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>13572418</v>
       </c>
@@ -11438,23 +11769,23 @@
         <v>121</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13572418-mercurius-raadsels.mp3?download=true</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -11488,7 +11819,7 @@
         <v>396</v>
       </c>
       <c r="R42" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-09-11</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -11501,25 +11832,33 @@
         <v>935</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="W42" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="W42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Mercurius'_raadsels_-_Zimmerman_en_Space_-_S01E41_-_2023-09-11_-_13572418.oga</v>
+      </c>
+      <c r="X42" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y42" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="Z42" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="Y42" s="4" t="s">
+      <c r="AA42" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="Z42" s="5" t="s">
+      <c r="AB42" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="AA42" s="5" t="s">
+      <c r="AC42" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="AB42" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD42" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11539,19 +11878,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC42" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AD42" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE42" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AF42" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Mercurius' raadsels - Zimmerman en Space - Season 01, Episode 41 - September 11, 2023</v>
       </c>
-      <c r="AE42" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG42" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mercurius' raadsels - Zimmerman en Space - Seizoen 01, Aflevering 41 - 11 september 2023</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>13618776</v>
       </c>
@@ -11559,23 +11898,23 @@
         <v>124</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13618776-buitenaards-leven-op-k2-18b.mp3?download=true</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -11609,7 +11948,7 @@
         <v>397</v>
       </c>
       <c r="R43" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-09-19</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -11624,23 +11963,31 @@
       <c r="V43" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="W43" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Buitenaards_leven_op_K2-18b__-_Zimmerman_en_Space_-_S01E42_-_2023-09-19_-_13618776.oga</v>
+      </c>
+      <c r="X43" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="X43" s="4" t="s">
+      <c r="Z43" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="AA43" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="Z43" s="5" t="s">
+      <c r="AB43" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="AA43" s="5" t="s">
+      <c r="AC43" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="AB43" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD43" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11665,19 +12012,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC43" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AD43" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE43" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AF43" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Buitenaards leven op K2-18b ? - Zimmerman en Space - Season 01, Episode 42 - September 19, 2023</v>
       </c>
-      <c r="AE43" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG43" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Buitenaards leven op K2-18b ? - Zimmerman en Space - Seizoen 01, Aflevering 42 - 19 september 2023</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>13662807</v>
       </c>
@@ -11685,23 +12032,23 @@
         <v>127</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13662807-verwondering-en-de-trifid-nevel.mp3?download=true</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -11735,7 +12082,7 @@
         <v>398</v>
       </c>
       <c r="R44" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-09-26</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -11748,25 +12095,33 @@
         <v>937</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="W44" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W44" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Verwondering_en_de_Trifid_nevel_-_Zimmerman_en_Space_-_S01E43_-_2023-09-26_-_13662807.oga</v>
+      </c>
+      <c r="X44" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="Z44" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="Y44" s="4" t="s">
+      <c r="AA44" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="Z44" s="5" t="s">
+      <c r="AB44" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="AA44" s="5" t="s">
+      <c r="AC44" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="AB44" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD44" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11786,19 +12141,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC44" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AD44" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE44" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AF44" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Verwondering en de Trifid nevel - Zimmerman en Space - Season 01, Episode 43 - September 26, 2023</v>
       </c>
-      <c r="AE44" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG44" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Verwondering en de Trifid nevel - Zimmerman en Space - Seizoen 01, Aflevering 43 - 26 september 2023</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>13705806</v>
       </c>
@@ -11806,23 +12161,23 @@
         <v>130</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen.mp3?download=true</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -11856,7 +12211,7 @@
         <v>399</v>
       </c>
       <c r="R45" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-10-03</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -11871,23 +12226,31 @@
       <c r="V45" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="W45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Alex_Scholten_en_de_meteoriet_van_Diepenveen_-_Zimmerman_en_Space_-_S01E44_-_2023-10-03_-_13705806.oga</v>
+      </c>
+      <c r="X45" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y45" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="Z45" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="AA45" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="Z45" s="5" t="s">
+      <c r="AB45" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="AA45" s="5" t="s">
+      <c r="AC45" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="AB45" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD45" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -11909,19 +12272,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC45" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AD45" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE45" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AF45" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Alex Scholten en de meteoriet van Diepenveen - Zimmerman en Space - Season 01, Episode 44 - October 03, 2023</v>
       </c>
-      <c r="AE45" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG45" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Alex Scholten en de meteoriet van Diepenveen - Zimmerman en Space - Seizoen 01, Aflevering 44 - 3 oktober 2023</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13749465</v>
       </c>
@@ -11929,23 +12292,23 @@
         <v>133</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13749465-een-nauwkeurig-afgeregeld-heelal.mp3?download=true</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -11979,7 +12342,7 @@
         <v>400</v>
       </c>
       <c r="R46" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-10-10</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -11994,23 +12357,31 @@
       <c r="V46" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="W46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_nauwkeurig_afgeregeld_heelal_-_Zimmerman_en_Space_-_S01E45_-_2023-10-10_-_13749465.oga</v>
+      </c>
+      <c r="X46" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="X46" s="4" t="s">
+      <c r="Z46" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="Y46" s="4" t="s">
+      <c r="AA46" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="Z46" s="5" t="s">
+      <c r="AB46" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="AA46" s="5" t="s">
+      <c r="AC46" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="AB46" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD46" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12033,19 +12404,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC46" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AD46" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE46" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AF46" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Een nauwkeurig afgeregeld heelal - Zimmerman en Space - Season 01, Episode 45 - October 10, 2023</v>
       </c>
-      <c r="AE46" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG46" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Een nauwkeurig afgeregeld heelal - Zimmerman en Space - Seizoen 01, Aflevering 45 - 10 oktober 2023</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>13796988</v>
       </c>
@@ -12053,23 +12424,23 @@
         <v>136</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F47" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13796988-buitenaardse-ruimteschepen-op-de-foto.mp3?download=true</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -12103,7 +12474,7 @@
         <v>401</v>
       </c>
       <c r="R47" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-10-17</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -12118,23 +12489,31 @@
       <c r="V47" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="W47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Buitenaardse_ruimteschepen_op_de_foto_-_Zimmerman_en_Space_-_S01E46_-_2023-10-17_-_13796988.oga</v>
+      </c>
+      <c r="X47" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y47" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="Z47" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="AA47" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="Z47" s="5" t="s">
+      <c r="AB47" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="AA47" s="5" t="s">
+      <c r="AC47" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="AB47" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD47" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12158,19 +12537,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC47" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AD47" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE47" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AF47" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Buitenaardse ruimteschepen op de foto? - Zimmerman en Space - Season 01, Episode 46 - October 17, 2023</v>
       </c>
-      <c r="AE47" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG47" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Buitenaardse ruimteschepen op de foto? - Zimmerman en Space - Seizoen 01, Aflevering 46 - 17 oktober 2023</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>13839425</v>
       </c>
@@ -12178,23 +12557,23 @@
         <v>138</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13839425-alweer-fast-radio-bursts.mp3?download=true</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H48" s="1" t="s">
@@ -12228,7 +12607,7 @@
         <v>402</v>
       </c>
       <c r="R48" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-10-24</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -12243,23 +12622,31 @@
       <c r="V48" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="W48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Alweer_Fast_Radio_Bursts_-_Zimmerman_en_Space_-_S01E47_-_2023-10-24_-_13839425.oga</v>
+      </c>
+      <c r="X48" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="X48" s="4" t="s">
+      <c r="Z48" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="Y48" s="4" t="s">
+      <c r="AA48" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="Z48" s="5" t="s">
+      <c r="AB48" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="AA48" s="5" t="s">
+      <c r="AC48" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="AB48" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD48" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12282,19 +12669,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC48" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AD48" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE48" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AF48" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Alweer Fast Radio Bursts - Zimmerman en Space - Season 01, Episode 47 - October 24, 2023</v>
       </c>
-      <c r="AE48" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG48" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Alweer Fast Radio Bursts - Zimmerman en Space - Seizoen 01, Aflevering 47 - 24 oktober 2023</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13880930</v>
       </c>
@@ -12302,23 +12689,23 @@
         <v>141</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13880930-fotosynthese-en-de-zoektocht-naar-buitenaards-leven.mp3?download=true</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -12352,7 +12739,7 @@
         <v>403</v>
       </c>
       <c r="R49" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-10-31</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -12367,23 +12754,31 @@
       <c r="V49" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="W49" s="4" t="s">
+      <c r="W49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Fotosynthese_en_de_zoektocht_naar_buitenaards_leven_-_Zimmerman_en_Space_-_S01E48_-_2023-10-31_-_13880930.oga</v>
+      </c>
+      <c r="X49" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="X49" s="4" t="s">
+      <c r="Z49" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="Y49" s="4" t="s">
+      <c r="AA49" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="Z49" s="5" t="s">
+      <c r="AB49" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AA49" s="5" t="s">
+      <c r="AC49" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="AB49" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD49" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12402,19 +12797,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC49" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AD49" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE49" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AF49" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Fotosynthese en de zoektocht naar buitenaards leven - Zimmerman en Space - Season 01, Episode 48 - October 31, 2023</v>
       </c>
-      <c r="AE49" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG49" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Fotosynthese en de zoektocht naar buitenaards leven - Zimmerman en Space - Seizoen 01, Aflevering 48 - 31 oktober 2023</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>13913914</v>
       </c>
@@ -12422,23 +12817,23 @@
         <v>144</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13913914-witte-gaten-en-negatieve-massa.mp3?download=true</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12472,7 +12867,7 @@
         <v>404</v>
       </c>
       <c r="R50" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-11-06</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -12485,25 +12880,33 @@
         <v>943</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="W50" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="W50" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Witte_gaten_en_negatieve_massa_-_Zimmerman_en_Space_-_S01E49_-_2023-11-06_-_13913914.oga</v>
+      </c>
+      <c r="X50" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y50" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="Z50" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="Y50" s="4" t="s">
+      <c r="AA50" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="Z50" s="5" t="s">
+      <c r="AB50" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="AA50" s="5" t="s">
+      <c r="AC50" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="AB50" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD50" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12523,19 +12926,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC50" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AD50" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE50" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AF50" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Witte gaten en negatieve massa - Zimmerman en Space - Season 01, Episode 49 - November 06, 2023</v>
       </c>
-      <c r="AE50" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG50" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Witte gaten en negatieve massa - Zimmerman en Space - Seizoen 01, Aflevering 49 - 6 november 2023</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>13960359</v>
       </c>
@@ -12543,23 +12946,23 @@
         <v>147</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/13960359-tijd-kristallen.mp3?download=true</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -12593,7 +12996,7 @@
         <v>405</v>
       </c>
       <c r="R51" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-11-13</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -12606,25 +13009,33 @@
         <v>944</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="W51" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W51" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Tijd_kristallen_-_Zimmerman_en_Space_-_S01E50_-_2023-11-13_-_13960359.oga</v>
+      </c>
+      <c r="X51" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y51" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="X51" s="4" t="s">
+      <c r="Z51" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="Y51" s="4" t="s">
+      <c r="AA51" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="Z51" s="5" t="s">
+      <c r="AB51" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="AA51" s="5" t="s">
+      <c r="AC51" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="AB51" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD51" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12655,19 +13066,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC51" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AD51" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE51" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AF51" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Tijd kristallen - Zimmerman en Space - Season 01, Episode 50 - November 13, 2023</v>
       </c>
-      <c r="AE51" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG51" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Tijd kristallen - Zimmerman en Space - Seizoen 01, Aflevering 50 - 13 november 2023</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>14010139</v>
       </c>
@@ -12675,23 +13086,23 @@
         <v>149</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14010139-de-duivel-komeet-komt-naar-de-aarde.mp3?download=true</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -12725,7 +13136,7 @@
         <v>406</v>
       </c>
       <c r="R52" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-11-21</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -12740,23 +13151,31 @@
       <c r="V52" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="W52" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_duivel_komeet_komt_naar_de_aarde_-_Zimmerman_en_Space_-_S01E51_-_2023-11-21_-_14010139.oga</v>
+      </c>
+      <c r="X52" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X52" s="4" t="s">
+      <c r="Z52" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="Y52" s="4" t="s">
+      <c r="AA52" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="Z52" s="5" t="s">
+      <c r="AB52" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="AA52" s="5" t="s">
+      <c r="AC52" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="AB52" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD52" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12781,19 +13200,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC52" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AD52" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE52" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AF52" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>De duivel komeet komt naar de aarde - Zimmerman en Space - Season 01, Episode 51 - November 21, 2023</v>
       </c>
-      <c r="AE52" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG52" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>De duivel komeet komt naar de aarde - Zimmerman en Space - Seizoen 01, Aflevering 51 - 21 november 2023</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>14052348</v>
       </c>
@@ -12801,23 +13220,23 @@
         <v>152</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14052348-diepe-inelastische-verstrooiing.mp3?download=true</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -12851,7 +13270,7 @@
         <v>407</v>
       </c>
       <c r="R53" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-11-29</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -12866,23 +13285,31 @@
       <c r="V53" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="W53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Diepe_inelastische_verstrooiing_-_Zimmerman_en_Space_-_S01E52_-_2023-11-29_-_14052348.oga</v>
+      </c>
+      <c r="X53" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y53" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="X53" s="4" t="s">
+      <c r="Z53" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="Y53" s="4" t="s">
+      <c r="AA53" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="Z53" s="5" t="s">
+      <c r="AB53" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="AA53" s="5" t="s">
+      <c r="AC53" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="AB53" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD53" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -12903,19 +13330,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC53" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AD53" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE53" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AF53" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Diepe inelastische verstrooiing - Zimmerman en Space - Season 01, Episode 52 - November 29, 2023</v>
       </c>
-      <c r="AE53" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG53" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Diepe inelastische verstrooiing - Zimmerman en Space - Seizoen 01, Aflevering 52 - 29 november 2023</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>14094661</v>
       </c>
@@ -12923,23 +13350,23 @@
         <v>155</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14094661-overal-velden.mp3?download=true</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -12973,7 +13400,7 @@
         <v>408</v>
       </c>
       <c r="R54" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-12-05</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -12986,25 +13413,33 @@
         <v>947</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="W54" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="W54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Overal_velden_-_Zimmerman_en_Space_-_S01E53_-_2023-12-05_-_14094661.oga</v>
+      </c>
+      <c r="X54" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y54" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="Z54" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="AA54" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="Z54" s="5" t="s">
+      <c r="AB54" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="AA54" s="5" t="s">
+      <c r="AC54" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="AB54" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD54" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13027,19 +13462,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC54" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AD54" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE54" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AF54" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Overal velden - Zimmerman en Space - Season 01, Episode 53 - December 05, 2023</v>
       </c>
-      <c r="AE54" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG54" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Overal velden - Zimmerman en Space - Seizoen 01, Aflevering 53 - 5 december 2023</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>14133465</v>
       </c>
@@ -13047,23 +13482,23 @@
         <v>158</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14133465-koolmonoxide-in-the-brick.mp3?download=true</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -13097,7 +13532,7 @@
         <v>409</v>
       </c>
       <c r="R55" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-12-12</v>
       </c>
       <c r="S55" s="1" t="s">
@@ -13110,25 +13545,33 @@
         <v>948</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="W55" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="W55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Koolmonoxide_in_The_Brick_-_Zimmerman_en_Space_-_S01E54_-_2023-12-12_-_14133465.oga</v>
+      </c>
+      <c r="X55" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y55" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="X55" s="4" t="s">
+      <c r="Z55" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="Y55" s="4" t="s">
+      <c r="AA55" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="Z55" s="5" t="s">
+      <c r="AB55" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="AA55" s="5" t="s">
+      <c r="AC55" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="AB55" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD55" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13150,19 +13593,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC55" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AD55" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE55" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AF55" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Koolmonoxide in The Brick - Zimmerman en Space - Season 01, Episode 54 - December 12, 2023</v>
       </c>
-      <c r="AE55" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG55" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Koolmonoxide in The Brick - Zimmerman en Space - Seizoen 01, Aflevering 54 - 12 december 2023</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>14176787</v>
       </c>
@@ -13170,23 +13613,23 @@
         <v>161</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14176787-intra-cluster-licht.mp3?download=true</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -13220,7 +13663,7 @@
         <v>410</v>
       </c>
       <c r="R56" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-12-20</v>
       </c>
       <c r="S56" s="1" t="s">
@@ -13233,25 +13676,33 @@
         <v>949</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="W56" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="W56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Intra_Cluster_Licht_-_Zimmerman_en_Space_-_S01E55_-_2023-12-20_-_14176787.oga</v>
+      </c>
+      <c r="X56" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="X56" s="4" t="s">
+      <c r="Z56" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="Y56" s="4" t="s">
+      <c r="AA56" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="Z56" s="5" t="s">
+      <c r="AB56" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="AA56" s="5" t="s">
+      <c r="AC56" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="AB56" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD56" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13274,19 +13725,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC56" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AD56" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE56" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AF56" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Intra Cluster Licht - Zimmerman en Space - Season 01, Episode 55 - December 20, 2023</v>
       </c>
-      <c r="AE56" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG56" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Intra Cluster Licht - Zimmerman en Space - Seizoen 01, Aflevering 55 - 20 december 2023</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>14197563</v>
       </c>
@@ -13294,23 +13745,23 @@
         <v>164</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14197563-tabby-s-ster-een-kerst-update.mp3?download=true</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -13344,7 +13795,7 @@
         <v>411</v>
       </c>
       <c r="R57" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2023-12-24</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -13357,25 +13808,33 @@
         <v>950</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="W57" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="W57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Tabby's_ster..._een_kerst_update_-_Zimmerman_en_Space_-_S01E56_-_2023-12-24_-_14197563.oga</v>
+      </c>
+      <c r="X57" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y57" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="X57" s="4" t="s">
+      <c r="Z57" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="Y57" s="4" t="s">
+      <c r="AA57" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="Z57" s="5" t="s">
+      <c r="AB57" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="AA57" s="5" t="s">
+      <c r="AC57" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="AB57" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD57" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13399,19 +13858,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC57" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AD57" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE57" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AF57" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Tabby's ster... een kerst update - Zimmerman en Space - Season 01, Episode 56 - December 24, 2023</v>
       </c>
-      <c r="AE57" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG57" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Tabby's ster... een kerst update - Zimmerman en Space - Seizoen 01, Aflevering 56 - 24 december 2023</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>14231208</v>
       </c>
@@ -13419,23 +13878,23 @@
         <v>167</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F58" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14231208-kattenfilmpjes-en-lasers.mp3?download=true</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H58" s="1" t="s">
@@ -13469,7 +13928,7 @@
         <v>412</v>
       </c>
       <c r="R58" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-01-01</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -13482,25 +13941,33 @@
         <v>951</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="W58" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="W58" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Kattenfilmpjes_en_lasers_-_Zimmerman_en_Space_-_S01E57_-_2024-01-01_-_14231208.oga</v>
+      </c>
+      <c r="X58" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="X58" s="4" t="s">
+      <c r="Z58" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="Y58" s="4" t="s">
+      <c r="AA58" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="Z58" s="5" t="s">
+      <c r="AB58" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="AA58" s="5" t="s">
+      <c r="AC58" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="AB58" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD58" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13526,19 +13993,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC58" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AD58" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE58" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AF58" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Kattenfilmpjes en lasers - Zimmerman en Space - Season 01, Episode 57 - January 01, 2024</v>
       </c>
-      <c r="AE58" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG58" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Kattenfilmpjes en lasers - Zimmerman en Space - Seizoen 01, Aflevering 57 - 1 januari 2024</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>14281426</v>
       </c>
@@ -13546,23 +14013,23 @@
         <v>170</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F59" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14281426-ec-002-een-vreemde-meteoriet.mp3?download=true</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -13596,7 +14063,7 @@
         <v>413</v>
       </c>
       <c r="R59" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-01-09</v>
       </c>
       <c r="S59" s="1" t="s">
@@ -13611,23 +14078,31 @@
       <c r="V59" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="W59" s="4" t="s">
+      <c r="W59" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\EC_002_-_een_vreemde_meteoriet_-_Zimmerman_en_Space_-_S01E58_-_2024-01-09_-_14281426.oga</v>
+      </c>
+      <c r="X59" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="X59" s="4" t="s">
+      <c r="Z59" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="Y59" s="4" t="s">
+      <c r="AA59" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="Z59" s="5" t="s">
+      <c r="AB59" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="AA59" s="5" t="s">
+      <c r="AC59" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="AB59" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD59" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13652,19 +14127,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC59" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AD59" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE59" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AF59" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>EC 002 - een vreemde meteoriet - Zimmerman en Space - Season 01, Episode 58 - January 09, 2024</v>
       </c>
-      <c r="AE59" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG59" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>EC 002 - een vreemde meteoriet - Zimmerman en Space - Seizoen 01, Aflevering 58 - 9 januari 2024</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>14311218</v>
       </c>
@@ -13672,23 +14147,23 @@
         <v>173</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F60" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14311218-een-sterrenstelsel-zonder-sterren.mp3?download=true</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -13722,7 +14197,7 @@
         <v>414</v>
       </c>
       <c r="R60" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-01-15</v>
       </c>
       <c r="S60" s="1" t="s">
@@ -13737,23 +14212,31 @@
       <c r="V60" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="W60" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_sterrenstelsel_zonder_sterren_-_Zimmerman_en_Space_-_S01E59_-_2024-01-15_-_14311218.oga</v>
+      </c>
+      <c r="X60" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y60" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="X60" s="4" t="s">
+      <c r="Z60" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="AA60" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="Z60" s="5" t="s">
+      <c r="AB60" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="AA60" s="5" t="s">
+      <c r="AC60" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="AB60" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD60" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13774,19 +14257,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC60" s="5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AD60" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE60" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AF60" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Een sterrenstelsel zonder sterren - Zimmerman en Space - Season 01, Episode 59 - January 15, 2024</v>
       </c>
-      <c r="AE60" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG60" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Een sterrenstelsel zonder sterren - Zimmerman en Space - Seizoen 01, Aflevering 59 - 15 januari 2024</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>14364552</v>
       </c>
@@ -13794,23 +14277,23 @@
         <v>176</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F61" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14364552-project-cosmic.mp3?download=true</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -13844,7 +14327,7 @@
         <v>415</v>
       </c>
       <c r="R61" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-01-23</v>
       </c>
       <c r="S61" s="1" t="s">
@@ -13857,25 +14340,33 @@
         <v>954</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="W61" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="W61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Project_COSMIC_-_Zimmerman_en_Space_-_S01E60_-_2024-01-23_-_14364552.oga</v>
+      </c>
+      <c r="X61" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="Z61" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="Y61" s="4" t="s">
+      <c r="AA61" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="Z61" s="5" t="s">
+      <c r="AB61" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="AA61" s="5" t="s">
+      <c r="AC61" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="AB61" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD61" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -13896,19 +14387,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC61" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AD61" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE61" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AF61" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Project COSMIC - Zimmerman en Space - Season 01, Episode 60 - January 23, 2024</v>
       </c>
-      <c r="AE61" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG61" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Project COSMIC - Zimmerman en Space - Seizoen 01, Aflevering 60 - 23 januari 2024</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14405344</v>
       </c>
@@ -13916,23 +14407,23 @@
         <v>179</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F62" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14405344-project-lisa.mp3?download=true</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -13966,7 +14457,7 @@
         <v>416</v>
       </c>
       <c r="R62" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-01-30</v>
       </c>
       <c r="S62" s="1" t="s">
@@ -13979,25 +14470,33 @@
         <v>955</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="W62" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Project_LISA_-_Zimmerman_en_Space_-_S01E61_-_2024-01-30_-_14405344.oga</v>
+      </c>
+      <c r="X62" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y62" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="X62" s="4" t="s">
+      <c r="Z62" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="AA62" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="Z62" s="5" t="s">
+      <c r="AB62" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="AA62" s="5" t="s">
+      <c r="AC62" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="AB62" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD62" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14018,19 +14517,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC62" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AD62" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE62" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AF62" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Project LISA - Zimmerman en Space - Season 01, Episode 61 - January 30, 2024</v>
       </c>
-      <c r="AE62" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG62" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Project LISA - Zimmerman en Space - Seizoen 01, Aflevering 61 - 30 januari 2024</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>14453081</v>
       </c>
@@ -14038,23 +14537,23 @@
         <v>181</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F63" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14453081-maanbevingen.mp3?download=true</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H63" s="1" t="s">
@@ -14088,7 +14587,7 @@
         <v>417</v>
       </c>
       <c r="R63" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-02-06</v>
       </c>
       <c r="S63" s="1" t="s">
@@ -14101,25 +14600,33 @@
         <v>956</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="W63" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="W63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Maanbevingen_-_Zimmerman_en_Space_-_S01E62_-_2024-02-06_-_14453081.oga</v>
+      </c>
+      <c r="X63" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y63" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="X63" s="4" t="s">
+      <c r="Z63" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="Y63" s="4" t="s">
+      <c r="AA63" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="Z63" s="5" t="s">
+      <c r="AB63" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="AA63" s="5" t="s">
+      <c r="AC63" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="AB63" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD63" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14149,19 +14656,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC63" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AD63" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE63" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AF63" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Maanbevingen - Zimmerman en Space - Season 01, Episode 62 - February 06, 2024</v>
       </c>
-      <c r="AE63" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG63" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Maanbevingen - Zimmerman en Space - Seizoen 01, Aflevering 62 - 6 februari 2024</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>14496419</v>
       </c>
@@ -14169,23 +14676,23 @@
         <v>184</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F64" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14496419-ruimtevaart-economie.mp3?download=true</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -14219,7 +14726,7 @@
         <v>418</v>
       </c>
       <c r="R64" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-02-13</v>
       </c>
       <c r="S64" s="1" t="s">
@@ -14232,25 +14739,33 @@
         <v>957</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="W64" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="W64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Ruimtevaart_economie_-_Zimmerman_en_Space_-_S01E63_-_2024-02-13_-_14496419.oga</v>
+      </c>
+      <c r="X64" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y64" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="X64" s="4" t="s">
+      <c r="Z64" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="Y64" s="4" t="s">
+      <c r="AA64" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="Z64" s="5" t="s">
+      <c r="AB64" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="AA64" s="5" t="s">
+      <c r="AC64" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="AB64" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD64" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14275,19 +14790,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC64" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AD64" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE64" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AF64" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Ruimtevaart economie - Zimmerman en Space - Season 01, Episode 63 - February 13, 2024</v>
       </c>
-      <c r="AE64" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG64" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Ruimtevaart economie - Zimmerman en Space - Seizoen 01, Aflevering 63 - 13 februari 2024</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>14538270</v>
       </c>
@@ -14295,23 +14810,23 @@
         <v>187</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Klik</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Klik</v>
       </c>
       <c r="F65" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>https://www.buzzsprout.com/2096278/14538270-het-vroege-heelal-een-minder-geschikte-tijd-om-naar-podcasts-te-luisteren.mp3?download=true</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Klik</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -14345,7 +14860,7 @@
         <v>419</v>
       </c>
       <c r="R65" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2024-02-20</v>
       </c>
       <c r="S65" s="1" t="s">
@@ -14358,25 +14873,33 @@
         <v>958</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="W65" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="W65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Het_vroege_heelal,_een_minder_geschikte_tijd_om_naar_podcasts_te_luisteren_-_Zimmerman_en_Space_-_S01E64_-_2024-02-20_-_14538270.oga</v>
+      </c>
+      <c r="X65" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y65" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="X65" s="4" t="s">
+      <c r="Z65" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="Y65" s="4" t="s">
+      <c r="AA65" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="Z65" s="5" t="s">
+      <c r="AB65" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="AA65" s="5" t="s">
+      <c r="AC65" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="AB65" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD65" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14402,19 +14925,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC65" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AD65" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE65" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AF65" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren - Zimmerman en Space - Season 01, Episode 64 - February 20, 2024</v>
       </c>
-      <c r="AE65" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG65" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren - Zimmerman en Space - Seizoen 01, Aflevering 64 - 20 februari 2024</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>14584962</v>
       </c>
@@ -14422,23 +14945,23 @@
         <v>190</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" ref="C66:C97" si="15">HYPERLINK(B66,"Klik")</f>
+        <f t="shared" ref="C66:C93" si="17">HYPERLINK(B66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D93" si="16">_xlfn.CONCAT(B66,".mp3")</f>
+        <f t="shared" ref="D66:D93" si="18">_xlfn.CONCAT(B66,".mp3")</f>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E97" si="17">HYPERLINK(D66,"Klik")</f>
+        <f t="shared" ref="E66:E93" si="19">HYPERLINK(D66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="F66" s="3" t="str">
-        <f t="shared" ref="F66:F93" si="18">_xlfn.CONCAT(D66,"?download=true")</f>
+        <f t="shared" ref="F66:F93" si="20">_xlfn.CONCAT(D66,"?download=true")</f>
         <v>https://www.buzzsprout.com/2096278/14584962-varda-s-w1-ruimtevaartuig.mp3?download=true</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f t="shared" ref="G66:G97" si="19">HYPERLINK(F66,"Klik")</f>
+        <f t="shared" ref="G66:G93" si="21">HYPERLINK(F66,"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -14472,7 +14995,7 @@
         <v>420</v>
       </c>
       <c r="R66" s="3" t="str">
-        <f t="shared" ref="R66:R93" si="20">_xlfn.CONCAT(O66,"-",L66,"-",J66)</f>
+        <f t="shared" ref="R66:R93" si="22">_xlfn.CONCAT(O66,"-",L66,"-",J66)</f>
         <v>2024-02-27</v>
       </c>
       <c r="S66" s="1" t="s">
@@ -14485,25 +15008,33 @@
         <v>959</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="W66" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="W66" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Varda's_W1_ruimtevaartuig_-_Zimmerman_en_Space_-_S01E65_-_2024-02-27_-_14584962.oga</v>
+      </c>
+      <c r="X66" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y66" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="X66" s="4" t="s">
+      <c r="Z66" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="Y66" s="4" t="s">
+      <c r="AA66" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="Z66" s="5" t="s">
+      <c r="AB66" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="AA66" s="5" t="s">
+      <c r="AC66" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="AB66" s="5" t="str">
-        <f t="shared" si="6"/>
+      <c r="AD66" s="5" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14526,19 +15057,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC66" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AD66" s="3" t="str">
-        <f t="shared" si="7"/>
+      <c r="AE66" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AF66" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Varda's W1 ruimtevaartuig - Zimmerman en Space - Season 01, Episode 65 - February 27, 2024</v>
       </c>
-      <c r="AE66" s="3" t="str">
-        <f t="shared" si="8"/>
+      <c r="AG66" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Varda's W1 ruimtevaartuig - Zimmerman en Space - Seizoen 01, Aflevering 65 - 27 februari 2024</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>14631099</v>
       </c>
@@ -14546,23 +15077,23 @@
         <v>193</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14631099-u-bevindt-zich-hier.mp3?download=true</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -14596,7 +15127,7 @@
         <v>421</v>
       </c>
       <c r="R67" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-03-05</v>
       </c>
       <c r="S67" s="1" t="s">
@@ -14609,27 +15140,35 @@
         <v>960</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="W67" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="W67" s="3" t="str">
+        <f t="shared" ref="W67:W93" si="23">_xlfn.CONCAT("D:\Zimmerman-en-Space-podcast\oga-files\",V67)</f>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\U_bevindt_zich_hier_-_Zimmerman_en_Space_-_S01E66_-_2024-03-05_-_14631099.oga</v>
+      </c>
+      <c r="X67" s="11" t="str">
+        <f t="shared" ref="X67:X93" si="24">HYPERLINK(W67,"Klik")</f>
+        <v>Klik</v>
+      </c>
+      <c r="Y67" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="X67" s="4" t="s">
+      <c r="Z67" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="Y67" s="4" t="s">
+      <c r="AA67" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="AB67" s="5" t="str">
-        <f t="shared" ref="AB67:AB93" si="21">"
+      <c r="AD67" s="5" t="str">
+        <f t="shared" ref="AD67:AD93" si="25">"
 =={{int:filedesc}}==
 {{Information
 |description={{nl|1= " &amp; H67 &amp;  " - ''Zimmerman en Space'' - Seizoen " &amp; S67 &amp; ", Aflevering " &amp; T67 &amp; " - " &amp; P67 &amp; "
 ;Shownotes
 " &amp;
-Y67 &amp; " 
+AA67 &amp; " 
 " &amp;
-AA67
+AC67
 &amp; "}}
 |date = " &amp; R67 &amp; "
 |source = "&amp; B67 &amp; "
@@ -14657,19 +15196,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC67" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AD67" s="3" t="str">
-        <f t="shared" ref="AD67:AD93" si="22">_xlfn.CONCAT(H67," - Zimmerman en Space - Season ",S67,", Episode ",T67," - ",Q67)</f>
+      <c r="AE67" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AF67" s="3" t="str">
+        <f t="shared" ref="AF67:AF93" si="26">_xlfn.CONCAT(H67," - Zimmerman en Space - Season ",S67,", Episode ",T67," - ",Q67)</f>
         <v>U bevindt zich hier - Zimmerman en Space - Season 01, Episode 66 - March 05, 2024</v>
       </c>
-      <c r="AE67" s="3" t="str">
-        <f t="shared" ref="AE67:AE93" si="23">_xlfn.CONCAT($H67," - Zimmerman en Space - Seizoen ",$S67,", Aflevering ",$T67," - ",P67)</f>
+      <c r="AG67" s="3" t="str">
+        <f t="shared" ref="AG67:AG93" si="27">_xlfn.CONCAT($H67," - Zimmerman en Space - Seizoen ",$S67,", Aflevering ",$T67," - ",P67)</f>
         <v>U bevindt zich hier - Zimmerman en Space - Seizoen 01, Aflevering 66 - 5 maart 2024</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>14672122</v>
       </c>
@@ -14677,23 +15216,23 @@
         <v>196</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14672122-fotografie-buiten-de-aarde.mp3?download=true</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -14727,7 +15266,7 @@
         <v>422</v>
       </c>
       <c r="R68" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-03-11</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -14742,23 +15281,31 @@
       <c r="V68" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="W68" s="4" t="s">
+      <c r="W68" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Fotografie_buiten_de_aarde_-_Zimmerman_en_Space_-_S01E67_-_2024-03-11_-_14672122.oga</v>
+      </c>
+      <c r="X68" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y68" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="X68" s="4" t="s">
+      <c r="Z68" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="Y68" s="4" t="s">
+      <c r="AA68" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="Z68" s="5" t="s">
+      <c r="AB68" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="AA68" s="5" t="s">
+      <c r="AC68" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="AB68" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD68" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14785,19 +15332,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC68" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AD68" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE68" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AF68" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Fotografie buiten de aarde - Zimmerman en Space - Season 01, Episode 67 - March 11, 2024</v>
       </c>
-      <c r="AE68" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG68" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Fotografie buiten de aarde - Zimmerman en Space - Seizoen 01, Aflevering 67 - 11 maart 2024</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>14706516</v>
       </c>
@@ -14805,23 +15352,23 @@
         <v>199</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F69" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14706516-astrofotografie-een-interview-met-arenda-schuurman.mp3?download=true</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -14855,7 +15402,7 @@
         <v>423</v>
       </c>
       <c r="R69" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-03-17</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -14870,23 +15417,31 @@
       <c r="V69" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="W69" s="4" t="s">
+      <c r="W69" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Astrofotografie_-_een_interview_met_Arenda_Schuurman_-_Zimmerman_en_Space_-_S01E68_-_2024-03-17_-_14706516.oga</v>
+      </c>
+      <c r="X69" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y69" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X69" s="4" t="s">
+      <c r="Z69" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="Y69" s="4" t="s">
+      <c r="AA69" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="Z69" s="5" t="s">
+      <c r="AB69" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="AA69" s="5" t="s">
+      <c r="AC69" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="AB69" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD69" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -14913,19 +15468,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC69" s="5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AD69" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE69" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AF69" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Astrofotografie - een interview met Arenda Schuurman - Zimmerman en Space - Season 01, Episode 68 - March 17, 2024</v>
       </c>
-      <c r="AE69" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG69" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Astrofotografie - een interview met Arenda Schuurman - Zimmerman en Space - Seizoen 01, Aflevering 68 - 17 maart 2024</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>14756666</v>
       </c>
@@ -14933,23 +15488,23 @@
         <v>202</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F70" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14756666-okay-geen-pulsar-maar-wat-dan-wel.mp3?download=true</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H70" s="1" t="s">
@@ -14983,7 +15538,7 @@
         <v>424</v>
       </c>
       <c r="R70" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-03-24</v>
       </c>
       <c r="S70" s="1" t="s">
@@ -14996,25 +15551,33 @@
         <v>963</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="W70" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="W70" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Okay,_geen_pulsar,_maar_wat_dan_wel_-_Zimmerman_en_Space_-_S01E69_-_2024-03-24_-_14756666.oga</v>
+      </c>
+      <c r="X70" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y70" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="X70" s="4" t="s">
+      <c r="Z70" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="Y70" s="4" t="s">
+      <c r="AA70" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="Z70" s="5" t="s">
+      <c r="AB70" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="AA70" s="5" t="s">
+      <c r="AC70" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="AB70" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD70" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15036,19 +15599,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC70" s="5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AD70" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE70" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AF70" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Okay, geen pulsar, maar wat dan wel? - Zimmerman en Space - Season 01, Episode 69 - March 24, 2024</v>
       </c>
-      <c r="AE70" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG70" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Okay, geen pulsar, maar wat dan wel? - Zimmerman en Space - Seizoen 01, Aflevering 69 - 24 maart 2024</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>14801125</v>
       </c>
@@ -15056,23 +15619,23 @@
         <v>205</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14801125-een-nieuwe-ster-aan-onze-hemel.mp3?download=true</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -15106,7 +15669,7 @@
         <v>425</v>
       </c>
       <c r="R71" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-03-31</v>
       </c>
       <c r="S71" s="1" t="s">
@@ -15121,23 +15684,31 @@
       <c r="V71" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="W71" s="4" t="s">
+      <c r="W71" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_nieuwe_ster_aan_onze_hemel_-_Zimmerman_en_Space_-_S01E70_-_2024-03-31_-_14801125.oga</v>
+      </c>
+      <c r="X71" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y71" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="X71" s="4" t="s">
+      <c r="Z71" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="Y71" s="4" t="s">
+      <c r="AA71" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="Z71" s="5" t="s">
+      <c r="AB71" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="AA71" s="5" t="s">
+      <c r="AC71" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="AB71" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD71" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15162,19 +15733,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC71" s="5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AD71" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE71" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AF71" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Een nieuwe ster aan onze hemel - Zimmerman en Space - Season 01, Episode 70 - March 31, 2024</v>
       </c>
-      <c r="AE71" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG71" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Een nieuwe ster aan onze hemel - Zimmerman en Space - Seizoen 01, Aflevering 70 - 31 maart 2024</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>14847646</v>
       </c>
@@ -15182,23 +15753,23 @@
         <v>208</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14847646-het-thorne-zytkow-object-en-hoe-zwaar-een-ster-eigenlijk-kan-worden.mp3?download=true</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H72" s="1" t="s">
@@ -15232,7 +15803,7 @@
         <v>426</v>
       </c>
       <c r="R72" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-04-08</v>
       </c>
       <c r="S72" s="1" t="s">
@@ -15245,25 +15816,33 @@
         <v>965</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="W72" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="W72" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Het_Thorne-Zytkow_object_en_hoe_zwaar_een_ster_eigenlijk_kan_worden_-_Zimmerman_en_Space_-_S01E71_-_2024-04-08_-_14847646.oga</v>
+      </c>
+      <c r="X72" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y72" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="X72" s="4" t="s">
+      <c r="Z72" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="Y72" s="4" t="s">
+      <c r="AA72" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="Z72" s="5" t="s">
+      <c r="AB72" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AA72" s="5" t="s">
+      <c r="AC72" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="AB72" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD72" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15289,19 +15868,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC72" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AD72" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE72" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AF72" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Het Thorne-Żytkow object en hoe zwaar een ster eigenlijk kan worden - Zimmerman en Space - Season 01, Episode 71 - April 08, 2024</v>
       </c>
-      <c r="AE72" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG72" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Het Thorne-Żytkow object en hoe zwaar een ster eigenlijk kan worden - Zimmerman en Space - Seizoen 01, Aflevering 71 - 8 april 2024</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>14898036</v>
       </c>
@@ -15309,23 +15888,23 @@
         <v>211</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F73" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14898036-we-leven-in-een-magnetische-tunnel.mp3?download=true</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -15359,7 +15938,7 @@
         <v>427</v>
       </c>
       <c r="R73" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-04-16</v>
       </c>
       <c r="S73" s="1" t="s">
@@ -15372,25 +15951,33 @@
         <v>966</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="W73" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="W73" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\We_leven_in_een_magnetische_tunnel_-_Zimmerman_en_Space_-_S01E72_-_2024-04-16_-_14898036.oga</v>
+      </c>
+      <c r="X73" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y73" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="X73" s="4" t="s">
+      <c r="Z73" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="Y73" s="4" t="s">
+      <c r="AA73" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="Z73" s="5" t="s">
+      <c r="AB73" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="AA73" s="5" t="s">
+      <c r="AC73" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="AB73" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD73" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15413,19 +16000,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC73" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AD73" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE73" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AF73" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>We leven in een magnetische tunnel - Zimmerman en Space - Season 01, Episode 72 - April 16, 2024</v>
       </c>
-      <c r="AE73" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG73" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>We leven in een magnetische tunnel - Zimmerman en Space - Seizoen 01, Aflevering 72 - 16 april 2024</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>14943702</v>
       </c>
@@ -15433,23 +16020,23 @@
         <v>214</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F74" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14943702-tijd-voor-wat-geluidsfragmenten.mp3?download=true</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H74" s="1" t="s">
@@ -15483,7 +16070,7 @@
         <v>428</v>
       </c>
       <c r="R74" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-04-23</v>
       </c>
       <c r="S74" s="1" t="s">
@@ -15496,25 +16083,33 @@
         <v>967</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="W74" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="W74" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Tijd_voor_wat_geluidsfragmenten_-_Zimmerman_en_Space_-_S01E73_-_2024-04-23_-_14943702.oga</v>
+      </c>
+      <c r="X74" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y74" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="X74" s="4" t="s">
+      <c r="Z74" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="AA74" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="Z74" s="5" t="s">
+      <c r="AB74" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="AA74" s="5" t="s">
+      <c r="AC74" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="AB74" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD74" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15539,19 +16134,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC74" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AD74" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE74" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AF74" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Tijd voor wat geluidsfragmenten - Zimmerman en Space - Season 01, Episode 73 - April 23, 2024</v>
       </c>
-      <c r="AE74" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG74" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Tijd voor wat geluidsfragmenten - Zimmerman en Space - Seizoen 01, Aflevering 73 - 23 april 2024</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>14968945</v>
       </c>
@@ -15559,23 +16154,23 @@
         <v>217</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/14968945-europa-clipper-en-voyager-1-of-andersom.mp3?download=true</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -15609,7 +16204,7 @@
         <v>429</v>
       </c>
       <c r="R75" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-04-28</v>
       </c>
       <c r="S75" s="1" t="s">
@@ -15624,23 +16219,31 @@
       <c r="V75" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="W75" s="4" t="s">
+      <c r="W75" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Europa_Clipper_en_Voyager_1_(of_andersom)_-_Zimmerman_en_Space_-_S01E74_-_2024-04-28_-_14968945.oga</v>
+      </c>
+      <c r="X75" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y75" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="X75" s="4" t="s">
+      <c r="Z75" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="Y75" s="4" t="s">
+      <c r="AA75" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="Z75" s="5" t="s">
+      <c r="AB75" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="AA75" s="5" t="s">
+      <c r="AC75" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="AB75" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD75" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15668,19 +16271,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC75" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AD75" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE75" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AF75" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Europa Clipper en Voyager 1 (of andersom) - Zimmerman en Space - Season 01, Episode 74 - April 28, 2024</v>
       </c>
-      <c r="AE75" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG75" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Europa Clipper en Voyager 1 (of andersom) - Zimmerman en Space - Seizoen 01, Aflevering 74 - 28 april 2024</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>15013251</v>
       </c>
@@ -15688,23 +16291,23 @@
         <v>220</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15013251-kortstondige-maan-fenomenen.mp3?download=true</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -15738,7 +16341,7 @@
         <v>430</v>
       </c>
       <c r="R76" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-05-05</v>
       </c>
       <c r="S76" s="1" t="s">
@@ -15751,25 +16354,33 @@
         <v>969</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="W76" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W76" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Kortstondige_maan_fenomenen_-_Zimmerman_en_Space_-_S01E75_-_2024-05-05_-_15013251.oga</v>
+      </c>
+      <c r="X76" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y76" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="X76" s="4" t="s">
+      <c r="Z76" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Y76" s="4" t="s">
+      <c r="AA76" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Z76" s="5" t="s">
+      <c r="AB76" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="AA76" s="5" t="s">
+      <c r="AC76" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="AB76" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD76" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15802,19 +16413,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC76" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AD76" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE76" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AF76" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Kortstondige maan fenomenen - Zimmerman en Space - Season 01, Episode 75 - May 05, 2024</v>
       </c>
-      <c r="AE76" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG76" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Kortstondige maan fenomenen - Zimmerman en Space - Seizoen 01, Aflevering 75 - 5 mei 2024</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>15054031</v>
       </c>
@@ -15822,23 +16433,23 @@
         <v>223</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15054031-secundaire-eclips-secundaire-atmosfeer.mp3?download=true</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -15872,7 +16483,7 @@
         <v>431</v>
       </c>
       <c r="R77" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-05-12</v>
       </c>
       <c r="S77" s="1" t="s">
@@ -15885,25 +16496,33 @@
         <v>970</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="W77" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="W77" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Secundaire_eclips,_secundaire_atmosfeer_-_Zimmerman_en_Space_-_S01E76_-_2024-05-12_-_15054031.oga</v>
+      </c>
+      <c r="X77" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y77" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="X77" s="4" t="s">
+      <c r="Z77" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="Y77" s="4" t="s">
+      <c r="AA77" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="Z77" s="5" t="s">
+      <c r="AB77" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="AA77" s="5" t="s">
+      <c r="AC77" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="AB77" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD77" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -15925,19 +16544,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC77" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AD77" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE77" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AF77" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Secundaire eclips, secundaire atmosfeer - Zimmerman en Space - Season 01, Episode 76 - May 12, 2024</v>
       </c>
-      <c r="AE77" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG77" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Secundaire eclips, secundaire atmosfeer - Zimmerman en Space - Seizoen 01, Aflevering 76 - 12 mei 2024</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>15091584</v>
       </c>
@@ -15945,23 +16564,23 @@
         <v>226</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15091584-toi-1452b-een-geleide-meditatie-met-mirthe-en-hens.mp3?download=true</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -15995,7 +16614,7 @@
         <v>432</v>
       </c>
       <c r="R78" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-05-18</v>
       </c>
       <c r="S78" s="1" t="s">
@@ -16008,25 +16627,33 @@
         <v>971</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W78" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="W78" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\TOI-1452b,_een_geleide_meditatie_met_Mirthe_en_Hens_-_Zimmerman_en_Space_-_S01E77_-_2024-05-18_-_15091584.oga</v>
+      </c>
+      <c r="X78" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y78" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="X78" s="4" t="s">
+      <c r="Z78" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="Y78" s="4" t="s">
+      <c r="AA78" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="Z78" s="5" t="s">
+      <c r="AB78" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="AA78" s="5" t="s">
+      <c r="AC78" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="AB78" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD78" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16044,19 +16671,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC78" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AD78" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE78" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AF78" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>TOI-1452b, een geleide meditatie met Mirthe en Hens - Zimmerman en Space - Season 01, Episode 77 - May 18, 2024</v>
       </c>
-      <c r="AE78" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG78" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>TOI-1452b, een geleide meditatie met Mirthe en Hens - Zimmerman en Space - Seizoen 01, Aflevering 77 - 18 mei 2024</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>15141653</v>
       </c>
@@ -16064,23 +16691,23 @@
         <v>229</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15141653-amalthea.mp3?download=true</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -16114,7 +16741,7 @@
         <v>433</v>
       </c>
       <c r="R79" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-05-27</v>
       </c>
       <c r="S79" s="1" t="s">
@@ -16129,23 +16756,31 @@
       <c r="V79" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="W79" s="4" t="s">
+      <c r="W79" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Amalthea_-_Zimmerman_en_Space_-_S01E78_-_2024-05-27_-_15141653.oga</v>
+      </c>
+      <c r="X79" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y79" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="X79" s="4" t="s">
+      <c r="Z79" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="Y79" s="4" t="s">
+      <c r="AA79" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="Z79" s="5" t="s">
+      <c r="AB79" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="AA79" s="5" t="s">
+      <c r="AC79" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="AB79" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD79" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16168,19 +16803,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC79" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AD79" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE79" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AF79" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Amalthea - Zimmerman en Space - Season 01, Episode 78 - May 27, 2024</v>
       </c>
-      <c r="AE79" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG79" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Amalthea - Zimmerman en Space - Seizoen 01, Aflevering 78 - 27 mei 2024</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15182541</v>
       </c>
@@ -16188,23 +16823,23 @@
         <v>232</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15182541-een-pleidooi-voor-de-verrekijker.mp3?download=true</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -16238,7 +16873,7 @@
         <v>434</v>
       </c>
       <c r="R80" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-06-03</v>
       </c>
       <c r="S80" s="1" t="s">
@@ -16253,23 +16888,31 @@
       <c r="V80" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="W80" s="4" t="s">
+      <c r="W80" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_pleidooi_voor_de_verrekijker_-_Zimmerman_en_Space_-_S01E79_-_2024-06-03_-_15182541.oga</v>
+      </c>
+      <c r="X80" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y80" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="X80" s="4" t="s">
+      <c r="Z80" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="Y80" s="4" t="s">
+      <c r="AA80" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="Z80" s="5" t="s">
+      <c r="AB80" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="AA80" s="5" t="s">
+      <c r="AC80" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="AB80" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD80" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16296,19 +16939,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC80" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AD80" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE80" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AF80" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Een pleidooi voor de verrekijker - Zimmerman en Space - Season 01, Episode 79 - June 03, 2024</v>
       </c>
-      <c r="AE80" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG80" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Een pleidooi voor de verrekijker - Zimmerman en Space - Seizoen 01, Aflevering 79 - 3 juni 2024</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>15232936</v>
       </c>
@@ -16316,23 +16959,23 @@
         <v>235</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15232936-europa-clipper-deel-2.mp3?download=true</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -16366,7 +17009,7 @@
         <v>435</v>
       </c>
       <c r="R81" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-06-11</v>
       </c>
       <c r="S81" s="1" t="s">
@@ -16381,23 +17024,31 @@
       <c r="V81" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="W81" s="4" t="s">
+      <c r="W81" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Europa_Clipper_deel_2_-_Zimmerman_en_Space_-_S01E80_-_2024-06-11_-_15232936.oga</v>
+      </c>
+      <c r="X81" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y81" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="X81" s="4" t="s">
+      <c r="Z81" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="Y81" s="4" t="s">
+      <c r="AA81" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="Z81" s="5" t="s">
+      <c r="AB81" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="AA81" s="5" t="s">
+      <c r="AC81" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="AB81" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD81" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16423,19 +17074,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC81" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AD81" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE81" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AF81" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Europa Clipper deel 2 - Zimmerman en Space - Season 01, Episode 80 - June 11, 2024</v>
       </c>
-      <c r="AE81" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG81" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Europa Clipper deel 2 - Zimmerman en Space - Seizoen 01, Aflevering 80 - 11 juni 2024</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>15262778</v>
       </c>
@@ -16443,23 +17094,23 @@
         <v>238</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F82" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15262778-dyson-spheres.mp3?download=true</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -16493,7 +17144,7 @@
         <v>436</v>
       </c>
       <c r="R82" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-06-17</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -16508,23 +17159,31 @@
       <c r="V82" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="W82" s="4" t="s">
+      <c r="W82" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Dyson_spheres_-_Zimmerman_en_Space_-_S01E81_-_2024-06-17_-_15262778.oga</v>
+      </c>
+      <c r="X82" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y82" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="Z82" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="AA82" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="Z82" s="5" t="s">
+      <c r="AB82" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="AA82" s="5" t="s">
+      <c r="AC82" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="AB82" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD82" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16551,19 +17210,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC82" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AD82" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE82" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AF82" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Dyson spheres - Zimmerman en Space - Season 01, Episode 81 - June 17, 2024</v>
       </c>
-      <c r="AE82" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG82" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Dyson spheres - Zimmerman en Space - Seizoen 01, Aflevering 81 - 17 juni 2024</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>15304478</v>
       </c>
@@ -16571,23 +17230,23 @@
         <v>241</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15304478-een-dubbelster-in-wl20.mp3?download=true</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -16621,7 +17280,7 @@
         <v>437</v>
       </c>
       <c r="R83" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-06-24</v>
       </c>
       <c r="S83" s="1" t="s">
@@ -16636,23 +17295,31 @@
       <c r="V83" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="W83" s="4" t="s">
+      <c r="W83" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Een_dubbelster_in_WL20_-_Zimmerman_en_Space_-_S01E82_-_2024-06-24_-_15304478.oga</v>
+      </c>
+      <c r="X83" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y83" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="X83" s="4" t="s">
+      <c r="Z83" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="Y83" s="4" t="s">
+      <c r="AA83" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="Z83" s="5" t="s">
+      <c r="AB83" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="AA83" s="5" t="s">
+      <c r="AC83" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="AB83" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD83" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16672,19 +17339,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC83" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AD83" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE83" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AF83" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Een dubbelster in WL20 - Zimmerman en Space - Season 01, Episode 82 - June 24, 2024</v>
       </c>
-      <c r="AE83" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG83" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Een dubbelster in WL20 - Zimmerman en Space - Seizoen 01, Aflevering 82 - 24 juni 2024</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>15340768</v>
       </c>
@@ -16692,23 +17359,23 @@
         <v>244</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15340768-metrologie.mp3?download=true</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -16742,7 +17409,7 @@
         <v>438</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-07-01</v>
       </c>
       <c r="S84" s="1" t="s">
@@ -16755,25 +17422,33 @@
         <v>977</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="W84" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="W84" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Metrologie_-_Zimmerman_en_Space_-_S01E83_-_2024-07-01_-_15340768.oga</v>
+      </c>
+      <c r="X84" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y84" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="X84" s="4" t="s">
+      <c r="Z84" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="Y84" s="4" t="s">
+      <c r="AA84" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="Z84" s="5" t="s">
+      <c r="AB84" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="AA84" s="5" t="s">
+      <c r="AC84" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="AB84" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD84" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16794,19 +17469,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC84" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AD84" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE84" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AF84" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Metrologie - Zimmerman en Space - Season 01, Episode 83 - July 01, 2024</v>
       </c>
-      <c r="AE84" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG84" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Metrologie - Zimmerman en Space - Seizoen 01, Aflevering 83 - 1 juli 2024</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>15374225</v>
       </c>
@@ -16814,23 +17489,23 @@
         <v>247</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15374225-enge-stenen-die-langs-de-aarde-vliegen.mp3?download=true</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -16864,7 +17539,7 @@
         <v>439</v>
       </c>
       <c r="R85" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-07-07</v>
       </c>
       <c r="S85" s="1" t="s">
@@ -16879,23 +17554,31 @@
       <c r="V85" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="W85" s="4" t="s">
+      <c r="W85" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Enge_stenen_die_langs_de_aarde_vliegen_-_Zimmerman_en_Space_-_S01E84_-_2024-07-07_-_15374225.oga</v>
+      </c>
+      <c r="X85" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y85" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="X85" s="4" t="s">
+      <c r="Z85" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="Y85" s="4" t="s">
+      <c r="AA85" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="Z85" s="5" t="s">
+      <c r="AB85" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="AA85" s="5" t="s">
+      <c r="AC85" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="AB85" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD85" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -16921,19 +17604,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC85" s="5" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AD85" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE85" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AF85" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Enge stenen die langs de aarde vliegen - Zimmerman en Space - Season 01, Episode 84 - July 07, 2024</v>
       </c>
-      <c r="AE85" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG85" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Enge stenen die langs de aarde vliegen - Zimmerman en Space - Seizoen 01, Aflevering 84 - 7 juli 2024</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>15400221</v>
       </c>
@@ -16941,23 +17624,23 @@
         <v>250</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F86" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15400221-de-mysterieuze-luchtschepen-van-1896-1897.mp3?download=true</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -16991,7 +17674,7 @@
         <v>440</v>
       </c>
       <c r="R86" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-07-14</v>
       </c>
       <c r="S86" s="1" t="s">
@@ -17006,23 +17689,31 @@
       <c r="V86" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="W86" s="4" t="s">
+      <c r="W86" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_mysterieuze_luchtschepen_van_1896_-_1897_-_Zimmerman_en_Space_-_S01E85_-_2024-07-14_-_15400221.oga</v>
+      </c>
+      <c r="X86" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y86" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="X86" s="4" t="s">
+      <c r="Z86" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="Y86" s="4" t="s">
+      <c r="AA86" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="Z86" s="5" t="s">
+      <c r="AB86" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="AA86" s="5" t="s">
+      <c r="AC86" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AB86" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD86" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17046,19 +17737,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC86" s="5" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AD86" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE86" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AF86" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>De mysterieuze luchtschepen van 1896 - 1897 - Zimmerman en Space - Season 01, Episode 85 - July 14, 2024</v>
       </c>
-      <c r="AE86" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG86" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>De mysterieuze luchtschepen van 1896 - 1897 - Zimmerman en Space - Seizoen 01, Aflevering 85 - 14 juli 2024</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>15400251</v>
       </c>
@@ -17066,23 +17757,23 @@
         <v>253</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F87" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15400251-buitenaards-broeikasgas.mp3?download=true</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H87" s="1" t="s">
@@ -17116,7 +17807,7 @@
         <v>441</v>
       </c>
       <c r="R87" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-07-21</v>
       </c>
       <c r="S87" s="1" t="s">
@@ -17131,23 +17822,31 @@
       <c r="V87" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="W87" s="4" t="s">
+      <c r="W87" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Buitenaards_broeikasgas_-_Zimmerman_en_Space_-_S01E86_-_2024-07-21_-_15400251.oga</v>
+      </c>
+      <c r="X87" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y87" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="X87" s="4" t="s">
+      <c r="Z87" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="AA87" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="Z87" s="5" t="s">
+      <c r="AB87" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AA87" s="5" t="s">
+      <c r="AC87" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AB87" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD87" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17168,19 +17867,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC87" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AD87" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE87" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AF87" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Buitenaards broeikasgas - Zimmerman en Space - Season 01, Episode 86 - July 21, 2024</v>
       </c>
-      <c r="AE87" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG87" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Buitenaards broeikasgas - Zimmerman en Space - Seizoen 01, Aflevering 86 - 21 juli 2024</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>15400269</v>
       </c>
@@ -17188,23 +17887,23 @@
         <v>256</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F88" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15400269-dr-heloise-stevance.mp3?download=true</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H88" s="1" t="s">
@@ -17238,7 +17937,7 @@
         <v>442</v>
       </c>
       <c r="R88" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-07-28</v>
       </c>
       <c r="S88" s="1" t="s">
@@ -17253,23 +17952,31 @@
       <c r="V88" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="W88" s="4" t="s">
+      <c r="W88" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Dr._Heloise_Stevance_-_Zimmerman_en_Space_-_S01E87_-_2024-07-28_-_15400269.oga</v>
+      </c>
+      <c r="X88" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y88" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="X88" s="4" t="s">
+      <c r="Z88" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="Y88" s="4" t="s">
+      <c r="AA88" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="Z88" s="5" t="s">
+      <c r="AB88" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AA88" s="5" t="s">
+      <c r="AC88" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="AB88" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD88" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17295,19 +18002,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC88" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AD88" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE88" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AF88" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Dr. Heloise Stevance - Zimmerman en Space - Season 01, Episode 87 - July 28, 2024</v>
       </c>
-      <c r="AE88" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG88" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Dr. Heloise Stevance - Zimmerman en Space - Seizoen 01, Aflevering 87 - 28 juli 2024</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>15510621</v>
       </c>
@@ -17315,23 +18022,23 @@
         <v>259</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F89" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15510621-extra-manen-en-exomanen.mp3?download=true</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -17365,7 +18072,7 @@
         <v>443</v>
       </c>
       <c r="R89" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-08-04</v>
       </c>
       <c r="S89" s="1" t="s">
@@ -17380,23 +18087,31 @@
       <c r="V89" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="W89" s="4" t="s">
+      <c r="W89" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Extra_manen_en_exomanen_-_Zimmerman_en_Space_-_S01E88_-_2024-08-04_-_15510621.oga</v>
+      </c>
+      <c r="X89" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y89" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="X89" s="4" t="s">
+      <c r="Z89" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="Y89" s="4" t="s">
+      <c r="AA89" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="Z89" s="5" t="s">
+      <c r="AB89" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="AA89" s="5" t="s">
+      <c r="AC89" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="AB89" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD89" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17421,19 +18136,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC89" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AD89" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE89" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AF89" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Extra manen en exomanen - Zimmerman en Space - Season 01, Episode 88 - August 04, 2024</v>
       </c>
-      <c r="AE89" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG89" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Extra manen en exomanen - Zimmerman en Space - Seizoen 01, Aflevering 88 - 4 augustus 2024</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>15568492</v>
       </c>
@@ -17441,23 +18156,23 @@
         <v>262</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F90" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15568492-maar-is-het-buitenaards-leven.mp3?download=true</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H90" s="1" t="s">
@@ -17491,7 +18206,7 @@
         <v>444</v>
       </c>
       <c r="R90" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-08-12</v>
       </c>
       <c r="S90" s="1" t="s">
@@ -17504,25 +18219,33 @@
         <v>983</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="W90" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W90" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Maar_is_het_buitenaards_leven_-_Zimmerman_en_Space_-_S01E89_-_2024-08-12_-_15568492.oga</v>
+      </c>
+      <c r="X90" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y90" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="X90" s="4" t="s">
+      <c r="Z90" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="Y90" s="4" t="s">
+      <c r="AA90" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="Z90" s="5" t="s">
+      <c r="AB90" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="AA90" s="5" t="s">
+      <c r="AC90" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="AB90" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD90" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17543,19 +18266,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC90" s="5" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AD90" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE90" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AF90" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Maar is het buitenaards leven? - Zimmerman en Space - Season 01, Episode 89 - August 12, 2024</v>
       </c>
-      <c r="AE90" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG90" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Maar is het buitenaards leven? - Zimmerman en Space - Seizoen 01, Aflevering 89 - 12 augustus 2024</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>15604646</v>
       </c>
@@ -17563,23 +18286,23 @@
         <v>264</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F91" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15604646-het-verstrijken-van-de-tijd-kort-na-de-oerknal.mp3?download=true</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -17613,7 +18336,7 @@
         <v>445</v>
       </c>
       <c r="R91" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-08-19</v>
       </c>
       <c r="S91" s="1" t="s">
@@ -17626,25 +18349,33 @@
         <v>984</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="W91" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="W91" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Het_verstrijken_van_de_tijd_kort_na_de_oerknal_-_Zimmerman_en_Space_-_S01E90_-_2024-08-19_-_15604646.oga</v>
+      </c>
+      <c r="X91" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y91" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="X91" s="4" t="s">
+      <c r="Z91" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="Y91" s="4" t="s">
+      <c r="AA91" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="Z91" s="5" t="s">
+      <c r="AB91" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="AA91" s="5" t="s">
+      <c r="AC91" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="AB91" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD91" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17668,19 +18399,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC91" s="5" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AD91" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE91" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AF91" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Het verstrijken van de tijd kort na de oerknal - Zimmerman en Space - Season 01, Episode 90 - August 19, 2024</v>
       </c>
-      <c r="AE91" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG91" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Het verstrijken van de tijd kort na de oerknal - Zimmerman en Space - Seizoen 01, Aflevering 90 - 19 augustus 2024</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>15645704</v>
       </c>
@@ -17688,23 +18419,23 @@
         <v>267</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F92" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15645704-de-foton-sfeer-rond-een-zwart-gat.mp3?download=true</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -17738,7 +18469,7 @@
         <v>446</v>
       </c>
       <c r="R92" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-08-26</v>
       </c>
       <c r="S92" s="1" t="s">
@@ -17753,23 +18484,31 @@
       <c r="V92" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="W92" s="4" t="s">
+      <c r="W92" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\De_foton-sfeer_rond_een_zwart_gat_-_Zimmerman_en_Space_-_S01E91_-_2024-08-26_-_15645704.oga</v>
+      </c>
+      <c r="X92" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y92" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="X92" s="4" t="s">
+      <c r="Z92" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="Y92" s="4" t="s">
+      <c r="AA92" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="Z92" s="5" t="s">
+      <c r="AB92" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AA92" s="5" t="s">
+      <c r="AC92" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="AB92" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD92" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17798,19 +18537,19 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC92" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AD92" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE92" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AF92" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>De foton-sfeer rond een zwart gat - Zimmerman en Space - Season 01, Episode 91 - August 26, 2024</v>
       </c>
-      <c r="AE92" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG92" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>De foton-sfeer rond een zwart gat - Zimmerman en Space - Seizoen 01, Aflevering 91 - 26 augustus 2024</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>15681378</v>
       </c>
@@ -17818,23 +18557,23 @@
         <v>270</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Klik</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Klik</v>
       </c>
       <c r="F93" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>https://www.buzzsprout.com/2096278/15681378-vooruit-een-hele-aflevering-over-de-lagrange-punten.mp3?download=true</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Klik</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -17868,7 +18607,7 @@
         <v>447</v>
       </c>
       <c r="R93" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2024-09-02</v>
       </c>
       <c r="S93" s="1" t="s">
@@ -17881,25 +18620,33 @@
         <v>986</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="W93" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W93" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>D:\Zimmerman-en-Space-podcast\oga-files\Vooruit,_een_hele_aflevering_over_de_Lagrange_punten_-_Zimmerman_en_Space_-_S01E92_-_2024-09-02_-_15681378.oga</v>
+      </c>
+      <c r="X93" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>Klik</v>
+      </c>
+      <c r="Y93" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="X93" s="4" t="s">
+      <c r="Z93" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="Y93" s="4" t="s">
+      <c r="AA93" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="Z93" s="5" t="s">
+      <c r="AB93" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="AA93" s="5" t="s">
+      <c r="AC93" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="AB93" s="5" t="str">
-        <f t="shared" si="21"/>
+      <c r="AD93" s="5" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">
 =={{int:filedesc}}==
 {{Information
@@ -17924,20 +18671,20 @@
 {{cc-zero}}
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
-      <c r="AC93" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AD93" s="3" t="str">
-        <f t="shared" si="22"/>
+      <c r="AE93" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AF93" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>Vooruit, een hele aflevering over de Lagrange punten - Zimmerman en Space - Season 01, Episode 92 - September 02, 2024</v>
       </c>
-      <c r="AE93" s="3" t="str">
-        <f t="shared" si="23"/>
+      <c r="AG93" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>Vooruit, een hele aflevering over de Lagrange punten - Zimmerman en Space - Seizoen 01, Aflevering 92 - 2 september 2024</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC93">
     <sortCondition ref="T2:T93"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91151C42-1FD6-4AC6-817B-30672F516B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6ABB0-2256-45EF-A44F-0BD3603B2368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="24525" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="episodes" sheetId="1" r:id="rId1"/>
@@ -6355,8 +6355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC12609-7ACD-495D-9E15-228CEE42A1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA863FC-8938-4A2F-9CA4-D69A60AA0A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6990,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19759,7 +19759,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>1193</v>
       </c>
@@ -19785,19 +19785,19 @@
         <v>1101</v>
       </c>
       <c r="I2" s="14" t="str">
-        <f>_xlfn.CONCAT(A2,B2," - ",C2," - ",D2," - ",E2,"-",F2,"-",G2," - ",H2)</f>
+        <f t="shared" ref="I2:I33" si="0">_xlfn.CONCAT(A2,B2," - ",C2," - ",D2," - ",E2,"-",F2,"-",G2," - ",H2)</f>
         <v>File:Tsunami's op Mars -  Zimmerman en Space - S01E01 - 2022-12-09 - 11845039.oga</v>
       </c>
       <c r="J2" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I2),"Klik")</f>
+        <f t="shared" ref="J2:J33" si="1">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I2),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="K2" s="14" t="str">
-        <f>_xlfn.CONCAT(I2,"|",B2," - ",D2," - ",E2,"-",F2,"-",G2)</f>
+        <f t="shared" ref="K2:K33" si="2">_xlfn.CONCAT(I2,"|",B2," - ",D2," - ",E2,"-",F2,"-",G2)</f>
         <v>File:Tsunami's op Mars -  Zimmerman en Space - S01E01 - 2022-12-09 - 11845039.oga|Tsunami's op Mars - S01E01 - 2022-12-09</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1193</v>
       </c>
@@ -19823,19 +19823,19 @@
         <v>1102</v>
       </c>
       <c r="I3" s="14" t="str">
-        <f>_xlfn.CONCAT(A3,B3," - ",C3," - ",D3," - ",E3,"-",F3,"-",G3," - ",H3)</f>
+        <f t="shared" si="0"/>
         <v>File:De Z parameter -  Zimmerman en Space - S01E02 - 2022-12-14 - 11873567.oga</v>
       </c>
       <c r="J3" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I3),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K3" s="14" t="str">
-        <f>_xlfn.CONCAT(I3,"|",B3," - ",D3," - ",E3,"-",F3,"-",G3)</f>
+        <f t="shared" si="2"/>
         <v>File:De Z parameter -  Zimmerman en Space - S01E02 - 2022-12-14 - 11873567.oga|De Z parameter - S01E02 - 2022-12-14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1193</v>
       </c>
@@ -19861,19 +19861,19 @@
         <v>1103</v>
       </c>
       <c r="I4" s="14" t="str">
-        <f>_xlfn.CONCAT(A4,B4," - ",C4," - ",D4," - ",E4,"-",F4,"-",G4," - ",H4)</f>
+        <f t="shared" si="0"/>
         <v>File:De laatste vraag -  Zimmerman en Space - S01E03 - 2022-12-20 - 11907471.oga</v>
       </c>
       <c r="J4" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I4),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K4" s="14" t="str">
-        <f>_xlfn.CONCAT(I4,"|",B4," - ",D4," - ",E4,"-",F4,"-",G4)</f>
+        <f t="shared" si="2"/>
         <v>File:De laatste vraag -  Zimmerman en Space - S01E03 - 2022-12-20 - 11907471.oga|De laatste vraag - S01E03 - 2022-12-20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>1193</v>
       </c>
@@ -19899,15 +19899,15 @@
         <v>1104</v>
       </c>
       <c r="I5" s="14" t="str">
-        <f>_xlfn.CONCAT(A5,B5," - ",C5," - ",D5," - ",E5,"-",F5,"-",G5," - ",H5)</f>
+        <f t="shared" si="0"/>
         <v>File:Koffie -  Zimmerman en Space - S01E04 - 2022-12-27 - 11929887.oga</v>
       </c>
       <c r="J5" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I5),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K5" s="14" t="str">
-        <f>_xlfn.CONCAT(I5,"|",B5," - ",D5," - ",E5,"-",F5,"-",G5)</f>
+        <f t="shared" si="2"/>
         <v>File:Koffie -  Zimmerman en Space - S01E04 - 2022-12-27 - 11929887.oga|Koffie - S01E04 - 2022-12-27</v>
       </c>
     </row>
@@ -19937,19 +19937,19 @@
         <v>1105</v>
       </c>
       <c r="I6" s="25" t="str">
-        <f>_xlfn.CONCAT(A6,B6," - ",C6," - ",D6," - ",E6,"-",F6,"-",G6," - ",H6)</f>
+        <f t="shared" si="0"/>
         <v>File:Het centrum van onze Melkweg -  Zimmerman en Space - S01E05 - 2023-01-03 - 11971043.oga</v>
       </c>
       <c r="J6" s="26" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I6),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K6" s="25" t="str">
-        <f>_xlfn.CONCAT(I6,"|",B6," - ",D6," - ",E6,"-",F6,"-",G6)</f>
+        <f t="shared" si="2"/>
         <v>File:Het centrum van onze Melkweg -  Zimmerman en Space - S01E05 - 2023-01-03 - 11971043.oga|Het centrum van onze Melkweg - S01E05 - 2023-01-03</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>1193</v>
       </c>
@@ -19975,19 +19975,19 @@
         <v>1106</v>
       </c>
       <c r="I7" s="14" t="str">
-        <f>_xlfn.CONCAT(A7,B7," - ",C7," - ",D7," - ",E7,"-",F7,"-",G7," - ",H7)</f>
+        <f t="shared" si="0"/>
         <v>File:De Dark Doodad nevel -  Zimmerman en Space - S01E06 - 2023-01-10 - 12018672.oga</v>
       </c>
       <c r="J7" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I7),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K7" s="14" t="str">
-        <f>_xlfn.CONCAT(I7,"|",B7," - ",D7," - ",E7,"-",F7,"-",G7)</f>
+        <f t="shared" si="2"/>
         <v>File:De Dark Doodad nevel -  Zimmerman en Space - S01E06 - 2023-01-10 - 12018672.oga|De Dark Doodad nevel - S01E06 - 2023-01-10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20013,19 +20013,19 @@
         <v>1107</v>
       </c>
       <c r="I8" s="14" t="str">
-        <f>_xlfn.CONCAT(A8,B8," - ",C8," - ",D8," - ",E8,"-",F8,"-",G8," - ",H8)</f>
+        <f t="shared" si="0"/>
         <v>File:Het raadsel van het Peekaboo sterrenstelsel -  Zimmerman en Space - S01E07 - 2023-01-18 - 12065265.oga</v>
       </c>
       <c r="J8" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I8),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K8" s="14" t="str">
-        <f>_xlfn.CONCAT(I8,"|",B8," - ",D8," - ",E8,"-",F8,"-",G8)</f>
+        <f t="shared" si="2"/>
         <v>File:Het raadsel van het Peekaboo sterrenstelsel -  Zimmerman en Space - S01E07 - 2023-01-18 - 12065265.oga|Het raadsel van het Peekaboo sterrenstelsel - S01E07 - 2023-01-18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20051,19 +20051,19 @@
         <v>1108</v>
       </c>
       <c r="I9" s="14" t="str">
-        <f>_xlfn.CONCAT(A9,B9," - ",C9," - ",D9," - ",E9,"-",F9,"-",G9," - ",H9)</f>
+        <f t="shared" si="0"/>
         <v>File:Kunstmatige zwaartekracht -  Zimmerman en Space - S01E08 - 2023-01-24 - 12111366.oga</v>
       </c>
       <c r="J9" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I9),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K9" s="14" t="str">
-        <f>_xlfn.CONCAT(I9,"|",B9," - ",D9," - ",E9,"-",F9,"-",G9)</f>
+        <f t="shared" si="2"/>
         <v>File:Kunstmatige zwaartekracht -  Zimmerman en Space - S01E08 - 2023-01-24 - 12111366.oga|Kunstmatige zwaartekracht - S01E08 - 2023-01-24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20089,19 +20089,19 @@
         <v>1109</v>
       </c>
       <c r="I10" s="14" t="str">
-        <f>_xlfn.CONCAT(A10,B10," - ",C10," - ",D10," - ",E10,"-",F10,"-",G10," - ",H10)</f>
+        <f t="shared" si="0"/>
         <v>File:Stof -  Zimmerman en Space - S01E09 - 2023-01-31 - 12154650.oga</v>
       </c>
       <c r="J10" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I10),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K10" s="14" t="str">
-        <f>_xlfn.CONCAT(I10,"|",B10," - ",D10," - ",E10,"-",F10,"-",G10)</f>
+        <f t="shared" si="2"/>
         <v>File:Stof -  Zimmerman en Space - S01E09 - 2023-01-31 - 12154650.oga|Stof - S01E09 - 2023-01-31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20127,19 +20127,19 @@
         <v>1110</v>
       </c>
       <c r="I11" s="14" t="str">
-        <f>_xlfn.CONCAT(A11,B11," - ",C11," - ",D11," - ",E11,"-",F11,"-",G11," - ",H11)</f>
+        <f t="shared" si="0"/>
         <v>File:Exoplaneten en de JWST -  Zimmerman en Space - S01E10 - 2023-02-07 - 12205179.oga</v>
       </c>
       <c r="J11" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I11),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K11" s="14" t="str">
-        <f>_xlfn.CONCAT(I11,"|",B11," - ",D11," - ",E11,"-",F11,"-",G11)</f>
+        <f t="shared" si="2"/>
         <v>File:Exoplaneten en de JWST -  Zimmerman en Space - S01E10 - 2023-02-07 - 12205179.oga|Exoplaneten en de JWST - S01E10 - 2023-02-07</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20165,19 +20165,19 @@
         <v>1111</v>
       </c>
       <c r="I12" s="14" t="str">
-        <f>_xlfn.CONCAT(A12,B12," - ",C12," - ",D12," - ",E12,"-",F12,"-",G12," - ",H12)</f>
+        <f t="shared" si="0"/>
         <v>File:Moonlight -  Zimmerman en Space - S01E11 - 2023-02-14 - 12248886.oga</v>
       </c>
       <c r="J12" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I12),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K12" s="14" t="str">
-        <f>_xlfn.CONCAT(I12,"|",B12," - ",D12," - ",E12,"-",F12,"-",G12)</f>
+        <f t="shared" si="2"/>
         <v>File:Moonlight -  Zimmerman en Space - S01E11 - 2023-02-14 - 12248886.oga|Moonlight - S01E11 - 2023-02-14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20203,19 +20203,19 @@
         <v>1112</v>
       </c>
       <c r="I13" s="14" t="str">
-        <f>_xlfn.CONCAT(A13,B13," - ",C13," - ",D13," - ",E13,"-",F13,"-",G13," - ",H13)</f>
+        <f t="shared" si="0"/>
         <v>File:Grote vragen - een interview met Amito Haarhuis -  Zimmerman en Space - S01E12 - 2023-02-22 - 12298379.oga</v>
       </c>
       <c r="J13" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I13),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K13" s="14" t="str">
-        <f>_xlfn.CONCAT(I13,"|",B13," - ",D13," - ",E13,"-",F13,"-",G13)</f>
+        <f t="shared" si="2"/>
         <v>File:Grote vragen - een interview met Amito Haarhuis -  Zimmerman en Space - S01E12 - 2023-02-22 - 12298379.oga|Grote vragen - een interview met Amito Haarhuis - S01E12 - 2023-02-22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20241,19 +20241,19 @@
         <v>1113</v>
       </c>
       <c r="I14" s="14" t="str">
-        <f>_xlfn.CONCAT(A14,B14," - ",C14," - ",D14," - ",E14,"-",F14,"-",G14," - ",H14)</f>
+        <f t="shared" si="0"/>
         <v>File:De El Ali meteoriet -  Zimmerman en Space - S01E13 - 2023-02-28 - 12348099.oga</v>
       </c>
       <c r="J14" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I14),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K14" s="14" t="str">
-        <f>_xlfn.CONCAT(I14,"|",B14," - ",D14," - ",E14,"-",F14,"-",G14)</f>
+        <f t="shared" si="2"/>
         <v>File:De El Ali meteoriet -  Zimmerman en Space - S01E13 - 2023-02-28 - 12348099.oga|De El Ali meteoriet - S01E13 - 2023-02-28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>1193</v>
       </c>
@@ -20279,19 +20279,19 @@
         <v>1289</v>
       </c>
       <c r="I15" s="22" t="str">
-        <f>_xlfn.CONCAT(A15,B15," - ",C15," - ",D15," - ",E15,"-",F15,"-",G15," - ",H15)</f>
+        <f t="shared" si="0"/>
         <v>File:AI en Chat GPT in de sterrenkunde -  Zimmerman en Space - S01E14 - 2023-03-07 - 12392457.oga</v>
       </c>
       <c r="J15" s="23" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I15),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K15" s="22" t="str">
-        <f>_xlfn.CONCAT(I15,"|",B15," - ",D15," - ",E15,"-",F15,"-",G15)</f>
+        <f t="shared" si="2"/>
         <v>File:AI en Chat GPT in de sterrenkunde -  Zimmerman en Space - S01E14 - 2023-03-07 - 12392457.oga|AI en Chat GPT in de sterrenkunde - S01E14 - 2023-03-07</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20317,19 +20317,19 @@
         <v>1114</v>
       </c>
       <c r="I16" s="14" t="str">
-        <f>_xlfn.CONCAT(A16,B16," - ",C16," - ",D16," - ",E16,"-",F16,"-",G16," - ",H16)</f>
+        <f t="shared" si="0"/>
         <v>File:Tidal Disruption Events -  Zimmerman en Space - S01E15 - 2023-03-14 - 12440956.oga</v>
       </c>
       <c r="J16" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I16),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K16" s="14" t="str">
-        <f>_xlfn.CONCAT(I16,"|",B16," - ",D16," - ",E16,"-",F16,"-",G16)</f>
+        <f t="shared" si="2"/>
         <v>File:Tidal Disruption Events -  Zimmerman en Space - S01E15 - 2023-03-14 - 12440956.oga|Tidal Disruption Events - S01E15 - 2023-03-14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20355,19 +20355,19 @@
         <v>1115</v>
       </c>
       <c r="I17" s="14" t="str">
-        <f>_xlfn.CONCAT(A17,B17," - ",C17," - ",D17," - ",E17,"-",F17,"-",G17," - ",H17)</f>
+        <f t="shared" si="0"/>
         <v>File:Een meditatie rond een witte dwergster -  Zimmerman en Space - S01E16 - 2023-03-21 - 12489600.oga</v>
       </c>
       <c r="J17" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I17),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K17" s="14" t="str">
-        <f>_xlfn.CONCAT(I17,"|",B17," - ",D17," - ",E17,"-",F17,"-",G17)</f>
+        <f t="shared" si="2"/>
         <v>File:Een meditatie rond een witte dwergster -  Zimmerman en Space - S01E16 - 2023-03-21 - 12489600.oga|Een meditatie rond een witte dwergster - S01E16 - 2023-03-21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20393,19 +20393,19 @@
         <v>1116</v>
       </c>
       <c r="I18" s="14" t="str">
-        <f>_xlfn.CONCAT(A18,B18," - ",C18," - ",D18," - ",E18,"-",F18,"-",G18," - ",H18)</f>
+        <f t="shared" si="0"/>
         <v>File:Water -  Zimmerman en Space - S01E17 - 2023-03-28 - 12533245.oga</v>
       </c>
       <c r="J18" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I18),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K18" s="14" t="str">
-        <f>_xlfn.CONCAT(I18,"|",B18," - ",D18," - ",E18,"-",F18,"-",G18)</f>
+        <f t="shared" si="2"/>
         <v>File:Water -  Zimmerman en Space - S01E17 - 2023-03-28 - 12533245.oga|Water - S01E17 - 2023-03-28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20431,19 +20431,19 @@
         <v>1117</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f>_xlfn.CONCAT(A19,B19," - ",C19," - ",D19," - ",E19,"-",F19,"-",G19," - ",H19)</f>
+        <f t="shared" si="0"/>
         <v>File:Uracil -  Zimmerman en Space - S01E18 - 2023-04-04 - 12570834.oga</v>
       </c>
       <c r="J19" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I19),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K19" s="14" t="str">
-        <f>_xlfn.CONCAT(I19,"|",B19," - ",D19," - ",E19,"-",F19,"-",G19)</f>
+        <f t="shared" si="2"/>
         <v>File:Uracil -  Zimmerman en Space - S01E18 - 2023-04-04 - 12570834.oga|Uracil - S01E18 - 2023-04-04</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20469,19 +20469,19 @@
         <v>1118</v>
       </c>
       <c r="I20" s="14" t="str">
-        <f>_xlfn.CONCAT(A20,B20," - ",C20," - ",D20," - ",E20,"-",F20,"-",G20," - ",H20)</f>
+        <f t="shared" si="0"/>
         <v>File:Een streep in het heelal -  Zimmerman en Space - S01E19 - 2023-04-11 - 12630631.oga</v>
       </c>
       <c r="J20" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I20),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K20" s="14" t="str">
-        <f>_xlfn.CONCAT(I20,"|",B20," - ",D20," - ",E20,"-",F20,"-",G20)</f>
+        <f t="shared" si="2"/>
         <v>File:Een streep in het heelal -  Zimmerman en Space - S01E19 - 2023-04-11 - 12630631.oga|Een streep in het heelal - S01E19 - 2023-04-11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20507,19 +20507,19 @@
         <v>1119</v>
       </c>
       <c r="I21" s="14" t="str">
-        <f>_xlfn.CONCAT(A21,B21," - ",C21," - ",D21," - ",E21,"-",F21,"-",G21," - ",H21)</f>
+        <f t="shared" si="0"/>
         <v>File:Eddington's limiet -  Zimmerman en Space - S01E20 - 2023-04-18 - 12677047.oga</v>
       </c>
       <c r="J21" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I21),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K21" s="14" t="str">
-        <f>_xlfn.CONCAT(I21,"|",B21," - ",D21," - ",E21,"-",F21,"-",G21)</f>
+        <f t="shared" si="2"/>
         <v>File:Eddington's limiet -  Zimmerman en Space - S01E20 - 2023-04-18 - 12677047.oga|Eddington's limiet - S01E20 - 2023-04-18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20545,19 +20545,19 @@
         <v>1120</v>
       </c>
       <c r="I22" s="14" t="str">
-        <f>_xlfn.CONCAT(A22,B22," - ",C22," - ",D22," - ",E22,"-",F22,"-",G22," - ",H22)</f>
+        <f t="shared" si="0"/>
         <v>File:De zoektocht naar donkere energie -  Zimmerman en Space - S01E21 - 2023-04-26 - 12726410.oga</v>
       </c>
       <c r="J22" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I22),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K22" s="14" t="str">
-        <f>_xlfn.CONCAT(I22,"|",B22," - ",D22," - ",E22,"-",F22,"-",G22)</f>
+        <f t="shared" si="2"/>
         <v>File:De zoektocht naar donkere energie -  Zimmerman en Space - S01E21 - 2023-04-26 - 12726410.oga|De zoektocht naar donkere energie - S01E21 - 2023-04-26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20583,19 +20583,19 @@
         <v>1121</v>
       </c>
       <c r="I23" s="14" t="str">
-        <f>_xlfn.CONCAT(A23,B23," - ",C23," - ",D23," - ",E23,"-",F23,"-",G23," - ",H23)</f>
+        <f t="shared" si="0"/>
         <v>File:Einstein ringen en donkere materie -  Zimmerman en Space - S01E22 - 2023-05-02 - 12771066.oga</v>
       </c>
       <c r="J23" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I23),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K23" s="14" t="str">
-        <f>_xlfn.CONCAT(I23,"|",B23," - ",D23," - ",E23,"-",F23,"-",G23)</f>
+        <f t="shared" si="2"/>
         <v>File:Einstein ringen en donkere materie -  Zimmerman en Space - S01E22 - 2023-05-02 - 12771066.oga|Einstein ringen en donkere materie - S01E22 - 2023-05-02</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20621,19 +20621,19 @@
         <v>1122</v>
       </c>
       <c r="I24" s="14" t="str">
-        <f>_xlfn.CONCAT(A24,B24," - ",C24," - ",D24," - ",E24,"-",F24,"-",G24," - ",H24)</f>
+        <f t="shared" si="0"/>
         <v>File:LuSEE en radio astronomie vanaf de achterzijde van de maan -  Zimmerman en Space - S01E23 - 2023-05-09 - 12814479.oga</v>
       </c>
       <c r="J24" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I24),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K24" s="14" t="str">
-        <f>_xlfn.CONCAT(I24,"|",B24," - ",D24," - ",E24,"-",F24,"-",G24)</f>
+        <f t="shared" si="2"/>
         <v>File:LuSEE en radio astronomie vanaf de achterzijde van de maan -  Zimmerman en Space - S01E23 - 2023-05-09 - 12814479.oga|LuSEE en radio astronomie vanaf de achterzijde van de maan - S01E23 - 2023-05-09</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20659,19 +20659,19 @@
         <v>1123</v>
       </c>
       <c r="I25" s="14" t="str">
-        <f>_xlfn.CONCAT(A25,B25," - ",C25," - ",D25," - ",E25,"-",F25,"-",G25," - ",H25)</f>
+        <f t="shared" si="0"/>
         <v>File:EELS en Enceladus -  Zimmerman en Space - S01E24 - 2023-05-15 - 12850039.oga</v>
       </c>
       <c r="J25" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I25),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K25" s="14" t="str">
-        <f>_xlfn.CONCAT(I25,"|",B25," - ",D25," - ",E25,"-",F25,"-",G25)</f>
+        <f t="shared" si="2"/>
         <v>File:EELS en Enceladus -  Zimmerman en Space - S01E24 - 2023-05-15 - 12850039.oga|EELS en Enceladus - S01E24 - 2023-05-15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20697,19 +20697,19 @@
         <v>1124</v>
       </c>
       <c r="I26" s="14" t="str">
-        <f>_xlfn.CONCAT(A26,B26," - ",C26," - ",D26," - ",E26,"-",F26,"-",G26," - ",H26)</f>
+        <f t="shared" si="0"/>
         <v>File:Infrasone verschijnselen in de stratosfeer -  Zimmerman en Space - S01E25 - 2023-05-23 - 12898839.oga</v>
       </c>
       <c r="J26" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I26),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K26" s="14" t="str">
-        <f>_xlfn.CONCAT(I26,"|",B26," - ",D26," - ",E26,"-",F26,"-",G26)</f>
+        <f t="shared" si="2"/>
         <v>File:Infrasone verschijnselen in de stratosfeer -  Zimmerman en Space - S01E25 - 2023-05-23 - 12898839.oga|Infrasone verschijnselen in de stratosfeer - S01E25 - 2023-05-23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20735,19 +20735,19 @@
         <v>1125</v>
       </c>
       <c r="I27" s="14" t="str">
-        <f>_xlfn.CONCAT(A27,B27," - ",C27," - ",D27," - ",E27,"-",F27,"-",G27," - ",H27)</f>
+        <f t="shared" si="0"/>
         <v>File:Bewustzijn -  Zimmerman en Space - S01E26 - 2023-05-30 - 12948347.oga</v>
       </c>
       <c r="J27" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I27),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K27" s="14" t="str">
-        <f>_xlfn.CONCAT(I27,"|",B27," - ",D27," - ",E27,"-",F27,"-",G27)</f>
+        <f t="shared" si="2"/>
         <v>File:Bewustzijn -  Zimmerman en Space - S01E26 - 2023-05-30 - 12948347.oga|Bewustzijn - S01E26 - 2023-05-30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20773,19 +20773,19 @@
         <v>1126</v>
       </c>
       <c r="I28" s="14" t="str">
-        <f>_xlfn.CONCAT(A28,B28," - ",C28," - ",D28," - ",E28,"-",F28,"-",G28," - ",H28)</f>
+        <f t="shared" si="0"/>
         <v>File:Filamenten in het centrum van onze melkweg -  Zimmerman en Space - S01E27 - 2023-06-06 - 12990488.oga</v>
       </c>
       <c r="J28" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I28),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K28" s="14" t="str">
-        <f>_xlfn.CONCAT(I28,"|",B28," - ",D28," - ",E28,"-",F28,"-",G28)</f>
+        <f t="shared" si="2"/>
         <v>File:Filamenten in het centrum van onze melkweg -  Zimmerman en Space - S01E27 - 2023-06-06 - 12990488.oga|Filamenten in het centrum van onze melkweg - S01E27 - 2023-06-06</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20811,19 +20811,19 @@
         <v>1127</v>
       </c>
       <c r="I29" s="14" t="str">
-        <f>_xlfn.CONCAT(A29,B29," - ",C29," - ",D29," - ",E29,"-",F29,"-",G29," - ",H29)</f>
+        <f t="shared" si="0"/>
         <v>File:Teveel te vroeg -  Zimmerman en Space - S01E28 - 2023-06-13 - 13033409.oga</v>
       </c>
       <c r="J29" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I29),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K29" s="14" t="str">
-        <f>_xlfn.CONCAT(I29,"|",B29," - ",D29," - ",E29,"-",F29,"-",G29)</f>
+        <f t="shared" si="2"/>
         <v>File:Teveel te vroeg -  Zimmerman en Space - S01E28 - 2023-06-13 - 13033409.oga|Teveel te vroeg - S01E28 - 2023-06-13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20849,19 +20849,19 @@
         <v>1128</v>
       </c>
       <c r="I30" s="14" t="str">
-        <f>_xlfn.CONCAT(A30,B30," - ",C30," - ",D30," - ",E30,"-",F30,"-",G30," - ",H30)</f>
+        <f t="shared" si="0"/>
         <v>File:Witte dwergsterren die door onze melkweg sjezen -  Zimmerman en Space - S01E29 - 2023-06-20 - 13076453.oga</v>
       </c>
       <c r="J30" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I30),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K30" s="14" t="str">
-        <f>_xlfn.CONCAT(I30,"|",B30," - ",D30," - ",E30,"-",F30,"-",G30)</f>
+        <f t="shared" si="2"/>
         <v>File:Witte dwergsterren die door onze melkweg sjezen -  Zimmerman en Space - S01E29 - 2023-06-20 - 13076453.oga|Witte dwergsterren die door onze melkweg sjezen - S01E29 - 2023-06-20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20887,19 +20887,19 @@
         <v>1129</v>
       </c>
       <c r="I31" s="14" t="str">
-        <f>_xlfn.CONCAT(A31,B31," - ",C31," - ",D31," - ",E31,"-",F31,"-",G31," - ",H31)</f>
+        <f t="shared" si="0"/>
         <v>File:Echo echo echo -  Zimmerman en Space - S01E30 - 2023-06-28 - 13123205.oga</v>
       </c>
       <c r="J31" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I31),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K31" s="14" t="str">
-        <f>_xlfn.CONCAT(I31,"|",B31," - ",D31," - ",E31,"-",F31,"-",G31)</f>
+        <f t="shared" si="2"/>
         <v>File:Echo echo echo -  Zimmerman en Space - S01E30 - 2023-06-28 - 13123205.oga|Echo echo echo - S01E30 - 2023-06-28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20925,19 +20925,19 @@
         <v>1130</v>
       </c>
       <c r="I32" s="14" t="str">
-        <f>_xlfn.CONCAT(A32,B32," - ",C32," - ",D32," - ",E32,"-",F32,"-",G32," - ",H32)</f>
+        <f t="shared" si="0"/>
         <v>File:Boltzmann brains en Last Thursdayism -  Zimmerman en Space - S01E31 - 2023-07-05 - 13161869.oga</v>
       </c>
       <c r="J32" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I32),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K32" s="14" t="str">
-        <f>_xlfn.CONCAT(I32,"|",B32," - ",D32," - ",E32,"-",F32,"-",G32)</f>
+        <f t="shared" si="2"/>
         <v>File:Boltzmann brains en Last Thursdayism -  Zimmerman en Space - S01E31 - 2023-07-05 - 13161869.oga|Boltzmann brains en Last Thursdayism - S01E31 - 2023-07-05</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>1193</v>
       </c>
@@ -20963,19 +20963,19 @@
         <v>1131</v>
       </c>
       <c r="I33" s="14" t="str">
-        <f>_xlfn.CONCAT(A33,B33," - ",C33," - ",D33," - ",E33,"-",F33,"-",G33," - ",H33)</f>
+        <f t="shared" si="0"/>
         <v>File:Starlink satellieten die radio-astronomie verpesten -  Zimmerman en Space - S01E32 - 2023-07-12 - 13205557.oga</v>
       </c>
       <c r="J33" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I33),"Klik")</f>
+        <f t="shared" si="1"/>
         <v>Klik</v>
       </c>
       <c r="K33" s="14" t="str">
-        <f>_xlfn.CONCAT(I33,"|",B33," - ",D33," - ",E33,"-",F33,"-",G33)</f>
+        <f t="shared" si="2"/>
         <v>File:Starlink satellieten die radio-astronomie verpesten -  Zimmerman en Space - S01E32 - 2023-07-12 - 13205557.oga|Starlink satellieten die radio-astronomie verpesten - S01E32 - 2023-07-12</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21001,19 +21001,19 @@
         <v>1132</v>
       </c>
       <c r="I34" s="14" t="str">
-        <f>_xlfn.CONCAT(A34,B34," - ",C34," - ",D34," - ",E34,"-",F34,"-",G34," - ",H34)</f>
+        <f t="shared" ref="I34:I65" si="3">_xlfn.CONCAT(A34,B34," - ",C34," - ",D34," - ",E34,"-",F34,"-",G34," - ",H34)</f>
         <v>File:Donkere sterren -  Zimmerman en Space - S01E33 - 2023-07-18 - 13246928.oga</v>
       </c>
       <c r="J34" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I34),"Klik")</f>
+        <f t="shared" ref="J34:J65" si="4">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I34),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="K34" s="14" t="str">
-        <f>_xlfn.CONCAT(I34,"|",B34," - ",D34," - ",E34,"-",F34,"-",G34)</f>
+        <f t="shared" ref="K34:K65" si="5">_xlfn.CONCAT(I34,"|",B34," - ",D34," - ",E34,"-",F34,"-",G34)</f>
         <v>File:Donkere sterren -  Zimmerman en Space - S01E33 - 2023-07-18 - 13246928.oga|Donkere sterren - S01E33 - 2023-07-18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21039,19 +21039,19 @@
         <v>1133</v>
       </c>
       <c r="I35" s="14" t="str">
-        <f>_xlfn.CONCAT(A35,B35," - ",C35," - ",D35," - ",E35,"-",F35,"-",G35," - ",H35)</f>
+        <f t="shared" si="3"/>
         <v>File:Geen donkere materie -  Zimmerman en Space - S01E34 - 2023-07-25 - 13286228.oga</v>
       </c>
       <c r="J35" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I35),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K35" s="14" t="str">
-        <f>_xlfn.CONCAT(I35,"|",B35," - ",D35," - ",E35,"-",F35,"-",G35)</f>
+        <f t="shared" si="5"/>
         <v>File:Geen donkere materie -  Zimmerman en Space - S01E34 - 2023-07-25 - 13286228.oga|Geen donkere materie - S01E34 - 2023-07-25</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21077,19 +21077,19 @@
         <v>1134</v>
       </c>
       <c r="I36" s="14" t="str">
-        <f>_xlfn.CONCAT(A36,B36," - ",C36," - ",D36," - ",E36,"-",F36,"-",G36," - ",H36)</f>
+        <f t="shared" si="3"/>
         <v>File:In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan -  Zimmerman en Space - S01E35 - 2023-08-01 - 13332067.oga</v>
       </c>
       <c r="J36" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I36),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K36" s="14" t="str">
-        <f>_xlfn.CONCAT(I36,"|",B36," - ",D36," - ",E36,"-",F36,"-",G36)</f>
+        <f t="shared" si="5"/>
         <v>File:In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan -  Zimmerman en Space - S01E35 - 2023-08-01 - 13332067.oga|In gesprek met André Kuipers, Marjolijn van Heemstra en Lemke Kraan - S01E35 - 2023-08-01</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21115,19 +21115,19 @@
         <v>1135</v>
       </c>
       <c r="I37" s="14" t="str">
-        <f>_xlfn.CONCAT(A37,B37," - ",C37," - ",D37," - ",E37,"-",F37,"-",G37," - ",H37)</f>
+        <f t="shared" si="3"/>
         <v>File:De donkere sector -  Zimmerman en Space - S01E36 - 2023-08-08 - 13371426.oga</v>
       </c>
       <c r="J37" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I37),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K37" s="14" t="str">
-        <f>_xlfn.CONCAT(I37,"|",B37," - ",D37," - ",E37,"-",F37,"-",G37)</f>
+        <f t="shared" si="5"/>
         <v>File:De donkere sector -  Zimmerman en Space - S01E36 - 2023-08-08 - 13371426.oga|De donkere sector - S01E36 - 2023-08-08</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21153,19 +21153,19 @@
         <v>1136</v>
       </c>
       <c r="I38" s="14" t="str">
-        <f>_xlfn.CONCAT(A38,B38," - ",C38," - ",D38," - ",E38,"-",F38,"-",G38," - ",H38)</f>
+        <f t="shared" si="3"/>
         <v>File:De kortere Mars-dag -  Zimmerman en Space - S01E37 - 2023-08-16 - 13413025.oga</v>
       </c>
       <c r="J38" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I38),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K38" s="14" t="str">
-        <f>_xlfn.CONCAT(I38,"|",B38," - ",D38," - ",E38,"-",F38,"-",G38)</f>
+        <f t="shared" si="5"/>
         <v>File:De kortere Mars-dag -  Zimmerman en Space - S01E37 - 2023-08-16 - 13413025.oga|De kortere Mars-dag - S01E37 - 2023-08-16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21191,19 +21191,19 @@
         <v>1137</v>
       </c>
       <c r="I39" s="14" t="str">
-        <f>_xlfn.CONCAT(A39,B39," - ",C39," - ",D39," - ",E39,"-",F39,"-",G39," - ",H39)</f>
+        <f t="shared" si="3"/>
         <v>File:Daniel Apai en de fresnel-lens -  Zimmerman en Space - S01E38 - 2023-08-22 - 13453052.oga</v>
       </c>
       <c r="J39" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I39),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K39" s="14" t="str">
-        <f>_xlfn.CONCAT(I39,"|",B39," - ",D39," - ",E39,"-",F39,"-",G39)</f>
+        <f t="shared" si="5"/>
         <v>File:Daniel Apai en de fresnel-lens -  Zimmerman en Space - S01E38 - 2023-08-22 - 13453052.oga|Daniel Apai en de fresnel-lens - S01E38 - 2023-08-22</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21229,19 +21229,19 @@
         <v>1138</v>
       </c>
       <c r="I40" s="14" t="str">
-        <f>_xlfn.CONCAT(A40,B40," - ",C40," - ",D40," - ",E40,"-",F40,"-",G40," - ",H40)</f>
+        <f t="shared" si="3"/>
         <v>File:Donkere vlekken -  Zimmerman en Space - S01E39 - 2023-08-29 - 13490782.oga</v>
       </c>
       <c r="J40" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I40),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K40" s="14" t="str">
-        <f>_xlfn.CONCAT(I40,"|",B40," - ",D40," - ",E40,"-",F40,"-",G40)</f>
+        <f t="shared" si="5"/>
         <v>File:Donkere vlekken -  Zimmerman en Space - S01E39 - 2023-08-29 - 13490782.oga|Donkere vlekken - S01E39 - 2023-08-29</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21267,19 +21267,19 @@
         <v>1139</v>
       </c>
       <c r="I41" s="14" t="str">
-        <f>_xlfn.CONCAT(A41,B41," - ",C41," - ",D41," - ",E41,"-",F41,"-",G41," - ",H41)</f>
+        <f t="shared" si="3"/>
         <v>File:Pulsars snurken niet -  Zimmerman en Space - S01E40 - 2023-09-05 - 13532045.oga</v>
       </c>
       <c r="J41" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I41),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K41" s="14" t="str">
-        <f>_xlfn.CONCAT(I41,"|",B41," - ",D41," - ",E41,"-",F41,"-",G41)</f>
+        <f t="shared" si="5"/>
         <v>File:Pulsars snurken niet -  Zimmerman en Space - S01E40 - 2023-09-05 - 13532045.oga|Pulsars snurken niet - S01E40 - 2023-09-05</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21305,19 +21305,19 @@
         <v>1140</v>
       </c>
       <c r="I42" s="14" t="str">
-        <f>_xlfn.CONCAT(A42,B42," - ",C42," - ",D42," - ",E42,"-",F42,"-",G42," - ",H42)</f>
+        <f t="shared" si="3"/>
         <v>File:Mercurius' raadsels -  Zimmerman en Space - S01E41 - 2023-09-11 - 13572418.oga</v>
       </c>
       <c r="J42" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I42),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K42" s="14" t="str">
-        <f>_xlfn.CONCAT(I42,"|",B42," - ",D42," - ",E42,"-",F42,"-",G42)</f>
+        <f t="shared" si="5"/>
         <v>File:Mercurius' raadsels -  Zimmerman en Space - S01E41 - 2023-09-11 - 13572418.oga|Mercurius' raadsels - S01E41 - 2023-09-11</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21343,19 +21343,19 @@
         <v>1141</v>
       </c>
       <c r="I43" s="14" t="str">
-        <f>_xlfn.CONCAT(A43,B43," - ",C43," - ",D43," - ",E43,"-",F43,"-",G43," - ",H43)</f>
+        <f t="shared" si="3"/>
         <v>File:Buitenaards leven op K2-18b -  Zimmerman en Space - S01E42 - 2023-09-19 - 13618776.oga</v>
       </c>
       <c r="J43" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I43),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K43" s="14" t="str">
-        <f>_xlfn.CONCAT(I43,"|",B43," - ",D43," - ",E43,"-",F43,"-",G43)</f>
+        <f t="shared" si="5"/>
         <v>File:Buitenaards leven op K2-18b -  Zimmerman en Space - S01E42 - 2023-09-19 - 13618776.oga|Buitenaards leven op K2-18b - S01E42 - 2023-09-19</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21381,19 +21381,19 @@
         <v>1142</v>
       </c>
       <c r="I44" s="14" t="str">
-        <f>_xlfn.CONCAT(A44,B44," - ",C44," - ",D44," - ",E44,"-",F44,"-",G44," - ",H44)</f>
+        <f t="shared" si="3"/>
         <v>File:Verwondering en de Trifid nevel -  Zimmerman en Space - S01E43 - 2023-09-26 - 13662807.oga</v>
       </c>
       <c r="J44" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I44),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K44" s="14" t="str">
-        <f>_xlfn.CONCAT(I44,"|",B44," - ",D44," - ",E44,"-",F44,"-",G44)</f>
+        <f t="shared" si="5"/>
         <v>File:Verwondering en de Trifid nevel -  Zimmerman en Space - S01E43 - 2023-09-26 - 13662807.oga|Verwondering en de Trifid nevel - S01E43 - 2023-09-26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21419,19 +21419,19 @@
         <v>1143</v>
       </c>
       <c r="I45" s="14" t="str">
-        <f>_xlfn.CONCAT(A45,B45," - ",C45," - ",D45," - ",E45,"-",F45,"-",G45," - ",H45)</f>
+        <f t="shared" si="3"/>
         <v>File:Alex Scholten en de meteoriet van Diepenveen -  Zimmerman en Space - S01E44 - 2023-10-03 - 13705806.oga</v>
       </c>
       <c r="J45" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I45),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K45" s="14" t="str">
-        <f>_xlfn.CONCAT(I45,"|",B45," - ",D45," - ",E45,"-",F45,"-",G45)</f>
+        <f t="shared" si="5"/>
         <v>File:Alex Scholten en de meteoriet van Diepenveen -  Zimmerman en Space - S01E44 - 2023-10-03 - 13705806.oga|Alex Scholten en de meteoriet van Diepenveen - S01E44 - 2023-10-03</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21457,19 +21457,19 @@
         <v>1144</v>
       </c>
       <c r="I46" s="14" t="str">
-        <f>_xlfn.CONCAT(A46,B46," - ",C46," - ",D46," - ",E46,"-",F46,"-",G46," - ",H46)</f>
+        <f t="shared" si="3"/>
         <v>File:Een nauwkeurig afgeregeld heelal -  Zimmerman en Space - S01E45 - 2023-10-10 - 13749465.oga</v>
       </c>
       <c r="J46" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I46),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K46" s="14" t="str">
-        <f>_xlfn.CONCAT(I46,"|",B46," - ",D46," - ",E46,"-",F46,"-",G46)</f>
+        <f t="shared" si="5"/>
         <v>File:Een nauwkeurig afgeregeld heelal -  Zimmerman en Space - S01E45 - 2023-10-10 - 13749465.oga|Een nauwkeurig afgeregeld heelal - S01E45 - 2023-10-10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21495,19 +21495,19 @@
         <v>1145</v>
       </c>
       <c r="I47" s="14" t="str">
-        <f>_xlfn.CONCAT(A47,B47," - ",C47," - ",D47," - ",E47,"-",F47,"-",G47," - ",H47)</f>
+        <f t="shared" si="3"/>
         <v>File:Buitenaardse ruimteschepen op de foto -  Zimmerman en Space - S01E46 - 2023-10-17 - 13796988.oga</v>
       </c>
       <c r="J47" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I47),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K47" s="14" t="str">
-        <f>_xlfn.CONCAT(I47,"|",B47," - ",D47," - ",E47,"-",F47,"-",G47)</f>
+        <f t="shared" si="5"/>
         <v>File:Buitenaardse ruimteschepen op de foto -  Zimmerman en Space - S01E46 - 2023-10-17 - 13796988.oga|Buitenaardse ruimteschepen op de foto - S01E46 - 2023-10-17</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21533,19 +21533,19 @@
         <v>1146</v>
       </c>
       <c r="I48" s="14" t="str">
-        <f>_xlfn.CONCAT(A48,B48," - ",C48," - ",D48," - ",E48,"-",F48,"-",G48," - ",H48)</f>
+        <f t="shared" si="3"/>
         <v>File:Alweer Fast Radio Bursts -  Zimmerman en Space - S01E47 - 2023-10-24 - 13839425.oga</v>
       </c>
       <c r="J48" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I48),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K48" s="14" t="str">
-        <f>_xlfn.CONCAT(I48,"|",B48," - ",D48," - ",E48,"-",F48,"-",G48)</f>
+        <f t="shared" si="5"/>
         <v>File:Alweer Fast Radio Bursts -  Zimmerman en Space - S01E47 - 2023-10-24 - 13839425.oga|Alweer Fast Radio Bursts - S01E47 - 2023-10-24</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21571,19 +21571,19 @@
         <v>1147</v>
       </c>
       <c r="I49" s="14" t="str">
-        <f>_xlfn.CONCAT(A49,B49," - ",C49," - ",D49," - ",E49,"-",F49,"-",G49," - ",H49)</f>
+        <f t="shared" si="3"/>
         <v>File:Fotosynthese en de zoektocht naar buitenaards leven -  Zimmerman en Space - S01E48 - 2023-10-31 - 13880930.oga</v>
       </c>
       <c r="J49" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I49),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K49" s="14" t="str">
-        <f>_xlfn.CONCAT(I49,"|",B49," - ",D49," - ",E49,"-",F49,"-",G49)</f>
+        <f t="shared" si="5"/>
         <v>File:Fotosynthese en de zoektocht naar buitenaards leven -  Zimmerman en Space - S01E48 - 2023-10-31 - 13880930.oga|Fotosynthese en de zoektocht naar buitenaards leven - S01E48 - 2023-10-31</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21609,15 +21609,15 @@
         <v>1148</v>
       </c>
       <c r="I50" s="14" t="str">
-        <f>_xlfn.CONCAT(A50,B50," - ",C50," - ",D50," - ",E50,"-",F50,"-",G50," - ",H50)</f>
+        <f t="shared" si="3"/>
         <v>File:Witte gaten en negatieve massa -  Zimmerman en Space - S01E49 - 2023-11-06 - 13913914.oga</v>
       </c>
       <c r="J50" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I50),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K50" s="14" t="str">
-        <f>_xlfn.CONCAT(I50,"|",B50," - ",D50," - ",E50,"-",F50,"-",G50)</f>
+        <f t="shared" si="5"/>
         <v>File:Witte gaten en negatieve massa -  Zimmerman en Space - S01E49 - 2023-11-06 - 13913914.oga|Witte gaten en negatieve massa - S01E49 - 2023-11-06</v>
       </c>
     </row>
@@ -21647,15 +21647,15 @@
         <v>1149</v>
       </c>
       <c r="I51" s="14" t="str">
-        <f>_xlfn.CONCAT(A51,B51," - ",C51," - ",D51," - ",E51,"-",F51,"-",G51," - ",H51)</f>
+        <f t="shared" si="3"/>
         <v>File:Tijd kristallen -  Zimmerman en Space - S01E50 - 2023-11-13 - 13960359.oga</v>
       </c>
       <c r="J51" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I51),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K51" s="14" t="str">
-        <f>_xlfn.CONCAT(I51,"|",B51," - ",D51," - ",E51,"-",F51,"-",G51)</f>
+        <f t="shared" si="5"/>
         <v>File:Tijd kristallen -  Zimmerman en Space - S01E50 - 2023-11-13 - 13960359.oga|Tijd kristallen - S01E50 - 2023-11-13</v>
       </c>
     </row>
@@ -21685,19 +21685,19 @@
         <v>1150</v>
       </c>
       <c r="I52" s="22" t="str">
-        <f>_xlfn.CONCAT(A52,B52," - ",C52," - ",D52," - ",E52,"-",F52,"-",G52," - ",H52)</f>
+        <f t="shared" si="3"/>
         <v>File:De duivel komeet komt naar de aarde -  Zimmerman en Space - S01E51 - 2023-11-21 - 14010139.oga</v>
       </c>
       <c r="J52" s="23" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I52),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K52" s="22" t="str">
-        <f>_xlfn.CONCAT(I52,"|",B52," - ",D52," - ",E52,"-",F52,"-",G52)</f>
+        <f t="shared" si="5"/>
         <v>File:De duivel komeet komt naar de aarde -  Zimmerman en Space - S01E51 - 2023-11-21 - 14010139.oga|De duivel komeet komt naar de aarde - S01E51 - 2023-11-21</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21723,19 +21723,19 @@
         <v>1151</v>
       </c>
       <c r="I53" s="14" t="str">
-        <f>_xlfn.CONCAT(A53,B53," - ",C53," - ",D53," - ",E53,"-",F53,"-",G53," - ",H53)</f>
+        <f t="shared" si="3"/>
         <v>File:Diepe inelastische verstrooiing -  Zimmerman en Space - S01E52 - 2023-11-29 - 14052348.oga</v>
       </c>
       <c r="J53" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I53),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K53" s="14" t="str">
-        <f>_xlfn.CONCAT(I53,"|",B53," - ",D53," - ",E53,"-",F53,"-",G53)</f>
+        <f t="shared" si="5"/>
         <v>File:Diepe inelastische verstrooiing -  Zimmerman en Space - S01E52 - 2023-11-29 - 14052348.oga|Diepe inelastische verstrooiing - S01E52 - 2023-11-29</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21761,19 +21761,19 @@
         <v>1152</v>
       </c>
       <c r="I54" s="14" t="str">
-        <f>_xlfn.CONCAT(A54,B54," - ",C54," - ",D54," - ",E54,"-",F54,"-",G54," - ",H54)</f>
+        <f t="shared" si="3"/>
         <v>File:Overal velden -  Zimmerman en Space - S01E53 - 2023-12-05 - 14094661.oga</v>
       </c>
       <c r="J54" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I54),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K54" s="14" t="str">
-        <f>_xlfn.CONCAT(I54,"|",B54," - ",D54," - ",E54,"-",F54,"-",G54)</f>
+        <f t="shared" si="5"/>
         <v>File:Overal velden -  Zimmerman en Space - S01E53 - 2023-12-05 - 14094661.oga|Overal velden - S01E53 - 2023-12-05</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21799,19 +21799,19 @@
         <v>1153</v>
       </c>
       <c r="I55" s="14" t="str">
-        <f>_xlfn.CONCAT(A55,B55," - ",C55," - ",D55," - ",E55,"-",F55,"-",G55," - ",H55)</f>
+        <f t="shared" si="3"/>
         <v>File:Koolmonoxide in The Brick -  Zimmerman en Space - S01E54 - 2023-12-12 - 14133465.oga</v>
       </c>
       <c r="J55" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I55),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K55" s="14" t="str">
-        <f>_xlfn.CONCAT(I55,"|",B55," - ",D55," - ",E55,"-",F55,"-",G55)</f>
+        <f t="shared" si="5"/>
         <v>File:Koolmonoxide in The Brick -  Zimmerman en Space - S01E54 - 2023-12-12 - 14133465.oga|Koolmonoxide in The Brick - S01E54 - 2023-12-12</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21837,19 +21837,19 @@
         <v>1154</v>
       </c>
       <c r="I56" s="14" t="str">
-        <f>_xlfn.CONCAT(A56,B56," - ",C56," - ",D56," - ",E56,"-",F56,"-",G56," - ",H56)</f>
+        <f t="shared" si="3"/>
         <v>File:Intra Cluster Licht -  Zimmerman en Space - S01E55 - 2023-12-20 - 14176787.oga</v>
       </c>
       <c r="J56" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I56),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K56" s="14" t="str">
-        <f>_xlfn.CONCAT(I56,"|",B56," - ",D56," - ",E56,"-",F56,"-",G56)</f>
+        <f t="shared" si="5"/>
         <v>File:Intra Cluster Licht -  Zimmerman en Space - S01E55 - 2023-12-20 - 14176787.oga|Intra Cluster Licht - S01E55 - 2023-12-20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21875,19 +21875,19 @@
         <v>1155</v>
       </c>
       <c r="I57" s="14" t="str">
-        <f>_xlfn.CONCAT(A57,B57," - ",C57," - ",D57," - ",E57,"-",F57,"-",G57," - ",H57)</f>
+        <f t="shared" si="3"/>
         <v>File:Tabby's ster... een kerst update -  Zimmerman en Space - S01E56 - 2023-12-24 - 14197563.oga</v>
       </c>
       <c r="J57" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I57),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K57" s="14" t="str">
-        <f>_xlfn.CONCAT(I57,"|",B57," - ",D57," - ",E57,"-",F57,"-",G57)</f>
+        <f t="shared" si="5"/>
         <v>File:Tabby's ster... een kerst update -  Zimmerman en Space - S01E56 - 2023-12-24 - 14197563.oga|Tabby's ster... een kerst update - S01E56 - 2023-12-24</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21913,19 +21913,19 @@
         <v>1156</v>
       </c>
       <c r="I58" s="14" t="str">
-        <f>_xlfn.CONCAT(A58,B58," - ",C58," - ",D58," - ",E58,"-",F58,"-",G58," - ",H58)</f>
+        <f t="shared" si="3"/>
         <v>File:Kattenfilmpjes en lasers -  Zimmerman en Space - S01E57 - 2024-01-01 - 14231208.oga</v>
       </c>
       <c r="J58" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I58),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K58" s="14" t="str">
-        <f>_xlfn.CONCAT(I58,"|",B58," - ",D58," - ",E58,"-",F58,"-",G58)</f>
+        <f t="shared" si="5"/>
         <v>File:Kattenfilmpjes en lasers -  Zimmerman en Space - S01E57 - 2024-01-01 - 14231208.oga|Kattenfilmpjes en lasers - S01E57 - 2024-01-01</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21951,19 +21951,19 @@
         <v>1157</v>
       </c>
       <c r="I59" s="14" t="str">
-        <f>_xlfn.CONCAT(A59,B59," - ",C59," - ",D59," - ",E59,"-",F59,"-",G59," - ",H59)</f>
+        <f t="shared" si="3"/>
         <v>File:EC 002 - een vreemde meteoriet -  Zimmerman en Space - S01E58 - 2024-01-09 - 14281426.oga</v>
       </c>
       <c r="J59" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I59),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K59" s="14" t="str">
-        <f>_xlfn.CONCAT(I59,"|",B59," - ",D59," - ",E59,"-",F59,"-",G59)</f>
+        <f t="shared" si="5"/>
         <v>File:EC 002 - een vreemde meteoriet -  Zimmerman en Space - S01E58 - 2024-01-09 - 14281426.oga|EC 002 - een vreemde meteoriet - S01E58 - 2024-01-09</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>1193</v>
       </c>
@@ -21989,19 +21989,19 @@
         <v>1158</v>
       </c>
       <c r="I60" s="14" t="str">
-        <f>_xlfn.CONCAT(A60,B60," - ",C60," - ",D60," - ",E60,"-",F60,"-",G60," - ",H60)</f>
+        <f t="shared" si="3"/>
         <v>File:Een sterrenstelsel zonder sterren -  Zimmerman en Space - S01E59 - 2024-01-15 - 14311218.oga</v>
       </c>
       <c r="J60" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I60),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K60" s="14" t="str">
-        <f>_xlfn.CONCAT(I60,"|",B60," - ",D60," - ",E60,"-",F60,"-",G60)</f>
+        <f t="shared" si="5"/>
         <v>File:Een sterrenstelsel zonder sterren -  Zimmerman en Space - S01E59 - 2024-01-15 - 14311218.oga|Een sterrenstelsel zonder sterren - S01E59 - 2024-01-15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22027,19 +22027,19 @@
         <v>1159</v>
       </c>
       <c r="I61" s="14" t="str">
-        <f>_xlfn.CONCAT(A61,B61," - ",C61," - ",D61," - ",E61,"-",F61,"-",G61," - ",H61)</f>
+        <f t="shared" si="3"/>
         <v>File:Project COSMIC -  Zimmerman en Space - S01E60 - 2024-01-23 - 14364552.oga</v>
       </c>
       <c r="J61" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I61),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K61" s="14" t="str">
-        <f>_xlfn.CONCAT(I61,"|",B61," - ",D61," - ",E61,"-",F61,"-",G61)</f>
+        <f t="shared" si="5"/>
         <v>File:Project COSMIC -  Zimmerman en Space - S01E60 - 2024-01-23 - 14364552.oga|Project COSMIC - S01E60 - 2024-01-23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22065,19 +22065,19 @@
         <v>1160</v>
       </c>
       <c r="I62" s="14" t="str">
-        <f>_xlfn.CONCAT(A62,B62," - ",C62," - ",D62," - ",E62,"-",F62,"-",G62," - ",H62)</f>
+        <f t="shared" si="3"/>
         <v>File:Project LISA -  Zimmerman en Space - S01E61 - 2024-01-30 - 14405344.oga</v>
       </c>
       <c r="J62" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I62),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K62" s="14" t="str">
-        <f>_xlfn.CONCAT(I62,"|",B62," - ",D62," - ",E62,"-",F62,"-",G62)</f>
+        <f t="shared" si="5"/>
         <v>File:Project LISA -  Zimmerman en Space - S01E61 - 2024-01-30 - 14405344.oga|Project LISA - S01E61 - 2024-01-30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22103,19 +22103,19 @@
         <v>1161</v>
       </c>
       <c r="I63" s="14" t="str">
-        <f>_xlfn.CONCAT(A63,B63," - ",C63," - ",D63," - ",E63,"-",F63,"-",G63," - ",H63)</f>
+        <f t="shared" si="3"/>
         <v>File:Maanbevingen -  Zimmerman en Space - S01E62 - 2024-02-06 - 14453081.oga</v>
       </c>
       <c r="J63" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I63),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K63" s="14" t="str">
-        <f>_xlfn.CONCAT(I63,"|",B63," - ",D63," - ",E63,"-",F63,"-",G63)</f>
+        <f t="shared" si="5"/>
         <v>File:Maanbevingen -  Zimmerman en Space - S01E62 - 2024-02-06 - 14453081.oga|Maanbevingen - S01E62 - 2024-02-06</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22141,19 +22141,19 @@
         <v>1162</v>
       </c>
       <c r="I64" s="14" t="str">
-        <f>_xlfn.CONCAT(A64,B64," - ",C64," - ",D64," - ",E64,"-",F64,"-",G64," - ",H64)</f>
+        <f t="shared" si="3"/>
         <v>File:Ruimtevaart economie -  Zimmerman en Space - S01E63 - 2024-02-13 - 14496419.oga</v>
       </c>
       <c r="J64" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I64),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K64" s="14" t="str">
-        <f>_xlfn.CONCAT(I64,"|",B64," - ",D64," - ",E64,"-",F64,"-",G64)</f>
+        <f t="shared" si="5"/>
         <v>File:Ruimtevaart economie -  Zimmerman en Space - S01E63 - 2024-02-13 - 14496419.oga|Ruimtevaart economie - S01E63 - 2024-02-13</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22179,19 +22179,19 @@
         <v>1163</v>
       </c>
       <c r="I65" s="14" t="str">
-        <f>_xlfn.CONCAT(A65,B65," - ",C65," - ",D65," - ",E65,"-",F65,"-",G65," - ",H65)</f>
+        <f t="shared" si="3"/>
         <v>File:Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren -  Zimmerman en Space - S01E64 - 2024-02-20 - 14538270.oga</v>
       </c>
       <c r="J65" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I65),"Klik")</f>
+        <f t="shared" si="4"/>
         <v>Klik</v>
       </c>
       <c r="K65" s="14" t="str">
-        <f>_xlfn.CONCAT(I65,"|",B65," - ",D65," - ",E65,"-",F65,"-",G65)</f>
+        <f t="shared" si="5"/>
         <v>File:Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren -  Zimmerman en Space - S01E64 - 2024-02-20 - 14538270.oga|Het vroege heelal, een minder geschikte tijd om naar podcasts te luisteren - S01E64 - 2024-02-20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22217,19 +22217,19 @@
         <v>1164</v>
       </c>
       <c r="I66" s="14" t="str">
-        <f>_xlfn.CONCAT(A66,B66," - ",C66," - ",D66," - ",E66,"-",F66,"-",G66," - ",H66)</f>
+        <f t="shared" ref="I66:I97" si="6">_xlfn.CONCAT(A66,B66," - ",C66," - ",D66," - ",E66,"-",F66,"-",G66," - ",H66)</f>
         <v>File:Varda's W1 ruimtevaartuig -  Zimmerman en Space - S01E65 - 2024-02-27 - 14584962.oga</v>
       </c>
       <c r="J66" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I66),"Klik")</f>
+        <f t="shared" ref="J66:J97" si="7">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I66),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="K66" s="14" t="str">
-        <f>_xlfn.CONCAT(I66,"|",B66," - ",D66," - ",E66,"-",F66,"-",G66)</f>
+        <f t="shared" ref="K66:K93" si="8">_xlfn.CONCAT(I66,"|",B66," - ",D66," - ",E66,"-",F66,"-",G66)</f>
         <v>File:Varda's W1 ruimtevaartuig -  Zimmerman en Space - S01E65 - 2024-02-27 - 14584962.oga|Varda's W1 ruimtevaartuig - S01E65 - 2024-02-27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22255,19 +22255,19 @@
         <v>1165</v>
       </c>
       <c r="I67" s="14" t="str">
-        <f>_xlfn.CONCAT(A67,B67," - ",C67," - ",D67," - ",E67,"-",F67,"-",G67," - ",H67)</f>
+        <f t="shared" si="6"/>
         <v>File:U bevindt zich hier -  Zimmerman en Space - S01E66 - 2024-03-05 - 14631099.oga</v>
       </c>
       <c r="J67" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I67),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K67" s="14" t="str">
-        <f>_xlfn.CONCAT(I67,"|",B67," - ",D67," - ",E67,"-",F67,"-",G67)</f>
+        <f t="shared" si="8"/>
         <v>File:U bevindt zich hier -  Zimmerman en Space - S01E66 - 2024-03-05 - 14631099.oga|U bevindt zich hier - S01E66 - 2024-03-05</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22293,19 +22293,19 @@
         <v>1166</v>
       </c>
       <c r="I68" s="14" t="str">
-        <f>_xlfn.CONCAT(A68,B68," - ",C68," - ",D68," - ",E68,"-",F68,"-",G68," - ",H68)</f>
+        <f t="shared" si="6"/>
         <v>File:Fotografie buiten de aarde -  Zimmerman en Space - S01E67 - 2024-03-11 - 14672122.oga</v>
       </c>
       <c r="J68" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I68),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K68" s="14" t="str">
-        <f>_xlfn.CONCAT(I68,"|",B68," - ",D68," - ",E68,"-",F68,"-",G68)</f>
+        <f t="shared" si="8"/>
         <v>File:Fotografie buiten de aarde -  Zimmerman en Space - S01E67 - 2024-03-11 - 14672122.oga|Fotografie buiten de aarde - S01E67 - 2024-03-11</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22331,19 +22331,19 @@
         <v>1167</v>
       </c>
       <c r="I69" s="14" t="str">
-        <f>_xlfn.CONCAT(A69,B69," - ",C69," - ",D69," - ",E69,"-",F69,"-",G69," - ",H69)</f>
+        <f t="shared" si="6"/>
         <v>File:Astrofotografie - een interview met Arenda Schuurman -  Zimmerman en Space - S01E68 - 2024-03-17 - 14706516.oga</v>
       </c>
       <c r="J69" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I69),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K69" s="14" t="str">
-        <f>_xlfn.CONCAT(I69,"|",B69," - ",D69," - ",E69,"-",F69,"-",G69)</f>
+        <f t="shared" si="8"/>
         <v>File:Astrofotografie - een interview met Arenda Schuurman -  Zimmerman en Space - S01E68 - 2024-03-17 - 14706516.oga|Astrofotografie - een interview met Arenda Schuurman - S01E68 - 2024-03-17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22369,15 +22369,15 @@
         <v>1168</v>
       </c>
       <c r="I70" s="14" t="str">
-        <f>_xlfn.CONCAT(A70,B70," - ",C70," - ",D70," - ",E70,"-",F70,"-",G70," - ",H70)</f>
+        <f t="shared" si="6"/>
         <v>File:Okay, geen pulsar, maar wat dan wel -  Zimmerman en Space - S01E69 - 2024-03-24 - 14756666.oga</v>
       </c>
       <c r="J70" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I70),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K70" s="14" t="str">
-        <f>_xlfn.CONCAT(I70,"|",B70," - ",D70," - ",E70,"-",F70,"-",G70)</f>
+        <f t="shared" si="8"/>
         <v>File:Okay, geen pulsar, maar wat dan wel -  Zimmerman en Space - S01E69 - 2024-03-24 - 14756666.oga|Okay, geen pulsar, maar wat dan wel - S01E69 - 2024-03-24</v>
       </c>
     </row>
@@ -22407,15 +22407,15 @@
         <v>1169</v>
       </c>
       <c r="I71" s="14" t="str">
-        <f>_xlfn.CONCAT(A71,B71," - ",C71," - ",D71," - ",E71,"-",F71,"-",G71," - ",H71)</f>
+        <f t="shared" si="6"/>
         <v>File:Een nieuwe ster aan onze hemel -  Zimmerman en Space - S01E70 - 2024-03-31 - 14801125.oga</v>
       </c>
       <c r="J71" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I71),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K71" s="14" t="str">
-        <f>_xlfn.CONCAT(I71,"|",B71," - ",D71," - ",E71,"-",F71,"-",G71)</f>
+        <f t="shared" si="8"/>
         <v>File:Een nieuwe ster aan onze hemel -  Zimmerman en Space - S01E70 - 2024-03-31 - 14801125.oga|Een nieuwe ster aan onze hemel - S01E70 - 2024-03-31</v>
       </c>
     </row>
@@ -22445,19 +22445,19 @@
         <v>1093</v>
       </c>
       <c r="I72" s="22" t="str">
-        <f>_xlfn.CONCAT(A72,B72," - ",C72," - ",D72," - ",E72,"-",F72,"-",G72," - ",H72)</f>
+        <f t="shared" si="6"/>
         <v>File:Het Thorne-Zytkow object en hoe zwaar een ster eigenlijk kan worden -  Zimmerman en Space - S01E71 - 2024-04-08 - 14847646.oga</v>
       </c>
       <c r="J72" s="23" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I72),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K72" s="22" t="str">
-        <f>_xlfn.CONCAT(I72,"|",B72," - ",D72," - ",E72,"-",F72,"-",G72)</f>
+        <f t="shared" si="8"/>
         <v>File:Het Thorne-Zytkow object en hoe zwaar een ster eigenlijk kan worden -  Zimmerman en Space - S01E71 - 2024-04-08 - 14847646.oga|Het Thorne-Zytkow object en hoe zwaar een ster eigenlijk kan worden - S01E71 - 2024-04-08</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22483,19 +22483,19 @@
         <v>1170</v>
       </c>
       <c r="I73" s="14" t="str">
-        <f>_xlfn.CONCAT(A73,B73," - ",C73," - ",D73," - ",E73,"-",F73,"-",G73," - ",H73)</f>
+        <f t="shared" si="6"/>
         <v>File:We leven in een magnetische tunnel -  Zimmerman en Space - S01E72 - 2024-04-16 - 14898036.oga</v>
       </c>
       <c r="J73" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I73),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K73" s="14" t="str">
-        <f>_xlfn.CONCAT(I73,"|",B73," - ",D73," - ",E73,"-",F73,"-",G73)</f>
+        <f t="shared" si="8"/>
         <v>File:We leven in een magnetische tunnel -  Zimmerman en Space - S01E72 - 2024-04-16 - 14898036.oga|We leven in een magnetische tunnel - S01E72 - 2024-04-16</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22521,19 +22521,19 @@
         <v>1171</v>
       </c>
       <c r="I74" s="14" t="str">
-        <f>_xlfn.CONCAT(A74,B74," - ",C74," - ",D74," - ",E74,"-",F74,"-",G74," - ",H74)</f>
+        <f t="shared" si="6"/>
         <v>File:Tijd voor wat geluidsfragmenten -  Zimmerman en Space - S01E73 - 2024-04-23 - 14943702.oga</v>
       </c>
       <c r="J74" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I74),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K74" s="14" t="str">
-        <f>_xlfn.CONCAT(I74,"|",B74," - ",D74," - ",E74,"-",F74,"-",G74)</f>
+        <f t="shared" si="8"/>
         <v>File:Tijd voor wat geluidsfragmenten -  Zimmerman en Space - S01E73 - 2024-04-23 - 14943702.oga|Tijd voor wat geluidsfragmenten - S01E73 - 2024-04-23</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22559,19 +22559,19 @@
         <v>1172</v>
       </c>
       <c r="I75" s="14" t="str">
-        <f>_xlfn.CONCAT(A75,B75," - ",C75," - ",D75," - ",E75,"-",F75,"-",G75," - ",H75)</f>
+        <f t="shared" si="6"/>
         <v>File:Europa Clipper en Voyager 1 (of andersom) -  Zimmerman en Space - S01E74 - 2024-04-28 - 14968945.oga</v>
       </c>
       <c r="J75" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I75),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K75" s="14" t="str">
-        <f>_xlfn.CONCAT(I75,"|",B75," - ",D75," - ",E75,"-",F75,"-",G75)</f>
+        <f t="shared" si="8"/>
         <v>File:Europa Clipper en Voyager 1 (of andersom) -  Zimmerman en Space - S01E74 - 2024-04-28 - 14968945.oga|Europa Clipper en Voyager 1 (of andersom) - S01E74 - 2024-04-28</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22597,19 +22597,19 @@
         <v>1173</v>
       </c>
       <c r="I76" s="14" t="str">
-        <f>_xlfn.CONCAT(A76,B76," - ",C76," - ",D76," - ",E76,"-",F76,"-",G76," - ",H76)</f>
+        <f t="shared" si="6"/>
         <v>File:Kortstondige maan fenomenen -  Zimmerman en Space - S01E75 - 2024-05-05 - 15013251.oga</v>
       </c>
       <c r="J76" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I76),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K76" s="14" t="str">
-        <f>_xlfn.CONCAT(I76,"|",B76," - ",D76," - ",E76,"-",F76,"-",G76)</f>
+        <f t="shared" si="8"/>
         <v>File:Kortstondige maan fenomenen -  Zimmerman en Space - S01E75 - 2024-05-05 - 15013251.oga|Kortstondige maan fenomenen - S01E75 - 2024-05-05</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22635,19 +22635,19 @@
         <v>1174</v>
       </c>
       <c r="I77" s="14" t="str">
-        <f>_xlfn.CONCAT(A77,B77," - ",C77," - ",D77," - ",E77,"-",F77,"-",G77," - ",H77)</f>
+        <f t="shared" si="6"/>
         <v>File:Secundaire eclips, secundaire atmosfeer -  Zimmerman en Space - S01E76 - 2024-05-12 - 15054031.oga</v>
       </c>
       <c r="J77" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I77),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K77" s="14" t="str">
-        <f>_xlfn.CONCAT(I77,"|",B77," - ",D77," - ",E77,"-",F77,"-",G77)</f>
+        <f t="shared" si="8"/>
         <v>File:Secundaire eclips, secundaire atmosfeer -  Zimmerman en Space - S01E76 - 2024-05-12 - 15054031.oga|Secundaire eclips, secundaire atmosfeer - S01E76 - 2024-05-12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22673,19 +22673,19 @@
         <v>1175</v>
       </c>
       <c r="I78" s="14" t="str">
-        <f>_xlfn.CONCAT(A78,B78," - ",C78," - ",D78," - ",E78,"-",F78,"-",G78," - ",H78)</f>
+        <f t="shared" si="6"/>
         <v>File:TOI-1452b, een geleide meditatie met Mirthe en Hens -  Zimmerman en Space - S01E77 - 2024-05-18 - 15091584.oga</v>
       </c>
       <c r="J78" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I78),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K78" s="14" t="str">
-        <f>_xlfn.CONCAT(I78,"|",B78," - ",D78," - ",E78,"-",F78,"-",G78)</f>
+        <f t="shared" si="8"/>
         <v>File:TOI-1452b, een geleide meditatie met Mirthe en Hens -  Zimmerman en Space - S01E77 - 2024-05-18 - 15091584.oga|TOI-1452b, een geleide meditatie met Mirthe en Hens - S01E77 - 2024-05-18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22711,15 +22711,15 @@
         <v>1176</v>
       </c>
       <c r="I79" s="14" t="str">
-        <f>_xlfn.CONCAT(A79,B79," - ",C79," - ",D79," - ",E79,"-",F79,"-",G79," - ",H79)</f>
+        <f t="shared" si="6"/>
         <v>File:Amalthea -  Zimmerman en Space - S01E78 - 2024-05-27 - 15141653.oga</v>
       </c>
       <c r="J79" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I79),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K79" s="14" t="str">
-        <f>_xlfn.CONCAT(I79,"|",B79," - ",D79," - ",E79,"-",F79,"-",G79)</f>
+        <f t="shared" si="8"/>
         <v>File:Amalthea -  Zimmerman en Space - S01E78 - 2024-05-27 - 15141653.oga|Amalthea - S01E78 - 2024-05-27</v>
       </c>
     </row>
@@ -22749,19 +22749,19 @@
         <v>1177</v>
       </c>
       <c r="I80" s="14" t="str">
-        <f>_xlfn.CONCAT(A80,B80," - ",C80," - ",D80," - ",E80,"-",F80,"-",G80," - ",H80)</f>
+        <f t="shared" si="6"/>
         <v>File:Een pleidooi voor de verrekijker -  Zimmerman en Space - S01E79 - 2024-06-03 - 15182541.oga</v>
       </c>
       <c r="J80" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I80),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K80" s="14" t="str">
-        <f>_xlfn.CONCAT(I80,"|",B80," - ",D80," - ",E80,"-",F80,"-",G80)</f>
+        <f t="shared" si="8"/>
         <v>File:Een pleidooi voor de verrekijker -  Zimmerman en Space - S01E79 - 2024-06-03 - 15182541.oga|Een pleidooi voor de verrekijker - S01E79 - 2024-06-03</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22787,19 +22787,19 @@
         <v>1178</v>
       </c>
       <c r="I81" s="14" t="str">
-        <f>_xlfn.CONCAT(A81,B81," - ",C81," - ",D81," - ",E81,"-",F81,"-",G81," - ",H81)</f>
+        <f t="shared" si="6"/>
         <v>File:Europa Clipper deel 2 -  Zimmerman en Space - S01E80 - 2024-06-11 - 15232936.oga</v>
       </c>
       <c r="J81" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I81),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K81" s="14" t="str">
-        <f>_xlfn.CONCAT(I81,"|",B81," - ",D81," - ",E81,"-",F81,"-",G81)</f>
+        <f t="shared" si="8"/>
         <v>File:Europa Clipper deel 2 -  Zimmerman en Space - S01E80 - 2024-06-11 - 15232936.oga|Europa Clipper deel 2 - S01E80 - 2024-06-11</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22825,19 +22825,19 @@
         <v>1179</v>
       </c>
       <c r="I82" s="14" t="str">
-        <f>_xlfn.CONCAT(A82,B82," - ",C82," - ",D82," - ",E82,"-",F82,"-",G82," - ",H82)</f>
+        <f t="shared" si="6"/>
         <v>File:Dyson spheres -  Zimmerman en Space - S01E81 - 2024-06-17 - 15262778.oga</v>
       </c>
       <c r="J82" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I82),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K82" s="14" t="str">
-        <f>_xlfn.CONCAT(I82,"|",B82," - ",D82," - ",E82,"-",F82,"-",G82)</f>
+        <f t="shared" si="8"/>
         <v>File:Dyson spheres -  Zimmerman en Space - S01E81 - 2024-06-17 - 15262778.oga|Dyson spheres - S01E81 - 2024-06-17</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22863,19 +22863,19 @@
         <v>1180</v>
       </c>
       <c r="I83" s="14" t="str">
-        <f>_xlfn.CONCAT(A83,B83," - ",C83," - ",D83," - ",E83,"-",F83,"-",G83," - ",H83)</f>
+        <f t="shared" si="6"/>
         <v>File:Een dubbelster in WL20 -  Zimmerman en Space - S01E82 - 2024-06-24 - 15304478.oga</v>
       </c>
       <c r="J83" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I83),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K83" s="14" t="str">
-        <f>_xlfn.CONCAT(I83,"|",B83," - ",D83," - ",E83,"-",F83,"-",G83)</f>
+        <f t="shared" si="8"/>
         <v>File:Een dubbelster in WL20 -  Zimmerman en Space - S01E82 - 2024-06-24 - 15304478.oga|Een dubbelster in WL20 - S01E82 - 2024-06-24</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22901,19 +22901,19 @@
         <v>1181</v>
       </c>
       <c r="I84" s="14" t="str">
-        <f>_xlfn.CONCAT(A84,B84," - ",C84," - ",D84," - ",E84,"-",F84,"-",G84," - ",H84)</f>
+        <f t="shared" si="6"/>
         <v>File:Metrologie -  Zimmerman en Space - S01E83 - 2024-07-01 - 15340768.oga</v>
       </c>
       <c r="J84" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I84),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K84" s="14" t="str">
-        <f>_xlfn.CONCAT(I84,"|",B84," - ",D84," - ",E84,"-",F84,"-",G84)</f>
+        <f t="shared" si="8"/>
         <v>File:Metrologie -  Zimmerman en Space - S01E83 - 2024-07-01 - 15340768.oga|Metrologie - S01E83 - 2024-07-01</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22939,19 +22939,19 @@
         <v>1182</v>
       </c>
       <c r="I85" s="14" t="str">
-        <f>_xlfn.CONCAT(A85,B85," - ",C85," - ",D85," - ",E85,"-",F85,"-",G85," - ",H85)</f>
+        <f t="shared" si="6"/>
         <v>File:Enge stenen die langs de aarde vliegen -  Zimmerman en Space - S01E84 - 2024-07-07 - 15374225.oga</v>
       </c>
       <c r="J85" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I85),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K85" s="14" t="str">
-        <f>_xlfn.CONCAT(I85,"|",B85," - ",D85," - ",E85,"-",F85,"-",G85)</f>
+        <f t="shared" si="8"/>
         <v>File:Enge stenen die langs de aarde vliegen -  Zimmerman en Space - S01E84 - 2024-07-07 - 15374225.oga|Enge stenen die langs de aarde vliegen - S01E84 - 2024-07-07</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>1193</v>
       </c>
@@ -22977,19 +22977,19 @@
         <v>1183</v>
       </c>
       <c r="I86" s="14" t="str">
-        <f>_xlfn.CONCAT(A86,B86," - ",C86," - ",D86," - ",E86,"-",F86,"-",G86," - ",H86)</f>
+        <f t="shared" si="6"/>
         <v>File:De mysterieuze luchtschepen van 1896 - 1897 -  Zimmerman en Space - S01E85 - 2024-07-14 - 15400221.oga</v>
       </c>
       <c r="J86" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I86),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K86" s="14" t="str">
-        <f>_xlfn.CONCAT(I86,"|",B86," - ",D86," - ",E86,"-",F86,"-",G86)</f>
+        <f t="shared" si="8"/>
         <v>File:De mysterieuze luchtschepen van 1896 - 1897 -  Zimmerman en Space - S01E85 - 2024-07-14 - 15400221.oga|De mysterieuze luchtschepen van 1896 - 1897 - S01E85 - 2024-07-14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23015,19 +23015,19 @@
         <v>1184</v>
       </c>
       <c r="I87" s="14" t="str">
-        <f>_xlfn.CONCAT(A87,B87," - ",C87," - ",D87," - ",E87,"-",F87,"-",G87," - ",H87)</f>
+        <f t="shared" si="6"/>
         <v>File:Buitenaards broeikasgas -  Zimmerman en Space - S01E86 - 2024-07-21 - 15400251.oga</v>
       </c>
       <c r="J87" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I87),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K87" s="14" t="str">
-        <f>_xlfn.CONCAT(I87,"|",B87," - ",D87," - ",E87,"-",F87,"-",G87)</f>
+        <f t="shared" si="8"/>
         <v>File:Buitenaards broeikasgas -  Zimmerman en Space - S01E86 - 2024-07-21 - 15400251.oga|Buitenaards broeikasgas - S01E86 - 2024-07-21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23053,19 +23053,19 @@
         <v>1185</v>
       </c>
       <c r="I88" s="14" t="str">
-        <f>_xlfn.CONCAT(A88,B88," - ",C88," - ",D88," - ",E88,"-",F88,"-",G88," - ",H88)</f>
+        <f t="shared" si="6"/>
         <v>File:Dr. Heloise Stevance -  Zimmerman en Space - S01E87 - 2024-07-28 - 15400269.oga</v>
       </c>
       <c r="J88" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I88),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K88" s="14" t="str">
-        <f>_xlfn.CONCAT(I88,"|",B88," - ",D88," - ",E88,"-",F88,"-",G88)</f>
+        <f t="shared" si="8"/>
         <v>File:Dr. Heloise Stevance -  Zimmerman en Space - S01E87 - 2024-07-28 - 15400269.oga|Dr. Heloise Stevance - S01E87 - 2024-07-28</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23091,19 +23091,19 @@
         <v>1186</v>
       </c>
       <c r="I89" s="14" t="str">
-        <f>_xlfn.CONCAT(A89,B89," - ",C89," - ",D89," - ",E89,"-",F89,"-",G89," - ",H89)</f>
+        <f t="shared" si="6"/>
         <v>File:Extra manen en exomanen -  Zimmerman en Space - S01E88 - 2024-08-04 - 15510621.oga</v>
       </c>
       <c r="J89" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I89),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K89" s="14" t="str">
-        <f>_xlfn.CONCAT(I89,"|",B89," - ",D89," - ",E89,"-",F89,"-",G89)</f>
+        <f t="shared" si="8"/>
         <v>File:Extra manen en exomanen -  Zimmerman en Space - S01E88 - 2024-08-04 - 15510621.oga|Extra manen en exomanen - S01E88 - 2024-08-04</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23129,19 +23129,19 @@
         <v>1187</v>
       </c>
       <c r="I90" s="14" t="str">
-        <f>_xlfn.CONCAT(A90,B90," - ",C90," - ",D90," - ",E90,"-",F90,"-",G90," - ",H90)</f>
+        <f t="shared" si="6"/>
         <v>File:Maar is het buitenaards leven -  Zimmerman en Space - S01E89 - 2024-08-12 - 15568492.oga</v>
       </c>
       <c r="J90" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I90),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K90" s="14" t="str">
-        <f>_xlfn.CONCAT(I90,"|",B90," - ",D90," - ",E90,"-",F90,"-",G90)</f>
+        <f t="shared" si="8"/>
         <v>File:Maar is het buitenaards leven -  Zimmerman en Space - S01E89 - 2024-08-12 - 15568492.oga|Maar is het buitenaards leven - S01E89 - 2024-08-12</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23167,19 +23167,19 @@
         <v>1188</v>
       </c>
       <c r="I91" s="14" t="str">
-        <f>_xlfn.CONCAT(A91,B91," - ",C91," - ",D91," - ",E91,"-",F91,"-",G91," - ",H91)</f>
+        <f t="shared" si="6"/>
         <v>File:Het verstrijken van de tijd kort na de oerknal -  Zimmerman en Space - S01E90 - 2024-08-19 - 15604646.oga</v>
       </c>
       <c r="J91" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I91),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K91" s="14" t="str">
-        <f>_xlfn.CONCAT(I91,"|",B91," - ",D91," - ",E91,"-",F91,"-",G91)</f>
+        <f t="shared" si="8"/>
         <v>File:Het verstrijken van de tijd kort na de oerknal -  Zimmerman en Space - S01E90 - 2024-08-19 - 15604646.oga|Het verstrijken van de tijd kort na de oerknal - S01E90 - 2024-08-19</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23205,19 +23205,19 @@
         <v>1189</v>
       </c>
       <c r="I92" s="14" t="str">
-        <f>_xlfn.CONCAT(A92,B92," - ",C92," - ",D92," - ",E92,"-",F92,"-",G92," - ",H92)</f>
+        <f t="shared" si="6"/>
         <v>File:De foton-sfeer rond een zwart gat -  Zimmerman en Space - S01E91 - 2024-08-26 - 15645704.oga</v>
       </c>
       <c r="J92" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I92),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K92" s="14" t="str">
-        <f>_xlfn.CONCAT(I92,"|",B92," - ",D92," - ",E92,"-",F92,"-",G92)</f>
+        <f t="shared" si="8"/>
         <v>File:De foton-sfeer rond een zwart gat -  Zimmerman en Space - S01E91 - 2024-08-26 - 15645704.oga|De foton-sfeer rond een zwart gat - S01E91 - 2024-08-26</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>1193</v>
       </c>
@@ -23243,15 +23243,15 @@
         <v>1190</v>
       </c>
       <c r="I93" s="14" t="str">
-        <f>_xlfn.CONCAT(A93,B93," - ",C93," - ",D93," - ",E93,"-",F93,"-",G93," - ",H93)</f>
+        <f t="shared" si="6"/>
         <v>File:Vooruit, een hele aflevering over de Lagrange punten -  Zimmerman en Space - S01E92 - 2024-09-02 - 15681378.oga</v>
       </c>
       <c r="J93" s="13" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I93),"Klik")</f>
+        <f t="shared" si="7"/>
         <v>Klik</v>
       </c>
       <c r="K93" s="14" t="str">
-        <f>_xlfn.CONCAT(I93,"|",B93," - ",D93," - ",E93,"-",F93,"-",G93)</f>
+        <f t="shared" si="8"/>
         <v>File:Vooruit, een hele aflevering over de Lagrange punten -  Zimmerman en Space - S01E92 - 2024-09-02 - 15681378.oga|Vooruit, een hele aflevering over de Lagrange punten - S01E92 - 2024-09-02</v>
       </c>
     </row>

--- a/ZimmermanEnSpacePodcast_episodes1-92.xlsx
+++ b/ZimmermanEnSpacePodcast_episodes1-92.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zimmerman-en-Space-podcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Zimmerman-en-Space-podcast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA863FC-8938-4A2F-9CA4-D69A60AA0A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043D45E-27E2-43D3-9033-082D157B2A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="episodes" sheetId="1" r:id="rId1"/>
     <sheet name="file_checks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2057,13 +2044,6 @@
 * Barnard 68 Bok globule: https://en.wikipedia.org/wiki/Barnard_68_x000D_
 * Steun Zimmerman en Space: https://gofund.me/913a7f2a_x000D_
 * Word lid van onze Discord: https://discord.gg/tqmuscVTdq</t>
-  </si>
-  <si>
-    <t>* Artikel over Viking 1 uit De Volkskrant: https://resolver.kb.nl/resolve?urn=ABCDDD:010881102:mpeg21:p005_x000D_
-* Chryse Planitia in Google Mars: https://www.google.com/mars/#lat=25.324166&amp;amp;lon=-30.234375&amp;amp;q=Chryse%20Planitia_x000D_
-* Artikel over mega-tsunami op Mars: https://astronomy.com/news/2022/12/megatsunami-swept-over-mars-after-devastating-asteroid-strike_x000D_
-* Evidence of an oceanic impact and megatsunami sedimentation in Chryse Planitia, Mars: https://www.nature.com/articles/s41598-022-18082-2_x000D_
-* The Viking Lander Labeled Release Data Set: https://pds-geosciences.wustl.edu/missions/vlander/lr.html</t>
   </si>
   <si>
     <t>* Een prachtig interactief systeem der elementen: https://ptable.com/?lang=nl_x000D_
@@ -2259,12 +2239,6 @@
 * Dirk_Schulze-Makuch: https://en.wikipedia.org/wiki/Dirk_Schulze-Makuch</t>
   </si>
   <si>
-    <t>* Elementary-Particle Physics - Revealing the Secrets of Energy and Matter (gratis boek): https://nap.nationalacademies.org/catalog/6045/elementary-particle-physics-revealing-the-secrets-of-energy-and-matter_x000D_
-* Uitstekende lijst met afkortingen die worden gebezigd in deeltjesfysica: https://www.slac.stanford.edu/econf/C210711/reports/Glossary.pdf_x000D_
-* Axion: https://en.wikipedia.org/wiki/Axion_x000D_
-* Boerhaave museum podcast "Grote Vragen": https://open.spotify.com/show/6wZoJ5pL4X06rOoe6YioQw</t>
-  </si>
-  <si>
     <t>* Mars is rotating more quickly, NASA mission finds: https://edition.cnn.com/2023/08/14/world/mars-rotation-insight-nasa-scn/index.html_x000D_
 * Could we really live on Mars? https://www.skyatnightmagazine.com/space-science/could-we-live-on-mars_x000D_
 * Mars InSight lander: https://en.wikipedia.org/wiki/InSight - https://mars.nasa.gov/insight_x000D_
@@ -2310,13 +2284,6 @@
     <t>* Het bezit van de zaak is het einde van het vermaak: https://www.sg.uu.nl/artikelen/2013/08/het-bezit-van-de-zaak-het-einde-van-het-vermaak_x000D_
 * Trifid nevel: https://theplanets.org/nebula-facts/trifid-nebula/_x000D_
 * HII regio: https://en.wikipedia.org/wiki/H_II_region</t>
-  </si>
-  <si>
-    <t>* Volkssterrenwacht Bussloo: https://volkssterrenwachtbussloo.nl/_x000D_
-* Historische vereniging Diepenveen: https://www.historischeverenigingdiepenveen.nl/_x000D_
-* Dag van de meteoriet 27 oktober 2023: https://www.historischeverenigingdiepenveen.nl/programma.html_x000D_
-* KNVWS over symposium Diepenveen: https://www.knvws.nl/symposium/over-de-diepenveen/_x000D_
-* Delft Meteorite Lab (bekijk meteorieten in 3D): https://sketchfab.com/delftmeteoritelab</t>
   </si>
   <si>
     <t>* Fine Tuned Universe: https://en.wikipedia.org/wiki/Fine-tuned_universe_x000D_
@@ -6499,6 +6466,26 @@
   </si>
   <si>
     <t>Prefix</t>
+  </si>
+  <si>
+    <t>* Artikel over Viking 1 uit De Volkskrant: https://resolver.kb.nl/resolve?urn=ABCDDD:010881102:mpeg21:p005
+* Chryse Planitia in Google Mars: https://www.google.com/mars/#lat=25.324166&amp;amp;lon=-30.234375&amp;amp;q=Chryse%20Planitia
+* Artikel over mega-tsunami op Mars: https://astronomy.com/news/2022/12/megatsunami-swept-over-mars-after-devastating-asteroid-strike
+* Evidence of an oceanic impact and megatsunami sedimentation in Chryse Planitia, Mars: https://www.nature.com/articles/s41598-022-18082-2
+* The Viking Lander Labeled Release Data Set: https://pds-geosciences.wustl.edu/missions/vlander/lr.html</t>
+  </si>
+  <si>
+    <t>* Elementary-Particle Physics - Revealing the Secrets of Energy and Matter (gratis boek): https://nap.nationalacademies.org/catalog/6045/elementary-particle-physics-revealing-the-secrets-of-energy-and-matter
+* Uitstekende lijst met afkortingen die worden gebezigd in deeltjesfysica: https://www.slac.stanford.edu/econf/C210711/reports/Glossary.pdf
+* Axion: https://en.wikipedia.org/wiki/Axion
+* Boerhaave museum podcast "Grote Vragen": https://open.spotify.com/show/6wZoJ5pL4X06rOoe6YioQw</t>
+  </si>
+  <si>
+    <t>* Volkssterrenwacht Bussloo: https://volkssterrenwachtbussloo.nl/
+* Historische vereniging Diepenveen: https://www.historischeverenigingdiepenveen.nl/
+* Dag van de meteoriet 27 oktober 2023: https://www.historischeverenigingdiepenveen.nl/programma.html
+* KNVWS over symposium Diepenveen: https://www.knvws.nl/symposium/over-de-diepenveen/
+* Delft Meteorite Lab (bekijk meteorieten in 3D): https://sketchfab.com/delftmeteoritelab</t>
   </si>
 </sst>
 </file>
@@ -6990,8 +6977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AA36" workbookViewId="0">
+      <selection activeCell="AD45" sqref="AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7032,7 +7019,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>448</v>
@@ -7044,37 +7031,37 @@
         <v>451</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>796</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>449</v>
@@ -7083,14 +7070,14 @@
         <v>0</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="W1" s="15"/>
       <c r="X1" s="8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Z1" s="9" t="s">
         <v>639</v>
@@ -7105,19 +7092,19 @@
         <v>641</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7157,22 +7144,22 @@
         <v>460</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>275</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>356</v>
@@ -7188,10 +7175,10 @@
         <v>452</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="W2" s="16" t="str">
         <f>HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/File:",V2),"Klik")</f>
@@ -7218,7 +7205,7 @@
         <v>462</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>671</v>
+        <v>1380</v>
       </c>
       <c r="AE2" s="5" t="str">
         <f>"
@@ -7246,10 +7233,10 @@
 |description={{nl|1= Tsunami's op Mars - ''Zimmerman en Space'' - Seizoen 01, Aflevering 01 - 9 december 2022
 ;Shownotes
 Tsunami's op Mars? Echt? Ja, maar dan wel heel lang geleden. Wat deze hypothese te maken heeft met de Viking landers uit 1976 hoort u in deze aflevering van Zimmerman en Space. 
-* Artikel over Viking 1 uit De Volkskrant: https://resolver.kb.nl/resolve?urn=ABCDDD:010881102:mpeg21:p005_x000D_
-* Chryse Planitia in Google Mars: https://www.google.com/mars/#lat=25.324166&amp;amp;lon=-30.234375&amp;amp;q=Chryse%20Planitia_x000D_
-* Artikel over mega-tsunami op Mars: https://astronomy.com/news/2022/12/megatsunami-swept-over-mars-after-devastating-asteroid-strike_x000D_
-* Evidence of an oceanic impact and megatsunami sedimentation in Chryse Planitia, Mars: https://www.nature.com/articles/s41598-022-18082-2_x000D_
+* Artikel over Viking 1 uit De Volkskrant: https://resolver.kb.nl/resolve?urn=ABCDDD:010881102:mpeg21:p005
+* Chryse Planitia in Google Mars: https://www.google.com/mars/#lat=25.324166&amp;amp;lon=-30.234375&amp;amp;q=Chryse%20Planitia
+* Artikel over mega-tsunami op Mars: https://astronomy.com/news/2022/12/megatsunami-swept-over-mars-after-devastating-asteroid-strike
+* Evidence of an oceanic impact and megatsunami sedimentation in Chryse Planitia, Mars: https://www.nature.com/articles/s41598-022-18082-2
 * The Viking Lander Labeled Release Data Set: https://pds-geosciences.wustl.edu/missions/vlander/lr.html}}
 |date = 2022-12-09
 |source = https://www.buzzsprout.com/2096278/11845039-tsunami-s-op-mars
@@ -7262,7 +7249,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AG2" s="3" t="str">
         <f>_xlfn.CONCAT($H2," - Zimmerman en Space - Season ",$S2,", Episode ",$T2," - ",Q2)</f>
@@ -7316,16 +7303,16 @@
         <v>275</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>357</v>
@@ -7341,10 +7328,10 @@
         <v>453</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="W3" s="16" t="str">
         <f t="shared" ref="W3:W66" si="6">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/File:",V3),"Klik")</f>
@@ -7371,7 +7358,7 @@
         <v>464</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AE3" s="5" t="str">
         <f t="shared" ref="AE3:AE66" si="9">"
@@ -7427,7 +7414,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AG3" s="3" t="str">
         <f t="shared" ref="AG3:AG66" si="10">_xlfn.CONCAT(H3," - Zimmerman en Space - Season ",S3,", Episode ",T3," - ",Q3)</f>
@@ -7481,16 +7468,16 @@
         <v>275</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>358</v>
@@ -7506,10 +7493,10 @@
         <v>454</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="W4" s="16" t="str">
         <f t="shared" si="6"/>
@@ -7536,7 +7523,7 @@
         <v>466</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AE4" s="5" t="str">
         <f t="shared" si="9"/>
@@ -7560,7 +7547,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="AG4" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7614,16 +7601,16 @@
         <v>275</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>359</v>
@@ -7639,10 +7626,10 @@
         <v>455</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="W5" s="16" t="str">
         <f t="shared" si="6"/>
@@ -7692,7 +7679,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="AG5" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7740,22 +7727,22 @@
         <v>454</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>452</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>360</v>
@@ -7771,10 +7758,10 @@
         <v>456</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="W6" s="16" t="str">
         <f t="shared" si="6"/>
@@ -7828,7 +7815,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="AG6" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7882,16 +7869,16 @@
         <v>452</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>361</v>
@@ -7907,10 +7894,10 @@
         <v>457</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="W7" s="16" t="str">
         <f t="shared" si="6"/>
@@ -7963,7 +7950,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AG7" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8017,16 +8004,16 @@
         <v>452</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>362</v>
@@ -8042,10 +8029,10 @@
         <v>458</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="W8" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8072,7 +8059,7 @@
         <v>474</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AE8" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8097,7 +8084,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="AG8" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8151,16 +8138,16 @@
         <v>452</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>363</v>
@@ -8176,10 +8163,10 @@
         <v>459</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="W9" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8206,7 +8193,7 @@
         <v>476</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AE9" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8234,7 +8221,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AG9" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8288,16 +8275,16 @@
         <v>452</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>364</v>
@@ -8313,10 +8300,10 @@
         <v>460</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="W10" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8343,7 +8330,7 @@
         <v>478</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AE10" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8371,7 +8358,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AG10" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8419,22 +8406,22 @@
         <v>458</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>453</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>365</v>
@@ -8450,10 +8437,10 @@
         <v>273</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="W11" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8480,7 +8467,7 @@
         <v>480</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AE11" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8508,7 +8495,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AG11" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8562,16 +8549,16 @@
         <v>453</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>366</v>
@@ -8587,10 +8574,10 @@
         <v>274</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="W12" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8617,7 +8604,7 @@
         <v>482</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AE12" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8645,7 +8632,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="AG12" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8699,16 +8686,16 @@
         <v>453</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>367</v>
@@ -8724,10 +8711,10 @@
         <v>275</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="W13" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8776,7 +8763,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AG13" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8830,16 +8817,16 @@
         <v>453</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>368</v>
@@ -8855,10 +8842,10 @@
         <v>276</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="W14" s="16" t="str">
         <f t="shared" si="6"/>
@@ -8885,7 +8872,7 @@
         <v>486</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE14" s="5" t="str">
         <f t="shared" si="9"/>
@@ -8910,7 +8897,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AG14" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8958,22 +8945,22 @@
         <v>458</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>454</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>369</v>
@@ -8989,10 +8976,10 @@
         <v>277</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="W15" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9019,7 +9006,7 @@
         <v>488</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE15" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9044,7 +9031,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="AG15" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9098,16 +9085,16 @@
         <v>454</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>370</v>
@@ -9123,10 +9110,10 @@
         <v>278</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="W16" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9153,7 +9140,7 @@
         <v>490</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE16" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9177,7 +9164,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="AG16" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9231,16 +9218,16 @@
         <v>454</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>371</v>
@@ -9256,10 +9243,10 @@
         <v>279</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="W17" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9286,7 +9273,7 @@
         <v>492</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AE17" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9310,7 +9297,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="AG17" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9364,16 +9351,16 @@
         <v>454</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>372</v>
@@ -9389,10 +9376,10 @@
         <v>280</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="W18" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9419,7 +9406,7 @@
         <v>494</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AE18" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9445,7 +9432,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="AG18" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9493,22 +9480,22 @@
         <v>455</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>455</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>373</v>
@@ -9524,10 +9511,10 @@
         <v>281</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="W19" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9554,7 +9541,7 @@
         <v>496</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AE19" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9578,7 +9565,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AG19" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9632,16 +9619,16 @@
         <v>455</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>374</v>
@@ -9657,10 +9644,10 @@
         <v>282</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="W20" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9687,7 +9674,7 @@
         <v>498</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AE20" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9714,7 +9701,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="AG20" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9768,16 +9755,16 @@
         <v>455</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>375</v>
@@ -9793,10 +9780,10 @@
         <v>283</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="W21" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9823,7 +9810,7 @@
         <v>500</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AE21" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9849,7 +9836,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="AG21" s="3" t="str">
         <f t="shared" si="10"/>
@@ -9903,16 +9890,16 @@
         <v>455</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>376</v>
@@ -9928,10 +9915,10 @@
         <v>284</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="W22" s="16" t="str">
         <f t="shared" si="6"/>
@@ -9958,7 +9945,7 @@
         <v>502</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AE22" s="5" t="str">
         <f t="shared" si="9"/>
@@ -9983,7 +9970,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="AG22" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10031,22 +10018,22 @@
         <v>453</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>456</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>377</v>
@@ -10062,10 +10049,10 @@
         <v>285</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="W23" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10114,7 +10101,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="AG23" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10162,22 +10149,22 @@
         <v>460</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>456</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>378</v>
@@ -10193,10 +10180,10 @@
         <v>286</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="W24" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10223,7 +10210,7 @@
         <v>506</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AE24" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10248,7 +10235,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="AG24" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10302,16 +10289,16 @@
         <v>456</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>379</v>
@@ -10327,10 +10314,10 @@
         <v>287</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="W25" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10357,7 +10344,7 @@
         <v>508</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE25" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10383,7 +10370,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="AG25" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10437,16 +10424,16 @@
         <v>456</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>380</v>
@@ -10462,10 +10449,10 @@
         <v>288</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="W26" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10492,7 +10479,7 @@
         <v>510</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AE26" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10521,7 +10508,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AG26" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10575,16 +10562,16 @@
         <v>456</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>381</v>
@@ -10600,10 +10587,10 @@
         <v>289</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="W27" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10630,7 +10617,7 @@
         <v>512</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AE27" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10653,7 +10640,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="AG27" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10701,22 +10688,22 @@
         <v>457</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>457</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>382</v>
@@ -10732,10 +10719,10 @@
         <v>290</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="W28" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10762,7 +10749,7 @@
         <v>514</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AE28" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10790,7 +10777,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="AG28" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10844,16 +10831,16 @@
         <v>457</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>383</v>
@@ -10869,10 +10856,10 @@
         <v>291</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="W29" s="16" t="str">
         <f t="shared" si="6"/>
@@ -10899,7 +10886,7 @@
         <v>516</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AE29" s="5" t="str">
         <f t="shared" si="9"/>
@@ -10927,7 +10914,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="AG29" s="3" t="str">
         <f t="shared" si="10"/>
@@ -10981,16 +10968,16 @@
         <v>457</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>384</v>
@@ -11006,10 +10993,10 @@
         <v>292</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="W30" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11036,7 +11023,7 @@
         <v>518</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AE30" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11061,7 +11048,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="AG30" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11115,16 +11102,16 @@
         <v>457</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>385</v>
@@ -11140,10 +11127,10 @@
         <v>293</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="W31" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11170,7 +11157,7 @@
         <v>520</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AE31" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11194,7 +11181,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="AG31" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11242,22 +11229,22 @@
         <v>456</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>458</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>386</v>
@@ -11273,10 +11260,10 @@
         <v>294</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="W32" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11303,7 +11290,7 @@
         <v>522</v>
       </c>
       <c r="AD32" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AE32" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11332,7 +11319,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="AG32" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11386,16 +11373,16 @@
         <v>458</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>387</v>
@@ -11411,10 +11398,10 @@
         <v>295</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="W33" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11441,7 +11428,7 @@
         <v>524</v>
       </c>
       <c r="AD33" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AE33" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11470,7 +11457,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF33" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="AG33" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11524,16 +11511,16 @@
         <v>458</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>388</v>
@@ -11549,10 +11536,10 @@
         <v>296</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="W34" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11579,7 +11566,7 @@
         <v>526</v>
       </c>
       <c r="AD34" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AE34" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11604,7 +11591,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF34" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="AG34" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11646,7 +11633,7 @@
         <v>102</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>288</v>
@@ -11658,16 +11645,16 @@
         <v>458</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>389</v>
@@ -11683,10 +11670,10 @@
         <v>297</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="W35" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11713,7 +11700,7 @@
         <v>528</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AE35" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11738,7 +11725,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="AG35" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11786,22 +11773,22 @@
         <v>452</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>459</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>390</v>
@@ -11817,10 +11804,10 @@
         <v>298</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="W36" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11847,7 +11834,7 @@
         <v>530</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AE36" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11874,7 +11861,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="AG36" s="3" t="str">
         <f t="shared" si="10"/>
@@ -11922,22 +11909,22 @@
         <v>459</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>459</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>391</v>
@@ -11953,10 +11940,10 @@
         <v>299</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="W37" s="16" t="str">
         <f t="shared" si="6"/>
@@ -11983,7 +11970,7 @@
         <v>532</v>
       </c>
       <c r="AD37" s="5" t="s">
-        <v>699</v>
+        <v>1381</v>
       </c>
       <c r="AE37" s="5" t="str">
         <f t="shared" si="9"/>
@@ -11993,9 +11980,9 @@
 |description={{nl|1= De donkere sector - ''Zimmerman en Space'' - Seizoen 01, Aflevering 36 - 8 augustus 2023
 ;Shownotes
 Alles goed en wel, maar '''donkere''' materie en '''donkere''' energie zijn misschien nog niet het complete verhaal. Hoe het wel zit weet niemand, maar daar kunnen we toch een hele aflevering van deze podcast mee vullen. 
-* Elementary-Particle Physics - Revealing the Secrets of Energy and Matter (gratis boek): https://nap.nationalacademies.org/catalog/6045/elementary-particle-physics-revealing-the-secrets-of-energy-and-matter_x000D_
-* Uitstekende lijst met afkortingen die worden gebezigd in deeltjesfysica: https://www.slac.stanford.edu/econf/C210711/reports/Glossary.pdf_x000D_
-* Axion: https://en.wikipedia.org/wiki/Axion_x000D_
+* Elementary-Particle Physics - Revealing the Secrets of Energy and Matter (gratis boek): https://nap.nationalacademies.org/catalog/6045/elementary-particle-physics-revealing-the-secrets-of-energy-and-matter
+* Uitstekende lijst met afkortingen die worden gebezigd in deeltjesfysica: https://www.slac.stanford.edu/econf/C210711/reports/Glossary.pdf
+* Axion: https://en.wikipedia.org/wiki/Axion
 * Boerhaave museum podcast "Grote Vragen": https://open.spotify.com/show/6wZoJ5pL4X06rOoe6YioQw}}
 |date = 2023-08-08
 |source = https://www.buzzsprout.com/2096278/13371426-de-donkere-sector
@@ -12008,7 +11995,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="AG37" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12062,16 +12049,16 @@
         <v>459</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>392</v>
@@ -12087,10 +12074,10 @@
         <v>300</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="W38" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12117,7 +12104,7 @@
         <v>534</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AE38" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12142,7 +12129,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="AG38" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12196,16 +12183,16 @@
         <v>459</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>393</v>
@@ -12221,10 +12208,10 @@
         <v>301</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="W39" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12251,7 +12238,7 @@
         <v>536</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AE39" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12278,7 +12265,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="AG39" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12332,16 +12319,16 @@
         <v>459</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>394</v>
@@ -12357,10 +12344,10 @@
         <v>302</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="W40" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12387,7 +12374,7 @@
         <v>538</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AE40" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12411,7 +12398,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="AG40" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12459,22 +12446,22 @@
         <v>456</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>460</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>395</v>
@@ -12490,10 +12477,10 @@
         <v>303</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="W41" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12520,7 +12507,7 @@
         <v>540</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AE41" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12547,7 +12534,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AG41" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12601,16 +12588,16 @@
         <v>460</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>396</v>
@@ -12626,10 +12613,10 @@
         <v>304</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="W42" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12656,7 +12643,7 @@
         <v>542</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AE42" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12680,7 +12667,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="AG42" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12722,7 +12709,7 @@
         <v>126</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>282</v>
@@ -12734,16 +12721,16 @@
         <v>460</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>397</v>
@@ -12759,10 +12746,10 @@
         <v>305</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="W43" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12789,7 +12776,7 @@
         <v>544</v>
       </c>
       <c r="AD43" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AE43" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12818,7 +12805,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="AG43" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12872,16 +12859,16 @@
         <v>460</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>398</v>
@@ -12897,10 +12884,10 @@
         <v>306</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="W44" s="16" t="str">
         <f t="shared" si="6"/>
@@ -12927,7 +12914,7 @@
         <v>546</v>
       </c>
       <c r="AD44" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AE44" s="5" t="str">
         <f t="shared" si="9"/>
@@ -12951,7 +12938,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF44" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="AG44" s="3" t="str">
         <f t="shared" si="10"/>
@@ -12999,22 +12986,22 @@
         <v>454</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>273</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>399</v>
@@ -13030,10 +13017,10 @@
         <v>307</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="W45" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13060,7 +13047,7 @@
         <v>548</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>707</v>
+        <v>1382</v>
       </c>
       <c r="AE45" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13070,10 +13057,10 @@
 |description={{nl|1= Alex Scholten en de meteoriet van Diepenveen - ''Zimmerman en Space'' - Seizoen 01, Aflevering 44 - 3 oktober 2023
 ;Shownotes
 150 jaar geleden viel een bijzondere meteoriet neer in de plaats Diepenveen. Alex Scholten van de Volkssterrenwacht Bussloo weet hier alles over! 
-* Volkssterrenwacht Bussloo: https://volkssterrenwachtbussloo.nl/_x000D_
-* Historische vereniging Diepenveen: https://www.historischeverenigingdiepenveen.nl/_x000D_
-* Dag van de meteoriet 27 oktober 2023: https://www.historischeverenigingdiepenveen.nl/programma.html_x000D_
-* KNVWS over symposium Diepenveen: https://www.knvws.nl/symposium/over-de-diepenveen/_x000D_
+* Volkssterrenwacht Bussloo: https://volkssterrenwachtbussloo.nl/
+* Historische vereniging Diepenveen: https://www.historischeverenigingdiepenveen.nl/
+* Dag van de meteoriet 27 oktober 2023: https://www.historischeverenigingdiepenveen.nl/programma.html
+* KNVWS over symposium Diepenveen: https://www.knvws.nl/symposium/over-de-diepenveen/
 * Delft Meteorite Lab (bekijk meteorieten in 3D): https://sketchfab.com/delftmeteoritelab}}
 |date = 2023-10-03
 |source = https://www.buzzsprout.com/2096278/13705806-alex-scholten-en-de-meteoriet-van-diepenveen
@@ -13086,7 +13073,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF45" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AG45" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13140,16 +13127,16 @@
         <v>273</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>400</v>
@@ -13165,10 +13152,10 @@
         <v>308</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="W46" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13195,7 +13182,7 @@
         <v>550</v>
       </c>
       <c r="AD46" s="5" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AE46" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13222,7 +13209,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF46" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="AG46" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13264,7 +13251,7 @@
         <v>137</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>280</v>
@@ -13276,16 +13263,16 @@
         <v>273</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>401</v>
@@ -13301,10 +13288,10 @@
         <v>309</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="W47" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13331,7 +13318,7 @@
         <v>664</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AE47" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13359,7 +13346,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF47" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="AG47" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13413,16 +13400,16 @@
         <v>273</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>402</v>
@@ -13438,10 +13425,10 @@
         <v>310</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="W48" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13468,7 +13455,7 @@
         <v>553</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AE48" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13495,7 +13482,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF48" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="AG48" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13549,16 +13536,16 @@
         <v>273</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>403</v>
@@ -13574,10 +13561,10 @@
         <v>311</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="W49" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13604,7 +13591,7 @@
         <v>555</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AE49" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13627,7 +13614,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="AG49" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13675,22 +13662,22 @@
         <v>457</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>274</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>404</v>
@@ -13706,10 +13693,10 @@
         <v>312</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="W50" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13736,7 +13723,7 @@
         <v>557</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AE50" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13760,7 +13747,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF50" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="AG50" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13814,16 +13801,16 @@
         <v>274</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>405</v>
@@ -13839,10 +13826,10 @@
         <v>313</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="W51" s="16" t="str">
         <f t="shared" si="6"/>
@@ -13869,7 +13856,7 @@
         <v>662</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="AE51" s="5" t="str">
         <f t="shared" si="9"/>
@@ -13904,7 +13891,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF51" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="AG51" s="3" t="str">
         <f t="shared" si="10"/>
@@ -13958,16 +13945,16 @@
         <v>274</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>406</v>
@@ -13983,10 +13970,10 @@
         <v>314</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="W52" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14013,7 +14000,7 @@
         <v>560</v>
       </c>
       <c r="AD52" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="AE52" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14042,7 +14029,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF52" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="AG52" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14096,16 +14083,16 @@
         <v>274</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>407</v>
@@ -14121,10 +14108,10 @@
         <v>315</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="W53" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14151,7 +14138,7 @@
         <v>562</v>
       </c>
       <c r="AD53" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="AE53" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14176,7 +14163,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF53" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="AG53" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14224,22 +14211,22 @@
         <v>456</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>275</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>408</v>
@@ -14255,10 +14242,10 @@
         <v>316</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="W54" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14285,7 +14272,7 @@
         <v>564</v>
       </c>
       <c r="AD54" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AE54" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14312,7 +14299,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF54" s="5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="AG54" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14366,16 +14353,16 @@
         <v>275</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>409</v>
@@ -14391,10 +14378,10 @@
         <v>317</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="W55" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14421,7 +14408,7 @@
         <v>566</v>
       </c>
       <c r="AD55" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AE55" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14447,7 +14434,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF55" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="AG55" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14501,16 +14488,16 @@
         <v>275</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>410</v>
@@ -14526,10 +14513,10 @@
         <v>318</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="W56" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14556,7 +14543,7 @@
         <v>568</v>
       </c>
       <c r="AD56" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AE56" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14583,7 +14570,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF56" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AG56" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14637,16 +14624,16 @@
         <v>275</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>411</v>
@@ -14662,10 +14649,10 @@
         <v>319</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="W57" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14692,7 +14679,7 @@
         <v>570</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AE57" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14720,7 +14707,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF57" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="AG57" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14768,22 +14755,22 @@
         <v>452</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>452</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>412</v>
@@ -14799,10 +14786,10 @@
         <v>320</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="W58" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14829,7 +14816,7 @@
         <v>572</v>
       </c>
       <c r="AD58" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AE58" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14859,7 +14846,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AG58" s="3" t="str">
         <f t="shared" si="10"/>
@@ -14907,22 +14894,22 @@
         <v>460</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>452</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>413</v>
@@ -14938,10 +14925,10 @@
         <v>321</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="W59" s="16" t="str">
         <f t="shared" si="6"/>
@@ -14968,7 +14955,7 @@
         <v>574</v>
       </c>
       <c r="AD59" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AE59" s="5" t="str">
         <f t="shared" si="9"/>
@@ -14997,7 +14984,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF59" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="AG59" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15051,16 +15038,16 @@
         <v>452</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>414</v>
@@ -15076,10 +15063,10 @@
         <v>322</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="W60" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15106,7 +15093,7 @@
         <v>576</v>
       </c>
       <c r="AD60" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AE60" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15131,7 +15118,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF60" s="5" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="AG60" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15185,16 +15172,16 @@
         <v>452</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>415</v>
@@ -15210,10 +15197,10 @@
         <v>323</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="W61" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15240,7 +15227,7 @@
         <v>578</v>
       </c>
       <c r="AD61" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AE61" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15265,7 +15252,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF61" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="AG61" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15319,16 +15306,16 @@
         <v>452</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>416</v>
@@ -15344,10 +15331,10 @@
         <v>324</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="W62" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15374,7 +15361,7 @@
         <v>660</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AE62" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15399,7 +15386,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF62" s="5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AG62" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15447,22 +15434,22 @@
         <v>457</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>453</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>417</v>
@@ -15478,10 +15465,10 @@
         <v>325</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="W63" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15508,7 +15495,7 @@
         <v>581</v>
       </c>
       <c r="AD63" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AE63" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15542,7 +15529,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF63" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="AG63" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15596,16 +15583,16 @@
         <v>453</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>418</v>
@@ -15621,10 +15608,10 @@
         <v>326</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="W64" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15651,7 +15638,7 @@
         <v>583</v>
       </c>
       <c r="AD64" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AE64" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15680,7 +15667,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF64" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="AG64" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15734,16 +15721,16 @@
         <v>453</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>419</v>
@@ -15759,10 +15746,10 @@
         <v>327</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="W65" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15789,7 +15776,7 @@
         <v>585</v>
       </c>
       <c r="AD65" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AE65" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15819,7 +15806,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF65" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AG65" s="3" t="str">
         <f t="shared" si="10"/>
@@ -15873,16 +15860,16 @@
         <v>453</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>420</v>
@@ -15898,10 +15885,10 @@
         <v>328</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="W66" s="16" t="str">
         <f t="shared" si="6"/>
@@ -15928,7 +15915,7 @@
         <v>587</v>
       </c>
       <c r="AD66" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AE66" s="5" t="str">
         <f t="shared" si="9"/>
@@ -15955,7 +15942,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF66" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AG66" s="3" t="str">
         <f t="shared" si="10"/>
@@ -16003,22 +15990,22 @@
         <v>456</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>454</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="Q67" s="3" t="s">
         <v>421</v>
@@ -16034,10 +16021,10 @@
         <v>329</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="W67" s="16" t="str">
         <f t="shared" ref="W67:W93" si="24">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/File:",V67),"Klik")</f>
@@ -16098,7 +16085,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF67" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AG67" s="3" t="str">
         <f t="shared" ref="AG67:AG93" si="28">_xlfn.CONCAT(H67," - Zimmerman en Space - Season ",S67,", Episode ",T67," - ",Q67)</f>
@@ -16152,16 +16139,16 @@
         <v>454</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>422</v>
@@ -16177,10 +16164,10 @@
         <v>330</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="W68" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16207,7 +16194,7 @@
         <v>590</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AE68" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16238,7 +16225,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF68" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AG68" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16292,16 +16279,16 @@
         <v>454</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>423</v>
@@ -16317,10 +16304,10 @@
         <v>331</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="W69" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16347,7 +16334,7 @@
         <v>592</v>
       </c>
       <c r="AD69" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AE69" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16378,7 +16365,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF69" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AG69" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16420,7 +16407,7 @@
         <v>204</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>287</v>
@@ -16432,16 +16419,16 @@
         <v>454</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>424</v>
@@ -16457,10 +16444,10 @@
         <v>332</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="W70" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16487,7 +16474,7 @@
         <v>594</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AE70" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16513,7 +16500,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AG70" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16567,16 +16554,16 @@
         <v>454</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>425</v>
@@ -16592,10 +16579,10 @@
         <v>333</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="W71" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16622,7 +16609,7 @@
         <v>596</v>
       </c>
       <c r="AD71" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AE71" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16651,7 +16638,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF71" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AG71" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16699,22 +16686,22 @@
         <v>459</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>455</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>426</v>
@@ -16730,10 +16717,10 @@
         <v>334</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="W72" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16760,7 +16747,7 @@
         <v>598</v>
       </c>
       <c r="AD72" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AE72" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16790,7 +16777,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF72" s="5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AG72" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16844,16 +16831,16 @@
         <v>455</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>427</v>
@@ -16869,10 +16856,10 @@
         <v>335</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="W73" s="16" t="str">
         <f t="shared" si="24"/>
@@ -16899,7 +16886,7 @@
         <v>600</v>
       </c>
       <c r="AD73" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AE73" s="5" t="str">
         <f t="shared" si="27"/>
@@ -16926,7 +16913,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF73" s="5" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AG73" s="3" t="str">
         <f t="shared" si="28"/>
@@ -16980,16 +16967,16 @@
         <v>455</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>428</v>
@@ -17005,10 +16992,10 @@
         <v>336</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="W74" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17035,7 +17022,7 @@
         <v>602</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AE74" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17064,7 +17051,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF74" s="5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AG74" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17118,16 +17105,16 @@
         <v>455</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>429</v>
@@ -17143,10 +17130,10 @@
         <v>337</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="W75" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17173,7 +17160,7 @@
         <v>604</v>
       </c>
       <c r="AD75" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AE75" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17205,7 +17192,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF75" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="AG75" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17253,22 +17240,22 @@
         <v>456</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>456</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>430</v>
@@ -17284,10 +17271,10 @@
         <v>338</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="W76" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17314,7 +17301,7 @@
         <v>606</v>
       </c>
       <c r="AD76" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AE76" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17351,7 +17338,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="AG76" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17405,16 +17392,16 @@
         <v>456</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>431</v>
@@ -17430,10 +17417,10 @@
         <v>339</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="W77" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17460,7 +17447,7 @@
         <v>608</v>
       </c>
       <c r="AD77" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AE77" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17486,7 +17473,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF77" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="AG77" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17540,16 +17527,16 @@
         <v>456</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>432</v>
@@ -17565,10 +17552,10 @@
         <v>340</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="W78" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17617,7 +17604,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AG78" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17671,16 +17658,16 @@
         <v>456</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>433</v>
@@ -17696,10 +17683,10 @@
         <v>341</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="W79" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17726,7 +17713,7 @@
         <v>612</v>
       </c>
       <c r="AD79" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AE79" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17753,7 +17740,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF79" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AG79" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17801,22 +17788,22 @@
         <v>454</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>457</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>434</v>
@@ -17832,10 +17819,10 @@
         <v>342</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="W80" s="16" t="str">
         <f t="shared" si="24"/>
@@ -17862,7 +17849,7 @@
         <v>614</v>
       </c>
       <c r="AD80" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AE80" s="5" t="str">
         <f t="shared" si="27"/>
@@ -17893,7 +17880,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF80" s="5" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="AG80" s="3" t="str">
         <f t="shared" si="28"/>
@@ -17947,16 +17934,16 @@
         <v>457</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>435</v>
@@ -17972,10 +17959,10 @@
         <v>343</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="W81" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18002,7 +17989,7 @@
         <v>616</v>
       </c>
       <c r="AD81" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AE81" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18032,7 +18019,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF81" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="AG81" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18086,16 +18073,16 @@
         <v>457</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>436</v>
@@ -18111,10 +18098,10 @@
         <v>344</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="W82" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18141,7 +18128,7 @@
         <v>618</v>
       </c>
       <c r="AD82" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AE82" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18172,7 +18159,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF82" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AG82" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18226,16 +18213,16 @@
         <v>457</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>437</v>
@@ -18251,10 +18238,10 @@
         <v>345</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="W83" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18281,7 +18268,7 @@
         <v>620</v>
       </c>
       <c r="AD83" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AE83" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18305,7 +18292,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="AG83" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18353,22 +18340,22 @@
         <v>452</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>458</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P84" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="Q84" s="3" t="s">
         <v>438</v>
@@ -18384,10 +18371,10 @@
         <v>346</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="W84" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18414,7 +18401,7 @@
         <v>622</v>
       </c>
       <c r="AD84" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AE84" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18439,7 +18426,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF84" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="AG84" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18487,22 +18474,22 @@
         <v>458</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>458</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="Q85" s="3" t="s">
         <v>439</v>
@@ -18518,10 +18505,10 @@
         <v>347</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="W85" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18548,7 +18535,7 @@
         <v>624</v>
       </c>
       <c r="AD85" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AE85" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18578,7 +18565,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF85" s="5" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AG85" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18632,16 +18619,16 @@
         <v>458</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>440</v>
@@ -18657,10 +18644,10 @@
         <v>348</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="W86" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18687,7 +18674,7 @@
         <v>626</v>
       </c>
       <c r="AD86" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AE86" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18715,7 +18702,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF86" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="AG86" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18769,16 +18756,16 @@
         <v>458</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>441</v>
@@ -18794,10 +18781,10 @@
         <v>349</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="W87" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18824,7 +18811,7 @@
         <v>628</v>
       </c>
       <c r="AD87" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AE87" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18849,7 +18836,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF87" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AG87" s="3" t="str">
         <f t="shared" si="28"/>
@@ -18903,16 +18890,16 @@
         <v>458</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>442</v>
@@ -18928,10 +18915,10 @@
         <v>350</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="W88" s="16" t="str">
         <f t="shared" si="24"/>
@@ -18958,7 +18945,7 @@
         <v>630</v>
       </c>
       <c r="AD88" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="AE88" s="5" t="str">
         <f t="shared" si="27"/>
@@ -18988,7 +18975,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF88" s="5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AG88" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19036,22 +19023,22 @@
         <v>455</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>459</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>443</v>
@@ -19067,10 +19054,10 @@
         <v>351</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="W89" s="16" t="str">
         <f t="shared" si="24"/>
@@ -19097,7 +19084,7 @@
         <v>632</v>
       </c>
       <c r="AD89" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AE89" s="5" t="str">
         <f t="shared" si="27"/>
@@ -19126,7 +19113,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF89" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="AG89" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19168,7 +19155,7 @@
         <v>263</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>275</v>
@@ -19180,16 +19167,16 @@
         <v>459</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>444</v>
@@ -19205,10 +19192,10 @@
         <v>352</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="W90" s="16" t="str">
         <f t="shared" si="24"/>
@@ -19235,7 +19222,7 @@
         <v>657</v>
       </c>
       <c r="AD90" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AE90" s="5" t="str">
         <f t="shared" si="27"/>
@@ -19260,7 +19247,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF90" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AG90" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19314,16 +19301,16 @@
         <v>459</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>445</v>
@@ -19339,10 +19326,10 @@
         <v>353</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="W91" s="16" t="str">
         <f t="shared" si="24"/>
@@ -19369,7 +19356,7 @@
         <v>635</v>
       </c>
       <c r="AD91" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AE91" s="5" t="str">
         <f t="shared" si="27"/>
@@ -19397,7 +19384,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF91" s="5" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AG91" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19451,16 +19438,16 @@
         <v>459</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P92" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>446</v>
@@ -19476,10 +19463,10 @@
         <v>354</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="W92" s="16" t="str">
         <f t="shared" si="24"/>
@@ -19506,7 +19493,7 @@
         <v>637</v>
       </c>
       <c r="AD92" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AE92" s="5" t="str">
         <f t="shared" si="27"/>
@@ -19539,7 +19526,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF92" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="AG92" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19587,22 +19574,22 @@
         <v>453</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>460</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P93" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="Q93" s="3" t="s">
         <v>447</v>
@@ -19618,10 +19605,10 @@
         <v>355</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="W93" s="16" t="str">
         <f t="shared" si="24"/>
@@ -19648,7 +19635,7 @@
         <v>656</v>
       </c>
       <c r="AD93" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AE93" s="5" t="str">
         <f t="shared" si="27"/>
@@ -19677,7 +19664,7 @@
 [[Category:Zimmerman en Space podcast]]</v>
       </c>
       <c r="AF93" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AG93" s="3" t="str">
         <f t="shared" si="28"/>
@@ -19729,48 +19716,48 @@
   <sheetData>
     <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>1097</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>1100</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="14">
         <v>2022</v>
@@ -19782,7 +19769,7 @@
         <v>460</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="I2" s="14" t="str">
         <f t="shared" ref="I2:I33" si="0">_xlfn.CONCAT(A2,B2," - ",C2," - ",D2," - ",E2,"-",F2,"-",G2," - ",H2)</f>
@@ -19799,16 +19786,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E3" s="14">
         <v>2022</v>
@@ -19820,7 +19807,7 @@
         <v>277</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="I3" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19837,16 +19824,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E4" s="14">
         <v>2022</v>
@@ -19858,7 +19845,7 @@
         <v>283</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="I4" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19875,16 +19862,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E5" s="14">
         <v>2022</v>
@@ -19896,7 +19883,7 @@
         <v>290</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19913,16 +19900,16 @@
     </row>
     <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E6" s="25">
         <v>2023</v>
@@ -19934,7 +19921,7 @@
         <v>454</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -19951,16 +19938,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="14">
         <v>2023</v>
@@ -19972,7 +19959,7 @@
         <v>273</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="I7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -19989,16 +19976,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E8" s="14">
         <v>2023</v>
@@ -20010,7 +19997,7 @@
         <v>281</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="I8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20027,16 +20014,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E9" s="14">
         <v>2023</v>
@@ -20048,7 +20035,7 @@
         <v>287</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20065,16 +20052,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="E10" s="14">
         <v>2023</v>
@@ -20086,7 +20073,7 @@
         <v>294</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="I10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20103,16 +20090,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E11" s="14">
         <v>2023</v>
@@ -20124,7 +20111,7 @@
         <v>458</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="I11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20141,16 +20128,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E12" s="14">
         <v>2023</v>
@@ -20162,7 +20149,7 @@
         <v>277</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="I12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20179,16 +20166,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E13" s="14">
         <v>2023</v>
@@ -20200,7 +20187,7 @@
         <v>285</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20217,16 +20204,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E14" s="14">
         <v>2023</v>
@@ -20238,7 +20225,7 @@
         <v>291</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="I14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20255,16 +20242,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E15" s="22">
         <v>2023</v>
@@ -20276,7 +20263,7 @@
         <v>458</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -20293,16 +20280,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E16" s="14">
         <v>2023</v>
@@ -20314,7 +20301,7 @@
         <v>277</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="I16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20331,16 +20318,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E17" s="14">
         <v>2023</v>
@@ -20352,7 +20339,7 @@
         <v>284</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20369,16 +20356,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E18" s="14">
         <v>2023</v>
@@ -20390,7 +20377,7 @@
         <v>291</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20407,16 +20394,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E19" s="14">
         <v>2023</v>
@@ -20428,7 +20415,7 @@
         <v>455</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="I19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20445,16 +20432,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E20" s="14">
         <v>2023</v>
@@ -20466,7 +20453,7 @@
         <v>274</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20483,16 +20470,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E21" s="14">
         <v>2023</v>
@@ -20504,7 +20491,7 @@
         <v>281</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="I21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20521,16 +20508,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E22" s="14">
         <v>2023</v>
@@ -20542,7 +20529,7 @@
         <v>289</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="I22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20559,16 +20546,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E23" s="14">
         <v>2023</v>
@@ -20580,7 +20567,7 @@
         <v>453</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="I23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20597,16 +20584,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E24" s="14">
         <v>2023</v>
@@ -20618,7 +20605,7 @@
         <v>460</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20635,16 +20622,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E25" s="14">
         <v>2023</v>
@@ -20656,7 +20643,7 @@
         <v>278</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="I25" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20673,16 +20660,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E26" s="14">
         <v>2023</v>
@@ -20694,7 +20681,7 @@
         <v>286</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="I26" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20711,16 +20698,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E27" s="14">
         <v>2023</v>
@@ -20732,7 +20719,7 @@
         <v>293</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="I27" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20749,16 +20736,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E28" s="14">
         <v>2023</v>
@@ -20770,7 +20757,7 @@
         <v>457</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="I28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20787,16 +20774,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E29" s="14">
         <v>2023</v>
@@ -20808,7 +20795,7 @@
         <v>276</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I29" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20825,16 +20812,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E30" s="14">
         <v>2023</v>
@@ -20846,7 +20833,7 @@
         <v>283</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I30" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20863,16 +20850,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E31" s="14">
         <v>2023</v>
@@ -20884,7 +20871,7 @@
         <v>291</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="I31" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20901,16 +20888,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E32" s="14">
         <v>2023</v>
@@ -20922,7 +20909,7 @@
         <v>456</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I32" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20939,16 +20926,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E33" s="14">
         <v>2023</v>
@@ -20960,7 +20947,7 @@
         <v>275</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I33" s="14" t="str">
         <f t="shared" si="0"/>
@@ -20977,16 +20964,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E34" s="14">
         <v>2023</v>
@@ -20998,7 +20985,7 @@
         <v>281</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="I34" s="14" t="str">
         <f t="shared" ref="I34:I65" si="3">_xlfn.CONCAT(A34,B34," - ",C34," - ",D34," - ",E34,"-",F34,"-",G34," - ",H34)</f>
@@ -21015,16 +21002,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E35" s="14">
         <v>2023</v>
@@ -21036,7 +21023,7 @@
         <v>288</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="I35" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21053,16 +21040,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E36" s="14">
         <v>2023</v>
@@ -21074,7 +21061,7 @@
         <v>452</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I36" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21091,16 +21078,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E37" s="14">
         <v>2023</v>
@@ -21112,7 +21099,7 @@
         <v>459</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="I37" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21129,16 +21116,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="E38" s="14">
         <v>2023</v>
@@ -21150,7 +21137,7 @@
         <v>279</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="I38" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21167,16 +21154,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="E39" s="14">
         <v>2023</v>
@@ -21188,7 +21175,7 @@
         <v>285</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I39" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21205,16 +21192,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E40" s="14">
         <v>2023</v>
@@ -21226,7 +21213,7 @@
         <v>292</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="I40" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21243,16 +21230,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E41" s="14">
         <v>2023</v>
@@ -21264,7 +21251,7 @@
         <v>456</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="I41" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21281,16 +21268,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E42" s="14">
         <v>2023</v>
@@ -21302,7 +21289,7 @@
         <v>274</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I42" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21319,16 +21306,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>1192</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>1195</v>
-      </c>
       <c r="D43" s="14" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E43" s="14">
         <v>2023</v>
@@ -21340,7 +21327,7 @@
         <v>282</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I43" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21357,16 +21344,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E44" s="14">
         <v>2023</v>
@@ -21378,7 +21365,7 @@
         <v>289</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="I44" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21395,16 +21382,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E45" s="14">
         <v>2023</v>
@@ -21416,7 +21403,7 @@
         <v>454</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I45" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21433,16 +21420,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E46" s="14">
         <v>2023</v>
@@ -21454,7 +21441,7 @@
         <v>273</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I46" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21471,16 +21458,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E47" s="14">
         <v>2023</v>
@@ -21492,7 +21479,7 @@
         <v>280</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="I47" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21509,16 +21496,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E48" s="14">
         <v>2023</v>
@@ -21530,7 +21517,7 @@
         <v>287</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="I48" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21547,16 +21534,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>143</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E49" s="14">
         <v>2023</v>
@@ -21568,7 +21555,7 @@
         <v>294</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I49" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21585,16 +21572,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E50" s="14">
         <v>2023</v>
@@ -21606,7 +21593,7 @@
         <v>457</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="I50" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21623,16 +21610,16 @@
     </row>
     <row r="51" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E51" s="14">
         <v>2023</v>
@@ -21644,7 +21631,7 @@
         <v>276</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="I51" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21661,16 +21648,16 @@
     </row>
     <row r="52" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E52" s="22">
         <v>2023</v>
@@ -21682,7 +21669,7 @@
         <v>284</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I52" s="22" t="str">
         <f t="shared" si="3"/>
@@ -21699,16 +21686,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E53" s="14">
         <v>2023</v>
@@ -21720,7 +21707,7 @@
         <v>292</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="I53" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21737,16 +21724,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>157</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E54" s="14">
         <v>2023</v>
@@ -21758,7 +21745,7 @@
         <v>456</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I54" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21775,16 +21762,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>160</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E55" s="14">
         <v>2023</v>
@@ -21796,7 +21783,7 @@
         <v>275</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I55" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21813,16 +21800,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E56" s="14">
         <v>2023</v>
@@ -21834,7 +21821,7 @@
         <v>283</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="I56" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21851,16 +21838,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E57" s="14">
         <v>2023</v>
@@ -21872,7 +21859,7 @@
         <v>287</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="I57" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21889,16 +21876,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>169</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E58" s="14">
         <v>2024</v>
@@ -21910,7 +21897,7 @@
         <v>452</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="I58" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21927,16 +21914,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E59" s="14">
         <v>2024</v>
@@ -21948,7 +21935,7 @@
         <v>460</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="I59" s="14" t="str">
         <f t="shared" si="3"/>
@@ -21965,16 +21952,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>175</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E60" s="14">
         <v>2024</v>
@@ -21986,7 +21973,7 @@
         <v>278</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="I60" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22003,16 +21990,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E61" s="14">
         <v>2024</v>
@@ -22024,7 +22011,7 @@
         <v>286</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="I61" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22041,16 +22028,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>180</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E62" s="14">
         <v>2024</v>
@@ -22062,7 +22049,7 @@
         <v>293</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="I62" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22079,16 +22066,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>183</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E63" s="14">
         <v>2024</v>
@@ -22100,7 +22087,7 @@
         <v>457</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="I63" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22117,16 +22104,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>186</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E64" s="14">
         <v>2024</v>
@@ -22138,7 +22125,7 @@
         <v>276</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="I64" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22155,16 +22142,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E65" s="14">
         <v>2024</v>
@@ -22176,7 +22163,7 @@
         <v>283</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="I65" s="14" t="str">
         <f t="shared" si="3"/>
@@ -22193,16 +22180,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>192</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="E66" s="14">
         <v>2024</v>
@@ -22214,14 +22201,14 @@
         <v>290</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I66" s="14" t="str">
-        <f t="shared" ref="I66:I97" si="6">_xlfn.CONCAT(A66,B66," - ",C66," - ",D66," - ",E66,"-",F66,"-",G66," - ",H66)</f>
+        <f t="shared" ref="I66:I93" si="6">_xlfn.CONCAT(A66,B66," - ",C66," - ",D66," - ",E66,"-",F66,"-",G66," - ",H66)</f>
         <v>File:Varda's W1 ruimtevaartuig -  Zimmerman en Space - S01E65 - 2024-02-27 - 14584962.oga</v>
       </c>
       <c r="J66" s="13" t="str">
-        <f t="shared" ref="J66:J97" si="7">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I66),"Klik")</f>
+        <f t="shared" ref="J66:J93" si="7">HYPERLINK(_xlfn.CONCAT("https://commons.wikimedia.org/wiki/",I66),"Klik")</f>
         <v>Klik</v>
       </c>
       <c r="K66" s="14" t="str">
@@ -22231,16 +22218,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>195</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E67" s="14">
         <v>2024</v>
@@ -22252,7 +22239,7 @@
         <v>456</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="I67" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22269,16 +22256,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>198</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E68" s="14">
         <v>2024</v>
@@ -22290,7 +22277,7 @@
         <v>274</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="I68" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22307,16 +22294,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>201</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="E69" s="14">
         <v>2024</v>
@@ -22328,7 +22315,7 @@
         <v>280</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="I69" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22345,16 +22332,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E70" s="14">
         <v>2024</v>
@@ -22366,7 +22353,7 @@
         <v>287</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="I70" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22383,16 +22370,16 @@
     </row>
     <row r="71" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E71" s="14">
         <v>2024</v>
@@ -22404,7 +22391,7 @@
         <v>294</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="I71" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22421,16 +22408,16 @@
     </row>
     <row r="72" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="E72" s="22">
         <v>2024</v>
@@ -22442,7 +22429,7 @@
         <v>459</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="I72" s="22" t="str">
         <f t="shared" si="6"/>
@@ -22459,16 +22446,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>213</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="E73" s="14">
         <v>2024</v>
@@ -22480,7 +22467,7 @@
         <v>279</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I73" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22497,16 +22484,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>216</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="E74" s="14">
         <v>2024</v>
@@ -22518,7 +22505,7 @@
         <v>286</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="I74" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22535,16 +22522,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>219</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="E75" s="14">
         <v>2024</v>
@@ -22556,7 +22543,7 @@
         <v>291</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="I75" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22573,16 +22560,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E76" s="14">
         <v>2024</v>
@@ -22594,7 +22581,7 @@
         <v>456</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="I76" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22611,16 +22598,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>225</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E77" s="14">
         <v>2024</v>
@@ -22632,7 +22619,7 @@
         <v>275</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="I77" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22649,16 +22636,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>228</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E78" s="14">
         <v>2024</v>
@@ -22670,7 +22657,7 @@
         <v>281</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="I78" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22687,16 +22674,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>231</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E79" s="14">
         <v>2024</v>
@@ -22708,7 +22695,7 @@
         <v>290</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="I79" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22725,16 +22712,16 @@
     </row>
     <row r="80" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>234</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E80" s="14">
         <v>2024</v>
@@ -22746,7 +22733,7 @@
         <v>454</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="I80" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22763,16 +22750,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E81" s="14">
         <v>2024</v>
@@ -22784,7 +22771,7 @@
         <v>274</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="I81" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22801,16 +22788,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E82" s="14">
         <v>2024</v>
@@ -22822,7 +22809,7 @@
         <v>280</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="I82" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22839,16 +22826,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E83" s="14">
         <v>2024</v>
@@ -22860,7 +22847,7 @@
         <v>287</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="I83" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22877,16 +22864,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>246</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E84" s="14">
         <v>2024</v>
@@ -22898,7 +22885,7 @@
         <v>452</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I84" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22915,16 +22902,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>249</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E85" s="14">
         <v>2024</v>
@@ -22936,7 +22923,7 @@
         <v>458</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="I85" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22953,16 +22940,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>252</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E86" s="14">
         <v>2024</v>
@@ -22974,7 +22961,7 @@
         <v>277</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="I86" s="14" t="str">
         <f t="shared" si="6"/>
@@ -22991,16 +22978,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>255</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E87" s="14">
         <v>2024</v>
@@ -23012,7 +22999,7 @@
         <v>284</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I87" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23029,16 +23016,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>258</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E88" s="14">
         <v>2024</v>
@@ -23050,7 +23037,7 @@
         <v>291</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I88" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23067,16 +23054,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>261</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E89" s="14">
         <v>2024</v>
@@ -23088,7 +23075,7 @@
         <v>455</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I89" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23105,16 +23092,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E90" s="14">
         <v>2024</v>
@@ -23126,7 +23113,7 @@
         <v>275</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I90" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23143,16 +23130,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>266</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E91" s="14">
         <v>2024</v>
@@ -23164,7 +23151,7 @@
         <v>282</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="I91" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23181,16 +23168,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>269</v>
       </c>
       <c r="C92" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>1195</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>1198</v>
       </c>
       <c r="E92" s="14">
         <v>2024</v>
@@ -23202,7 +23189,7 @@
         <v>289</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I92" s="14" t="str">
         <f t="shared" si="6"/>
@@ -23219,16 +23206,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>272</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E93" s="14">
         <v>2024</v>
@@ -23240,7 +23227,7 @@
         <v>453</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I93" s="14" t="str">
         <f t="shared" si="6"/>
